--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Solidity" sheetId="5" r:id="rId5"/>
     <sheet name="Git" sheetId="6" r:id="rId6"/>
     <sheet name="Comparators" sheetId="7" r:id="rId7"/>
+    <sheet name="OOP" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -25,7 +26,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="230">
   <si>
     <t>Операция</t>
   </si>
@@ -1840,17 +1841,116 @@
   <si>
     <t>Проверка за по-голям елемент</t>
   </si>
+  <si>
+    <t>Принцип</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Process of wrapping code and  data together into a single unit
+- Flexibility and extensibility of the code
+- Reduces complexity
+- Structural changes remain local
+- Allows validation and data binding</t>
+  </si>
+  <si>
+    <t>=&gt; Fields should be private
+=&gt;Properties should be public</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encapsulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(Hiding Implementation)
+(Access Modifiers)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Encapsulation:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     - Hides implementation
+     - Reduces complexity
+     - Ensures that structural changes  remain local
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mutable and Immutable objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2288,36 +2388,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2332,101 +2432,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2531,7 +2649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2566,7 +2684,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5374,7 +5492,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -5394,7 +5512,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
@@ -5462,10 +5580,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
@@ -5620,7 +5738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5632,21 +5750,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="50" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="46" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -5657,4 +5775,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" style="52" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="232">
   <si>
     <t>Операция</t>
   </si>
@@ -1883,6 +1883,26 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Polymorphism
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Abstract Classes, Abstract Methods, Override Methods)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ability of an object to take on many forms</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1919,17 +1939,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Mutable and Immutable objects</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
 </sst>
@@ -2388,7 +2397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2516,6 +2525,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2528,23 +2543,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5492,7 +5504,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -5512,7 +5524,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
@@ -5580,10 +5592,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
@@ -5779,37 +5791,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="52" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23" style="48" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>229</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Git" sheetId="6" r:id="rId6"/>
     <sheet name="Comparators" sheetId="7" r:id="rId7"/>
     <sheet name="OOP" sheetId="8" r:id="rId8"/>
+    <sheet name="Reflection" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -26,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="262">
   <si>
     <t>Операция</t>
   </si>
@@ -2055,17 +2056,55 @@
     <t>Fields and constants can't be defined. 
 If we add a new method we have to track down all the implementations of the interface and define implementation for the new method</t>
   </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Activator</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Assembly assembly = Assembly.GetCallingAssembly();</t>
+  </si>
+  <si>
+    <t>Type[] types = assembly
+                .GetTypes();
+Type typeToCreate = types
+                .FirstOrDefault(t =&gt; t.Name == commandName);</t>
+  </si>
+  <si>
+    <t>Object instance = (ICommand)Activator
+                .CreateInstance(typeToCreate);
+ICommand command = (ICommand)instance;
+string result = command.Execute(commandArgs);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2526,36 +2565,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2570,97 +2609,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2672,24 +2711,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2793,7 +2833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2828,7 +2868,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5636,7 +5676,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -5656,7 +5696,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
@@ -5724,10 +5764,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
@@ -5925,7 +5965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5992,7 +6032,7 @@
       <c r="C5" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="54" t="s">
         <v>231</v>
       </c>
       <c r="E5" s="42" t="s">
@@ -6013,7 +6053,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="53" t="s">
         <v>232</v>
       </c>
       <c r="B8" s="51" t="s">
@@ -6056,4 +6096,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B2" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Comparators" sheetId="7" r:id="rId7"/>
     <sheet name="OOP" sheetId="8" r:id="rId8"/>
     <sheet name="Reflection" sheetId="9" r:id="rId9"/>
+    <sheet name="UnitTesting" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -27,7 +28,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="263">
   <si>
     <t>Операция</t>
   </si>
@@ -2086,17 +2087,28 @@
 ICommand command = (ICommand)instance;
 string result = command.Execute(commandArgs);</t>
   </si>
+  <si>
+    <t>https://www.automatetheplanet.com/nunit-cheat-sheet/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2317,6 +2329,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2562,39 +2582,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2609,97 +2630,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2711,27 +2732,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2790,6 +2813,52 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>195</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2833,7 +2902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2868,7 +2937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5211,6 +5280,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="AcroExch.Document.DC" shapeId="3073" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>195</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="AcroExch.Document.DC" shapeId="3073" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
@@ -5676,7 +5801,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -5696,7 +5821,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
@@ -5764,10 +5889,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
@@ -6102,7 +6227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6121,8 +6246,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
         <v>255</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -6130,7 +6255,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>256</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -6138,7 +6263,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="55" t="s">
         <v>257</v>
       </c>
       <c r="C4" s="11" t="s">

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="OOP" sheetId="8" r:id="rId8"/>
     <sheet name="Reflection" sheetId="9" r:id="rId9"/>
     <sheet name="UnitTesting" sheetId="10" r:id="rId10"/>
+    <sheet name="Exceptions" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +29,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="265">
   <si>
     <t>Операция</t>
   </si>
@@ -2090,11 +2091,17 @@
   <si>
     <t>https://www.automatetheplanet.com/nunit-cheat-sheet/</t>
   </si>
+  <si>
+    <t>throw new ArgumentException(string.Format("MotorcycleExists!", model));</t>
+  </si>
+  <si>
+    <t>throw new ArgumentException("MotorcycleExists!");</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2739,6 +2746,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2751,7 +2759,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2841,7 +2848,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2849,6 +2856,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2902,7 +2920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2937,7 +2955,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5284,7 +5302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -5294,7 +5312,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5336,6 +5354,35 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
@@ -5801,7 +5848,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -5821,7 +5868,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
@@ -5889,10 +5936,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="270">
   <si>
     <t>Операция</t>
   </si>
@@ -1848,9 +1848,6 @@
     <t>Проверка за по-голям елемент</t>
   </si>
   <si>
-    <t>Принцип</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Process of wrapping code and  data together into a single unit
 - Flexibility and extensibility of the code
 - Reduces complexity
@@ -2009,11 +2006,6 @@
   </si>
   <si>
     <t>Abstraction</t>
-  </si>
-  <si>
-    <t>Preserving information that is relevant in a given
-context, and forgetting information that is
-irrelevant in that context</t>
   </si>
   <si>
     <t>Process of hiding the
@@ -2036,10 +2028,6 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>An interface contains only the signatures of methods,
-properties, events or indexers</t>
-  </si>
-  <si>
     <t>A class may implement
 several interfaces
 Cannot have access
@@ -2097,11 +2085,41 @@
   <si>
     <t>throw new ArgumentException("MotorcycleExists!");</t>
   </si>
+  <si>
+    <t>An interface contains only the signatures of methods,
+properties, events or indexers.
+Интерфейса описва функциалността на  конкретен обект.Като класовете имплементиращи интерфейса могат да бъдат ползвани чрез общите им свойства.</t>
+  </si>
+  <si>
+    <t>Preserving information that is relevant in a given
+context, and forgetting information that is
+irrelevant in that context.
+Абстрактните класове декларират общата функционалност на група от подобни обекти които имплементират тази функционалност по различен начин.
+Абстракция е моделиране на проблема който решаваме</t>
+  </si>
+  <si>
+    <t>Принципи на ООП</t>
+  </si>
+  <si>
+    <t>Inheritance, Encapsulation , Abstraction,Polymorphism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Контструктори</t>
+  </si>
+  <si>
+    <t>Абстрактни и виртуални методи</t>
+  </si>
+  <si>
+    <t>Първо се вика базовия конструктор и след това конструктора на наследника</t>
+  </si>
+  <si>
+    <t>Първо се вика наследника и след това базовия метод. Виртуални и абстрактни методи не се викат в конструктор</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2727,9 +2745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2742,11 +2757,14 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2848,7 +2866,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2856,17 +2874,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2920,7 +2927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2955,7 +2962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5312,8 +5319,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>262</v>
+      <c r="A1" s="55" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5358,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5369,12 +5376,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6135,133 +6142,157 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="49" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>225</v>
-      </c>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="51" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="B6" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="D6" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="54" t="s">
+      <c r="B9" s="50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="B11" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="51" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B12" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="51" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="B13" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="51" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="B14" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="51" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B15" s="50" t="s">
         <v>240</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6287,34 +6318,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -2104,9 +2104,6 @@
     <t>Inheritance, Encapsulation , Abstraction,Polymorphism</t>
   </si>
   <si>
-    <t xml:space="preserve">  Контструктори</t>
-  </si>
-  <si>
     <t>Абстрактни и виртуални методи</t>
   </si>
   <si>
@@ -2114,6 +2111,9 @@
   </si>
   <si>
     <t>Първо се вика наследника и след това базовия метод. Виртуални и абстрактни методи не се викат в конструктор</t>
+  </si>
+  <si>
+    <t>Базови Контструктори</t>
   </si>
 </sst>
 </file>
@@ -5309,7 +5309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -6145,8 +6145,8 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6164,18 +6164,18 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
-    <sheet name="Regex" sheetId="2" r:id="rId2"/>
-    <sheet name="ShortCuts" sheetId="3" r:id="rId3"/>
+    <sheet name="DB-SQL" sheetId="11" r:id="rId2"/>
+    <sheet name="Regex" sheetId="2" r:id="rId3"/>
     <sheet name="DB" sheetId="4" r:id="rId4"/>
     <sheet name="Solidity" sheetId="5" r:id="rId5"/>
     <sheet name="Git" sheetId="6" r:id="rId6"/>
     <sheet name="Comparators" sheetId="7" r:id="rId7"/>
-    <sheet name="OOP" sheetId="8" r:id="rId8"/>
-    <sheet name="SOLID" sheetId="12" r:id="rId9"/>
-    <sheet name="Reflection" sheetId="9" r:id="rId10"/>
-    <sheet name="UnitTesting" sheetId="10" r:id="rId11"/>
-    <sheet name="Exceptions" sheetId="11" r:id="rId12"/>
+    <sheet name="ShortCuts" sheetId="3" r:id="rId8"/>
+    <sheet name="OOP" sheetId="8" r:id="rId9"/>
+    <sheet name="SOLID" sheetId="12" r:id="rId10"/>
+    <sheet name="Reflection" sheetId="9" r:id="rId11"/>
+    <sheet name="UnitTesting" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -84,39 +84,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="313">
   <si>
     <t>Операция</t>
   </si>
@@ -278,15 +251,6 @@
   </si>
   <si>
     <t>Console.WriteLine(string.Join(Environment.NewLine, namePoints.Select(a =&gt; $"{a.Key} | {a.Value}")));</t>
-  </si>
-  <si>
-    <t>Хвърляне на грешка</t>
-  </si>
-  <si>
-    <t>Throw new Exception("Error message!")</t>
-  </si>
-  <si>
-    <t>Throw exception</t>
   </si>
   <si>
     <t>IndexOf</t>
@@ -2066,12 +2030,6 @@
     <t>https://www.automatetheplanet.com/nunit-cheat-sheet/</t>
   </si>
   <si>
-    <t>throw new ArgumentException(string.Format("MotorcycleExists!", model));</t>
-  </si>
-  <si>
-    <t>throw new ArgumentException("MotorcycleExists!");</t>
-  </si>
-  <si>
     <t>An interface contains only the signatures of methods,
 properties, events or indexers.
 Интерфейса описва функциалността на  конкретен обект.Като класовете имплементиращи интерфейса могат да бъдат ползвани чрез общите им свойства.</t>
@@ -2165,6 +2123,431 @@
   </si>
   <si>
     <t>Type[] currnetUnitType = assembly.GetTypes();</t>
+  </si>
+  <si>
+    <t>Хвърляне на грешка - Throw exception</t>
+  </si>
+  <si>
+    <t>Throw new Exception("Error message!")
+throw new ArgumentException("MotorcycleExists!");
+throw new ArgumentException(string.Format("MotorcycleExists!", model));</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE Employees</t>
+  </si>
+  <si>
+    <t>КОМАНДА</t>
+  </si>
+  <si>
+    <t>Създаване на база данни (DB)</t>
+  </si>
+  <si>
+    <t>Създаване на таблица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE People(
+Id int NOT NULL,
+Email varchar(50) NOT NULL,
+FirstName varchar(50),
+LastName varchar(50) )
+</t>
+  </si>
+  <si>
+    <t>Взимане на всички данни от таблицата</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Employees</t>
+  </si>
+  <si>
+    <t>SELECT TOP (5) FirstName, LastName
+FROM Employees</t>
+  </si>
+  <si>
+    <t>Взимане на първите 5 реда от таблица</t>
+  </si>
+  <si>
+    <t>Свойства на колоните (Custom Column Properties)</t>
+  </si>
+  <si>
+    <t>Промяна на таблиците след създаването им 
+(Altering Tables - Changing Table Properties After Creation)</t>
+  </si>
+  <si>
+    <t>Deleting from Database
+(Dropping and Truncating)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add check constraint - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE InstrumentReadings
+ADD CONSTRAINT PositiveValue
+CHECK (Kelvin &gt; 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Set default value -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ALTER TABLE People
+ADD DEFAULT 0
+FOR Balance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add unique constraint -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ALTER TABLE People
+ADD CONSTRAINT uq_Email
+UNIQUE (Email)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modify data type of existing column - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE People
+ALTER COLUMN Email VARCHAR(100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add primary key to existing column - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE People
+ADD CONSTRAINT PK_Id
+PRIMARY KEY (Id)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete existing column - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE People
+DROP COLUMN FullName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adding a column - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADD Salary DECIMAL(15, 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A table can be changed using the keywords - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE Employees</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value constraint - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kelvin DECIMAL(10,2) CHECK (Kelvin &gt; 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default value - if not specified (otherwise set to NULL) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Balance DECIMAL(10,2) DEFAULT 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unique constraint - no repeating values in entire table - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email VARCHAR(50) UNIQUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identity (auto-increment) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id INT PRIMARY KEY IDENTITY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Primary Key - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id INT NOT NULL PRIMARY KEY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To delete all records in a table - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRUNCATE TABLE Employees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To drop a table – delete data and structure - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP TABLE Employees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To drop entire database - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP DATABASE AMS</t>
+    </r>
+  </si>
+  <si>
+    <t>Removing constraint from column</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This includes primary keys, check constraints and unique field - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE Employees
+DROP CONSTRAINT PK_Id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To remove default value (if not specified, revert to NULL) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE Employees
+ALTER COLUMN Clients
+DROP DEFAULT</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2423,7 +2806,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2657,12 +3040,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2827,6 +3234,40 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3233,10 +3674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C395"/>
+  <dimension ref="A1:C394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3436,10 +3877,10 @@
     </row>
     <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>48</v>
@@ -3447,10 +3888,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>50</v>
@@ -3458,46 +3899,46 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>130</v>
+        <v>279</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5354,11 +5795,6 @@
       <c r="A394" s="8"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="8"/>
-      <c r="B395" s="6"/>
-      <c r="C395" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5369,9 +5805,68 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5385,55 +5880,55 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>278</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5442,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5457,7 +5952,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5498,36 +5993,227 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="95" style="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>257</v>
-      </c>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
+      <c r="B8" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="70"/>
+    </row>
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="71" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="71" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="71" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="72" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="72" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="74" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="72"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="72"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="72"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="72"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="72"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="72"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="72"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="72"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="72"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="72"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="72"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="72"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A22:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -5544,334 +6230,284 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
         <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
         <v>114</v>
       </c>
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
       <c r="C19" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5892,75 +6528,75 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5993,95 +6629,95 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>159</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58"/>
       <c r="B2" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>153</v>
-      </c>
       <c r="E4" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="176.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>168</v>
-      </c>
       <c r="D5" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>167</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
       <c r="B6" s="59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="26"/>
@@ -6089,19 +6725,19 @@
     </row>
     <row r="7" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>179</v>
       </c>
       <c r="F7" s="24"/>
     </row>
@@ -6134,98 +6770,98 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6262,13 +6898,13 @@
     </row>
     <row r="2" spans="1:3" s="46" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6278,6 +6914,56 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -6301,185 +6987,126 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>246</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>230</v>
-      </c>
       <c r="E8" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
     <sheet name="DB-SQL" sheetId="11" r:id="rId2"/>
-    <sheet name="Regex" sheetId="2" r:id="rId3"/>
-    <sheet name="DB" sheetId="4" r:id="rId4"/>
+    <sheet name="DB" sheetId="4" r:id="rId3"/>
+    <sheet name="Regex" sheetId="2" r:id="rId4"/>
     <sheet name="Solidity" sheetId="5" r:id="rId5"/>
     <sheet name="Git" sheetId="6" r:id="rId6"/>
     <sheet name="Comparators" sheetId="7" r:id="rId7"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="342">
   <si>
     <t>Операция</t>
   </si>
@@ -2148,38 +2148,478 @@
     <t>Създаване на таблица</t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE TABLE People(
+    <t>Взимане на всички данни от таблицата</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Employees</t>
+  </si>
+  <si>
+    <t>SELECT TOP (5) FirstName, LastName
+FROM Employees</t>
+  </si>
+  <si>
+    <t>Взимане на първите 5 реда от таблица</t>
+  </si>
+  <si>
+    <t>Свойства на колоните (Custom Column Properties)</t>
+  </si>
+  <si>
+    <t>Промяна на таблиците след създаването им 
+(Altering Tables - Changing Table Properties After Creation)</t>
+  </si>
+  <si>
+    <t>Deleting from Database
+(Dropping and Truncating)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add check constraint - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE InstrumentReadings
+ADD CONSTRAINT PositiveValue
+CHECK (Kelvin &gt; 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Set default value -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ALTER TABLE People
+ADD DEFAULT 0
+FOR Balance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add unique constraint -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ALTER TABLE People
+ADD CONSTRAINT uq_Email
+UNIQUE (Email)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modify data type of existing column - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE People
+ALTER COLUMN Email VARCHAR(100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add primary key to existing column - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE People
+ADD CONSTRAINT PK_Id
+PRIMARY KEY (Id)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete existing column - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE People
+DROP COLUMN FullName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adding a column - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADD Salary DECIMAL(15, 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A table can be changed using the keywords - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE Employees</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value constraint - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kelvin DECIMAL(10,2) CHECK (Kelvin &gt; 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default value - if not specified (otherwise set to NULL) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Balance DECIMAL(10,2) DEFAULT 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unique constraint - no repeating values in entire table - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email VARCHAR(50) UNIQUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identity (auto-increment) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id INT PRIMARY KEY IDENTITY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Primary Key - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id INT NOT NULL PRIMARY KEY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To delete all records in a table - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRUNCATE TABLE Employees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To drop a table – delete data and structure - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP TABLE Employees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To drop entire database - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP DATABASE AMS</t>
+    </r>
+  </si>
+  <si>
+    <t>Removing constraint from column</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This includes primary keys, check constraints and unique field - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE Employees
+DROP CONSTRAINT PK_Id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To remove default value (if not specified, revert to NULL) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE Employees
+ALTER COLUMN Clients
+DROP DEFAULT</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Types in SQL Server</t>
+  </si>
+  <si>
+    <t>BIT (1-bit), INT (32-bit), BIGINT (64-bit)</t>
+  </si>
+  <si>
+    <t>FLOAT, REAL, DECIMAL(scale, precision)</t>
+  </si>
+  <si>
+    <t>MONEY – for money (precise) operations</t>
+  </si>
+  <si>
+    <t>CHAR(size) – fixed size string</t>
+  </si>
+  <si>
+    <t>VARCHAR(size) – variable size string</t>
+  </si>
+  <si>
+    <t>NVARCHAR(size) – Unicode variable size string</t>
+  </si>
+  <si>
+    <t>TEXT / NTEXT – text data block (unlimited size)</t>
+  </si>
+  <si>
+    <t>BINARY(size) – fixed length sequence of bits</t>
+  </si>
+  <si>
+    <t>VARBINARY(size) – a sequence of bits, 1-8000 bytes or MAX (2GB)</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Textual Data</t>
+  </si>
+  <si>
+    <t>Binary data</t>
+  </si>
+  <si>
+    <t>Date and time</t>
+  </si>
+  <si>
+    <t>DATE – date in range 0001-01-01 through 9999-12-31</t>
+  </si>
+  <si>
+    <t>DATETIME – date and time with precision of 1/300 sec</t>
+  </si>
+  <si>
+    <t>SMALLDATETIME – date and time (1 minute precision)</t>
+  </si>
+  <si>
+    <t>ПОЯСНЕНИЕ</t>
+  </si>
+  <si>
+    <t>CREATE TABLE People(
 Id int NOT NULL,
 Email varchar(50) NOT NULL,
 FirstName varchar(50),
-LastName varchar(50) )
-</t>
-  </si>
-  <si>
-    <t>Взимане на всички данни от таблицата</t>
-  </si>
-  <si>
-    <t>SELECT * FROM Employees</t>
-  </si>
-  <si>
-    <t>SELECT TOP (5) FirstName, LastName
-FROM Employees</t>
-  </si>
-  <si>
-    <t>Взимане на първите 5 реда от таблица</t>
-  </si>
-  <si>
-    <t>Свойства на колоните (Custom Column Properties)</t>
-  </si>
-  <si>
-    <t>Промяна на таблиците след създаването им 
-(Altering Tables - Changing Table Properties After Creation)</t>
-  </si>
-  <si>
-    <t>Deleting from Database
-(Dropping and Truncating)</t>
-  </si>
-  <si>
+LastName varchar(50) )</t>
+  </si>
+  <si>
+    <t>Два възможност сами да определим стойностите за ключ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SET IDENTITY_INSERT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>People</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2190,21 +2630,17 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Add check constraint - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALTER TABLE InstrumentReadings
-ADD CONSTRAINT PositiveValue
-CHECK (Kelvin &gt; 0)</t>
-    </r>
+      <t xml:space="preserve"> OFF </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2008-11-11 13:23:44'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1988-03-13'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.12</t>
   </si>
   <si>
     <r>
@@ -2217,7 +2653,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Set default value -</t>
+      <t>Изтриване на PRIMARY KEY -</t>
     </r>
     <r>
       <rPr>
@@ -2228,9 +2664,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ALTER TABLE People
-ADD DEFAULT 0
-FOR Balance</t>
+      <t xml:space="preserve"> ALTER TABLE Users
+DROP CONSTRAINT PK__Users__3214EC07AD8DD30C</t>
     </r>
   </si>
   <si>
@@ -2244,7 +2679,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Add unique constraint -</t>
+      <t>Add PRIMARY KEY  from more thane one field -</t>
     </r>
     <r>
       <rPr>
@@ -2255,29 +2690,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ALTER TABLE People
-ADD CONSTRAINT uq_Email
-UNIQUE (Email)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Modify data type of existing column - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALTER TABLE People
-ALTER COLUMN Email VARCHAR(100)</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> ALTER TABLE Users
+ADD CONSTRAINT PK_User PRIMARY KEY (Id,Username);</t>
+    </r>
+  </si>
+  <si>
+    <t>USE Users</t>
+  </si>
+  <si>
+    <t>Превключване на базата с която работим</t>
+  </si>
+  <si>
+    <t>Добавяне на FOREIGN KEY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DirectorId </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2288,7 +2717,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Add primary key to existing column - </t>
+      <t>INT FOREIGN KEY REFERENCES</t>
     </r>
     <r>
       <rPr>
@@ -2299,58 +2728,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ALTER TABLE People
-ADD CONSTRAINT PK_Id
-PRIMARY KEY (Id)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Delete existing column - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALTER TABLE People
-DROP COLUMN FullName</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adding a column - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ADD Salary DECIMAL(15, 2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A table can be changed using the keywords - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALTER TABLE Employees</t>
+      <t xml:space="preserve"> Directors(</t>
     </r>
     <r>
       <rPr>
@@ -2362,12 +2740,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Value constraint - </t>
+      <t>Id</t>
     </r>
     <r>
       <rPr>
@@ -2378,175 +2751,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Kelvin DECIMAL(10,2) CHECK (Kelvin &gt; 0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default value - if not specified (otherwise set to NULL) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Balance DECIMAL(10,2) DEFAULT 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unique constraint - no repeating values in entire table - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Email VARCHAR(50) UNIQUE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Identity (auto-increment) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Id INT PRIMARY KEY IDENTITY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Primary Key - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Id INT NOT NULL PRIMARY KEY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To delete all records in a table - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TRUNCATE TABLE Employees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">To drop a table – delete data and structure - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DROP TABLE Employees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">To drop entire database - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DROP DATABASE AMS</t>
-    </r>
-  </si>
-  <si>
-    <t>Removing constraint from column</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This includes primary keys, check constraints and unique field - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALTER TABLE Employees
-DROP CONSTRAINT PK_Id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To remove default value (if not specified, revert to NULL) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALTER TABLE Employees
-ALTER COLUMN Clients
-DROP DEFAULT</t>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -2554,7 +2759,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2797,16 +3002,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3064,12 +3326,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3223,6 +3514,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3235,43 +3586,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3677,7 +4001,7 @@
   <dimension ref="A1:C394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -5995,218 +6319,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="95" style="67" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="95" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68" t="s">
+      <c r="A1" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="74"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="79"/>
+      <c r="B4" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
+      <c r="B5" s="65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="65" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
+      <c r="B8" s="65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="80"/>
+      <c r="B9" s="65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="78" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="80"/>
+      <c r="B11" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="79"/>
+      <c r="B13" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
+      <c r="B14" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+    <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B17" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="B18" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="B20" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="76"/>
+      <c r="B21" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+      <c r="B22" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="76"/>
+      <c r="B23" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
+      <c r="B24" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B25" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="76"/>
+      <c r="B26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="71"/>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="76"/>
+      <c r="B27" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="76"/>
+      <c r="B28" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="76"/>
+      <c r="B29" s="60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="76"/>
+      <c r="B30" s="60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="76"/>
+      <c r="B31" s="60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="76"/>
+      <c r="B32" s="60" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="76"/>
+      <c r="B33" s="60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="77"/>
+      <c r="B34" s="60" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="62" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="70"/>
-    </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="71" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="71" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="71" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" s="73" t="s">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="76"/>
+      <c r="B36" s="61" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="72" t="s">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="77"/>
+      <c r="B37" s="61" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="72" t="s">
+    <row r="38" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="75" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="B38" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="74" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="77"/>
+      <c r="B39" s="63" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="74" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="72"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="72"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="72"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="72"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="72"/>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="72"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="72"/>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="72"/>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="72"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="72"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="72"/>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="72"/>
+    <row r="40" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" s="72" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="61"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="61"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="61"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="61"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="61"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="61"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="61"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="61"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A22:A23"/>
+  <mergeCells count="9">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6214,6 +6669,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.7109375" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -6508,100 +7057,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.7109375" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6628,7 +7083,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="81" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -6648,7 +7103,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="82"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -6716,10 +7171,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
   <si>
     <t>Операция</t>
   </si>
@@ -2754,12 +2754,78 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>SELECT Name FROM Departments
+ORDER BY Name ASC
+SELECT FirstName, LastName, JobTitle, Salary FROM Employees
+ORDER BY Salary DESC</t>
+  </si>
+  <si>
+    <t>UPDATE Employees
+SET Salary = Salary * 1.1</t>
+  </si>
+  <si>
+    <t>Селектиране на записите</t>
+  </si>
+  <si>
+    <t>Вмъкване на записи в таблица</t>
+  </si>
+  <si>
+    <t>INSERT INTO Towns (Name)
+VALUES ('Sofia'),
+ ('Plovdiv'),
+ ('Varna'),
+ ('Burgas')</t>
+  </si>
+  <si>
+    <t>Обновяване на записите</t>
+  </si>
+  <si>
+    <t>Aliases</t>
+  </si>
+  <si>
+    <t>BASIC CRUD</t>
+  </si>
+  <si>
+    <t>Aliases rename a table or a column heading /For current query/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT EmployeeID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ID,
+FirstName,
+LastName
+FROM Employees</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3044,6 +3110,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3068,7 +3143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3352,6 +3427,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3360,7 +3446,7 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3550,6 +3636,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3586,8 +3679,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3682,7 +3777,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3690,17 +3785,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3754,7 +3838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3789,7 +3873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6319,10 +6403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,13 +6425,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>322</v>
       </c>
       <c r="B3" s="65" t="s">
@@ -6355,7 +6439,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="65" t="s">
         <v>314</v>
       </c>
@@ -6364,13 +6448,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="65" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>323</v>
       </c>
       <c r="B6" s="65" t="s">
@@ -6378,25 +6462,25 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="65" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="65" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="65" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="81" t="s">
         <v>324</v>
       </c>
       <c r="B10" s="65" t="s">
@@ -6404,13 +6488,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="65" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="81" t="s">
         <v>325</v>
       </c>
       <c r="B12" s="65" t="s">
@@ -6421,247 +6505,284 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="73" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="65" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+    <row r="15" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="88"/>
+    </row>
+    <row r="16" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="7" t="s">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="79"/>
+      <c r="B24" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="7" t="s">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="79"/>
+      <c r="B25" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="7" t="s">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79"/>
+      <c r="B26" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="7" t="s">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="7" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="79"/>
+      <c r="B29" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="71"/>
-    </row>
-    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="7" t="s">
+      <c r="C29" s="71"/>
+    </row>
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="7" t="s">
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
-      <c r="B29" s="60" t="s">
+    <row r="32" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="79"/>
+      <c r="B32" s="60" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="60" t="s">
+    <row r="33" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="79"/>
+      <c r="B33" s="60" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="60" t="s">
+    <row r="34" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="79"/>
+      <c r="B34" s="60" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="60" t="s">
+    <row r="35" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="79"/>
+      <c r="B35" s="60" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="60" t="s">
+    <row r="36" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
+      <c r="B36" s="60" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="60" t="s">
+    <row r="37" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
+      <c r="B37" s="60" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B38" s="62" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="61" t="s">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="79"/>
+      <c r="B39" s="61" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="61" t="s">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="80"/>
+      <c r="B40" s="61" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="75" t="s">
+    <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B41" s="63" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="63" t="s">
+    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="80"/>
+      <c r="B42" s="63" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
+    <row r="43" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B48" s="72" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="B41" s="63" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="86" t="s">
-        <v>340</v>
-      </c>
-      <c r="B42" s="61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="61"/>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="61"/>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="61"/>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="61"/>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="61"/>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="61"/>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="74" t="s">
+        <v>348</v>
+      </c>
       <c r="B49" s="61"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="61"/>
     </row>
-    <row r="51" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="61"/>
     </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="61"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="61"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="61"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7083,7 +7204,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -7103,7 +7224,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -7171,10 +7292,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="385">
   <si>
     <t>Операция</t>
   </si>
@@ -2790,8 +2790,16 @@
     <t>Aliases rename a table or a column heading /For current query/</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SELECT EmployeeID </t>
+    <t>You can shorten fields or clarify abbreviations</t>
+  </si>
+  <si>
+    <t>SELECT FirstName + ' ' + LastName AS [Full Name],
+EmployeeID AS [No.]
+FROM Employees</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT </t>
     </r>
     <r>
       <rPr>
@@ -2803,6 +2811,508 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Duration,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.ACG AS 'Access Control Gateway'
+FROM Calls AS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>Use DISTINCT to eliminate duplicate results</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DISTINCT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DepartmentID
+FROM Employees</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter rows by specific conditions using the WHERE clause</t>
+  </si>
+  <si>
+    <t>SELECT LastName, DepartmentID
+FROM Employees
+WHERE DepartmentID = 1</t>
+  </si>
+  <si>
+    <t>Other logical operators can be used for greater control</t>
+  </si>
+  <si>
+    <t>SELECT LastName, Salary FROM Employees
+WHERE Salary &lt;= 20000</t>
+  </si>
+  <si>
+    <t>Filtering the Selected Rows</t>
+  </si>
+  <si>
+    <t>SELECT LastName FROM Employees
+WHERE NOT (ManagerID = 3 OR ManagerID = 4)</t>
+  </si>
+  <si>
+    <t>SELECT LastName, Salary FROM Employees
+WHERE Salary BETWEEN 20000 AND 22000</t>
+  </si>
+  <si>
+    <t>SELECT FirstName, LastName, ManagerID FROM
+Employees
+WHERE ManagerID IN (109, 3, 16)</t>
+  </si>
+  <si>
+    <t>Checking for NULL values</t>
+  </si>
+  <si>
+    <t>SELECT LastName, ManagerId FROM Employees
+WHERE ManagerId IS NULL</t>
+  </si>
+  <si>
+    <t>SELECT LastName, ManagerId FROM Employees
+WHERE ManagerId IS NOT NULL</t>
+  </si>
+  <si>
+    <t>Sorting Result Sets</t>
+  </si>
+  <si>
+    <t>SELECT LastName, HireDate
+FROM Employees
+ORDER BY HireDate</t>
+  </si>
+  <si>
+    <t>SELECT LastName, HireDate
+FROM Employees
+ORDER BY HireDate DESC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE VIEW v_EmployeesByDepartment AS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT FirstName + ' ' + LastName AS [Full Name],
+Salary
+FROM Employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT * FROM v_EmployeesByDepartment</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: Get employee names and salaries, by department</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Comparing with NULL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/NULL is a special value that means missing value Not the same as 0 or a blank space/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Views</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Views are named (saved) queries Simplify complex queries Limit access to data for certain users/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN / NOT IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to specify a set of values:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BETWEEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operator to specify a range:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combine conditions using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOT, OR, AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and brackets</t>
+    </r>
+  </si>
+  <si>
+    <t>TOP(x) selects the first x values</t>
+  </si>
+  <si>
+    <t>SELECT TOP (1) *
+FROM Peaks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Checking for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESC:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> descending order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASC:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ascending order, default</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can concatenate column names using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ operator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /String literals are enclosed in single quotes
+Column names containing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">special symbols </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">use brackets </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>DATA DEFINITION AND DATATYPES</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT EmployeeID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AS</t>
     </r>
     <r>
@@ -2815,8 +3325,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ID,
-FirstName,
-LastName
+FirstName, LastName
 FROM Employees</t>
     </r>
   </si>
@@ -2825,7 +3334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3119,8 +3628,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3142,8 +3677,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3438,15 +3978,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3627,7 +4183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3667,6 +4222,12 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3679,15 +4240,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -6403,20 +6968,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.5703125" style="67" customWidth="1"/>
     <col min="2" max="2" width="95" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>329</v>
       </c>
@@ -6424,365 +6989,515 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="84"/>
+    </row>
+    <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="90"/>
+    </row>
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" s="90"/>
+    </row>
+    <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" s="89"/>
+    </row>
+    <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="91" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="90" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="90"/>
+    </row>
+    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="89" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="89"/>
+    </row>
+    <row r="22" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" s="83"/>
+    </row>
+    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="77"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="B25" s="76"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B26" s="65" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="65" t="s">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="81"/>
+      <c r="B27" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C27" s="69" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="65" t="s">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="82"/>
+      <c r="B28" s="65" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="80" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B29" s="65" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="65" t="s">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="81"/>
+      <c r="B30" s="65" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="65" t="s">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="81"/>
+      <c r="B31" s="65" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="65" t="s">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="82"/>
+      <c r="B32" s="65" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B33" s="65" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="65" t="s">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="82"/>
+      <c r="B34" s="65" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B35" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C35" s="69" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="65" t="s">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="81"/>
+      <c r="B36" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C36" s="72" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="65" t="s">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="82"/>
+      <c r="B37" s="65" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" s="88"/>
-    </row>
-    <row r="16" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+    <row r="39" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="7" t="s">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="78"/>
+      <c r="B43" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="7" t="s">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="78"/>
+      <c r="B44" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="7" t="s">
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="78"/>
+      <c r="B45" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="7" t="s">
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="79"/>
+      <c r="B46" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="7" t="s">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="78"/>
+      <c r="B48" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C29" s="71"/>
-    </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="7" t="s">
+      <c r="C48" s="70"/>
+    </row>
+    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="78"/>
+      <c r="B49" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="7" t="s">
+    <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="78"/>
+      <c r="B50" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="60" t="s">
+    <row r="51" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="78"/>
+      <c r="B51" s="60" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="60" t="s">
+    <row r="52" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="78"/>
+      <c r="B52" s="60" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="60" t="s">
+    <row r="53" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="78"/>
+      <c r="B53" s="60" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="60" t="s">
+    <row r="54" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="78"/>
+      <c r="B54" s="60" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="60" t="s">
+    <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="78"/>
+      <c r="B55" s="60" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="60" t="s">
+    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="79"/>
+      <c r="B56" s="60" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="78" t="s">
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B57" s="62" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="61" t="s">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="78"/>
+      <c r="B58" s="61" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="61" t="s">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="79"/>
+      <c r="B59" s="61" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="78" t="s">
+    <row r="60" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B60" s="63" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="63" t="s">
+    <row r="61" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="79"/>
+      <c r="B61" s="63" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="75" t="s">
+    <row r="62" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B62" s="65" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
+    <row r="63" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B63" s="65" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
+    <row r="64" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="74" t="s">
         <v>345</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B64" s="63" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="74" t="s">
+    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B65" s="61" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="69" t="s">
+    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B66" s="63" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
+    <row r="67" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B67" s="71" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="74" t="s">
+    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="B49" s="61"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="61"/>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="61"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="61"/>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="61"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="61"/>
+      <c r="B68" s="61"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="61"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="61"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="61"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="61"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7204,7 +7919,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -7224,7 +7939,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -7292,10 +8007,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -21,6 +21,7 @@
     <sheet name="UnitTesting" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="389">
   <si>
     <t>Операция</t>
   </si>
@@ -3328,6 +3329,73 @@
 FirstName, LastName
 FROM Employees</t>
     </r>
+  </si>
+  <si>
+    <t>Опреснява информацията в базата така че след изпълнението на командите да са достъпни за следващата част от кода</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GO
+GO 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- GO execute the related sql commands n times
+Declare @ID nvarchar(5);
+set @ID = 5;
+select @ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Not Accesible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+GO
+select @ID - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACCESSIBLE</t>
+    </r>
+  </si>
+  <si>
+    <t>The IN operator allows you to specify multiple values in a WHERE clause.
+The IN operator is a shorthand for multiple OR conditions.</t>
+  </si>
+  <si>
+    <t>The IN</t>
   </si>
 </sst>
 </file>
@@ -4002,7 +4070,7 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4198,6 +4266,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4222,12 +4311,6 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4238,15 +4321,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4263,9 +4337,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6970,8 +7041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6990,13 +7061,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="79" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="76" t="s">
         <v>350</v>
       </c>
       <c r="B3" s="60" t="s">
@@ -7004,7 +7075,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="76" t="s">
         <v>351</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -7012,7 +7083,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="76" t="s">
         <v>382</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -7020,7 +7091,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="76" t="s">
         <v>377</v>
       </c>
       <c r="B6" s="60" t="s">
@@ -7028,10 +7099,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="81" t="s">
         <v>360</v>
       </c>
-      <c r="B7" s="90"/>
+      <c r="B7" s="81"/>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
@@ -7058,13 +7129,13 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="81" t="s">
         <v>360</v>
       </c>
-      <c r="B11" s="90"/>
+      <c r="B11" s="81"/>
     </row>
     <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="76" t="s">
         <v>376</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -7088,13 +7159,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="78" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="78"/>
     </row>
     <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="76" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -7102,7 +7173,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="76" t="s">
         <v>364</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -7110,13 +7181,13 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="B18" s="90"/>
+      <c r="B18" s="81"/>
     </row>
     <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="76" t="s">
         <v>381</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -7124,7 +7195,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="76" t="s">
         <v>380</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -7132,10 +7203,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="B21" s="89"/>
+      <c r="B21" s="78"/>
     </row>
     <row r="22" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
@@ -7150,19 +7221,19 @@
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="79" t="s">
         <v>383</v>
       </c>
-      <c r="B24" s="83"/>
+      <c r="B24" s="79"/>
     </row>
     <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="82" t="s">
         <v>312</v>
       </c>
-      <c r="B25" s="76"/>
+      <c r="B25" s="83"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="87" t="s">
         <v>322</v>
       </c>
       <c r="B26" s="65" t="s">
@@ -7170,7 +7241,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="65" t="s">
         <v>314</v>
       </c>
@@ -7179,13 +7250,13 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="65" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="87" t="s">
         <v>323</v>
       </c>
       <c r="B29" s="65" t="s">
@@ -7193,25 +7264,25 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="65" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="65" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="65" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="87" t="s">
         <v>324</v>
       </c>
       <c r="B33" s="65" t="s">
@@ -7219,13 +7290,13 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="65" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="87" t="s">
         <v>325</v>
       </c>
       <c r="B35" s="65" t="s">
@@ -7236,7 +7307,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
+      <c r="A36" s="88"/>
       <c r="B36" s="65" t="s">
         <v>327</v>
       </c>
@@ -7245,7 +7316,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="65" t="s">
         <v>328</v>
       </c>
@@ -7283,7 +7354,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="84" t="s">
         <v>290</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -7291,31 +7362,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="7" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="7" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="84" t="s">
         <v>291</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -7323,62 +7394,62 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="7" t="s">
         <v>299</v>
       </c>
       <c r="C48" s="70"/>
     </row>
     <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="7" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="7" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="60" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="60" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="60" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="60" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="60" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="60" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="84" t="s">
         <v>292</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -7386,19 +7457,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="61" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="79"/>
+      <c r="A59" s="86"/>
       <c r="B59" s="61" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="84" t="s">
         <v>309</v>
       </c>
       <c r="B60" s="63" t="s">
@@ -7406,7 +7477,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="79"/>
+      <c r="A61" s="86"/>
       <c r="B61" s="63" t="s">
         <v>311</v>
       </c>
@@ -7465,11 +7536,21 @@
       </c>
       <c r="B68" s="61"/>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="61"/>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="61"/>
+    <row r="69" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A69" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B69" s="63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="77" t="s">
+        <v>388</v>
+      </c>
+      <c r="B70" s="63" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="61"/>
@@ -7491,13 +7572,13 @@
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7919,7 +8000,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="90" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -7939,7 +8020,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
+      <c r="A2" s="91"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -8007,10 +8088,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="88"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -21,7 +21,6 @@
     <sheet name="UnitTesting" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -31,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="394">
   <si>
     <t>Операция</t>
   </si>
@@ -2782,9 +2781,6 @@
     <t>Обновяване на записите</t>
   </si>
   <si>
-    <t>Aliases</t>
-  </si>
-  <si>
     <t>BASIC CRUD</t>
   </si>
   <si>
@@ -2949,41 +2945,6 @@
     <t>SELECT LastName, HireDate
 FROM Employees
 ORDER BY HireDate DESC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CREATE VIEW v_EmployeesByDepartment AS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SELECT FirstName + ' ' + LastName AS [Full Name],
-Salary
-FROM Employees</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-SELECT * FROM v_EmployeesByDepartment</t>
-    </r>
-  </si>
-  <si>
-    <t>Example: Get employee names and salaries, by department</t>
   </si>
   <si>
     <r>
@@ -3395,13 +3356,198 @@
 The IN operator is a shorthand for multiple OR conditions.</t>
   </si>
   <si>
-    <t>The IN</t>
+    <t>IN</t>
+  </si>
+  <si>
+    <r>
+      <t>Views are named (saved) queries
+Simplify complex queries
+Limit access to data for certain users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Example: Get employee names and salaries, by department)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>Sequences are special object in SQL Server
+Similar to IDENTITY fields
+Returns an incrementing value every time it’s used
+EXAMPLE:
+CREATE SEQUENCE seq_Customers_CustomerID
+AS INT
+START WITH 1
+INCREMENT BY 1
+SELECT NEXT VALUE FOR seq_Customers_CustomerID</t>
+  </si>
+  <si>
+    <t>ISNULL</t>
+  </si>
+  <si>
+    <t>ISNULL(MiddleName,'') - Ако стойността в колоната е NULL, NULL се замества с ''</t>
+  </si>
+  <si>
+    <t>Multiple order</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT * FROM Employees
+ORDER BY 
+      Salary </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESC,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      FirstName </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+      LastName </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+      MiddleName </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE VIEW v_EmployeesByDepartment AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT FirstName + ' ' + LastName AS [Full Name],
+Salary
+FROM Employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+That how is called : SELECT * FROM v_EmployeesByDepartment</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4275,18 +4421,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4310,6 +4444,18 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4337,6 +4483,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4413,7 +4562,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4421,6 +4570,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4474,7 +4634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4509,7 +4669,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7039,10 +7199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7061,499 +7221,510 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="88"/>
+    </row>
+    <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="80"/>
-    </row>
-    <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="B3" s="60" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>351</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="B7" s="81"/>
+      <c r="A7" s="89" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="89"/>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>354</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="60" t="s">
         <v>356</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="60" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="89" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="89"/>
     </row>
     <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="B15" s="78"/>
+      <c r="A15" s="86" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="86"/>
     </row>
     <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="89" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
-        <v>367</v>
-      </c>
-      <c r="B18" s="81"/>
-    </row>
-    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>381</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="B19" s="89"/>
     </row>
     <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" s="86"/>
+    </row>
+    <row r="24" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="87" t="s">
         <v>380</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="B21" s="78"/>
-    </row>
-    <row r="22" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="79" t="s">
+      <c r="B26" s="87"/>
+    </row>
+    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="79"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="84"/>
+      <c r="B29" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="85"/>
+      <c r="B30" s="65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="84"/>
+      <c r="B32" s="65" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="84"/>
+      <c r="B33" s="65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="85"/>
+      <c r="B34" s="65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="85"/>
+      <c r="B36" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="83" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="69" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="84"/>
+      <c r="B38" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="85"/>
+      <c r="B39" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="81"/>
+      <c r="B45" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="81"/>
+      <c r="B46" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="81"/>
+      <c r="B47" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="82"/>
+      <c r="B48" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="81"/>
+      <c r="B50" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C50" s="70"/>
+    </row>
+    <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="81"/>
+      <c r="B51" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="81"/>
+      <c r="B52" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="81"/>
+      <c r="B53" s="60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="81"/>
+      <c r="B54" s="60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="81"/>
+      <c r="B55" s="60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="81"/>
+      <c r="B56" s="60" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="81"/>
+      <c r="B57" s="60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="82"/>
+      <c r="B58" s="60" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="81"/>
+      <c r="B60" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="82"/>
+      <c r="B61" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="B62" s="63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="82"/>
+      <c r="B63" s="63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="B65" s="65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66" s="63" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" s="61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="63" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A70" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="B24" s="79"/>
-    </row>
-    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="B25" s="83"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="65" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="88"/>
-      <c r="B30" s="65" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="88"/>
-      <c r="B31" s="65" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="87" t="s">
-        <v>324</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
-      <c r="B37" s="65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
-      <c r="B43" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
-      <c r="B44" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
-      <c r="B45" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
-        <v>291</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
-      <c r="B48" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C48" s="70"/>
-    </row>
-    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
-      <c r="B49" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
-      <c r="B50" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="85"/>
-      <c r="B51" s="60" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
-      <c r="B52" s="60" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
-      <c r="B53" s="60" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
-      <c r="B54" s="60" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="85"/>
-      <c r="B55" s="60" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
-      <c r="B56" s="60" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="85"/>
-      <c r="B58" s="61" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
-      <c r="B59" s="61" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="B60" s="63" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
-      <c r="B61" s="63" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="74" t="s">
-        <v>344</v>
-      </c>
-      <c r="B62" s="65" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="B64" s="63" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="B65" s="61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="73" t="s">
-        <v>348</v>
-      </c>
-      <c r="B68" s="61"/>
-    </row>
-    <row r="69" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A69" s="75" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="B69" s="63" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="77" t="s">
-        <v>388</v>
-      </c>
-      <c r="B70" s="63" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="61"/>
+      <c r="B71" s="63" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="61"/>
@@ -7561,24 +7732,27 @@
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="61"/>
     </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="61"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -21,6 +21,7 @@
     <sheet name="UnitTesting" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="478">
   <si>
     <t>Операция</t>
   </si>
@@ -2603,9 +2604,6 @@
 LastName varchar(50) )</t>
   </si>
   <si>
-    <t>Два възможност сами да определим стойностите за ключ</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">SET IDENTITY_INSERT </t>
     </r>
@@ -2761,30 +2759,16 @@
 ORDER BY Salary DESC</t>
   </si>
   <si>
-    <t>UPDATE Employees
-SET Salary = Salary * 1.1</t>
-  </si>
-  <si>
     <t>Селектиране на записите</t>
   </si>
   <si>
     <t>Вмъкване на записи в таблица</t>
   </si>
   <si>
-    <t>INSERT INTO Towns (Name)
-VALUES ('Sofia'),
- ('Plovdiv'),
- ('Varna'),
- ('Burgas')</t>
-  </si>
-  <si>
     <t>Обновяване на записите</t>
   </si>
   <si>
     <t>BASIC CRUD</t>
-  </si>
-  <si>
-    <t>Aliases rename a table or a column heading /For current query/</t>
   </si>
   <si>
     <t>You can shorten fields or clarify abbreviations</t>
@@ -3260,36 +3244,6 @@
   </si>
   <si>
     <t>DATA DEFINITION AND DATATYPES</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT EmployeeID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ID,
-FirstName, LastName
-FROM Employees</t>
-    </r>
   </si>
   <si>
     <t>Опреснява информацията в базата така че след изпълнението на командите да са достъпни за следващата част от кода</t>
@@ -3543,12 +3497,1018 @@
 That how is called : SELECT * FROM v_EmployeesByDepartment</t>
     </r>
   </si>
+  <si>
+    <t>UPDATE Employees
+     SET Salary = Salary * 1.1
+     WHERE DepartmentId IN (1,2,3)
+     SELECT Salary FROM Employees</t>
+  </si>
+  <si>
+    <t>CASE … WHEN</t>
+  </si>
+  <si>
+    <t>CASE - WHEN</t>
+  </si>
+  <si>
+    <t>SELECT CountryName, CountryCode,
+     CASE 
+     WHEN CurrencyCode = 'EUR' THEN 'Euro'
+     ELSE 'Not Euro'
+     END AS Currency
+FROM Countries
+ORDER BY CountryName</t>
+  </si>
+  <si>
+    <t>Два възможност сами да определим стойностите за ключ в таблицата /Примерно ако е имаме изтрит запис можем да възстановим номера на ID-то/</t>
+  </si>
+  <si>
+    <t>UPDATE TABLE RECORDS</t>
+  </si>
+  <si>
+    <t>SELECT RECORDS</t>
+  </si>
+  <si>
+    <t>Built-in Functions</t>
+  </si>
+  <si>
+    <t>Functions in SQL Server</t>
+  </si>
+  <si>
+    <t>Ranking functions</t>
+  </si>
+  <si>
+    <t>Ranking functions return a ranking value for each row in a partition. Depending on
+the function that is used, some rows might receive the same value as other rows.</t>
+  </si>
+  <si>
+    <t>Rowset functions</t>
+  </si>
+  <si>
+    <t>Rowset functions Return an object that can be used like table references in an SQL
+statement.</t>
+  </si>
+  <si>
+    <t>Scalar functions</t>
+  </si>
+  <si>
+    <t>Operate on a single value and then return a single value. Scalar functions can be used
+wherever an expression is valid.</t>
+  </si>
+  <si>
+    <t>String Functions</t>
+  </si>
+  <si>
+    <t>SELECT FirstName + ' ' + LastName
+AS [Full Name]
+FROM Employee
+SELECT CONCAT(FirstName, ' ', LastName)
+AS [Full Name]
+FROM Employee</t>
+  </si>
+  <si>
+    <t>Concatenation
+/CONCAT replaces NULL values with empty string/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CONCAT_WS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CONCAT_WS ignores null values during concatenation, and does not add the
+separator between null values. Therefore, CONCAT_WS can cleanly handle
+concatenation of strings that might have "blank" values/</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT CONCAT_WS(' ', FirstName, LastName)
+AS [Full Name]
+FROM Employee</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUBSTRING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+/extracts a part of a string/</t>
+    </r>
+  </si>
+  <si>
+    <t>SUBSTRING('SoftUni', 5, 3) =&gt; Uni
+SELECT ArticleId, Author, Content,
+SUBSTRING(Content, 1, 200) + '...' AS Summary
+FROM Articles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REPLACE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/replaces a specific string with another/</t>
+    </r>
+  </si>
+  <si>
+    <t>REPLACE('SoftUni', 'Soft', 'Hard') =&gt; HardUni
+SELECT REPLACE(Title, 'blood', '*****')
+AS Title
+FROM Album</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LTRIM &amp; RTRIM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/remove spaces from either side of string/</t>
+    </r>
+  </si>
+  <si>
+    <t>LTRIM(String)
+RTRIM(String)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LEN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/counts the number of characters/</t>
+    </r>
+  </si>
+  <si>
+    <t>LEN(String)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DATALENGTH
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/gets the number of used bytes/</t>
+    </r>
+  </si>
+  <si>
+    <t>DATALENGTH(String)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LEFT &amp; RIGHT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/get characters from the beginning or the
+end of a string/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LEFT(String, Count)
+RIGHT(String, Count)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT Id, Start,
+LEFT(Name, 3) AS Shortened
+FROM Games</t>
+    </r>
+  </si>
+  <si>
+    <t>LOWER(String)
+UPPER(String)</t>
+  </si>
+  <si>
+    <t>REVERSE(String)</t>
+  </si>
+  <si>
+    <t>REPLICATE(String, Count)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CHARINDEX
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/locates a specific pattern (substring) in a string/</t>
+    </r>
+  </si>
+  <si>
+    <t>CHARINDEX(Pattern, String, [StartIndex])</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STUFF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/inserts a substring at a specific position/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REPLICATE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/repeats a string/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REVERSE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/reverses order of all characters in a string/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LOWER &amp; UPPER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/change letter casing/</t>
+    </r>
+  </si>
+  <si>
+    <t>STUFF(String, StartIndex, Length, Substring)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FORMAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/returns a value formatted with the specified format
+and optional culture in SQL Server 2017./</t>
+    </r>
+  </si>
+  <si>
+    <t>FORMAT ( value, format [, culture ] )</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRANSLATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/returns the string provided as a first argument
+after some characters specified in the second argument are
+translated into a destination set of characters specified in the
+third argument/</t>
+    </r>
+  </si>
+  <si>
+    <t>TRANSLATE ( inputString, characters, translations)
+SELECT TRANSLATE('2*[3+4]/{7-2}', '[]{}', '()()’);
+// 2*(3+4)/(7-2)</t>
+  </si>
+  <si>
+    <t>Math Functions</t>
+  </si>
+  <si>
+    <t>SQUARE(Value)</t>
+  </si>
+  <si>
+    <t>SQRT(Value)</t>
+  </si>
+  <si>
+    <t>ABS(Value)</t>
+  </si>
+  <si>
+    <t>SELECT PI() --3.14159265358979</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/gets the value of Pi as a float (15 –digit precision)/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ABS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/absolute value/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SQRT 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/square root (the result will be float)/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SQUARE 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/raise to power of two/</t>
+    </r>
+  </si>
+  <si>
+    <t>POWER(Value, Exponent)</t>
+  </si>
+  <si>
+    <t>ROUND(Value, Precision)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ROUND 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/obtains the desired precision/
+Negative precision rounds characters before the decimal point</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POWER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– raises value to the desired exponent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FLOOR &amp; CEILING </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– return the nearest integer</t>
+    </r>
+  </si>
+  <si>
+    <t>FLOOR(Value)
+CEILING(Value)</t>
+  </si>
+  <si>
+    <r>
+      <t>SIGN
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns 1, -1 or 0, depending on the value of the sign/</t>
+    </r>
+  </si>
+  <si>
+    <t>SIGN(Value)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RAND 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/gets a random float value in the range [0, 1]/
+If Seed is not specified, it will be assigned randomly</t>
+    </r>
+  </si>
+  <si>
+    <t>RAND()
+RAND(Seed)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DATEPART 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/extract a segment from a date as an integer/
+Part can be any part and format of date or time</t>
+    </r>
+  </si>
+  <si>
+    <t>DATEPART(Part, Date)
+YEAR(Date)
+MONTH(Date)
+DAY(Date)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DATEDIFF 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/finds the difference between two dates/
+Part can be any part and format of date or time</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT ID, FirstName, LastName,
+DATEDIFF(YEAR, HireDate, '2017/01/25')
+AS [Years In Service]
+FROM Employees</t>
+  </si>
+  <si>
+    <r>
+      <t>DATENAME 
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gets a string representation of a date's part/</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT DATENAME(weekday, '2017/01/27')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DATEADD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– performs date arithmetic
+/Part can be any part and format of date or time/</t>
+    </r>
+  </si>
+  <si>
+    <t>DATEADD(Part, Number, Date)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GETDATE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– obtains the current date and time</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT GETDATE()</t>
+  </si>
+  <si>
+    <t>SELECT EOMONTH('2017/01/27’)
+// 2017-01-31</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EOMONTH
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/this function returns the last day of the month
+containing a specified date, with an optional offset/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If the month_to_add argument has a value, then EOMONTH
+adds the specified number of months to start_date, and then
+returns the last day of the month for the resulting date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OFFSET &amp; FETCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – get only specific rows from the result set.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Used in combination with ORDER BY for pagination</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT ID, FirstName, LastName
+FROM Employees
+ORDER BY ID
+OFFSET 10 ROWS
+FETCH NEXT 5 ROWS ONLY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ROW_NUMBER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– always generate unique values without any
+gaps, even if there are ties</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RANK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– can have gaps in its sequence and when values are the
+same, they get the same rank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DENSE_RANK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– returns the same rank for ties, but it doesn’t
+have any gaps in the sequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wildcards
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selecting results by partial match</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT ID, FirstName, LastName
+FROM Employees
+WHERE FirstName LIKE 'Ro%'</t>
+  </si>
+  <si>
+    <t>Wildcards are used with WHERE for partial filtration
+Similar to Regular Expressions, but less capable
+Example: Find all employees who's first name starts with "Ro"</t>
+  </si>
+  <si>
+    <t>Supported characters include:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -- any string, including zero-length
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-- any single character
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[…]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -- any character within range
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[^…]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -- any character not in the range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESCAPE 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/specify a prefix to treat special characters as normal/</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT ID, Name
+FROM Tracks
+WHERE Name LIKE '%max!%' ESCAPE '!'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3863,6 +4823,15 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -4216,7 +5185,7 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4380,11 +5349,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4402,9 +5366,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4468,6 +5429,48 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7199,17 +8202,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" style="67" customWidth="1"/>
+    <col min="1" max="1" width="62.7109375" style="64" customWidth="1"/>
     <col min="2" max="2" width="95" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -7221,538 +8224,933 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="87" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="88"/>
-    </row>
-    <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>381</v>
-      </c>
+      <c r="A2" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="84"/>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="85"/>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>374</v>
-      </c>
-      <c r="B6" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
-        <v>359</v>
-      </c>
-      <c r="B7" s="89"/>
+      <c r="B5" s="99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A8" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="85"/>
+    </row>
+    <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="85" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="89"/>
-    </row>
-    <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>373</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>360</v>
-      </c>
+      <c r="B12" s="85"/>
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
-        <v>372</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>361</v>
+        <v>349</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="85"/>
+    </row>
+    <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="82"/>
+    </row>
+    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="85" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
-        <v>369</v>
-      </c>
-      <c r="B15" s="86"/>
-    </row>
-    <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="B24" s="85"/>
+    </row>
+    <row r="25" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="90" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="82"/>
+    </row>
+    <row r="29" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="B29" s="90" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="90" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="85" t="s">
+        <v>391</v>
+      </c>
+      <c r="B31" s="82"/>
+    </row>
+    <row r="32" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="B32" s="90" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>389</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="B19" s="89"/>
-    </row>
-    <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+      <c r="B33" s="83"/>
+    </row>
+    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34" s="75"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="80"/>
+      <c r="B36" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="81"/>
+      <c r="B37" s="62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="80"/>
+      <c r="B39" s="62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="80"/>
+      <c r="B40" s="62" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="62" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="81"/>
+      <c r="B43" s="62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="80"/>
+      <c r="B45" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="81"/>
+      <c r="B46" s="62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="77"/>
+      <c r="B51" s="62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="77"/>
+      <c r="B52" s="62" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="77"/>
+      <c r="B53" s="62" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="78"/>
+      <c r="B54" s="62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="77"/>
+      <c r="B56" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="67"/>
+    </row>
+    <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="77"/>
+      <c r="B57" s="62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="77"/>
+      <c r="B58" s="62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="77"/>
+      <c r="B59" s="99" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="77"/>
+      <c r="B60" s="99" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="77"/>
+      <c r="B61" s="99" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="77"/>
+      <c r="B62" s="99" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="77"/>
+      <c r="B63" s="99" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="78"/>
+      <c r="B64" s="99" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="100" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="77"/>
+      <c r="B66" s="101" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="78"/>
+      <c r="B67" s="101" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="B68" s="102" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="78"/>
+      <c r="B69" s="102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="B70" s="101" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="B71" s="102" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="B72" s="103" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A73" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" s="102" t="s">
         <v>378</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>391</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86" t="s">
-        <v>370</v>
-      </c>
-      <c r="B23" s="86"/>
-    </row>
-    <row r="24" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="87" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="73" t="s">
         <v>380</v>
       </c>
-      <c r="B26" s="87"/>
-    </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="B27" s="79"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
-        <v>322</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="65" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
-        <v>323</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="65" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="65" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
-      <c r="B36" s="65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
-        <v>325</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="C37" s="69" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="85"/>
-      <c r="B39" s="65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
-      <c r="B47" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C50" s="70"/>
-    </row>
-    <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="81"/>
-      <c r="B51" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
-      <c r="B52" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="60" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
-      <c r="B54" s="60" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="60" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="81"/>
-      <c r="B56" s="60" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="81"/>
-      <c r="B57" s="60" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
-      <c r="B58" s="60" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="B59" s="62" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="81"/>
-      <c r="B60" s="61" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
-      <c r="B61" s="61" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="80" t="s">
-        <v>309</v>
-      </c>
-      <c r="B62" s="63" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="82"/>
-      <c r="B63" s="63" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="74" t="s">
-        <v>344</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="B65" s="65" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="B67" s="61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B68" s="63" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="B69" s="71" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A70" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="B70" s="63" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
-        <v>385</v>
-      </c>
-      <c r="B71" s="63" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="61"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="61"/>
+      <c r="B74" s="102" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="B75" s="83"/>
+    </row>
+    <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A76" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="B76" s="75"/>
+    </row>
+    <row r="77" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="B77" s="60" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="B78" s="92" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="92" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A80" s="74" t="s">
+        <v>404</v>
+      </c>
+      <c r="B80" s="75"/>
+    </row>
+    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A81" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="B81" s="97" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" s="97" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="B83" s="97" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B84" s="97" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="B85" s="97" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="B86" s="96" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="B87" s="96" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="B88" s="98" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="B89" s="97" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="B90" s="96" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="B91" s="96" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="B92" s="96" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="B93" s="96" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="B94" s="96" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="72" t="s">
+        <v>433</v>
+      </c>
+      <c r="B95" s="97" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A96" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="B96" s="75"/>
+    </row>
+    <row r="97" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="B97" s="96" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="57" t="s">
+        <v>441</v>
+      </c>
+      <c r="B98" s="96" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="B99" s="96" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="B100" s="96" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="B101" s="96" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B102" s="96" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="70" t="s">
+        <v>448</v>
+      </c>
+      <c r="B103" s="97" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B104" s="96" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="B105" s="97" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A106" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="B106" s="75"/>
+    </row>
+    <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="B107" s="97" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B108" s="97" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="B109" s="96" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="B110" s="96" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="B111" s="96" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="93" t="s">
+        <v>465</v>
+      </c>
+      <c r="B112" s="97" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A113" s="94" t="s">
+        <v>466</v>
+      </c>
+      <c r="B113" s="97" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="94" t="s">
+        <v>468</v>
+      </c>
+      <c r="B114" s="96"/>
+    </row>
+    <row r="115" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="B115" s="96"/>
+    </row>
+    <row r="116" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="B116" s="96"/>
+    </row>
+    <row r="117" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="95" t="s">
+        <v>471</v>
+      </c>
+      <c r="B117" s="75"/>
+    </row>
+    <row r="118" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A118" s="94" t="s">
+        <v>473</v>
+      </c>
+      <c r="B118" s="97" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="70" t="s">
+        <v>474</v>
+      </c>
+      <c r="B119" s="98" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A120" s="94" t="s">
+        <v>476</v>
+      </c>
+      <c r="B120" s="97" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="69"/>
+    </row>
+    <row r="122" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="69"/>
+    </row>
+    <row r="123" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="69"/>
+    </row>
+    <row r="124" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="69"/>
+    </row>
+    <row r="125" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="69"/>
+    </row>
+    <row r="126" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="69"/>
+    </row>
+    <row r="127" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="69"/>
+    </row>
+    <row r="128" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="69"/>
+    </row>
+    <row r="129" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
+  <mergeCells count="25">
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8174,7 +9572,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -8194,7 +9592,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91"/>
+      <c r="A2" s="87"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -8262,10 +9660,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="93"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -21,7 +21,6 @@
     <sheet name="UnitTesting" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -31,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="481">
   <si>
     <t>Операция</t>
   </si>
@@ -3446,58 +3445,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CREATE VIEW v_EmployeesByDepartment AS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SELECT FirstName + ' ' + LastName AS [Full Name],
-Salary
-FROM Employees</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-That how is called : SELECT * FROM v_EmployeesByDepartment</t>
-    </r>
-  </si>
-  <si>
     <t>UPDATE Employees
      SET Salary = Salary * 1.1
      WHERE DepartmentId IN (1,2,3)
@@ -4390,99 +4337,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -- any string, including zero-length
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">_ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-- any single character
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[…]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -- any character within range
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[^…]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -- any character not in the range</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">ESCAPE 
 </t>
     </r>
@@ -4502,12 +4356,185 @@
     <t>SELECT ID, Name
 FROM Tracks
 WHERE Name LIKE '%max!%' ESCAPE '!'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -- any string, including zero-length
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-- any single character
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[…]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -- any character within range
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[^…]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -- any character not in the range - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Name] LIKE '[^rbd]%'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE VIEW v_EmployeesByDepartment AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT FirstName + ' ' + LastName AS [Full Name], Salary
+FROM Employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+That how is called : SELECT * FROM v_EmployeesByDepartment</t>
+    </r>
+  </si>
+  <si>
+    <t>SUBTABLE</t>
+  </si>
+  <si>
+    <t>SUBQUERIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT *
+     FROM (
+     SELECT EmployeeID, FirstName,LastName, Salary, 
+     DENSE_RANK() OVER   
+     (PARTITION BY Salary ORDER BY EmployeeID) AS Rank
+     FROM  Employees 
+     WHERE Salary BETWEEN 10000 AND 50000
+ ) AS SubTable
+      WHERE SubTable.Rank = 2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5185,7 +5212,7 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5382,10 +5409,61 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5406,18 +5484,6 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5430,47 +5496,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5565,7 +5595,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5573,17 +5603,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5637,7 +5656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5672,7 +5691,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8204,8 +8223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8224,22 +8243,22 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B2" s="91"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
-        <v>395</v>
-      </c>
-      <c r="B3" s="85"/>
+      <c r="A3" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="92"/>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="74" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8247,15 +8266,15 @@
       <c r="A5" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="81" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="75" t="s">
         <v>342</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="74" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8263,7 +8282,7 @@
       <c r="A7" s="72" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="81" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8271,22 +8290,22 @@
       <c r="A8" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="74" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85" t="s">
-        <v>394</v>
-      </c>
-      <c r="B9" s="85"/>
+      <c r="A9" s="92" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="92"/>
     </row>
     <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>343</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -8294,20 +8313,20 @@
         <v>344</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="85"/>
+      <c r="B12" s="92"/>
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="81" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8315,7 +8334,7 @@
       <c r="A14" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="81" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8323,21 +8342,21 @@
       <c r="A15" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="81" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="92"/>
     </row>
     <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="74" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8345,7 +8364,7 @@
       <c r="A18" s="57" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="74" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8353,21 +8372,21 @@
       <c r="A19" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="74" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="90" t="s">
         <v>365</v>
       </c>
-      <c r="B20" s="82"/>
+      <c r="B20" s="90"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="74" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8375,7 +8394,7 @@
       <c r="A22" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="74" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8383,21 +8402,21 @@
       <c r="A23" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="74" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="92" t="s">
         <v>362</v>
       </c>
-      <c r="B24" s="85"/>
+      <c r="B24" s="92"/>
     </row>
     <row r="25" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="74" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8405,7 +8424,7 @@
       <c r="A26" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="74" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8413,60 +8432,60 @@
       <c r="A27" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="74" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="90" t="s">
         <v>366</v>
       </c>
-      <c r="B28" s="82"/>
-    </row>
-    <row r="29" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="90"/>
+    </row>
+    <row r="29" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="B29" s="90" t="s">
-        <v>388</v>
+      <c r="B29" s="74" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="74" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="B31" s="82"/>
+      <c r="A31" s="92" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="90"/>
     </row>
     <row r="32" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
-        <v>390</v>
-      </c>
-      <c r="B32" s="90" t="s">
-        <v>392</v>
+        <v>389</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="88" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="83"/>
+      <c r="B33" s="88"/>
     </row>
     <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="B34" s="75"/>
+      <c r="B34" s="87"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="96" t="s">
         <v>322</v>
       </c>
       <c r="B35" s="62" t="s">
@@ -8474,7 +8493,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="62" t="s">
         <v>314</v>
       </c>
@@ -8483,13 +8502,13 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="96" t="s">
         <v>323</v>
       </c>
       <c r="B38" s="62" t="s">
@@ -8497,25 +8516,25 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
+      <c r="A39" s="97"/>
       <c r="B39" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
+      <c r="A40" s="97"/>
       <c r="B40" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="96" t="s">
         <v>324</v>
       </c>
       <c r="B42" s="62" t="s">
@@ -8523,13 +8542,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="96" t="s">
         <v>325</v>
       </c>
       <c r="B44" s="62" t="s">
@@ -8540,7 +8559,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="62" t="s">
         <v>327</v>
       </c>
@@ -8549,7 +8568,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="62" t="s">
         <v>328</v>
       </c>
@@ -8579,7 +8598,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="93" t="s">
         <v>290</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -8587,31 +8606,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="93" t="s">
         <v>291</v>
       </c>
       <c r="B55" s="62" t="s">
@@ -8619,91 +8638,91 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C56" s="67"/>
     </row>
     <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
+      <c r="A58" s="94"/>
       <c r="B58" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="77"/>
-      <c r="B59" s="99" t="s">
+      <c r="A59" s="94"/>
+      <c r="B59" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
-      <c r="B60" s="99" t="s">
+      <c r="A60" s="94"/>
+      <c r="B60" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
-      <c r="B61" s="99" t="s">
+      <c r="A61" s="94"/>
+      <c r="B61" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
-      <c r="B62" s="99" t="s">
+      <c r="A62" s="94"/>
+      <c r="B62" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
-      <c r="B63" s="99" t="s">
+      <c r="A63" s="94"/>
+      <c r="B63" s="81" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
-      <c r="B64" s="99" t="s">
+      <c r="A64" s="95"/>
+      <c r="B64" s="81" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="76" t="s">
+      <c r="A65" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="B65" s="100" t="s">
+      <c r="B65" s="82" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
-      <c r="B66" s="101" t="s">
+      <c r="A66" s="94"/>
+      <c r="B66" s="83" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="101" t="s">
+      <c r="A67" s="95"/>
+      <c r="B67" s="83" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="B68" s="102" t="s">
+      <c r="B68" s="84" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="102" t="s">
+      <c r="A69" s="95"/>
+      <c r="B69" s="84" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8711,7 +8730,7 @@
       <c r="A70" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="B70" s="101" t="s">
+      <c r="B70" s="83" t="s">
         <v>340</v>
       </c>
     </row>
@@ -8719,15 +8738,15 @@
       <c r="A71" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="B71" s="102" t="s">
+      <c r="B71" s="84" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="B72" s="103" t="s">
+        <v>392</v>
+      </c>
+      <c r="B72" s="85" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8735,7 +8754,7 @@
       <c r="A73" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="B73" s="102" t="s">
+      <c r="B73" s="84" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8743,365 +8762,373 @@
       <c r="A74" s="73" t="s">
         <v>380</v>
       </c>
-      <c r="B74" s="102" t="s">
+      <c r="B74" s="84" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" s="88"/>
+    </row>
+    <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A76" s="89" t="s">
         <v>396</v>
       </c>
-      <c r="B75" s="83"/>
-    </row>
-    <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A76" s="74" t="s">
-        <v>397</v>
-      </c>
-      <c r="B76" s="75"/>
+      <c r="B76" s="87"/>
     </row>
     <row r="77" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" s="60" t="s">
         <v>398</v>
-      </c>
-      <c r="B77" s="60" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="B78" s="76" t="s">
         <v>400</v>
-      </c>
-      <c r="B78" s="92" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="B79" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="B79" s="92" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A80" s="89" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A80" s="74" t="s">
-        <v>404</v>
-      </c>
-      <c r="B80" s="75"/>
+      <c r="B80" s="87"/>
     </row>
     <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
-        <v>406</v>
-      </c>
-      <c r="B81" s="97" t="s">
         <v>405</v>
+      </c>
+      <c r="B81" s="80" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="B82" s="80" t="s">
         <v>407</v>
-      </c>
-      <c r="B82" s="97" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="B83" s="80" t="s">
         <v>409</v>
-      </c>
-      <c r="B83" s="97" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B84" s="80" t="s">
         <v>411</v>
-      </c>
-      <c r="B84" s="97" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="B85" s="80" t="s">
         <v>413</v>
-      </c>
-      <c r="B85" s="97" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="B86" s="79" t="s">
         <v>415</v>
-      </c>
-      <c r="B86" s="96" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B87" s="79" t="s">
         <v>417</v>
-      </c>
-      <c r="B87" s="96" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="B88" s="103" t="s">
         <v>419</v>
-      </c>
-      <c r="B88" s="98" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
-        <v>429</v>
-      </c>
-      <c r="B89" s="97" t="s">
-        <v>421</v>
+        <v>428</v>
+      </c>
+      <c r="B89" s="80" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="B90" s="96" t="s">
-        <v>422</v>
+        <v>427</v>
+      </c>
+      <c r="B90" s="79" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A91" s="57" t="s">
-        <v>427</v>
-      </c>
-      <c r="B91" s="96" t="s">
-        <v>423</v>
+        <v>426</v>
+      </c>
+      <c r="B91" s="79" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B92" s="79" t="s">
         <v>424</v>
-      </c>
-      <c r="B92" s="96" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="B93" s="96" t="s">
-        <v>430</v>
+        <v>425</v>
+      </c>
+      <c r="B93" s="79" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B94" s="79" t="s">
         <v>431</v>
-      </c>
-      <c r="B94" s="96" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="81.75" x14ac:dyDescent="0.25">
       <c r="A95" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="B95" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="B95" s="97" t="s">
+    </row>
+    <row r="96" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A96" s="89" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A96" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="B96" s="75"/>
+      <c r="B96" s="87"/>
     </row>
     <row r="97" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A97" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="B97" s="96" t="s">
         <v>439</v>
+      </c>
+      <c r="B97" s="79" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="57" t="s">
-        <v>441</v>
-      </c>
-      <c r="B98" s="96" t="s">
-        <v>438</v>
+        <v>440</v>
+      </c>
+      <c r="B98" s="79" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A99" s="57" t="s">
-        <v>442</v>
-      </c>
-      <c r="B99" s="96" t="s">
-        <v>437</v>
+        <v>441</v>
+      </c>
+      <c r="B99" s="79" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A100" s="57" t="s">
-        <v>443</v>
-      </c>
-      <c r="B100" s="96" t="s">
-        <v>436</v>
+        <v>442</v>
+      </c>
+      <c r="B100" s="79" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="70" t="s">
-        <v>447</v>
-      </c>
-      <c r="B101" s="96" t="s">
-        <v>444</v>
+        <v>446</v>
+      </c>
+      <c r="B101" s="79" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="B102" s="96" t="s">
         <v>445</v>
+      </c>
+      <c r="B102" s="79" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="B103" s="80" t="s">
         <v>448</v>
-      </c>
-      <c r="B103" s="97" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A104" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="B104" s="79" t="s">
         <v>450</v>
-      </c>
-      <c r="B104" s="96" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A105" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="B105" s="80" t="s">
         <v>452</v>
       </c>
-      <c r="B105" s="97" t="s">
-        <v>453</v>
-      </c>
     </row>
     <row r="106" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A106" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="B106" s="75"/>
+      <c r="A106" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" s="87"/>
     </row>
     <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="B107" s="80" t="s">
         <v>454</v>
-      </c>
-      <c r="B107" s="97" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="B108" s="80" t="s">
         <v>456</v>
-      </c>
-      <c r="B108" s="97" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A109" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="B109" s="79" t="s">
         <v>458</v>
-      </c>
-      <c r="B109" s="96" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="B110" s="79" t="s">
         <v>460</v>
-      </c>
-      <c r="B110" s="96" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="70" t="s">
+        <v>461</v>
+      </c>
+      <c r="B111" s="79" t="s">
         <v>462</v>
       </c>
-      <c r="B111" s="96" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="77" t="s">
+        <v>464</v>
+      </c>
+      <c r="B112" s="80" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="93" t="s">
+    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A113" s="78" t="s">
         <v>465</v>
       </c>
-      <c r="B112" s="97" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A113" s="94" t="s">
+      <c r="B113" s="80" t="s">
         <v>466</v>
       </c>
-      <c r="B113" s="97" t="s">
+    </row>
+    <row r="114" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="78" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="94" t="s">
+      <c r="B114" s="79"/>
+    </row>
+    <row r="115" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="B114" s="96"/>
-    </row>
-    <row r="115" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="94" t="s">
+      <c r="B115" s="79"/>
+    </row>
+    <row r="116" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="78" t="s">
         <v>469</v>
       </c>
-      <c r="B115" s="96"/>
-    </row>
-    <row r="116" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="94" t="s">
+      <c r="B116" s="79"/>
+    </row>
+    <row r="117" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="86" t="s">
         <v>470</v>
       </c>
-      <c r="B116" s="96"/>
-    </row>
-    <row r="117" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="95" t="s">
+      <c r="B117" s="87"/>
+    </row>
+    <row r="118" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A118" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="B118" s="80" t="s">
         <v>471</v>
-      </c>
-      <c r="B117" s="75"/>
-    </row>
-    <row r="118" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A118" s="94" t="s">
-        <v>473</v>
-      </c>
-      <c r="B118" s="97" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="70" t="s">
+        <v>473</v>
+      </c>
+      <c r="B119" s="103" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A120" s="78" t="s">
         <v>474</v>
       </c>
-      <c r="B119" s="98" t="s">
+      <c r="B120" s="80" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A120" s="94" t="s">
-        <v>476</v>
-      </c>
-      <c r="B120" s="97" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="69"/>
-    </row>
-    <row r="122" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="69"/>
+    <row r="121" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="B121" s="87"/>
+    </row>
+    <row r="122" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A122" s="70" t="s">
+        <v>478</v>
+      </c>
+      <c r="B122" s="104" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="123" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="69"/>
@@ -9125,13 +9152,17 @@
       <c r="A129" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A106:B106"/>
+  <mergeCells count="26">
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A2:B2"/>
@@ -9142,15 +9173,12 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A106:B106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9572,7 +9600,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="99" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -9592,7 +9620,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
+      <c r="A2" s="100"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -9660,10 +9688,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -8224,7 +8224,7 @@
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="482">
   <si>
     <t>Операция</t>
   </si>
@@ -4530,17 +4530,34 @@
  ) AS SubTable
       WHERE SubTable.Rank = 2 </t>
   </si>
+  <si>
+    <t xml:space="preserve">SELECT *
+ FROM (
+     SELECT EmployeeID, FirstName,LastName, Salary, 
+     DENSE_RANK() OVER (PARTITION BY Salary ORDER BY EmployeeID) AS Rank
+     FROM Employees 
+     WHERE Salary BETWEEN 10000 AND 50000 ) AS SubTable
+ WHERE SubTable.Rank = 2 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5206,42 +5223,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5256,91 +5273,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5355,73 +5372,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5430,77 +5447,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5595,7 +5612,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5603,6 +5620,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5656,7 +5684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5691,7 +5719,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8223,8 +8251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8243,16 +8271,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="99"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="100" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="100"/>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -8295,10 +8323,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="100" t="s">
         <v>393</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="100"/>
     </row>
     <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
@@ -8317,10 +8345,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="100"/>
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
@@ -8347,10 +8375,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="92"/>
+      <c r="B16" s="100"/>
     </row>
     <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
@@ -8377,10 +8405,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="97" t="s">
         <v>365</v>
       </c>
-      <c r="B20" s="90"/>
+      <c r="B20" s="97"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="72" t="s">
@@ -8407,10 +8435,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="100" t="s">
         <v>362</v>
       </c>
-      <c r="B24" s="92"/>
+      <c r="B24" s="100"/>
     </row>
     <row r="25" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="72" t="s">
@@ -8437,10 +8465,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="97" t="s">
         <v>366</v>
       </c>
-      <c r="B28" s="90"/>
+      <c r="B28" s="97"/>
     </row>
     <row r="29" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
@@ -8459,10 +8487,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="B31" s="90"/>
+      <c r="B31" s="97"/>
     </row>
     <row r="32" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
@@ -8473,19 +8501,19 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="98" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="88"/>
+      <c r="B33" s="98"/>
     </row>
     <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="90" t="s">
         <v>312</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="89"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="94" t="s">
         <v>322</v>
       </c>
       <c r="B35" s="62" t="s">
@@ -8493,7 +8521,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="62" t="s">
         <v>314</v>
       </c>
@@ -8502,13 +8530,13 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="98"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="94" t="s">
         <v>323</v>
       </c>
       <c r="B38" s="62" t="s">
@@ -8516,25 +8544,25 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="94" t="s">
         <v>324</v>
       </c>
       <c r="B42" s="62" t="s">
@@ -8542,13 +8570,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="98"/>
+      <c r="A43" s="96"/>
       <c r="B43" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="94" t="s">
         <v>325</v>
       </c>
       <c r="B44" s="62" t="s">
@@ -8559,7 +8587,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="62" t="s">
         <v>327</v>
       </c>
@@ -8568,7 +8596,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="98"/>
+      <c r="A46" s="96"/>
       <c r="B46" s="62" t="s">
         <v>328</v>
       </c>
@@ -8598,7 +8626,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="91" t="s">
         <v>290</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -8606,31 +8634,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="95"/>
+      <c r="A54" s="93"/>
       <c r="B54" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="91" t="s">
         <v>291</v>
       </c>
       <c r="B55" s="62" t="s">
@@ -8638,62 +8666,62 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="94"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C56" s="67"/>
     </row>
     <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
+      <c r="A57" s="92"/>
       <c r="B57" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="94"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="94"/>
+      <c r="A59" s="92"/>
       <c r="B59" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="94"/>
+      <c r="A60" s="92"/>
       <c r="B60" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="94"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
+      <c r="A62" s="92"/>
       <c r="B62" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
+      <c r="A63" s="92"/>
       <c r="B63" s="81" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
+      <c r="A64" s="93"/>
       <c r="B64" s="81" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="91" t="s">
         <v>292</v>
       </c>
       <c r="B65" s="82" t="s">
@@ -8701,19 +8729,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="94"/>
+      <c r="A66" s="92"/>
       <c r="B66" s="83" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
+      <c r="A67" s="93"/>
       <c r="B67" s="83" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="93" t="s">
+      <c r="A68" s="91" t="s">
         <v>309</v>
       </c>
       <c r="B68" s="84" t="s">
@@ -8721,7 +8749,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="95"/>
+      <c r="A69" s="93"/>
       <c r="B69" s="84" t="s">
         <v>311</v>
       </c>
@@ -8767,16 +8795,16 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="88" t="s">
+      <c r="A75" s="98" t="s">
         <v>395</v>
       </c>
-      <c r="B75" s="88"/>
+      <c r="B75" s="98"/>
     </row>
     <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="90" t="s">
         <v>396</v>
       </c>
-      <c r="B76" s="87"/>
+      <c r="B76" s="89"/>
     </row>
     <row r="77" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="70" t="s">
@@ -8803,10 +8831,10 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A80" s="89" t="s">
+      <c r="A80" s="90" t="s">
         <v>403</v>
       </c>
-      <c r="B80" s="87"/>
+      <c r="B80" s="89"/>
     </row>
     <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
@@ -8868,7 +8896,7 @@
       <c r="A88" s="57" t="s">
         <v>418</v>
       </c>
-      <c r="B88" s="103" t="s">
+      <c r="B88" s="86" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8929,10 +8957,10 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A96" s="89" t="s">
+      <c r="A96" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="B96" s="87"/>
+      <c r="B96" s="89"/>
     </row>
     <row r="97" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A97" s="57" t="s">
@@ -9007,10 +9035,10 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A106" s="89" t="s">
+      <c r="A106" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="B106" s="87"/>
+      <c r="B106" s="89"/>
     </row>
     <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="57" t="s">
@@ -9080,17 +9108,19 @@
       </c>
       <c r="B115" s="79"/>
     </row>
-    <row r="116" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A116" s="78" t="s">
         <v>469</v>
       </c>
-      <c r="B116" s="79"/>
+      <c r="B116" s="80" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="117" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="86" t="s">
+      <c r="A117" s="88" t="s">
         <v>470</v>
       </c>
-      <c r="B117" s="87"/>
+      <c r="B117" s="89"/>
     </row>
     <row r="118" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A118" s="78" t="s">
@@ -9104,7 +9134,7 @@
       <c r="A119" s="70" t="s">
         <v>473</v>
       </c>
-      <c r="B119" s="103" t="s">
+      <c r="B119" s="86" t="s">
         <v>476</v>
       </c>
     </row>
@@ -9117,16 +9147,16 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="86" t="s">
+      <c r="A121" s="88" t="s">
         <v>479</v>
       </c>
-      <c r="B121" s="87"/>
+      <c r="B121" s="89"/>
     </row>
     <row r="122" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A122" s="70" t="s">
         <v>478</v>
       </c>
-      <c r="B122" s="104" t="s">
+      <c r="B122" s="87" t="s">
         <v>480</v>
       </c>
     </row>
@@ -9153,6 +9183,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A55:A64"/>
@@ -9163,16 +9203,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
@@ -9600,7 +9630,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -9620,7 +9650,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -9688,10 +9718,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -8251,8 +8251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="512">
   <si>
     <t>Операция</t>
   </si>
@@ -4072,12 +4072,6 @@
     </r>
   </si>
   <si>
-    <t>DATEPART(Part, Date)
-YEAR(Date)
-MONTH(Date)
-DAY(Date)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">DATEDIFF 
 </t>
@@ -4539,12 +4533,399 @@
      WHERE Salary BETWEEN 10000 AND 50000 ) AS SubTable
  WHERE SubTable.Rank = 2 </t>
   </si>
+  <si>
+    <t>Data Aggregation - COUNT, SUM, MAX, MIN, AVG…</t>
+  </si>
+  <si>
+    <t>Having Clause</t>
+  </si>
+  <si>
+    <t>Pivot Tables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Grouping - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grouping allows receiving data into separate groups based on a common property</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GROUP BY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allows you to get each separate group and use
+an "aggregate" function over it (like Average, Min or Max):</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT e.DepartmentID
+FROM Employees AS e
+GROUP BY e.DepartmentID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DISTINCT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allows you to get all unique values:</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT DISTINCT e.DepartmentID
+FROM Employees AS e</t>
+  </si>
+  <si>
+    <t>SELECT e.DepartmentID,
+MIN(e.Salary) AS MinSalary
+FROM Employees AS e
+GROUP BY e.DepartmentID</t>
+  </si>
+  <si>
+    <t>Operate over (non-empty) groups
+Perform data analysis on each one
+MIN, MAX, AVG, COUNT, etc.Aggregate functions usually ignore NULL values.</t>
+  </si>
+  <si>
+    <r>
+      <t>Aggregate Functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT e.DepartmentID,
+COUNT(e.Salary) AS SalaryCount
+FROM Employees AS e
+GROUP BY e.DepartmentID</t>
+  </si>
+  <si>
+    <t>SELECT e.DepartmentID,
+MAX(e.Salary) AS MaxSalary
+FROM Employees AS e
+GROUP BY e.DepartmentID</t>
+  </si>
+  <si>
+    <r>
+      <t>MAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - takes the largest value in a column.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - takes the smallest value in a column.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">COUNT(ColumnName) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 
+counts the values in one or more grouped columns.
+Ignores NULL values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AVG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- calculates the average value in a column.</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT e.DepartmentID,
+AVG(e.Salary) AS AvgSalary
+FROM Employees AS e
+GROUP BY e.DepartmentID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STRING_AGG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 
+Concatenates the values of string expressions
+and places separator values between them. The separator is
+not added at the end of string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STRING_AGG ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expression,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> separator )
+[WITHIN GROUP ( ORDER BY expression [ ASC | DESC ] )]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expressions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are converted to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NVARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+types during concatenation. Non-string types are
+converted to NVARCHAR type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXAMPLE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT town,
+STRING_AGG (email, ';') WITHIN GROUP
+(ORDER BY email ASC) AS emails
+FROM dbo.Employee
+GROUP BY town;</t>
+    </r>
+  </si>
+  <si>
+    <t>The HAVING clause is used to filter data based on
+aggregate values</t>
+  </si>
+  <si>
+    <t>We cannot use it without grouping first
+Aggregate functions (MIN, MAX, SUM etc.) are executed only once
+Unlike HAVING, WHERE filters rows before aggregation</t>
+  </si>
+  <si>
+    <t>SELECT e.DepartmentID,
+SUM(e.Salary) AS TotalSalary
+FROM Employees AS e
+GROUP BY e.DepartmentID
+HAVING SUM(e.Salary) &gt;= 15_000</t>
+  </si>
+  <si>
+    <t>Filter departments having total salary more than or equal to 15,000</t>
+  </si>
+  <si>
+    <t>Summarizes data from another table
+Applies an aggregate operation
+Sorting, averaging, summing, etc.
+Typically includes grouping of the data</t>
+  </si>
+  <si>
+    <t>You can use the PIVOT and UNPIVOT relational operators to
+change a table-valued expression into another table
+PIVOT rotates a table-valued expression by turning the unique
+values from one column in the expression into multiple
+columns in the output, and performs aggregations where they
+are required on any remaining column values that are wanted
+in the final output
+UNPIVOT performs the opposite operation to PIVOT by rotating
+columns of a table-valued expression into column values</t>
+  </si>
+  <si>
+    <t>EXAMPLE</t>
+  </si>
+  <si>
+    <t>SELECT 'AverageCost' AS Cost_Sorted_By_Production_Days,[0], [1], [2], [3], [4]
+FROM
+(SELECT DaysToManufacture, StandardCost
+     FROM Production.Product) AS SourceTable
+PIVOT
+(
+     AVG(StandardCost)
+     FOR DaysToManufacture IN ([0], [1], [2], [3], [4])
+) AS PivotTable;</t>
+  </si>
+  <si>
+    <t>WITHIN GROUP</t>
+  </si>
+  <si>
+    <t>Извършва дейтвие върху агрегирания стринг (STRING_AGG (email, ';') )</t>
+  </si>
+  <si>
+    <t>DATEPART(Part, Date)
+YEAR(Date)
+MONTH(Date)
+DAY(Date)
+HOUR(Hour)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4874,6 +5255,23 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -5229,7 +5627,7 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5468,6 +5866,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5495,18 +5905,6 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5518,6 +5916,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5612,7 +6016,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5620,17 +6024,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5684,7 +6077,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5719,7 +6112,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8249,10 +8642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8271,16 +8664,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="89" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="90"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="100"/>
+      <c r="B3" s="91"/>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -8323,10 +8716,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="91" t="s">
         <v>393</v>
       </c>
-      <c r="B9" s="100"/>
+      <c r="B9" s="91"/>
     </row>
     <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
@@ -8345,10 +8738,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="91"/>
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
@@ -8375,10 +8768,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="91"/>
     </row>
     <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
@@ -8405,10 +8798,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="88" t="s">
         <v>365</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="88"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="72" t="s">
@@ -8435,10 +8828,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="B24" s="100"/>
+      <c r="B24" s="91"/>
     </row>
     <row r="25" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="72" t="s">
@@ -8465,17 +8858,17 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="88" t="s">
         <v>366</v>
       </c>
-      <c r="B28" s="97"/>
+      <c r="B28" s="88"/>
     </row>
     <row r="29" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>381</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
@@ -8487,10 +8880,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="91" t="s">
         <v>390</v>
       </c>
-      <c r="B31" s="97"/>
+      <c r="B31" s="88"/>
     </row>
     <row r="32" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
@@ -8501,19 +8894,19 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="89" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="98"/>
+      <c r="B33" s="89"/>
     </row>
     <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="94" t="s">
         <v>312</v>
       </c>
-      <c r="B34" s="89"/>
+      <c r="B34" s="93"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="98" t="s">
         <v>322</v>
       </c>
       <c r="B35" s="62" t="s">
@@ -8521,7 +8914,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="62" t="s">
         <v>314</v>
       </c>
@@ -8530,13 +8923,13 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="98" t="s">
         <v>323</v>
       </c>
       <c r="B38" s="62" t="s">
@@ -8544,25 +8937,25 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="96"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="98" t="s">
         <v>324</v>
       </c>
       <c r="B42" s="62" t="s">
@@ -8570,13 +8963,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="96"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="98" t="s">
         <v>325</v>
       </c>
       <c r="B44" s="62" t="s">
@@ -8587,7 +8980,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="62" t="s">
         <v>327</v>
       </c>
@@ -8596,7 +8989,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="96"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="62" t="s">
         <v>328</v>
       </c>
@@ -8626,7 +9019,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="95" t="s">
         <v>290</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -8634,31 +9027,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="92"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="93"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91" t="s">
+      <c r="A55" s="95" t="s">
         <v>291</v>
       </c>
       <c r="B55" s="62" t="s">
@@ -8666,62 +9059,62 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="92"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C56" s="67"/>
     </row>
     <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="92"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="92"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="92"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="92"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="92"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="92"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="81" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="93"/>
+      <c r="A64" s="97"/>
       <c r="B64" s="81" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="95" t="s">
         <v>292</v>
       </c>
       <c r="B65" s="82" t="s">
@@ -8729,19 +9122,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="92"/>
+      <c r="A66" s="96"/>
       <c r="B66" s="83" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="93"/>
+      <c r="A67" s="97"/>
       <c r="B67" s="83" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="95" t="s">
         <v>309</v>
       </c>
       <c r="B68" s="84" t="s">
@@ -8749,7 +9142,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="93"/>
+      <c r="A69" s="97"/>
       <c r="B69" s="84" t="s">
         <v>311</v>
       </c>
@@ -8795,16 +9188,16 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="98" t="s">
+      <c r="A75" s="89" t="s">
         <v>395</v>
       </c>
-      <c r="B75" s="98"/>
+      <c r="B75" s="89"/>
     </row>
     <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="94" t="s">
         <v>396</v>
       </c>
-      <c r="B76" s="89"/>
+      <c r="B76" s="93"/>
     </row>
     <row r="77" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="70" t="s">
@@ -8831,10 +9224,10 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="B80" s="89"/>
+      <c r="B80" s="93"/>
     </row>
     <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
@@ -8957,10 +9350,10 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A96" s="90" t="s">
+      <c r="A96" s="94" t="s">
         <v>434</v>
       </c>
-      <c r="B96" s="89"/>
+      <c r="B96" s="93"/>
     </row>
     <row r="97" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A97" s="57" t="s">
@@ -9035,164 +9428,279 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A106" s="90" t="s">
+      <c r="A106" s="94" t="s">
         <v>434</v>
       </c>
-      <c r="B106" s="89"/>
-    </row>
-    <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="B106" s="93"/>
+    </row>
+    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="57" t="s">
         <v>453</v>
       </c>
       <c r="B107" s="80" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="B108" s="80" t="s">
         <v>455</v>
-      </c>
-      <c r="B108" s="80" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A109" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B109" s="79" t="s">
         <v>457</v>
-      </c>
-      <c r="B109" s="79" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="B110" s="79" t="s">
         <v>459</v>
-      </c>
-      <c r="B110" s="79" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="70" t="s">
+        <v>460</v>
+      </c>
+      <c r="B111" s="79" t="s">
         <v>461</v>
-      </c>
-      <c r="B111" s="79" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="119.25" x14ac:dyDescent="0.25">
       <c r="A112" s="77" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B112" s="80" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A113" s="78" t="s">
+        <v>464</v>
+      </c>
+      <c r="B113" s="80" t="s">
         <v>465</v>
-      </c>
-      <c r="B113" s="80" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A114" s="78" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B114" s="79"/>
     </row>
     <row r="115" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A115" s="78" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B115" s="79"/>
     </row>
     <row r="116" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A116" s="78" t="s">
+        <v>468</v>
+      </c>
+      <c r="B116" s="80" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="92" t="s">
         <v>469</v>
       </c>
-      <c r="B116" s="80" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="88" t="s">
-        <v>470</v>
-      </c>
-      <c r="B117" s="89"/>
+      <c r="B117" s="93"/>
     </row>
     <row r="118" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A118" s="78" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B118" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="70" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B119" s="86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A120" s="78" t="s">
+        <v>473</v>
+      </c>
+      <c r="B120" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="B120" s="80" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="121" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="88" t="s">
-        <v>479</v>
-      </c>
-      <c r="B121" s="89"/>
+      <c r="A121" s="92" t="s">
+        <v>478</v>
+      </c>
+      <c r="B121" s="93"/>
     </row>
     <row r="122" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A122" s="70" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B122" s="87" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="69"/>
-    </row>
-    <row r="124" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="69"/>
-    </row>
-    <row r="125" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="69"/>
-    </row>
-    <row r="126" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="69"/>
-    </row>
-    <row r="127" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A127" s="69"/>
-    </row>
-    <row r="128" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="69"/>
-    </row>
-    <row r="129" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A129" s="69"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="89" t="s">
+        <v>481</v>
+      </c>
+      <c r="B123" s="89"/>
+    </row>
+    <row r="124" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A124" s="94" t="s">
+        <v>484</v>
+      </c>
+      <c r="B124" s="93"/>
+    </row>
+    <row r="125" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="B125" s="76" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="70" t="s">
+        <v>487</v>
+      </c>
+      <c r="B126" s="76" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="70"/>
+    </row>
+    <row r="128" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="92" t="s">
+        <v>491</v>
+      </c>
+      <c r="B128" s="105"/>
+    </row>
+    <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="B129" s="76" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B130" s="76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="B131" s="76" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="B132" s="76" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="B133" s="76" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A134" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="B134" s="76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="B135" s="106" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A136" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="B136" s="93"/>
+    </row>
+    <row r="137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="B137" s="76" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A138" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="B138" s="76" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A139" s="94" t="s">
+        <v>483</v>
+      </c>
+      <c r="B139" s="93"/>
+    </row>
+    <row r="140" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A140" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="B140" s="76" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A141" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="B141" s="76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="57"/>
+      <c r="B142" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="31">
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A136:B136"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A55:A64"/>
@@ -9209,6 +9717,16 @@
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="517">
   <si>
     <t>Операция</t>
   </si>
@@ -2596,13 +2596,6 @@
     <t>ПОЯСНЕНИЕ</t>
   </si>
   <si>
-    <t>CREATE TABLE People(
-Id int NOT NULL,
-Email varchar(50) NOT NULL,
-FirstName varchar(50),
-LastName varchar(50) )</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">SET IDENTITY_INSERT </t>
     </r>
@@ -4920,11 +4913,42 @@
 DAY(Date)
 HOUR(Hour)</t>
   </si>
+  <si>
+    <t>Date Functions</t>
+  </si>
+  <si>
+    <t>Създаване на динамична колона при заявка</t>
+  </si>
+  <si>
+    <t>SELECT 
+     ProductName, OrderDate, DATEADD(DAY, 3, OrderDate) AS [Pay Due]
+FROM 
+     Orders</t>
+  </si>
+  <si>
+    <t>INSERT TABLE RECORDS</t>
+  </si>
+  <si>
+    <t>INSERT INTO Projects(Name, StartDate)
+     VALUES('Introduction to SQL Course', '1/1/2006')</t>
+  </si>
+  <si>
+    <t>CREATE TABLE People(
+Id int NOT NULL,
+Email varchar(50) NOT NULL,
+FirstName varchar(50),
+LastName varchar(50) )
+CREATE TABLE Minions(
+Id INT PRIMARY KEY IDENTITY,
+[Name] NVARCHAR(20) NOT NULL,
+Age INT
+)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5866,26 +5890,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5905,6 +5926,15 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5916,12 +5946,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6016,7 +6040,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6024,6 +6048,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6077,7 +6112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6112,7 +6147,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8642,10 +8677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8664,47 +8699,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="89" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="90"/>
+      <c r="A2" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="101"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
-        <v>394</v>
-      </c>
-      <c r="B3" s="91"/>
+      <c r="A3" s="102" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="102"/>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="81" t="s">
         <v>370</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8715,614 +8750,612 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
-        <v>393</v>
-      </c>
-      <c r="B9" s="91"/>
-    </row>
-    <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+    <row r="9" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="102" t="s">
+        <v>514</v>
+      </c>
+      <c r="B10" s="102"/>
+    </row>
+    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="102" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="102"/>
+    </row>
+    <row r="13" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B13" s="74" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="102"/>
+    </row>
+    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="102"/>
+    </row>
+    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="100" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="100"/>
+    </row>
+    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" s="102"/>
+    </row>
+    <row r="27" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="100" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="100"/>
+    </row>
+    <row r="31" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="102" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="100"/>
+    </row>
+    <row r="34" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
-        <v>355</v>
-      </c>
-      <c r="B12" s="91"/>
-    </row>
-    <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>349</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" s="91"/>
-    </row>
-    <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>368</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="B20" s="88"/>
-    </row>
-    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
-        <v>372</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>384</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="91" t="s">
-        <v>362</v>
-      </c>
-      <c r="B24" s="91"/>
-    </row>
-    <row r="25" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="B28" s="88"/>
-    </row>
-    <row r="29" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>381</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>382</v>
-      </c>
-      <c r="B30" s="74" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="91" t="s">
+      <c r="B34" s="74" t="s">
         <v>390</v>
       </c>
-      <c r="B31" s="88"/>
-    </row>
-    <row r="32" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
-        <v>389</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="89" t="s">
-        <v>376</v>
-      </c>
-      <c r="B33" s="89"/>
-    </row>
-    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="94" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="91"/>
+    </row>
+    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="B34" s="93"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="98" t="s">
+      <c r="B36" s="90"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="97" t="s">
         <v>322</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B37" s="62" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
-      <c r="B36" s="62" t="s">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="98"/>
+      <c r="B38" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="C36" s="66" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="62" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="98" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>316</v>
+      <c r="C38" s="66" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="99"/>
       <c r="B39" s="62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="98"/>
+      <c r="B41" s="62" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="99"/>
-      <c r="B40" s="62" t="s">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="98"/>
+      <c r="B42" s="62" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="62" t="s">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="99"/>
+      <c r="B43" s="62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="98" t="s">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="97" t="s">
         <v>324</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B44" s="62" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
-      <c r="B43" s="62" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="98" t="s">
-        <v>325</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="99"/>
       <c r="B45" s="62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="98"/>
+      <c r="B47" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="C45" s="68" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="100"/>
-      <c r="B46" s="62" t="s">
+      <c r="C47" s="68" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="99"/>
+      <c r="B48" s="62" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="s">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B49" s="62" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
+    <row r="50" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="62" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
+      <c r="B50" s="62" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B51" s="62" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="95" t="s">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B52" s="62" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="96"/>
-      <c r="B51" s="62" t="s">
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="95"/>
+      <c r="B53" s="62" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="96"/>
-      <c r="B52" s="62" t="s">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="95"/>
+      <c r="B54" s="62" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="96"/>
-      <c r="B53" s="62" t="s">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="95"/>
+      <c r="B55" s="62" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
-      <c r="B54" s="62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="96"/>
       <c r="B56" s="62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="94" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" s="62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="95"/>
+      <c r="B58" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="C56" s="67"/>
-    </row>
-    <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="96"/>
-      <c r="B57" s="62" t="s">
+      <c r="C58" s="67"/>
+    </row>
+    <row r="59" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="95"/>
+      <c r="B59" s="62" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="96"/>
-      <c r="B58" s="62" t="s">
+    <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="95"/>
+      <c r="B60" s="62" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="96"/>
-      <c r="B59" s="81" t="s">
+    <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="95"/>
+      <c r="B61" s="81" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="96"/>
-      <c r="B60" s="81" t="s">
+    <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="95"/>
+      <c r="B62" s="81" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="96"/>
-      <c r="B61" s="81" t="s">
+    <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="95"/>
+      <c r="B63" s="81" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="96"/>
-      <c r="B62" s="81" t="s">
+    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="95"/>
+      <c r="B64" s="81" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="96"/>
-      <c r="B63" s="81" t="s">
+    <row r="65" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="95"/>
+      <c r="B65" s="81" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="96"/>
+      <c r="B66" s="81" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="97"/>
-      <c r="B64" s="81" t="s">
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" s="82" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="95"/>
+      <c r="B68" s="83" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="96"/>
+      <c r="B69" s="83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" s="84" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="96"/>
+      <c r="B71" s="84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B72" s="83" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="B73" s="84" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="95" t="s">
-        <v>292</v>
-      </c>
-      <c r="B65" s="82" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="96"/>
-      <c r="B66" s="83" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="97"/>
-      <c r="B67" s="83" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="95" t="s">
-        <v>309</v>
-      </c>
-      <c r="B68" s="84" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="97"/>
-      <c r="B69" s="84" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="B70" s="83" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="B71" s="84" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="B72" s="85" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A73" s="71" t="s">
+    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="B74" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A75" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="B73" s="84" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="B76" s="84" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="73" t="s">
-        <v>380</v>
-      </c>
-      <c r="B74" s="84" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="89" t="s">
+    <row r="77" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="B77" s="91"/>
+    </row>
+    <row r="78" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A78" s="89" t="s">
         <v>395</v>
       </c>
-      <c r="B75" s="89"/>
-    </row>
-    <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A76" s="94" t="s">
+      <c r="B78" s="90"/>
+    </row>
+    <row r="79" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="B76" s="93"/>
-    </row>
-    <row r="77" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="70" t="s">
+      <c r="B79" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="B77" s="60" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="70" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="70" t="s">
+      <c r="B80" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="B78" s="76" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="70" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="70" t="s">
+      <c r="B81" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="B79" s="76" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A82" s="89" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A80" s="94" t="s">
+      <c r="B82" s="90"/>
+    </row>
+    <row r="83" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A83" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="B83" s="80" t="s">
         <v>403</v>
       </c>
-      <c r="B80" s="93"/>
-    </row>
-    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A81" s="57" t="s">
+    </row>
+    <row r="84" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="B81" s="80" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="57" t="s">
+      <c r="B84" s="80" t="s">
         <v>406</v>
       </c>
-      <c r="B82" s="80" t="s">
+    </row>
+    <row r="85" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="72" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="72" t="s">
+      <c r="B85" s="80" t="s">
         <v>408</v>
       </c>
-      <c r="B83" s="80" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="57" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="57" t="s">
+      <c r="B86" s="80" t="s">
         <v>410</v>
       </c>
-      <c r="B84" s="80" t="s">
+    </row>
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="57" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="57" t="s">
+      <c r="B87" s="80" t="s">
         <v>412</v>
       </c>
-      <c r="B85" s="80" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="57" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="57" t="s">
+      <c r="B88" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="B86" s="79" t="s">
+    </row>
+    <row r="89" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="57" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="57" t="s">
+      <c r="B89" s="79" t="s">
         <v>416</v>
       </c>
-      <c r="B87" s="79" t="s">
+    </row>
+    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="57" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A88" s="57" t="s">
+      <c r="B90" s="86" t="s">
         <v>418</v>
       </c>
-      <c r="B88" s="86" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="B91" s="80" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="B89" s="80" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="57" t="s">
-        <v>427</v>
-      </c>
-      <c r="B90" s="79" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="B91" s="79" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B92" s="79" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
@@ -9330,288 +9363,288 @@
         <v>425</v>
       </c>
       <c r="B93" s="79" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="B94" s="79" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="B95" s="79" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="57" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="57" t="s">
+      <c r="B96" s="79" t="s">
         <v>430</v>
       </c>
-      <c r="B94" s="79" t="s">
+    </row>
+    <row r="97" spans="1:2" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="72" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="81.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="72" t="s">
+      <c r="B97" s="80" t="s">
         <v>432</v>
       </c>
-      <c r="B95" s="80" t="s">
+    </row>
+    <row r="98" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A98" s="89" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A96" s="94" t="s">
-        <v>434</v>
-      </c>
-      <c r="B96" s="93"/>
-    </row>
-    <row r="97" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="B97" s="79" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="B98" s="79" t="s">
-        <v>437</v>
-      </c>
+      <c r="B98" s="90"/>
     </row>
     <row r="99" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A99" s="57" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B99" s="79" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A100" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="B100" s="79" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="B101" s="79" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="57" t="s">
+        <v>441</v>
+      </c>
+      <c r="B102" s="79" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="B103" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="B100" s="79" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="70" t="s">
+    </row>
+    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="B104" s="79" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="70" t="s">
         <v>446</v>
       </c>
-      <c r="B101" s="79" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="57" t="s">
-        <v>445</v>
-      </c>
-      <c r="B102" s="79" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="70" t="s">
+      <c r="B105" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="B103" s="80" t="s">
+    </row>
+    <row r="106" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="57" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
+      <c r="B106" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="B104" s="79" t="s">
+    </row>
+    <row r="107" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="57" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
+      <c r="B107" s="80" t="s">
         <v>451</v>
       </c>
-      <c r="B105" s="80" t="s">
+    </row>
+    <row r="108" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A108" s="89" t="s">
+        <v>511</v>
+      </c>
+      <c r="B108" s="90"/>
+    </row>
+    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="57" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A106" s="94" t="s">
-        <v>434</v>
-      </c>
-      <c r="B106" s="93"/>
-    </row>
-    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
+      <c r="B109" s="80" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="B107" s="80" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="57" t="s">
+      <c r="B110" s="80" t="s">
         <v>454</v>
       </c>
-      <c r="B108" s="80" t="s">
+    </row>
+    <row r="111" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="57" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
+      <c r="B111" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="B109" s="79" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="57" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="57" t="s">
+      <c r="B112" s="79" t="s">
         <v>458</v>
       </c>
-      <c r="B110" s="79" t="s">
+    </row>
+    <row r="113" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="70" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="70" t="s">
+      <c r="B113" s="79" t="s">
         <v>460</v>
       </c>
-      <c r="B111" s="79" t="s">
+    </row>
+    <row r="114" spans="1:2" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A114" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="B114" s="80" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="77" t="s">
+    <row r="115" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A115" s="78" t="s">
         <v>463</v>
       </c>
-      <c r="B112" s="80" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A113" s="78" t="s">
+      <c r="B115" s="80" t="s">
         <v>464</v>
       </c>
-      <c r="B113" s="80" t="s">
+    </row>
+    <row r="116" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="78" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="78" t="s">
+      <c r="B116" s="79"/>
+    </row>
+    <row r="117" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="78" t="s">
         <v>466</v>
       </c>
-      <c r="B114" s="79"/>
-    </row>
-    <row r="115" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="78" t="s">
+      <c r="B117" s="79"/>
+    </row>
+    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A118" s="78" t="s">
         <v>467</v>
       </c>
-      <c r="B115" s="79"/>
-    </row>
-    <row r="116" spans="1:2" ht="105" x14ac:dyDescent="0.3">
-      <c r="A116" s="78" t="s">
+      <c r="B118" s="80" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="92" t="s">
         <v>468</v>
       </c>
-      <c r="B116" s="80" t="s">
+      <c r="B119" s="90"/>
+    </row>
+    <row r="120" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A120" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="B120" s="80" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="70" t="s">
+        <v>471</v>
+      </c>
+      <c r="B121" s="86" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A122" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="B122" s="80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="92" t="s">
+        <v>477</v>
+      </c>
+      <c r="B123" s="90"/>
+    </row>
+    <row r="124" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A124" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="B124" s="87" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="91" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="92" t="s">
-        <v>469</v>
-      </c>
-      <c r="B117" s="93"/>
-    </row>
-    <row r="118" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A118" s="78" t="s">
-        <v>471</v>
-      </c>
-      <c r="B118" s="80" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="70" t="s">
-        <v>472</v>
-      </c>
-      <c r="B119" s="86" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A120" s="78" t="s">
-        <v>473</v>
-      </c>
-      <c r="B120" s="80" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="92" t="s">
-        <v>478</v>
-      </c>
-      <c r="B121" s="93"/>
-    </row>
-    <row r="122" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A122" s="70" t="s">
-        <v>477</v>
-      </c>
-      <c r="B122" s="87" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="89" t="s">
-        <v>481</v>
-      </c>
-      <c r="B123" s="89"/>
-    </row>
-    <row r="124" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A124" s="94" t="s">
+      <c r="B125" s="91"/>
+    </row>
+    <row r="126" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A126" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="B126" s="90"/>
+    </row>
+    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="57" t="s">
         <v>484</v>
       </c>
-      <c r="B124" s="93"/>
-    </row>
-    <row r="125" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="57" t="s">
+      <c r="B127" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="B125" s="76" t="s">
+    </row>
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="70" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="70" t="s">
+      <c r="B128" s="76" t="s">
         <v>487</v>
       </c>
-      <c r="B126" s="76" t="s">
+    </row>
+    <row r="129" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="70"/>
+    </row>
+    <row r="130" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="B130" s="93"/>
+    </row>
+    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="57" t="s">
+        <v>489</v>
+      </c>
+      <c r="B131" s="76" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="70"/>
-    </row>
-    <row r="128" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="B128" s="105"/>
-    </row>
-    <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="57" t="s">
-        <v>490</v>
-      </c>
-      <c r="B129" s="76" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="B130" s="76" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A131" s="57" t="s">
-        <v>494</v>
-      </c>
-      <c r="B131" s="76" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9619,114 +9652,131 @@
         <v>495</v>
       </c>
       <c r="B132" s="76" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="B133" s="76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="B134" s="76" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A135" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B135" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="B133" s="76" t="s">
+    </row>
+    <row r="136" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A136" s="57" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A134" s="57" t="s">
+      <c r="B136" s="76" t="s">
         <v>499</v>
       </c>
-      <c r="B134" s="76" t="s">
+    </row>
+    <row r="137" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="B137" s="88" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A138" s="89" t="s">
+        <v>481</v>
+      </c>
+      <c r="B138" s="90"/>
+    </row>
+    <row r="139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="57" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="B135" s="106" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A136" s="94" t="s">
+      <c r="B139" s="76" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="B140" s="76" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="B136" s="93"/>
-    </row>
-    <row r="137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="B137" s="76" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" s="57" t="s">
+      <c r="B141" s="90"/>
+    </row>
+    <row r="142" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A142" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="B138" s="76" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A139" s="94" t="s">
-        <v>483</v>
-      </c>
-      <c r="B139" s="93"/>
-    </row>
-    <row r="140" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A140" s="57" t="s">
+      <c r="B142" s="76" t="s">
         <v>505</v>
       </c>
-      <c r="B140" s="76" t="s">
+    </row>
+    <row r="143" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A143" s="57" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A141" s="57" t="s">
+      <c r="B143" s="76" t="s">
         <v>507</v>
       </c>
-      <c r="B141" s="76" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="57"/>
-      <c r="B142" s="76"/>
+    </row>
+    <row r="144" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="57"/>
+      <c r="B144" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A124:B124"/>
+  <mergeCells count="32">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A138:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10148,7 +10198,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -10168,7 +10218,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -10236,10 +10286,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -8679,8 +8679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -30,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="539">
   <si>
     <t>Операция</t>
   </si>
@@ -3447,9 +3448,6 @@
     <t>CASE … WHEN</t>
   </si>
   <si>
-    <t>CASE - WHEN</t>
-  </si>
-  <si>
     <t>SELECT CountryName, CountryCode,
      CASE 
      WHEN CurrencyCode = 'EUR' THEN 'Euro'
@@ -4944,17 +4942,256 @@
 Age INT
 )</t>
   </si>
+  <si>
+    <t>Procedures, Functions and Triggers</t>
+  </si>
+  <si>
+    <t>Procedures - carry out a predetermined action</t>
+  </si>
+  <si>
+    <t>E.g. calculate and store the weekly revenue based on recorded
+sales in the database</t>
+  </si>
+  <si>
+    <t>Functions – receive parameters and return a result</t>
+  </si>
+  <si>
+    <t>E.g. get the age of a person using their birthdate and current date</t>
+  </si>
+  <si>
+    <t>Triggers – watch for activity in the database and react to it</t>
+  </si>
+  <si>
+    <t>E.g. when a record is deleted, write it to an archive</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Key </t>
+  </si>
+  <si>
+    <t>Used to uniquely identify and index records</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>The value in the column is automatically incremented when a new record is added</t>
+  </si>
+  <si>
+    <t>Create a Function</t>
+  </si>
+  <si>
+    <t>Now let’s create a function, which calculates the total balance from all accounts of a single client. Functions in SQL
+receive parameters, complete certain actions with them and always return a result. Our function will receive an
+int, called @ClientID and return a DECIMAL. It could look like this:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE FUNCTION f_CalculateTotalBalance (@ClientID INT)
+RETURNS DECIMAL(15, 2)
+BEGIN
+     DECLARE @result AS DECIMAL(15, 2) = (
+     SELECT SUM(Balance)
+     FROM Accounts WHERE ClientId = @ClientID
+     )
+     RETURN @result
+END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Now try and select the function, giving it an existing client ID as the parameter, example for client ID -&gt; 4: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SELECT dbo.f_CalculateTotalBalance(4) AS Balance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Notice the dbo. before the function name – this is the name of the schema which we must type when callingfunctions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Procedures</t>
+  </si>
+  <si>
+    <t>Next, we’ll create a procedure that creates a new account for an existing client. Just like functions, procedures
+receive parameters, but do not return results. Our procedure will receive @ClientID and @AccountTypeID as
+parameters and will look like this:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE PROC p_AddAccount @ClientId INT, @AccountTypeId INT AS
+INSERT INTO Accounts (ClientId, AccountTypeId)
+VALUES (@ClientId, @AccountTypeId)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Now we can create a new savings account for our client with ID = 2 like this:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+p_AddAccount 2, 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>After you execute the procedure a couple of times, don’t forget to check if an account is added correctly, using a SELECT statement:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT * FROM Accounts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Let’s create two more procedures to deposit and withdraw money from the accounts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Deposit Procedure
+The deposit procedure will always add our input amount to the current balance:</t>
+  </si>
+  <si>
+    <t>CREATE PROC p_Deposit @AccountId INT, @Amount DECIMAL(15, 2) AS
+UPDATE Accounts
+SET Balance += @Amount
+WHERE Id = @AccountId</t>
+  </si>
+  <si>
+    <t>Withdraw Procedure
+The withdraw procedure will subtract the given amount of money from the account if the balance is enough and
+return an error message if it isn’t:</t>
+  </si>
+  <si>
+    <t>CREATE PROC p_Withdraw @AccountId INT, @Amount DECIMAL(15, 2) AS
+BEGIN
+     DECLARE @OldBalance DECIMAL(15, 2)
+     SELECT @OldBalance = Balance FROM Accounts WHERE Id = @AccountId
+     IF (@OldBalance - @Amount &amp;gt;= 0)
+     BEGIN
+          UPDATE Accounts
+          SET Balance -= @Amount
+          WHERE Id = @AccountId
+     END
+     ELSE
+     BEGIN
+          RAISERROR(&amp;#39;Insufficient funds&amp;#39;, 10, 1)
+     END
+END</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ДОБАВЯНЕ ПРОВЕРКА ЗА ГОЛЕМИНА:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE People
+ADD CONSTRAINT CH_PictureSize CHECK(DATALENGTH(Picture) &lt;= 2 * 1024 * 1024)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5303,6 +5540,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5645,42 +5891,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5695,91 +5941,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5794,73 +6040,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5869,82 +6115,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6040,7 +6295,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6048,17 +6303,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6112,7 +6356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6147,7 +6391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8677,10 +8921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8699,1084 +8943,1184 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="93" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="101"/>
-    </row>
-    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="103"/>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="104"/>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="104" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" s="102"/>
+    </row>
+    <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>534</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="104" t="s">
+        <v>531</v>
+      </c>
+      <c r="B11" s="102"/>
+    </row>
+    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="104" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="104"/>
+    </row>
+    <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
+        <v>511</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="104" t="s">
+        <v>513</v>
+      </c>
+      <c r="B20" s="104"/>
+    </row>
+    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="104" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="104"/>
+    </row>
+    <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" s="104"/>
+    </row>
+    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="104"/>
+    </row>
+    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="B32" s="102"/>
+    </row>
+    <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="104" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="104"/>
+    </row>
+    <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="102" t="s">
+        <v>365</v>
+      </c>
+      <c r="B40" s="102"/>
+    </row>
+    <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="104" t="s">
+        <v>523</v>
+      </c>
+      <c r="B43" s="102"/>
+    </row>
+    <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="57" t="s">
+        <v>524</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
+        <v>526</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="93" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="93"/>
+    </row>
+    <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="91" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" s="92"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="99" t="s">
+        <v>322</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="100"/>
+      <c r="B50" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="101"/>
+      <c r="B51" s="62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="99" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="100"/>
+      <c r="B53" s="62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="100"/>
+      <c r="B54" s="62" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="101"/>
+      <c r="B55" s="62" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="101"/>
+      <c r="B57" s="62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="99" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="100"/>
+      <c r="B59" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="101"/>
+      <c r="B60" s="62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61" s="62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="97"/>
+      <c r="B65" s="62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="97"/>
+      <c r="B66" s="62" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="97"/>
+      <c r="B67" s="62" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="97"/>
+      <c r="B68" s="62" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="98"/>
+      <c r="B69" s="62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" s="62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="97"/>
+      <c r="B71" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="C71" s="67"/>
+    </row>
+    <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="97"/>
+      <c r="B72" s="62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="97"/>
+      <c r="B73" s="62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="97"/>
+      <c r="B74" s="81" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="97"/>
+      <c r="B75" s="81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="97"/>
+      <c r="B76" s="81" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="97"/>
+      <c r="B77" s="81" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="97"/>
+      <c r="B78" s="81" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="98"/>
+      <c r="B79" s="81" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" s="82" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="97"/>
+      <c r="B81" s="83" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="98"/>
+      <c r="B82" s="83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="84" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="98"/>
+      <c r="B84" s="84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85" s="83" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="B86" s="84" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A88" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" s="84" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="B89" s="84" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="93" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="102"/>
-    </row>
-    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
-        <v>512</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="102" t="s">
-        <v>514</v>
-      </c>
-      <c r="B10" s="102"/>
-    </row>
-    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
-        <v>342</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
-        <v>392</v>
-      </c>
-      <c r="B12" s="102"/>
-    </row>
-    <row r="13" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="B14" s="102"/>
-    </row>
-    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="B18" s="102"/>
-    </row>
-    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
-        <v>368</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
-        <v>364</v>
-      </c>
-      <c r="B22" s="100"/>
-    </row>
-    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
-        <v>371</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
-        <v>358</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
-        <v>383</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="102" t="s">
-        <v>361</v>
-      </c>
-      <c r="B26" s="102"/>
-    </row>
-    <row r="27" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
-        <v>372</v>
-      </c>
-      <c r="B28" s="74" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100" t="s">
-        <v>365</v>
-      </c>
-      <c r="B30" s="100"/>
-    </row>
-    <row r="31" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="B31" s="74" t="s">
+      <c r="B90" s="93"/>
+    </row>
+    <row r="91" spans="1:2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A91" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" s="92"/>
+    </row>
+    <row r="92" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="B92" s="60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="B93" s="76" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="B94" s="76" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A95" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B95" s="92"/>
+    </row>
+    <row r="96" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A96" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" s="80" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="B97" s="80" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="B98" s="80" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="B99" s="80" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B100" s="80" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="B101" s="79" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="B102" s="79" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="B104" s="80" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="B105" s="79" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="B106" s="79" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="B107" s="79" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B108" s="79" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="B109" s="79" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" customFormat="1" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="B110" s="80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A111" s="91" t="s">
+        <v>432</v>
+      </c>
+      <c r="B111" s="92"/>
+    </row>
+    <row r="112" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="B112" s="79" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="B113" s="79" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="B114" s="79" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="B115" s="79" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="B116" s="79" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="B117" s="79" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="B118" s="80" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="B119" s="79" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="B120" s="80" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A121" s="91" t="s">
+        <v>510</v>
+      </c>
+      <c r="B121" s="92"/>
+    </row>
+    <row r="122" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A122" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="B122" s="80" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="B123" s="80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="B124" s="79" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B125" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="70" t="s">
+        <v>458</v>
+      </c>
+      <c r="B126" s="79" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" customFormat="1" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="B127" s="80" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A128" s="78" t="s">
+        <v>462</v>
+      </c>
+      <c r="B128" s="80" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A129" s="78" t="s">
+        <v>464</v>
+      </c>
+      <c r="B129" s="79"/>
+    </row>
+    <row r="130" spans="1:2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="B130" s="79"/>
+    </row>
+    <row r="131" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+      <c r="A131" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="B131" s="80" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="94" t="s">
+        <v>467</v>
+      </c>
+      <c r="B132" s="92"/>
+    </row>
+    <row r="133" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A133" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="B133" s="80" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="B134" s="86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A135" s="78" t="s">
+        <v>471</v>
+      </c>
+      <c r="B135" s="80" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="94" t="s">
+        <v>476</v>
+      </c>
+      <c r="B136" s="92"/>
+    </row>
+    <row r="137" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A137" s="70" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
-        <v>381</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="102" t="s">
-        <v>389</v>
-      </c>
-      <c r="B33" s="100"/>
-    </row>
-    <row r="34" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
-        <v>388</v>
-      </c>
-      <c r="B34" s="74" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="B35" s="91"/>
-    </row>
-    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="89" t="s">
-        <v>312</v>
-      </c>
-      <c r="B36" s="90"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="97" t="s">
-        <v>322</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="98"/>
-      <c r="B38" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
-      <c r="B39" s="62" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
-      <c r="B41" s="62" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="98"/>
-      <c r="B42" s="62" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="62" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="97" t="s">
-        <v>324</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
-      <c r="B45" s="62" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="97" t="s">
-        <v>325</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="98"/>
-      <c r="B47" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="62" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="B51" s="62" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
-        <v>290</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="62" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="95"/>
-      <c r="B54" s="62" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
-      <c r="B55" s="62" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="96"/>
-      <c r="B56" s="62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94" t="s">
-        <v>291</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="C58" s="67"/>
-    </row>
-    <row r="59" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="62" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="81" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
-      <c r="B62" s="81" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="81" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="81" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="95"/>
-      <c r="B65" s="81" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="96"/>
-      <c r="B66" s="81" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="s">
-        <v>292</v>
-      </c>
-      <c r="B67" s="82" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
-      <c r="B68" s="83" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="96"/>
-      <c r="B69" s="83" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="B70" s="84" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="96"/>
-      <c r="B71" s="84" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="B72" s="83" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="B73" s="84" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="B74" s="85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A75" s="71" t="s">
-        <v>376</v>
-      </c>
-      <c r="B75" s="84" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="B76" s="84" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="91" t="s">
-        <v>394</v>
-      </c>
-      <c r="B77" s="91"/>
-    </row>
-    <row r="78" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A78" s="89" t="s">
-        <v>395</v>
-      </c>
-      <c r="B78" s="90"/>
-    </row>
-    <row r="79" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="B79" s="60" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="B80" s="76" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="70" t="s">
-        <v>400</v>
-      </c>
-      <c r="B81" s="76" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A82" s="89" t="s">
-        <v>402</v>
-      </c>
-      <c r="B82" s="90"/>
-    </row>
-    <row r="83" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A83" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="B83" s="80" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="57" t="s">
-        <v>405</v>
-      </c>
-      <c r="B84" s="80" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="72" t="s">
-        <v>407</v>
-      </c>
-      <c r="B85" s="80" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="57" t="s">
-        <v>409</v>
-      </c>
-      <c r="B86" s="80" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B87" s="80" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="57" t="s">
-        <v>413</v>
-      </c>
-      <c r="B88" s="79" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="57" t="s">
-        <v>415</v>
-      </c>
-      <c r="B89" s="79" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="57" t="s">
-        <v>417</v>
-      </c>
-      <c r="B90" s="86" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="57" t="s">
-        <v>427</v>
-      </c>
-      <c r="B91" s="80" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="B92" s="79" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="57" t="s">
-        <v>425</v>
-      </c>
-      <c r="B93" s="79" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="B94" s="79" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="57" t="s">
-        <v>424</v>
-      </c>
-      <c r="B95" s="79" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="57" t="s">
-        <v>429</v>
-      </c>
-      <c r="B96" s="79" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="81.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="72" t="s">
-        <v>431</v>
-      </c>
-      <c r="B97" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A98" s="89" t="s">
-        <v>433</v>
-      </c>
-      <c r="B98" s="90"/>
-    </row>
-    <row r="99" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="57" t="s">
-        <v>438</v>
-      </c>
-      <c r="B99" s="79" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="B100" s="79" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="B101" s="79" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="57" t="s">
-        <v>441</v>
-      </c>
-      <c r="B102" s="79" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="B103" s="79" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
-        <v>444</v>
-      </c>
-      <c r="B104" s="79" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="70" t="s">
-        <v>446</v>
-      </c>
-      <c r="B105" s="80" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="57" t="s">
-        <v>448</v>
-      </c>
-      <c r="B106" s="79" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
-        <v>450</v>
-      </c>
-      <c r="B107" s="80" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A108" s="89" t="s">
-        <v>511</v>
-      </c>
-      <c r="B108" s="90"/>
-    </row>
-    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
-        <v>452</v>
-      </c>
-      <c r="B109" s="80" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="57" t="s">
-        <v>453</v>
-      </c>
-      <c r="B110" s="80" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="57" t="s">
-        <v>455</v>
-      </c>
-      <c r="B111" s="79" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B112" s="79" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="70" t="s">
-        <v>459</v>
-      </c>
-      <c r="B113" s="79" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="B114" s="80" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A115" s="78" t="s">
-        <v>463</v>
-      </c>
-      <c r="B115" s="80" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="78" t="s">
-        <v>465</v>
-      </c>
-      <c r="B116" s="79"/>
-    </row>
-    <row r="117" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="78" t="s">
-        <v>466</v>
-      </c>
-      <c r="B117" s="79"/>
-    </row>
-    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.3">
-      <c r="A118" s="78" t="s">
-        <v>467</v>
-      </c>
-      <c r="B118" s="80" t="s">
+      <c r="B137" s="87" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="93" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="92" t="s">
-        <v>468</v>
-      </c>
-      <c r="B119" s="90"/>
-    </row>
-    <row r="120" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A120" s="78" t="s">
-        <v>470</v>
-      </c>
-      <c r="B120" s="80" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="70" t="s">
-        <v>471</v>
-      </c>
-      <c r="B121" s="86" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A122" s="78" t="s">
-        <v>472</v>
-      </c>
-      <c r="B122" s="80" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="92" t="s">
-        <v>477</v>
-      </c>
-      <c r="B123" s="90"/>
-    </row>
-    <row r="124" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A124" s="70" t="s">
-        <v>476</v>
-      </c>
-      <c r="B124" s="87" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="91" t="s">
+      <c r="B138" s="93"/>
+    </row>
+    <row r="139" spans="1:2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A139" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="B139" s="92"/>
+    </row>
+    <row r="140" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="57" t="s">
+        <v>483</v>
+      </c>
+      <c r="B140" s="76" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="70" t="s">
+        <v>485</v>
+      </c>
+      <c r="B141" s="76" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="70"/>
+      <c r="B142" s="58"/>
+    </row>
+    <row r="143" spans="1:2" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="94" t="s">
+        <v>489</v>
+      </c>
+      <c r="B143" s="95"/>
+    </row>
+    <row r="144" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="B144" s="76" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="B145" s="76" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A146" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B146" s="76" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="B147" s="76" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="B148" s="76" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A149" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="B149" s="76" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="B150" s="88" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A151" s="91" t="s">
         <v>480</v>
       </c>
-      <c r="B125" s="91"/>
-    </row>
-    <row r="126" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A126" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="B126" s="90"/>
-    </row>
-    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="B127" s="76" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="70" t="s">
-        <v>486</v>
-      </c>
-      <c r="B128" s="76" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="70"/>
-    </row>
-    <row r="130" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="92" t="s">
-        <v>490</v>
-      </c>
-      <c r="B130" s="93"/>
-    </row>
-    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" s="57" t="s">
-        <v>489</v>
-      </c>
-      <c r="B131" s="76" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="B132" s="76" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="57" t="s">
-        <v>493</v>
-      </c>
-      <c r="B133" s="76" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A134" s="57" t="s">
-        <v>494</v>
-      </c>
-      <c r="B134" s="76" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="B135" s="76" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A136" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="B136" s="76" t="s">
+      <c r="B151" s="92"/>
+    </row>
+    <row r="152" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="57" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="57" t="s">
-        <v>508</v>
-      </c>
-      <c r="B137" s="88" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A138" s="89" t="s">
+      <c r="B152" s="76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A153" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="B153" s="76" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A154" s="91" t="s">
         <v>481</v>
       </c>
-      <c r="B138" s="90"/>
-    </row>
-    <row r="139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="B139" s="76" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A140" s="57" t="s">
+      <c r="B154" s="92"/>
+    </row>
+    <row r="155" spans="1:2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A155" s="57" t="s">
         <v>503</v>
       </c>
-      <c r="B140" s="76" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A141" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="B141" s="90"/>
-    </row>
-    <row r="142" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A142" s="57" t="s">
+      <c r="B155" s="76" t="s">
         <v>504</v>
       </c>
-      <c r="B142" s="76" t="s">
+    </row>
+    <row r="156" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A156" s="57" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A143" s="57" t="s">
+      <c r="B156" s="76" t="s">
         <v>506</v>
       </c>
-      <c r="B143" s="76" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="57"/>
-      <c r="B144" s="76"/>
+    </row>
+    <row r="157" spans="1:2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="57"/>
+      <c r="B157" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:B35"/>
+  <mergeCells count="35">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A139:B139"/>
     <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A151:B151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10198,7 +10542,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="106" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -10218,7 +10562,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
+      <c r="A2" s="107"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -10286,10 +10630,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="106"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="518">
   <si>
     <t>Операция</t>
   </si>
@@ -2587,9 +2587,6 @@
     <t>DATE – date in range 0001-01-01 through 9999-12-31</t>
   </si>
   <si>
-    <t>DATETIME – date and time with precision of 1/300 sec</t>
-  </si>
-  <si>
     <t>SMALLDATETIME – date and time (1 minute precision)</t>
   </si>
   <si>
@@ -4943,6 +4940,12 @@
 [Name] NVARCHAR(20) NOT NULL,
 Age INT
 )</t>
+  </si>
+  <si>
+    <t>DATETIME – date and time with precision of 1/300 sec (From 1973)</t>
+  </si>
+  <si>
+    <t>DATETIME2 – date range of "0001 / 01 / 01" (From 1753 To 9999)</t>
   </si>
 </sst>
 </file>
@@ -5893,20 +5896,26 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5926,14 +5935,8 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8677,10 +8680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8692,54 +8695,54 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="59" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="91" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="101"/>
+      <c r="A2" s="90" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="91"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
-        <v>393</v>
-      </c>
-      <c r="B3" s="102"/>
+      <c r="A3" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="92"/>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="81" t="s">
         <v>369</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8752,210 +8755,210 @@
     </row>
     <row r="9" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="74" t="s">
         <v>512</v>
       </c>
-      <c r="B9" s="74" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="92" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="102" t="s">
-        <v>514</v>
-      </c>
-      <c r="B10" s="102"/>
+      <c r="B10" s="92"/>
     </row>
     <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
-        <v>392</v>
-      </c>
-      <c r="B12" s="102"/>
+      <c r="A12" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="92"/>
     </row>
     <row r="13" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="B14" s="102"/>
+      <c r="A14" s="92" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="92"/>
     </row>
     <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="81" t="s">
         <v>348</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="81" t="s">
         <v>350</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="B17" s="81" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="92" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="92"/>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
-        <v>364</v>
-      </c>
-      <c r="B22" s="100"/>
+      <c r="A22" s="89" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" s="89"/>
     </row>
     <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="B25" s="74" t="s">
-        <v>384</v>
-      </c>
     </row>
     <row r="26" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="102" t="s">
-        <v>361</v>
-      </c>
-      <c r="B26" s="102"/>
+      <c r="A26" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="92"/>
     </row>
     <row r="27" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="B29" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="74" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="30" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100" t="s">
-        <v>365</v>
-      </c>
-      <c r="B30" s="100"/>
+      <c r="A30" s="89" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" s="89"/>
     </row>
     <row r="31" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="102" t="s">
-        <v>389</v>
-      </c>
-      <c r="B33" s="100"/>
+      <c r="A33" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="B33" s="89"/>
     </row>
     <row r="34" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="B35" s="91"/>
+      <c r="A35" s="90" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" s="90"/>
     </row>
     <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="94"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="99" t="s">
         <v>322</v>
       </c>
       <c r="B37" s="62" t="s">
@@ -8963,22 +8966,22 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="98"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="62" t="s">
         <v>314</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="99" t="s">
         <v>323</v>
       </c>
       <c r="B40" s="62" t="s">
@@ -8986,25 +8989,25 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="98"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="99" t="s">
         <v>324</v>
       </c>
       <c r="B44" s="62" t="s">
@@ -9012,350 +9015,349 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="99" t="s">
         <v>325</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>326</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="98"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="62" t="s">
+        <v>516</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="100"/>
+      <c r="B48" s="62" t="s">
+        <v>517</v>
+      </c>
+      <c r="C48" s="68"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="101"/>
+      <c r="B49" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="C47" s="68" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="62" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B50" s="62" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
+    <row r="51" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B50" s="62" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="B51" s="62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B52" s="62" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="96" t="s">
         <v>290</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B53" s="62" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="62" t="s">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="97"/>
+      <c r="B54" s="62" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="95"/>
-      <c r="B54" s="62" t="s">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="97"/>
+      <c r="B55" s="62" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
-      <c r="B55" s="62" t="s">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="97"/>
+      <c r="B56" s="62" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="96"/>
-      <c r="B56" s="62" t="s">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="98"/>
+      <c r="B57" s="62" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94" t="s">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="96" t="s">
         <v>291</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B58" s="62" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="62" t="s">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="97"/>
+      <c r="B59" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="C58" s="67"/>
-    </row>
-    <row r="59" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="62" t="s">
+      <c r="C59" s="67"/>
+    </row>
+    <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="97"/>
+      <c r="B60" s="62" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="62" t="s">
+    <row r="61" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="97"/>
+      <c r="B61" s="62" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="81" t="s">
+    <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="97"/>
+      <c r="B62" s="81" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
-      <c r="B62" s="81" t="s">
+    <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="97"/>
+      <c r="B63" s="81" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="81" t="s">
+    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="97"/>
+      <c r="B64" s="81" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="81" t="s">
+    <row r="65" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="97"/>
+      <c r="B65" s="81" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="95"/>
-      <c r="B65" s="81" t="s">
+    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="97"/>
+      <c r="B66" s="81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="98"/>
+      <c r="B67" s="81" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="96"/>
-      <c r="B66" s="81" t="s">
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="82" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="97"/>
+      <c r="B69" s="83" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="98"/>
+      <c r="B70" s="83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="98"/>
+      <c r="B72" s="84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="B73" s="83" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="84" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="s">
-        <v>292</v>
-      </c>
-      <c r="B67" s="82" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
-      <c r="B68" s="83" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="96"/>
-      <c r="B69" s="83" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="B70" s="84" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="96"/>
-      <c r="B71" s="84" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="B72" s="83" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="B73" s="84" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="B74" s="85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A75" s="71" t="s">
+    <row r="75" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="B75" s="85" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A76" s="71" t="s">
+        <v>375</v>
+      </c>
+      <c r="B76" s="84" t="s">
         <v>376</v>
       </c>
-      <c r="B75" s="84" t="s">
+    </row>
+    <row r="77" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="B77" s="84" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="B76" s="84" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="91" t="s">
+    <row r="78" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="90" t="s">
+        <v>393</v>
+      </c>
+      <c r="B78" s="90"/>
+    </row>
+    <row r="79" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A79" s="95" t="s">
         <v>394</v>
       </c>
-      <c r="B77" s="91"/>
-    </row>
-    <row r="78" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A78" s="89" t="s">
+      <c r="B79" s="94"/>
+    </row>
+    <row r="80" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="B78" s="90"/>
-    </row>
-    <row r="79" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="70" t="s">
+      <c r="B80" s="60" t="s">
         <v>396</v>
-      </c>
-      <c r="B79" s="60" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="B80" s="76" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="B81" s="76" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="B81" s="76" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A83" s="95" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A82" s="89" t="s">
+      <c r="B83" s="94"/>
+    </row>
+    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="B84" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="B82" s="90"/>
-    </row>
-    <row r="83" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A83" s="57" t="s">
+    </row>
+    <row r="85" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="B83" s="80" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="57" t="s">
+      <c r="B85" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="B84" s="80" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="72" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="72" t="s">
+      <c r="B86" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="B85" s="80" t="s">
+    </row>
+    <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="57" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="57" t="s">
+      <c r="B87" s="80" t="s">
         <v>409</v>
       </c>
-      <c r="B86" s="80" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="57" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="57" t="s">
+      <c r="B88" s="80" t="s">
         <v>411</v>
-      </c>
-      <c r="B87" s="80" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="57" t="s">
-        <v>413</v>
-      </c>
-      <c r="B88" s="79" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="B89" s="79" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="B90" s="79" t="s">
         <v>415</v>
       </c>
-      <c r="B89" s="79" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91" s="57" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="57" t="s">
+      <c r="B91" s="86" t="s">
         <v>417</v>
       </c>
-      <c r="B90" s="86" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="57" t="s">
-        <v>427</v>
-      </c>
-      <c r="B91" s="80" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
         <v>426</v>
       </c>
-      <c r="B92" s="79" t="s">
-        <v>420</v>
+      <c r="B92" s="80" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
@@ -9363,58 +9365,58 @@
         <v>425</v>
       </c>
       <c r="B93" s="79" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B94" s="79" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A95" s="57" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B95" s="79" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B96" s="79" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="57" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="57" t="s">
+      <c r="B97" s="79" t="s">
         <v>429</v>
       </c>
-      <c r="B96" s="79" t="s">
+    </row>
+    <row r="98" spans="1:2" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="72" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="81.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="72" t="s">
+      <c r="B98" s="80" t="s">
         <v>431</v>
       </c>
-      <c r="B97" s="80" t="s">
+    </row>
+    <row r="99" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A99" s="95" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A98" s="89" t="s">
-        <v>433</v>
-      </c>
-      <c r="B98" s="90"/>
-    </row>
-    <row r="99" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="57" t="s">
-        <v>438</v>
-      </c>
-      <c r="B99" s="79" t="s">
-        <v>437</v>
-      </c>
+      <c r="B99" s="94"/>
     </row>
     <row r="100" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A100" s="57" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B100" s="79" t="s">
         <v>436</v>
@@ -9422,7 +9424,7 @@
     </row>
     <row r="101" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A101" s="57" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B101" s="79" t="s">
         <v>435</v>
@@ -9430,321 +9432,350 @@
     </row>
     <row r="102" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A102" s="57" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B102" s="79" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="70" t="s">
+    <row r="103" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="B103" s="79" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="B104" s="79" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="B105" s="79" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="70" t="s">
         <v>445</v>
       </c>
-      <c r="B103" s="79" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
-        <v>444</v>
-      </c>
-      <c r="B104" s="79" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="70" t="s">
+      <c r="B106" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="B105" s="80" t="s">
+    </row>
+    <row r="107" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="57" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="57" t="s">
+      <c r="B107" s="79" t="s">
         <v>448</v>
       </c>
-      <c r="B106" s="79" t="s">
+    </row>
+    <row r="108" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="57" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
+      <c r="B108" s="80" t="s">
         <v>450</v>
       </c>
-      <c r="B107" s="80" t="s">
+    </row>
+    <row r="109" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="95" t="s">
+        <v>510</v>
+      </c>
+      <c r="B109" s="94"/>
+    </row>
+    <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="57" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A108" s="89" t="s">
-        <v>511</v>
-      </c>
-      <c r="B108" s="90"/>
-    </row>
-    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
+      <c r="B110" s="80" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="57" t="s">
         <v>452</v>
       </c>
-      <c r="B109" s="80" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="57" t="s">
+      <c r="B111" s="80" t="s">
         <v>453</v>
-      </c>
-      <c r="B110" s="80" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="57" t="s">
-        <v>455</v>
-      </c>
-      <c r="B111" s="79" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A112" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="B112" s="79" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B113" s="79" t="s">
         <v>457</v>
       </c>
-      <c r="B112" s="79" t="s">
+    </row>
+    <row r="114" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="70" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="70" t="s">
+      <c r="B114" s="79" t="s">
         <v>459</v>
       </c>
-      <c r="B113" s="79" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="B115" s="80" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="77" t="s">
+    <row r="116" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A116" s="78" t="s">
         <v>462</v>
       </c>
-      <c r="B114" s="80" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A115" s="78" t="s">
+      <c r="B116" s="80" t="s">
         <v>463</v>
       </c>
-      <c r="B115" s="80" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="78" t="s">
-        <v>465</v>
-      </c>
-      <c r="B116" s="79"/>
     </row>
     <row r="117" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A117" s="78" t="s">
+        <v>464</v>
+      </c>
+      <c r="B117" s="79"/>
+    </row>
+    <row r="118" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="B118" s="79"/>
+    </row>
+    <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A119" s="78" t="s">
         <v>466</v>
       </c>
-      <c r="B117" s="79"/>
-    </row>
-    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.3">
-      <c r="A118" s="78" t="s">
+      <c r="B119" s="80" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="93" t="s">
         <v>467</v>
       </c>
-      <c r="B118" s="80" t="s">
+      <c r="B120" s="94"/>
+    </row>
+    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A121" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="B121" s="80" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="B122" s="86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A123" s="78" t="s">
+        <v>471</v>
+      </c>
+      <c r="B123" s="80" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="93" t="s">
+        <v>476</v>
+      </c>
+      <c r="B124" s="94"/>
+    </row>
+    <row r="125" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A125" s="70" t="s">
+        <v>475</v>
+      </c>
+      <c r="B125" s="87" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="90" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="92" t="s">
-        <v>468</v>
-      </c>
-      <c r="B119" s="90"/>
-    </row>
-    <row r="120" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A120" s="78" t="s">
-        <v>470</v>
-      </c>
-      <c r="B120" s="80" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="70" t="s">
-        <v>471</v>
-      </c>
-      <c r="B121" s="86" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A122" s="78" t="s">
-        <v>472</v>
-      </c>
-      <c r="B122" s="80" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="92" t="s">
-        <v>477</v>
-      </c>
-      <c r="B123" s="90"/>
-    </row>
-    <row r="124" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A124" s="70" t="s">
-        <v>476</v>
-      </c>
-      <c r="B124" s="87" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="B125" s="91"/>
-    </row>
-    <row r="126" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A126" s="89" t="s">
+      <c r="B126" s="90"/>
+    </row>
+    <row r="127" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A127" s="95" t="s">
+        <v>482</v>
+      </c>
+      <c r="B127" s="94"/>
+    </row>
+    <row r="128" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="57" t="s">
         <v>483</v>
       </c>
-      <c r="B126" s="90"/>
-    </row>
-    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="57" t="s">
+      <c r="B128" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="B127" s="76" t="s">
+    </row>
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="70" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="70" t="s">
+      <c r="B129" s="76" t="s">
         <v>486</v>
       </c>
-      <c r="B128" s="76" t="s">
+    </row>
+    <row r="130" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="70"/>
+    </row>
+    <row r="131" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="93" t="s">
+        <v>489</v>
+      </c>
+      <c r="B131" s="102"/>
+    </row>
+    <row r="132" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A132" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="B132" s="76" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="70"/>
-    </row>
-    <row r="130" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="92" t="s">
-        <v>490</v>
-      </c>
-      <c r="B130" s="93"/>
-    </row>
-    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" s="57" t="s">
-        <v>489</v>
-      </c>
-      <c r="B131" s="76" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="B132" s="76" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="57" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B133" s="76" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B134" s="76" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="B135" s="76" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="B136" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="B135" s="76" t="s">
+    </row>
+    <row r="137" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A137" s="57" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A136" s="57" t="s">
+      <c r="B137" s="76" t="s">
         <v>498</v>
       </c>
-      <c r="B136" s="76" t="s">
+    </row>
+    <row r="138" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="B138" s="88" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A139" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="B139" s="94"/>
+    </row>
+    <row r="140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="57" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="57" t="s">
-        <v>508</v>
-      </c>
-      <c r="B137" s="88" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A138" s="89" t="s">
+      <c r="B140" s="76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="B141" s="76" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A142" s="95" t="s">
         <v>481</v>
       </c>
-      <c r="B138" s="90"/>
-    </row>
-    <row r="139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="B139" s="76" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A140" s="57" t="s">
+      <c r="B142" s="94"/>
+    </row>
+    <row r="143" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A143" s="57" t="s">
         <v>503</v>
       </c>
-      <c r="B140" s="76" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A141" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="B141" s="90"/>
-    </row>
-    <row r="142" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A142" s="57" t="s">
+      <c r="B143" s="76" t="s">
         <v>504</v>
       </c>
-      <c r="B142" s="76" t="s">
+    </row>
+    <row r="144" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A144" s="57" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A143" s="57" t="s">
+      <c r="B144" s="76" t="s">
         <v>506</v>
       </c>
-      <c r="B143" s="76" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="57"/>
-      <c r="B144" s="76"/>
+    </row>
+    <row r="145" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="57"/>
+      <c r="B145" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A109:B109"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A2:B2"/>
@@ -9756,27 +9787,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A138:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <fileSharing readOnlyRecommended="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="542">
   <si>
     <t>Операция</t>
   </si>
@@ -5176,11 +5175,17 @@
   <si>
     <t>DATETIME – date and time with precision of 1/300 sec (From 1973 To 9999)</t>
   </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Изпълни кода от GO надолу</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5900,7 +5905,7 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6148,20 +6153,32 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6181,17 +6198,8 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6298,7 +6306,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6306,17 +6314,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6370,7 +6367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6405,7 +6402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8935,10 +8932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8960,13 +8957,13 @@
       <c r="A2" s="93" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="94"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="96" t="s">
         <v>515</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="95"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -8993,10 +8990,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="95" t="s">
         <v>527</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="92"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -9023,10 +9020,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="95" t="s">
         <v>530</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="92"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -9037,10 +9034,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="95" t="s">
         <v>391</v>
       </c>
-      <c r="B13" s="104"/>
+      <c r="B13" s="95"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -9091,10 +9088,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="95" t="s">
         <v>512</v>
       </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="95"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
@@ -9105,10 +9102,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="95" t="s">
         <v>390</v>
       </c>
-      <c r="B22" s="104"/>
+      <c r="B22" s="95"/>
     </row>
     <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
@@ -9119,10 +9116,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="95" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="104"/>
+      <c r="B24" s="95"/>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
@@ -9149,10 +9146,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="95" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="95"/>
     </row>
     <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
@@ -9179,10 +9176,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="102"/>
+      <c r="B32" s="92"/>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
@@ -9209,10 +9206,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="104"/>
+      <c r="B36" s="95"/>
     </row>
     <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
@@ -9239,10 +9236,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="92" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="102"/>
+      <c r="B40" s="92"/>
     </row>
     <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
@@ -9261,10 +9258,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="95" t="s">
         <v>522</v>
       </c>
-      <c r="B43" s="102"/>
+      <c r="B43" s="92"/>
     </row>
     <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
@@ -9297,13 +9294,13 @@
       <c r="B47" s="93"/>
     </row>
     <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="91" t="s">
+      <c r="A48" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="92"/>
+      <c r="B48" s="98"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="103" t="s">
         <v>322</v>
       </c>
       <c r="B49" s="62" t="s">
@@ -9311,7 +9308,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="100"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="62" t="s">
         <v>314</v>
       </c>
@@ -9320,13 +9317,13 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="103" t="s">
         <v>323</v>
       </c>
       <c r="B52" s="62" t="s">
@@ -9334,25 +9331,25 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="100"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
+      <c r="A54" s="104"/>
       <c r="B54" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="101"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="99" t="s">
+      <c r="A56" s="103" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="62" t="s">
@@ -9360,13 +9357,13 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="101"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="99" t="s">
+      <c r="A58" s="103" t="s">
         <v>325</v>
       </c>
       <c r="B58" s="62" t="s">
@@ -9377,7 +9374,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="100"/>
+      <c r="A59" s="104"/>
       <c r="B59" s="62" t="s">
         <v>539</v>
       </c>
@@ -9386,14 +9383,14 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
+      <c r="A60" s="104"/>
       <c r="B60" s="62" t="s">
         <v>538</v>
       </c>
       <c r="C60" s="68"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="101"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="62" t="s">
         <v>327</v>
       </c>
@@ -9423,7 +9420,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="100" t="s">
         <v>290</v>
       </c>
       <c r="B65" s="62" t="s">
@@ -9431,37 +9428,37 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="97"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="97"/>
+      <c r="A68" s="101"/>
       <c r="B68" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="97"/>
+      <c r="A69" s="101"/>
       <c r="B69" s="62" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="98"/>
+      <c r="A70" s="102"/>
       <c r="B70" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="96" t="s">
+      <c r="A71" s="100" t="s">
         <v>291</v>
       </c>
       <c r="B71" s="62" t="s">
@@ -9469,62 +9466,62 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C72" s="67"/>
     </row>
     <row r="73" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="97"/>
+      <c r="A73" s="101"/>
       <c r="B73" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="97"/>
+      <c r="A74" s="101"/>
       <c r="B74" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="97"/>
+      <c r="A75" s="101"/>
       <c r="B75" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="97"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="97"/>
+      <c r="A77" s="101"/>
       <c r="B77" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="97"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="97"/>
+      <c r="A79" s="101"/>
       <c r="B79" s="81" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
+      <c r="A80" s="102"/>
       <c r="B80" s="81" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="96" t="s">
+      <c r="A81" s="100" t="s">
         <v>292</v>
       </c>
       <c r="B81" s="82" t="s">
@@ -9532,21 +9529,21 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="97"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C82"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="98"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C83"/>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="96" t="s">
+      <c r="A84" s="100" t="s">
         <v>309</v>
       </c>
       <c r="B84" s="84" t="s">
@@ -9555,7 +9552,7 @@
       <c r="C84"/>
     </row>
     <row r="85" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="98"/>
+      <c r="A85" s="102"/>
       <c r="B85" s="84" t="s">
         <v>311</v>
       </c>
@@ -9597,592 +9594,622 @@
       </c>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="73" t="s">
+    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="91" t="s">
+        <v>540</v>
+      </c>
+      <c r="B90" s="84" t="s">
+        <v>541</v>
+      </c>
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="73" t="s">
         <v>378</v>
       </c>
-      <c r="B90" s="84" t="s">
+      <c r="B91" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="93" t="s">
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="93" t="s">
         <v>392</v>
       </c>
-      <c r="B91" s="93"/>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A92" s="91" t="s">
+      <c r="B92" s="93"/>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A93" s="99" t="s">
         <v>393</v>
       </c>
-      <c r="B92" s="92"/>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="70" t="s">
+      <c r="B93" s="98"/>
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="B93" s="60" t="s">
+      <c r="B94" s="60" t="s">
         <v>395</v>
-      </c>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="B94" s="76" t="s">
-        <v>397</v>
       </c>
       <c r="C94"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="B95" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B96" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A96" s="91" t="s">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="99" t="s">
         <v>400</v>
       </c>
-      <c r="B96" s="92"/>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A97" s="57" t="s">
+      <c r="B97" s="98"/>
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A98" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="B97" s="80" t="s">
+      <c r="B98" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="57" t="s">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="B98" s="80" t="s">
+      <c r="B99" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="72" t="s">
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="B99" s="80" t="s">
+      <c r="B100" s="80" t="s">
         <v>406</v>
       </c>
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="57" t="s">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="B100" s="80" t="s">
+      <c r="B101" s="80" t="s">
         <v>408</v>
       </c>
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="57" t="s">
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="B101" s="80" t="s">
+      <c r="B102" s="80" t="s">
         <v>410</v>
-      </c>
-      <c r="C101"/>
-    </row>
-    <row r="102" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B102" s="79" t="s">
-        <v>412</v>
       </c>
       <c r="C102"/>
     </row>
     <row r="103" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A103" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B103" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="B103" s="79" t="s">
+      <c r="B104" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
         <v>415</v>
       </c>
-      <c r="B104" s="86" t="s">
+      <c r="B105" s="86" t="s">
         <v>416</v>
       </c>
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B106" s="80" t="s">
         <v>417</v>
-      </c>
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="57" t="s">
-        <v>424</v>
-      </c>
-      <c r="B106" s="79" t="s">
-        <v>418</v>
       </c>
       <c r="C106"/>
     </row>
     <row r="107" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="57" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B107" s="79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C107"/>
     </row>
     <row r="108" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A108" s="57" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B108" s="79" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C108"/>
     </row>
     <row r="109" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A109" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="B109" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="57" t="s">
         <v>422</v>
       </c>
-      <c r="B109" s="79" t="s">
+      <c r="B110" s="79" t="s">
         <v>426</v>
       </c>
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="57" t="s">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="B110" s="79" t="s">
+      <c r="B111" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="C110"/>
-    </row>
-    <row r="111" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="72" t="s">
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="B111" s="80" t="s">
+      <c r="B112" s="80" t="s">
         <v>430</v>
       </c>
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A112" s="91" t="s">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A113" s="99" t="s">
         <v>431</v>
       </c>
-      <c r="B112" s="92"/>
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="57" t="s">
-        <v>436</v>
-      </c>
-      <c r="B113" s="79" t="s">
-        <v>435</v>
-      </c>
+      <c r="B113" s="98"/>
       <c r="C113"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A114" s="57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C114"/>
     </row>
     <row r="115" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A115" s="57" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C115"/>
     </row>
     <row r="116" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A116" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="57" t="s">
         <v>439</v>
       </c>
-      <c r="B116" s="79" t="s">
+      <c r="B117" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="C116"/>
-    </row>
-    <row r="117" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="70" t="s">
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="70" t="s">
         <v>443</v>
       </c>
-      <c r="B117" s="79" t="s">
+      <c r="B118" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="57" t="s">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="57" t="s">
         <v>442</v>
       </c>
-      <c r="B118" s="79" t="s">
+      <c r="B119" s="79" t="s">
         <v>441</v>
       </c>
-      <c r="C118"/>
-    </row>
-    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="70" t="s">
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="70" t="s">
         <v>444</v>
       </c>
-      <c r="B119" s="80" t="s">
+      <c r="B120" s="80" t="s">
         <v>445</v>
       </c>
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="57" t="s">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="B120" s="79" t="s">
+      <c r="B121" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="C120"/>
-    </row>
-    <row r="121" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="57" t="s">
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A122" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="B121" s="80" t="s">
+      <c r="B122" s="80" t="s">
         <v>449</v>
       </c>
-      <c r="C121"/>
-    </row>
-    <row r="122" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A122" s="91" t="s">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A123" s="99" t="s">
         <v>509</v>
       </c>
-      <c r="B122" s="92"/>
-      <c r="C122"/>
-    </row>
-    <row r="123" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A123" s="57" t="s">
+      <c r="B123" s="98"/>
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A124" s="57" t="s">
         <v>450</v>
       </c>
-      <c r="B123" s="80" t="s">
+      <c r="B124" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="C123"/>
-    </row>
-    <row r="124" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="57" t="s">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="B124" s="80" t="s">
+      <c r="B125" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="C124"/>
-    </row>
-    <row r="125" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="57" t="s">
-        <v>453</v>
-      </c>
-      <c r="B125" s="79" t="s">
-        <v>454</v>
       </c>
       <c r="C125"/>
     </row>
     <row r="126" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A126" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="B126" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="B126" s="79" t="s">
+      <c r="B127" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="C126"/>
-    </row>
-    <row r="127" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="70" t="s">
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="70" t="s">
         <v>457</v>
       </c>
-      <c r="B127" s="79" t="s">
+      <c r="B128" s="79" t="s">
         <v>458</v>
       </c>
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="77" t="s">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="77" t="s">
         <v>460</v>
       </c>
-      <c r="B128" s="80" t="s">
+      <c r="B129" s="80" t="s">
         <v>459</v>
       </c>
-      <c r="C128"/>
-    </row>
-    <row r="129" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A129" s="78" t="s">
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A130" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="B129" s="80" t="s">
+      <c r="B130" s="80" t="s">
         <v>462</v>
       </c>
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="78" t="s">
-        <v>463</v>
-      </c>
-      <c r="B130" s="79"/>
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A131" s="78" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B131" s="79"/>
       <c r="C131"/>
     </row>
-    <row r="132" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A132" s="78" t="s">
+        <v>464</v>
+      </c>
+      <c r="B132" s="79"/>
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="A133" s="78" t="s">
         <v>465</v>
       </c>
-      <c r="B132" s="80" t="s">
+      <c r="B133" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="C132"/>
-    </row>
-    <row r="133" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="94" t="s">
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="97" t="s">
         <v>466</v>
       </c>
-      <c r="B133" s="92"/>
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A134" s="78" t="s">
+      <c r="B134" s="98"/>
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A135" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="B134" s="80" t="s">
+      <c r="B135" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="70" t="s">
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="70" t="s">
         <v>469</v>
       </c>
-      <c r="B135" s="86" t="s">
+      <c r="B136" s="86" t="s">
         <v>472</v>
       </c>
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A136" s="78" t="s">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A137" s="78" t="s">
         <v>470</v>
       </c>
-      <c r="B136" s="80" t="s">
+      <c r="B137" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="94" t="s">
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="97" t="s">
         <v>475</v>
       </c>
-      <c r="B137" s="92"/>
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A138" s="70" t="s">
+      <c r="B138" s="98"/>
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A139" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="B138" s="87" t="s">
+      <c r="B139" s="87" t="s">
         <v>476</v>
       </c>
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="93" t="s">
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="93" t="s">
         <v>478</v>
       </c>
-      <c r="B139" s="93"/>
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A140" s="91" t="s">
+      <c r="B140" s="93"/>
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="99" t="s">
         <v>481</v>
       </c>
-      <c r="B140" s="92"/>
-      <c r="C140"/>
-    </row>
-    <row r="141" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="57" t="s">
+      <c r="B141" s="98"/>
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="57" t="s">
         <v>482</v>
       </c>
-      <c r="B141" s="76" t="s">
+      <c r="B142" s="76" t="s">
         <v>483</v>
       </c>
-      <c r="C141"/>
-    </row>
-    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="70" t="s">
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="70" t="s">
         <v>484</v>
       </c>
-      <c r="B142" s="76" t="s">
+      <c r="B143" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="70"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="94" t="s">
+    <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="70"/>
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="97" t="s">
         <v>488</v>
       </c>
-      <c r="B144" s="95"/>
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A145" s="57" t="s">
+      <c r="B145" s="106"/>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="57" t="s">
         <v>487</v>
       </c>
-      <c r="B145" s="76" t="s">
+      <c r="B146" s="76" t="s">
         <v>486</v>
-      </c>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146" s="57" t="s">
-        <v>493</v>
-      </c>
-      <c r="B146" s="76" t="s">
-        <v>489</v>
       </c>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="57" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B147" s="76" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C147"/>
     </row>
     <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B148" s="76" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B149" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="B149" s="76" t="s">
+      <c r="B150" s="76" t="s">
         <v>495</v>
       </c>
-      <c r="C149"/>
-    </row>
-    <row r="150" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A150" s="57" t="s">
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A151" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="B150" s="76" t="s">
+      <c r="B151" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="C150"/>
-    </row>
-    <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="57" t="s">
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="B151" s="88" t="s">
+      <c r="B152" s="88" t="s">
         <v>507</v>
       </c>
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A152" s="91" t="s">
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A153" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="B152" s="92"/>
-      <c r="C152"/>
-    </row>
-    <row r="153" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="57" t="s">
+      <c r="B153" s="98"/>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="B153" s="76" t="s">
+      <c r="B154" s="76" t="s">
         <v>499</v>
       </c>
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A154" s="57" t="s">
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A155" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="B154" s="76" t="s">
+      <c r="B155" s="76" t="s">
         <v>500</v>
       </c>
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A155" s="91" t="s">
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A156" s="99" t="s">
         <v>480</v>
       </c>
-      <c r="B155" s="92"/>
-      <c r="C155"/>
-    </row>
-    <row r="156" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A156" s="57" t="s">
+      <c r="B156" s="98"/>
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A157" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="B156" s="76" t="s">
+      <c r="B157" s="76" t="s">
         <v>503</v>
       </c>
-      <c r="C156"/>
-    </row>
-    <row r="157" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A157" s="57" t="s">
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A158" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="B157" s="76" t="s">
+      <c r="B158" s="76" t="s">
         <v>505</v>
       </c>
-      <c r="C157"/>
-    </row>
-    <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="57"/>
-      <c r="B158" s="76"/>
       <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="57"/>
+      <c r="B159" s="76"/>
+      <c r="C159"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A123:B123"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A2:B2"/>
@@ -10197,27 +10224,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A152:B152"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10639,7 +10645,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -10659,7 +10665,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
+      <c r="A2" s="108"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -10727,10 +10733,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="109"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4564,31 +4564,6 @@
     </r>
   </si>
   <si>
-    <t>SELECT e.DepartmentID
-FROM Employees AS e
-GROUP BY e.DepartmentID</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DISTINCT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>allows you to get all unique values:</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT DISTINCT e.DepartmentID
-FROM Employees AS e</t>
-  </si>
-  <si>
     <t>SELECT e.DepartmentID,
 MIN(e.Salary) AS MinSalary
 FROM Employees AS e
@@ -5181,11 +5156,37 @@
   <si>
     <t>Изпълни кода от GO надолу</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DISTINCT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">allows you to get all unique values, return only distinct (different) values.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT DISTINCT DepartmentID
+FROM Employees</t>
+  </si>
+  <si>
+    <t>SELECT DepartmentID
+FROM Employees
+GROUP BY DepartmentID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6156,29 +6157,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6198,8 +6190,17 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6306,7 +6307,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6314,6 +6315,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6367,7 +6379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6402,7 +6414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8934,8 +8946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8954,90 +8966,90 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="94"/>
+      <c r="B2" s="104"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="B3" s="95"/>
+      <c r="A3" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="105"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
-        <v>527</v>
-      </c>
-      <c r="B7" s="92"/>
+      <c r="A7" s="105" t="s">
+        <v>524</v>
+      </c>
+      <c r="B7" s="103"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="92"/>
+      <c r="A11" s="105" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" s="103"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="105"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -9081,31 +9093,31 @@
     </row>
     <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95" t="s">
-        <v>512</v>
-      </c>
-      <c r="B20" s="95"/>
+      <c r="A20" s="105" t="s">
+        <v>509</v>
+      </c>
+      <c r="B20" s="105"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>341</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="B22" s="95"/>
+      <c r="B22" s="105"/>
     </row>
     <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
@@ -9116,10 +9128,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="105" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="105"/>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
@@ -9146,10 +9158,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="105" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="105"/>
     </row>
     <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
@@ -9176,10 +9188,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="92"/>
+      <c r="B32" s="103"/>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
@@ -9206,10 +9218,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="105"/>
     </row>
     <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
@@ -9236,10 +9248,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="103" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="92"/>
+      <c r="B40" s="103"/>
     </row>
     <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
@@ -9258,10 +9270,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="95" t="s">
-        <v>522</v>
-      </c>
-      <c r="B43" s="92"/>
+      <c r="A43" s="105" t="s">
+        <v>519</v>
+      </c>
+      <c r="B43" s="103"/>
     </row>
     <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
@@ -9273,34 +9285,34 @@
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="94" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="93"/>
+      <c r="B47" s="94"/>
     </row>
     <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="92" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="98"/>
+      <c r="B48" s="93"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="100" t="s">
         <v>322</v>
       </c>
       <c r="B49" s="62" t="s">
@@ -9308,7 +9320,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="104"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="62" t="s">
         <v>314</v>
       </c>
@@ -9317,13 +9329,13 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="105"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="103" t="s">
+      <c r="A52" s="100" t="s">
         <v>323</v>
       </c>
       <c r="B52" s="62" t="s">
@@ -9331,25 +9343,25 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="104"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="104"/>
+      <c r="A54" s="101"/>
       <c r="B54" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="105"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="103" t="s">
+      <c r="A56" s="100" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="62" t="s">
@@ -9357,13 +9369,13 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="105"/>
+      <c r="A57" s="102"/>
       <c r="B57" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="103" t="s">
+      <c r="A58" s="100" t="s">
         <v>325</v>
       </c>
       <c r="B58" s="62" t="s">
@@ -9374,23 +9386,23 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="104"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="62" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="104"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="62" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C60" s="68"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="105"/>
+      <c r="A61" s="102"/>
       <c r="B61" s="62" t="s">
         <v>327</v>
       </c>
@@ -9408,7 +9420,7 @@
         <v>285</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -9420,7 +9432,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="100" t="s">
+      <c r="A65" s="97" t="s">
         <v>290</v>
       </c>
       <c r="B65" s="62" t="s">
@@ -9428,37 +9440,37 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="101"/>
+      <c r="A66" s="98"/>
       <c r="B66" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="101"/>
+      <c r="A67" s="98"/>
       <c r="B67" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="101"/>
+      <c r="A68" s="98"/>
       <c r="B68" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="101"/>
+      <c r="A69" s="98"/>
       <c r="B69" s="62" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="102"/>
+      <c r="A70" s="99"/>
       <c r="B70" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="100" t="s">
+      <c r="A71" s="97" t="s">
         <v>291</v>
       </c>
       <c r="B71" s="62" t="s">
@@ -9466,62 +9478,62 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="101"/>
+      <c r="A72" s="98"/>
       <c r="B72" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C72" s="67"/>
     </row>
     <row r="73" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="101"/>
+      <c r="A73" s="98"/>
       <c r="B73" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="101"/>
+      <c r="A74" s="98"/>
       <c r="B74" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="101"/>
+      <c r="A75" s="98"/>
       <c r="B75" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="101"/>
+      <c r="A76" s="98"/>
       <c r="B76" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="101"/>
+      <c r="A77" s="98"/>
       <c r="B77" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="101"/>
+      <c r="A78" s="98"/>
       <c r="B78" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="101"/>
+      <c r="A79" s="98"/>
       <c r="B79" s="81" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="102"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="81" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="100" t="s">
+      <c r="A81" s="97" t="s">
         <v>292</v>
       </c>
       <c r="B81" s="82" t="s">
@@ -9529,21 +9541,21 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="101"/>
+      <c r="A82" s="98"/>
       <c r="B82" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C82"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="102"/>
+      <c r="A83" s="99"/>
       <c r="B83" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C83"/>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="100" t="s">
+      <c r="A84" s="97" t="s">
         <v>309</v>
       </c>
       <c r="B84" s="84" t="s">
@@ -9552,7 +9564,7 @@
       <c r="C84"/>
     </row>
     <row r="85" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="102"/>
+      <c r="A85" s="99"/>
       <c r="B85" s="84" t="s">
         <v>311</v>
       </c>
@@ -9596,10 +9608,10 @@
     </row>
     <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="91" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B90" s="84" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C90"/>
     </row>
@@ -9613,17 +9625,17 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="94" t="s">
         <v>392</v>
       </c>
-      <c r="B92" s="93"/>
+      <c r="B92" s="94"/>
       <c r="C92"/>
     </row>
     <row r="93" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A93" s="99" t="s">
+      <c r="A93" s="92" t="s">
         <v>393</v>
       </c>
-      <c r="B93" s="98"/>
+      <c r="B93" s="93"/>
       <c r="C93"/>
     </row>
     <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -9654,10 +9666,10 @@
       <c r="C96"/>
     </row>
     <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A97" s="99" t="s">
+      <c r="A97" s="92" t="s">
         <v>400</v>
       </c>
-      <c r="B97" s="98"/>
+      <c r="B97" s="93"/>
       <c r="C97"/>
     </row>
     <row r="98" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -9796,10 +9808,10 @@
       <c r="C112"/>
     </row>
     <row r="113" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A113" s="99" t="s">
+      <c r="A113" s="92" t="s">
         <v>431</v>
       </c>
-      <c r="B113" s="98"/>
+      <c r="B113" s="93"/>
       <c r="C113"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -9884,10 +9896,10 @@
       <c r="C122"/>
     </row>
     <row r="123" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A123" s="99" t="s">
-        <v>509</v>
-      </c>
-      <c r="B123" s="98"/>
+      <c r="A123" s="92" t="s">
+        <v>506</v>
+      </c>
+      <c r="B123" s="93"/>
       <c r="C123"/>
     </row>
     <row r="124" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -9895,7 +9907,7 @@
         <v>450</v>
       </c>
       <c r="B124" s="80" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C124"/>
     </row>
@@ -9977,10 +9989,10 @@
       <c r="C133"/>
     </row>
     <row r="134" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="97" t="s">
+      <c r="A134" s="95" t="s">
         <v>466</v>
       </c>
-      <c r="B134" s="98"/>
+      <c r="B134" s="93"/>
       <c r="C134"/>
     </row>
     <row r="135" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -10011,10 +10023,10 @@
       <c r="C137"/>
     </row>
     <row r="138" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="97" t="s">
+      <c r="A138" s="95" t="s">
         <v>475</v>
       </c>
-      <c r="B138" s="98"/>
+      <c r="B138" s="93"/>
       <c r="C138"/>
     </row>
     <row r="139" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -10027,17 +10039,17 @@
       <c r="C139"/>
     </row>
     <row r="140" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="93" t="s">
+      <c r="A140" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="B140" s="93"/>
+      <c r="B140" s="94"/>
       <c r="C140"/>
     </row>
     <row r="141" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A141" s="99" t="s">
+      <c r="A141" s="92" t="s">
         <v>481</v>
       </c>
-      <c r="B141" s="98"/>
+      <c r="B141" s="93"/>
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -10045,16 +10057,16 @@
         <v>482</v>
       </c>
       <c r="B142" s="76" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="C142"/>
     </row>
-    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="70" t="s">
-        <v>484</v>
-      </c>
-      <c r="B143" s="76" t="s">
-        <v>485</v>
+    <row r="143" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="A143" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="B143" s="80" t="s">
+        <v>540</v>
       </c>
       <c r="C143"/>
     </row>
@@ -10063,122 +10075,122 @@
       <c r="C144"/>
     </row>
     <row r="145" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="97" t="s">
-        <v>488</v>
-      </c>
-      <c r="B145" s="106"/>
+      <c r="A145" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="B145" s="96"/>
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="57" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B146" s="76" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="57" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B147" s="76" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C147"/>
     </row>
     <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B148" s="76" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="57" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B149" s="76" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="57" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B150" s="76" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C150"/>
     </row>
     <row r="151" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A151" s="57" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B151" s="76" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C151"/>
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="57" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B152" s="88" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A153" s="99" t="s">
+      <c r="A153" s="92" t="s">
         <v>479</v>
       </c>
-      <c r="B153" s="98"/>
+      <c r="B153" s="93"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="57" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B154" s="76" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="57" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B155" s="76" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C155"/>
     </row>
     <row r="156" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A156" s="99" t="s">
+      <c r="A156" s="92" t="s">
         <v>480</v>
       </c>
-      <c r="B156" s="98"/>
+      <c r="B156" s="93"/>
       <c r="C156"/>
     </row>
     <row r="157" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A157" s="57" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B157" s="76" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C157"/>
     </row>
     <row r="158" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A158" s="57" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B158" s="76" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C158"/>
     </row>
@@ -10189,11 +10201,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A138:B138"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A71:A80"/>
@@ -10210,20 +10231,11 @@
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A153:B153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="544">
   <si>
     <t>Операция</t>
   </si>
@@ -3238,63 +3238,6 @@
     <t>Опреснява информацията в базата така че след изпълнението на командите да са достъпни за следващата част от кода</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">GO
-GO 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- GO execute the related sql commands n times
-Declare @ID nvarchar(5);
-set @ID = 5;
-select @ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Not Accesible</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-GO
-select @ID - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACCESSIBLE</t>
-    </r>
-  </si>
-  <si>
     <t>The IN operator allows you to specify multiple values in a WHERE clause.
 The IN operator is a shorthand for multiple OR conditions.</t>
   </si>
@@ -3338,9 +3281,6 @@
     <t>ISNULL</t>
   </si>
   <si>
-    <t>ISNULL(MiddleName,'') - Ако стойността в колоната е NULL, NULL се замества с ''</t>
-  </si>
-  <si>
     <t>Multiple order</t>
   </si>
   <si>
@@ -4441,57 +4381,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>[Name] LIKE '[^rbd]%'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CREATE VIEW v_EmployeesByDepartment AS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SELECT FirstName + ' ' + LastName AS [Full Name], Salary
-FROM Employees</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-That how is called : SELECT * FROM v_EmployeesByDepartment</t>
     </r>
   </si>
   <si>
@@ -5154,9 +5043,6 @@
     <t>GO</t>
   </si>
   <si>
-    <t>Изпълни кода от GO надолу</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">DISTINCT </t>
     </r>
@@ -5181,6 +5067,139 @@
     <t>SELECT DepartmentID
 FROM Employees
 GROUP BY DepartmentID</t>
+  </si>
+  <si>
+    <t>All T-SQL prior GO will execute "at once"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO mytable DEFAULT VALUES
+GO 10
+GO 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- GO execute the related sql commands n times
+Declare @ID nvarchar(5);
+set @ID = 5;
+select @ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Not Accesible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+GO
+select @ID - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACCESSIBLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE VIEW v_EmployeesByDepartment AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT FirstName + ' ' + LastName AS [Full Name], Salary
+FROM Employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+That how is called : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT * FROM v_EmployeesByDepartment</t>
+    </r>
+  </si>
+  <si>
+    <t>ISNULL(MiddleName,' ') - Ако стойността в колоната е NULL, NULL се замества с ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COALESCE </t>
+  </si>
+  <si>
+    <t>Evaluates the arguments in order and returns the current value of the first expression that initially doesn't evaluate to NULL. For example, SELECT COALESCE(NULL, NULL, 'third_value', 'fourth_value'); returns the third value because the third value is the first value that isn't null.</t>
   </si>
 </sst>
 </file>
@@ -5906,7 +5925,7 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6157,20 +6176,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6190,17 +6218,8 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6212,6 +6231,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8944,10 +8969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8966,90 +8991,90 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="94"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="106" t="s">
-        <v>512</v>
-      </c>
-      <c r="B3" s="105"/>
+      <c r="A3" s="96" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="95"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="105" t="s">
-        <v>524</v>
-      </c>
-      <c r="B7" s="103"/>
+      <c r="A7" s="95" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" s="92"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="105" t="s">
-        <v>527</v>
-      </c>
-      <c r="B11" s="103"/>
+      <c r="A11" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="92"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="105" t="s">
-        <v>391</v>
-      </c>
-      <c r="B13" s="105"/>
+      <c r="A13" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" s="95"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -9093,45 +9118,45 @@
     </row>
     <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
-        <v>509</v>
-      </c>
-      <c r="B20" s="105"/>
+      <c r="A20" s="95" t="s">
+        <v>506</v>
+      </c>
+      <c r="B20" s="95"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>341</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="105" t="s">
-        <v>390</v>
-      </c>
-      <c r="B22" s="105"/>
+      <c r="A22" s="95" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="95"/>
     </row>
     <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>342</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="95" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="105"/>
+      <c r="B24" s="95"/>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
@@ -9158,10 +9183,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="95" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="105"/>
+      <c r="B28" s="95"/>
     </row>
     <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
@@ -9188,10 +9213,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="103"/>
+      <c r="B32" s="92"/>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
@@ -9211,17 +9236,17 @@
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>383</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="95"/>
     </row>
     <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
@@ -9241,78 +9266,78 @@
     </row>
     <row r="39" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="92" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="103"/>
+      <c r="B40" s="92"/>
     </row>
     <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="B42" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B42" s="74" t="s">
-        <v>381</v>
-      </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="105" t="s">
-        <v>519</v>
-      </c>
-      <c r="B43" s="103"/>
+      <c r="A43" s="95" t="s">
+        <v>516</v>
+      </c>
+      <c r="B43" s="92"/>
     </row>
     <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="94"/>
+      <c r="B47" s="93"/>
     </row>
     <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="92" t="s">
+      <c r="A48" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="93"/>
+      <c r="B48" s="98"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="100" t="s">
+      <c r="A49" s="103" t="s">
         <v>322</v>
       </c>
       <c r="B49" s="62" t="s">
@@ -9320,7 +9345,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="101"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="62" t="s">
         <v>314</v>
       </c>
@@ -9329,13 +9354,13 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="102"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="100" t="s">
+      <c r="A52" s="103" t="s">
         <v>323</v>
       </c>
       <c r="B52" s="62" t="s">
@@ -9343,25 +9368,25 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="101"/>
+      <c r="A54" s="104"/>
       <c r="B54" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="102"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="100" t="s">
+      <c r="A56" s="103" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="62" t="s">
@@ -9369,13 +9394,13 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="100" t="s">
+      <c r="A58" s="103" t="s">
         <v>325</v>
       </c>
       <c r="B58" s="62" t="s">
@@ -9386,23 +9411,23 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="101"/>
+      <c r="A59" s="104"/>
       <c r="B59" s="62" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="101"/>
+      <c r="A60" s="104"/>
       <c r="B60" s="62" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C60" s="68"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="102"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="62" t="s">
         <v>327</v>
       </c>
@@ -9420,7 +9445,7 @@
         <v>285</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -9432,7 +9457,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="97" t="s">
+      <c r="A65" s="100" t="s">
         <v>290</v>
       </c>
       <c r="B65" s="62" t="s">
@@ -9440,37 +9465,37 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="98"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="98"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="98"/>
+      <c r="A68" s="101"/>
       <c r="B68" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="98"/>
+      <c r="A69" s="101"/>
       <c r="B69" s="62" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="99"/>
+      <c r="A70" s="102"/>
       <c r="B70" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="97" t="s">
+      <c r="A71" s="100" t="s">
         <v>291</v>
       </c>
       <c r="B71" s="62" t="s">
@@ -9478,62 +9503,62 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C72" s="67"/>
     </row>
     <row r="73" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="98"/>
+      <c r="A73" s="101"/>
       <c r="B73" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="98"/>
+      <c r="A74" s="101"/>
       <c r="B74" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="98"/>
+      <c r="A75" s="101"/>
       <c r="B75" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="98"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="98"/>
+      <c r="A77" s="101"/>
       <c r="B77" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="98"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="98"/>
+      <c r="A79" s="101"/>
       <c r="B79" s="81" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="99"/>
+      <c r="A80" s="102"/>
       <c r="B80" s="81" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="97" t="s">
+      <c r="A81" s="100" t="s">
         <v>292</v>
       </c>
       <c r="B81" s="82" t="s">
@@ -9541,21 +9566,21 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="98"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C82"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="99"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C83"/>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="97" t="s">
+      <c r="A84" s="100" t="s">
         <v>309</v>
       </c>
       <c r="B84" s="84" t="s">
@@ -9564,7 +9589,7 @@
       <c r="C84"/>
     </row>
     <row r="85" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="99"/>
+      <c r="A85" s="102"/>
       <c r="B85" s="84" t="s">
         <v>311</v>
       </c>
@@ -9590,617 +9615,647 @@
     </row>
     <row r="88" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B88" s="85" t="s">
         <v>329</v>
       </c>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A89" s="71" t="s">
         <v>375</v>
       </c>
       <c r="B89" s="84" t="s">
-        <v>376</v>
+        <v>539</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="91" t="s">
-        <v>537</v>
-      </c>
-      <c r="B90" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="B90" s="81" t="s">
         <v>538</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="73" t="s">
-        <v>378</v>
-      </c>
-      <c r="B91" s="84" t="s">
         <v>377</v>
       </c>
+      <c r="B91" s="81" t="s">
+        <v>376</v>
+      </c>
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="94" t="s">
-        <v>392</v>
-      </c>
-      <c r="B92" s="94"/>
+      <c r="A92" s="93" t="s">
+        <v>390</v>
+      </c>
+      <c r="B92" s="93"/>
       <c r="C92"/>
     </row>
     <row r="93" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A93" s="92" t="s">
-        <v>393</v>
-      </c>
-      <c r="B93" s="93"/>
+      <c r="A93" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="B93" s="98"/>
       <c r="C93"/>
     </row>
     <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="70" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B94" s="60" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C94"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="70" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C95"/>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="B96" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="99" t="s">
         <v>398</v>
       </c>
-      <c r="B96" s="76" t="s">
-        <v>399</v>
-      </c>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A97" s="92" t="s">
-        <v>400</v>
-      </c>
-      <c r="B97" s="93"/>
+      <c r="B97" s="98"/>
       <c r="C97"/>
     </row>
     <row r="98" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B98" s="80" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A99" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B99" s="80" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="72" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B100" s="80" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="57" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B101" s="80" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C101"/>
     </row>
     <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="57" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B102" s="80" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C102"/>
     </row>
     <row r="103" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A103" s="57" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B103" s="79" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A104" s="57" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B104" s="79" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" s="57" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B105" s="86" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C105"/>
     </row>
     <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="57" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B106" s="80" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C106"/>
     </row>
     <row r="107" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="57" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B107" s="79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C107"/>
     </row>
     <row r="108" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A108" s="57" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B108" s="79" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C108"/>
     </row>
     <row r="109" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A109" s="57" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B109" s="79" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C109"/>
     </row>
     <row r="110" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B110" s="79" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C110"/>
     </row>
     <row r="111" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A111" s="57" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C111"/>
     </row>
     <row r="112" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
       <c r="A112" s="72" t="s">
+        <v>427</v>
+      </c>
+      <c r="B112" s="80" t="s">
+        <v>428</v>
+      </c>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="112" t="s">
+        <v>542</v>
+      </c>
+      <c r="B113" s="111" t="s">
+        <v>543</v>
+      </c>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A114" s="99" t="s">
         <v>429</v>
       </c>
-      <c r="B112" s="80" t="s">
-        <v>430</v>
-      </c>
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A113" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="B113" s="93"/>
-      <c r="C113"/>
-    </row>
-    <row r="114" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="57" t="s">
-        <v>436</v>
-      </c>
-      <c r="B114" s="79" t="s">
-        <v>435</v>
-      </c>
+      <c r="B114" s="98"/>
       <c r="C114"/>
     </row>
     <row r="115" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A115" s="57" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C115"/>
     </row>
     <row r="116" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A116" s="57" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B116" s="79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C116"/>
     </row>
     <row r="117" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A117" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="B117" s="79" t="s">
+        <v>431</v>
+      </c>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="B118" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="70" t="s">
+        <v>441</v>
+      </c>
+      <c r="B119" s="79" t="s">
+        <v>438</v>
+      </c>
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="B120" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="B117" s="79" t="s">
-        <v>432</v>
-      </c>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="70" t="s">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="B121" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="B118" s="79" t="s">
-        <v>440</v>
-      </c>
-      <c r="C118"/>
-    </row>
-    <row r="119" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="57" t="s">
-        <v>442</v>
-      </c>
-      <c r="B119" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="70" t="s">
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="B120" s="80" t="s">
+      <c r="B122" s="79" t="s">
         <v>445</v>
       </c>
-      <c r="C120"/>
-    </row>
-    <row r="121" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="57" t="s">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="B121" s="79" t="s">
+      <c r="B123" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C121"/>
-    </row>
-    <row r="122" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="57" t="s">
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A124" s="99" t="s">
+        <v>503</v>
+      </c>
+      <c r="B124" s="98"/>
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A125" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="B122" s="80" t="s">
+      <c r="B125" s="80" t="s">
+        <v>502</v>
+      </c>
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="C122"/>
-    </row>
-    <row r="123" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A123" s="92" t="s">
-        <v>506</v>
-      </c>
-      <c r="B123" s="93"/>
-      <c r="C123"/>
-    </row>
-    <row r="124" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124" s="57" t="s">
+      <c r="B126" s="80" t="s">
         <v>450</v>
-      </c>
-      <c r="B124" s="80" t="s">
-        <v>505</v>
-      </c>
-      <c r="C124"/>
-    </row>
-    <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="57" t="s">
-        <v>451</v>
-      </c>
-      <c r="B125" s="80" t="s">
-        <v>452</v>
-      </c>
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="57" t="s">
-        <v>453</v>
-      </c>
-      <c r="B126" s="79" t="s">
-        <v>454</v>
       </c>
       <c r="C126"/>
     </row>
     <row r="127" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A127" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="B127" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="B128" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="70" t="s">
         <v>455</v>
       </c>
-      <c r="B127" s="79" t="s">
+      <c r="B129" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="70" t="s">
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="77" t="s">
+        <v>458</v>
+      </c>
+      <c r="B130" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="B128" s="79" t="s">
-        <v>458</v>
-      </c>
-      <c r="C128"/>
-    </row>
-    <row r="129" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="77" t="s">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A131" s="78" t="s">
+        <v>459</v>
+      </c>
+      <c r="B131" s="80" t="s">
         <v>460</v>
       </c>
-      <c r="B129" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A130" s="78" t="s">
-        <v>461</v>
-      </c>
-      <c r="B130" s="80" t="s">
-        <v>462</v>
-      </c>
-      <c r="C130"/>
-    </row>
-    <row r="131" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="78" t="s">
-        <v>463</v>
-      </c>
-      <c r="B131" s="79"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A132" s="78" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B132" s="79"/>
       <c r="C132"/>
     </row>
-    <row r="133" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A133" s="78" t="s">
+        <v>462</v>
+      </c>
+      <c r="B133" s="79"/>
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="A134" s="78" t="s">
+        <v>463</v>
+      </c>
+      <c r="B134" s="80" t="s">
+        <v>474</v>
+      </c>
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="B135" s="98"/>
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A136" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="B136" s="80" t="s">
         <v>465</v>
       </c>
-      <c r="B133" s="80" t="s">
-        <v>477</v>
-      </c>
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="95" t="s">
-        <v>466</v>
-      </c>
-      <c r="B134" s="93"/>
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A135" s="78" t="s">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="B137" s="86" t="s">
+        <v>470</v>
+      </c>
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A138" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="B135" s="80" t="s">
-        <v>467</v>
-      </c>
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="70" t="s">
+      <c r="B138" s="80" t="s">
         <v>469</v>
       </c>
-      <c r="B136" s="86" t="s">
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="97" t="s">
         <v>472</v>
       </c>
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A137" s="78" t="s">
-        <v>470</v>
-      </c>
-      <c r="B137" s="80" t="s">
+      <c r="B139" s="98"/>
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A140" s="70" t="s">
         <v>471</v>
       </c>
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="95" t="s">
+      <c r="B140" s="87" t="s">
+        <v>473</v>
+      </c>
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="93" t="s">
         <v>475</v>
-      </c>
-      <c r="B138" s="93"/>
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A139" s="70" t="s">
-        <v>474</v>
-      </c>
-      <c r="B139" s="87" t="s">
-        <v>476</v>
-      </c>
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="94" t="s">
-        <v>478</v>
-      </c>
-      <c r="B140" s="94"/>
-      <c r="C140"/>
-    </row>
-    <row r="141" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A141" s="92" t="s">
-        <v>481</v>
       </c>
       <c r="B141" s="93"/>
       <c r="C141"/>
     </row>
-    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="57" t="s">
+    <row r="142" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A142" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="B142" s="98"/>
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="B143" s="76" t="s">
+        <v>537</v>
+      </c>
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="B144" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="70"/>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="97" t="s">
         <v>482</v>
       </c>
-      <c r="B142" s="76" t="s">
-        <v>541</v>
-      </c>
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="B143" s="80" t="s">
-        <v>540</v>
-      </c>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="70"/>
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="95" t="s">
-        <v>485</v>
-      </c>
-      <c r="B145" s="96"/>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="B146" s="76" t="s">
-        <v>483</v>
-      </c>
+      <c r="B146" s="106"/>
       <c r="C146"/>
     </row>
-    <row r="147" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="57" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B147" s="76" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C147"/>
     </row>
     <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B148" s="76" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="57" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B149" s="76" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="B150" s="76" t="s">
+        <v>480</v>
+      </c>
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="B151" s="76" t="s">
+        <v>489</v>
+      </c>
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A152" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="B152" s="76" t="s">
         <v>491</v>
       </c>
-      <c r="B150" s="76" t="s">
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="B153" s="88" t="s">
+        <v>501</v>
+      </c>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A154" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="B154" s="98"/>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="57" t="s">
         <v>492</v>
       </c>
-      <c r="C150"/>
-    </row>
-    <row r="151" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A151" s="57" t="s">
+      <c r="B155" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="B151" s="76" t="s">
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A156" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="B156" s="76" t="s">
         <v>494</v>
       </c>
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="B152" s="88" t="s">
-        <v>504</v>
-      </c>
-      <c r="C152"/>
-    </row>
-    <row r="153" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A153" s="92" t="s">
-        <v>479</v>
-      </c>
-      <c r="B153" s="93"/>
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="B154" s="76" t="s">
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A157" s="99" t="s">
+        <v>477</v>
+      </c>
+      <c r="B157" s="98"/>
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A158" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A155" s="57" t="s">
+      <c r="B158" s="76" t="s">
+        <v>497</v>
+      </c>
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A159" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="B155" s="76" t="s">
-        <v>497</v>
-      </c>
-      <c r="C155"/>
-    </row>
-    <row r="156" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A156" s="92" t="s">
-        <v>480</v>
-      </c>
-      <c r="B156" s="93"/>
-      <c r="C156"/>
-    </row>
-    <row r="157" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A157" s="57" t="s">
+      <c r="B159" s="76" t="s">
         <v>499</v>
       </c>
-      <c r="B157" s="76" t="s">
-        <v>500</v>
-      </c>
-      <c r="C157"/>
-    </row>
-    <row r="158" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A158" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="B158" s="76" t="s">
-        <v>502</v>
-      </c>
-      <c r="C158"/>
-    </row>
-    <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="57"/>
-      <c r="B159" s="76"/>
       <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="57"/>
+      <c r="B160" s="76"/>
+      <c r="C160"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A124:B124"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A2:B2"/>
@@ -10215,27 +10270,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A153:B153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="554">
   <si>
     <t>Операция</t>
   </si>
@@ -4436,23 +4436,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">GROUP BY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>allows you to get each separate group and use
-an "aggregate" function over it (like Average, Min or Max):</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT e.DepartmentID,
 MIN(e.Salary) AS MinSalary
 FROM Employees AS e
@@ -5064,11 +5047,6 @@
 FROM Employees</t>
   </si>
   <si>
-    <t>SELECT DepartmentID
-FROM Employees
-GROUP BY DepartmentID</t>
-  </si>
-  <si>
     <t>All T-SQL prior GO will execute "at once"</t>
   </si>
   <si>
@@ -5200,6 +5178,203 @@
   </si>
   <si>
     <t>Evaluates the arguments in order and returns the current value of the first expression that initially doesn't evaluate to NULL. For example, SELECT COALESCE(NULL, NULL, 'third_value', 'fourth_value'); returns the third value because the third value is the first value that isn't null.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT DepartmentID
+FROM Employees
+GROUP BY DepartmentID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  DepositGroup ,MagicWandCreator , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIN(DepositCharge)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WizzardDeposits
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DepositGroup, MagicWandCreator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GROUP BY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allows you to get each separate group and use
+an "aggregate" function over it (like Average, Min or Max)
+Колоните които не се агрегират трябва да участват задължително в GROUP BY - GROUP BY DepositGroup, MagicWandCreator</t>
+    </r>
+  </si>
+  <si>
+    <t>Сумиране на клетка от ред със стойност на клетка от следващия ред</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT SUM(dif.[Difference]) AS SumDifference FROM(
+      SELECT wd.DepositAmount ,
+       (SELECT wd.DepositAmount - w.DepositAmount FROM WizzardDeposits AS w WHERE w.Id = wd.Id+1) AS      [Difference] 
+      FROM WizzardDeposits AS wd
+ ) AS dif</t>
+  </si>
+  <si>
+    <t>OTHER Functions</t>
+  </si>
+  <si>
+    <r>
+      <t>LEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - or example, by using the LEAD() function, from the current row, you can access data of the next row, or the row after the next row, and so on.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LAG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-  by using the LAG() function, from the current row, you can access data of the previous row, or the row before the previous row, and so on. </t>
+    </r>
+  </si>
+  <si>
+    <t>LAG(return_value ,offset [,default]) 
+OVER (
+    [PARTITION BY partition_expression, ... ]
+    ORDER BY sort_expression [ASC | DESC], ...)</t>
+  </si>
+  <si>
+    <t>LEAD(return_value ,offset [,default]) 
+OVER (
+    [PARTITION BY partition_expression, ... ]
+    ORDER BY sort_expression [ASC | DESC], ...)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To delete rows - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DELETE FROM table_name WHERE condition;</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT * INTO NewTable
+FROM Employees 
+WHERE Salary &gt; 30000</t>
+  </si>
+  <si>
+    <t>Създаване на таблица от съществуваща чрез SELECT</t>
   </si>
 </sst>
 </file>
@@ -5925,7 +6100,7 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6176,29 +6351,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6218,8 +6390,17 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6233,11 +6414,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8969,10 +9156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8991,90 +9178,90 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="96" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="94"/>
+      <c r="B2" s="106"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96" t="s">
-        <v>509</v>
-      </c>
-      <c r="B3" s="95"/>
+      <c r="A3" s="108" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="107"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>510</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>512</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>514</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>515</v>
-      </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
-        <v>521</v>
-      </c>
-      <c r="B7" s="92"/>
+      <c r="A7" s="107" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" s="105"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" s="89" t="s">
         <v>522</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
+        <v>526</v>
+      </c>
+      <c r="B9" s="116" t="s">
         <v>527</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
+        <v>528</v>
+      </c>
+      <c r="B10" s="89" t="s">
         <v>529</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>530</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
-        <v>524</v>
-      </c>
-      <c r="B11" s="92"/>
+      <c r="A11" s="107" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="105"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="90" t="s">
         <v>525</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>526</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="107"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -9118,31 +9305,31 @@
     </row>
     <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="B19" s="74" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="107" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95" t="s">
-        <v>506</v>
-      </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="107"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>341</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="95"/>
+      <c r="B22" s="107"/>
     </row>
     <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
@@ -9153,10 +9340,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="107" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="107"/>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
@@ -9183,10 +9370,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="107" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="107"/>
     </row>
     <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
@@ -9213,10 +9400,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="92"/>
+      <c r="B32" s="105"/>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
@@ -9239,14 +9426,14 @@
         <v>381</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="107" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="107"/>
     </row>
     <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
@@ -9273,17 +9460,17 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="92"/>
+      <c r="B40" s="105"/>
     </row>
     <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>378</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
@@ -9295,10 +9482,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="95" t="s">
-        <v>516</v>
-      </c>
-      <c r="B43" s="92"/>
+      <c r="A43" s="107" t="s">
+        <v>515</v>
+      </c>
+      <c r="B43" s="105"/>
     </row>
     <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
@@ -9310,34 +9497,34 @@
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="B45" s="74" t="s">
         <v>517</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" s="74" t="s">
         <v>519</v>
       </c>
-      <c r="B46" s="74" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="47" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="96" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="93"/>
+      <c r="B47" s="96"/>
     </row>
     <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="94" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="98"/>
+      <c r="B48" s="95"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="102" t="s">
         <v>322</v>
       </c>
       <c r="B49" s="62" t="s">
@@ -9345,7 +9532,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="104"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="62" t="s">
         <v>314</v>
       </c>
@@ -9354,13 +9541,13 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="105"/>
+      <c r="A51" s="104"/>
       <c r="B51" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="103" t="s">
+      <c r="A52" s="102" t="s">
         <v>323</v>
       </c>
       <c r="B52" s="62" t="s">
@@ -9368,25 +9555,25 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="104"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="104"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="105"/>
+      <c r="A55" s="104"/>
       <c r="B55" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="103" t="s">
+      <c r="A56" s="102" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="62" t="s">
@@ -9394,13 +9581,13 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="105"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="103" t="s">
+      <c r="A58" s="102" t="s">
         <v>325</v>
       </c>
       <c r="B58" s="62" t="s">
@@ -9411,23 +9598,23 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="104"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="62" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="104"/>
+      <c r="A60" s="103"/>
       <c r="B60" s="62" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C60" s="68"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="105"/>
+      <c r="A61" s="104"/>
       <c r="B61" s="62" t="s">
         <v>327</v>
       </c>
@@ -9445,817 +9632,861 @@
         <v>285</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
+        <v>553</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B65" s="62" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="100" t="s">
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B66" s="62" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="101"/>
-      <c r="B66" s="62" t="s">
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="100"/>
+      <c r="B67" s="62" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="101"/>
-      <c r="B67" s="62" t="s">
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="100"/>
+      <c r="B68" s="62" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="101"/>
-      <c r="B68" s="62" t="s">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="100"/>
+      <c r="B69" s="62" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="101"/>
-      <c r="B69" s="62" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="102"/>
+    <row r="70" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="100"/>
       <c r="B70" s="62" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="101"/>
+      <c r="B71" s="62" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="100" t="s">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="99" t="s">
         <v>291</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B72" s="62" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="101"/>
-      <c r="B72" s="62" t="s">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="100"/>
+      <c r="B73" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="C72" s="67"/>
-    </row>
-    <row r="73" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="101"/>
-      <c r="B73" s="62" t="s">
+      <c r="C73" s="67"/>
+    </row>
+    <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="100"/>
+      <c r="B74" s="62" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="101"/>
-      <c r="B74" s="62" t="s">
+    <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="100"/>
+      <c r="B75" s="62" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="101"/>
-      <c r="B75" s="81" t="s">
+    <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="100"/>
+      <c r="B76" s="81" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="101"/>
-      <c r="B76" s="81" t="s">
+    <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="100"/>
+      <c r="B77" s="81" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="101"/>
-      <c r="B77" s="81" t="s">
+    <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="100"/>
+      <c r="B78" s="81" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="101"/>
-      <c r="B78" s="81" t="s">
+    <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="100"/>
+      <c r="B79" s="81" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="101"/>
-      <c r="B79" s="81" t="s">
+    <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="100"/>
+      <c r="B80" s="81" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="102"/>
-      <c r="B80" s="81" t="s">
+    <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="101"/>
+      <c r="B81" s="81" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="100" t="s">
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="B81" s="82" t="s">
+      <c r="B82" s="82" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="101"/>
-      <c r="B82" s="83" t="s">
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="100"/>
+      <c r="B83" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="C82"/>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="102"/>
-      <c r="B83" s="83" t="s">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="100"/>
+      <c r="B84" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="C83"/>
-    </row>
-    <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="100" t="s">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="101"/>
+      <c r="B85" s="82" t="s">
+        <v>551</v>
+      </c>
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="B84" s="84" t="s">
+      <c r="B86" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="C84"/>
-    </row>
-    <row r="85" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="102"/>
-      <c r="B85" s="84" t="s">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="101"/>
+      <c r="B87" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="69" t="s">
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="69" t="s">
         <v>337</v>
       </c>
-      <c r="B86" s="83" t="s">
+      <c r="B88" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="65" t="s">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="B87" s="84" t="s">
+      <c r="B89" s="84" t="s">
         <v>335</v>
       </c>
-      <c r="C87"/>
-    </row>
-    <row r="88" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="61" t="s">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="B88" s="85" t="s">
+      <c r="B90" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="71" t="s">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="71" t="s">
         <v>375</v>
       </c>
-      <c r="B89" s="84" t="s">
-        <v>539</v>
-      </c>
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="91" t="s">
-        <v>534</v>
-      </c>
-      <c r="B90" s="81" t="s">
-        <v>538</v>
-      </c>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="73" t="s">
+      <c r="B91" s="84" t="s">
+        <v>537</v>
+      </c>
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="91" t="s">
+        <v>533</v>
+      </c>
+      <c r="B92" s="81" t="s">
+        <v>536</v>
+      </c>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="73" t="s">
         <v>377</v>
       </c>
-      <c r="B91" s="81" t="s">
+      <c r="B93" s="81" t="s">
         <v>376</v>
       </c>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="93" t="s">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="96" t="s">
         <v>390</v>
       </c>
-      <c r="B92" s="93"/>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A93" s="99" t="s">
+      <c r="B94" s="96"/>
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A95" s="94" t="s">
         <v>391</v>
       </c>
-      <c r="B93" s="98"/>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="70" t="s">
+      <c r="B95" s="95"/>
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="70" t="s">
         <v>392</v>
       </c>
-      <c r="B94" s="60" t="s">
+      <c r="B96" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="70" t="s">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B97" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="70" t="s">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="B96" s="76" t="s">
+      <c r="B98" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A97" s="99" t="s">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A99" s="94" t="s">
         <v>398</v>
       </c>
-      <c r="B97" s="98"/>
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A98" s="57" t="s">
+      <c r="B99" s="95"/>
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A100" s="57" t="s">
         <v>400</v>
       </c>
-      <c r="B98" s="80" t="s">
+      <c r="B100" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="57" t="s">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="57" t="s">
         <v>401</v>
       </c>
-      <c r="B99" s="80" t="s">
+      <c r="B101" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="72" t="s">
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="72" t="s">
         <v>403</v>
       </c>
-      <c r="B100" s="80" t="s">
+      <c r="B102" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="57" t="s">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="B101" s="80" t="s">
+      <c r="B103" s="80" t="s">
         <v>406</v>
       </c>
-      <c r="C101"/>
-    </row>
-    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="57" t="s">
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="B102" s="80" t="s">
+      <c r="B104" s="80" t="s">
         <v>408</v>
       </c>
-      <c r="C102"/>
-    </row>
-    <row r="103" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="57" t="s">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="B103" s="79" t="s">
+      <c r="B105" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B104" s="79" t="s">
+      <c r="B106" s="79" t="s">
         <v>412</v>
       </c>
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A107" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="B105" s="86" t="s">
+      <c r="B107" s="86" t="s">
         <v>414</v>
       </c>
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="57" t="s">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="B106" s="80" t="s">
+      <c r="B108" s="80" t="s">
         <v>415</v>
-      </c>
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="B107" s="79" t="s">
-        <v>416</v>
-      </c>
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="57" t="s">
-        <v>421</v>
-      </c>
-      <c r="B108" s="79" t="s">
-        <v>417</v>
       </c>
       <c r="C108"/>
     </row>
     <row r="109" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A109" s="57" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B109" s="79" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C109"/>
     </row>
     <row r="110" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="B110" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="B111" s="79" t="s">
+        <v>419</v>
+      </c>
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="B110" s="79" t="s">
+      <c r="B112" s="79" t="s">
         <v>424</v>
       </c>
-      <c r="C110"/>
-    </row>
-    <row r="111" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="57" t="s">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="B111" s="79" t="s">
+      <c r="B113" s="79" t="s">
         <v>426</v>
       </c>
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="72" t="s">
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="B112" s="80" t="s">
+      <c r="B114" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="112" t="s">
-        <v>542</v>
-      </c>
-      <c r="B113" s="111" t="s">
-        <v>543</v>
-      </c>
-      <c r="C113"/>
-    </row>
-    <row r="114" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A114" s="99" t="s">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="93" t="s">
+        <v>540</v>
+      </c>
+      <c r="B115" s="92" t="s">
+        <v>541</v>
+      </c>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A116" s="94" t="s">
         <v>429</v>
       </c>
-      <c r="B114" s="98"/>
-      <c r="C114"/>
-    </row>
-    <row r="115" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="57" t="s">
-        <v>434</v>
-      </c>
-      <c r="B115" s="79" t="s">
-        <v>433</v>
-      </c>
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="57" t="s">
-        <v>435</v>
-      </c>
-      <c r="B116" s="79" t="s">
-        <v>432</v>
-      </c>
+      <c r="B116" s="95"/>
       <c r="C116"/>
     </row>
     <row r="117" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A117" s="57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B117" s="79" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C117"/>
     </row>
     <row r="118" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A118" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="B118" s="79" t="s">
+        <v>432</v>
+      </c>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="B119" s="79" t="s">
+        <v>431</v>
+      </c>
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="B118" s="79" t="s">
+      <c r="B120" s="79" t="s">
         <v>430</v>
       </c>
-      <c r="C118"/>
-    </row>
-    <row r="119" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="70" t="s">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="B119" s="79" t="s">
+      <c r="B121" s="79" t="s">
         <v>438</v>
       </c>
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A120" s="57" t="s">
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="57" t="s">
         <v>440</v>
       </c>
-      <c r="B120" s="79" t="s">
+      <c r="B122" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="C120"/>
-    </row>
-    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="70" t="s">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="B121" s="80" t="s">
+      <c r="B123" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="C121"/>
-    </row>
-    <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="57" t="s">
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="B122" s="79" t="s">
+      <c r="B124" s="79" t="s">
         <v>445</v>
       </c>
-      <c r="C122"/>
-    </row>
-    <row r="123" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="57" t="s">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="B123" s="80" t="s">
+      <c r="B125" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C123"/>
-    </row>
-    <row r="124" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A124" s="99" t="s">
-        <v>503</v>
-      </c>
-      <c r="B124" s="98"/>
-      <c r="C124"/>
-    </row>
-    <row r="125" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A125" s="57" t="s">
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A126" s="94" t="s">
+        <v>502</v>
+      </c>
+      <c r="B126" s="95"/>
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A127" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="B125" s="80" t="s">
-        <v>502</v>
-      </c>
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="57" t="s">
+      <c r="B127" s="80" t="s">
+        <v>501</v>
+      </c>
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="B126" s="80" t="s">
+      <c r="B128" s="80" t="s">
         <v>450</v>
       </c>
-      <c r="C126"/>
-    </row>
-    <row r="127" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="57" t="s">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="B127" s="79" t="s">
+      <c r="B129" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="57" t="s">
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="B128" s="79" t="s">
+      <c r="B130" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="C128"/>
-    </row>
-    <row r="129" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="70" t="s">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="70" t="s">
         <v>455</v>
       </c>
-      <c r="B129" s="79" t="s">
+      <c r="B131" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="77" t="s">
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="77" t="s">
         <v>458</v>
       </c>
-      <c r="B130" s="80" t="s">
+      <c r="B132" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="C130"/>
-    </row>
-    <row r="131" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A131" s="78" t="s">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A133" s="78" t="s">
         <v>459</v>
       </c>
-      <c r="B131" s="80" t="s">
+      <c r="B133" s="80" t="s">
         <v>460</v>
       </c>
-      <c r="C131"/>
-    </row>
-    <row r="132" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A132" s="78" t="s">
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="B132" s="79"/>
-      <c r="C132"/>
-    </row>
-    <row r="133" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A133" s="78" t="s">
+      <c r="B134" s="79"/>
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="78" t="s">
         <v>462</v>
       </c>
-      <c r="B133" s="79"/>
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="1:3" ht="105" x14ac:dyDescent="0.3">
-      <c r="A134" s="78" t="s">
+      <c r="B135" s="79"/>
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="A136" s="78" t="s">
         <v>463</v>
       </c>
-      <c r="B134" s="80" t="s">
+      <c r="B136" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="97" t="s">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="97" t="s">
         <v>464</v>
       </c>
-      <c r="B135" s="98"/>
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A136" s="78" t="s">
+      <c r="B137" s="95"/>
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A138" s="78" t="s">
         <v>466</v>
       </c>
-      <c r="B136" s="80" t="s">
+      <c r="B138" s="80" t="s">
         <v>465</v>
       </c>
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A137" s="70" t="s">
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="B137" s="86" t="s">
+      <c r="B139" s="86" t="s">
         <v>470</v>
       </c>
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A138" s="78" t="s">
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A140" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="B138" s="80" t="s">
+      <c r="B140" s="80" t="s">
         <v>469</v>
       </c>
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="97" t="s">
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="97" t="s">
         <v>472</v>
       </c>
-      <c r="B139" s="98"/>
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A140" s="70" t="s">
+      <c r="B141" s="95"/>
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A142" s="70" t="s">
         <v>471</v>
       </c>
-      <c r="B140" s="87" t="s">
+      <c r="B142" s="87" t="s">
         <v>473</v>
       </c>
-      <c r="C140"/>
-    </row>
-    <row r="141" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="93" t="s">
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A143" s="114" t="s">
+        <v>544</v>
+      </c>
+      <c r="B143" s="113" t="s">
+        <v>545</v>
+      </c>
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="97" t="s">
+        <v>546</v>
+      </c>
+      <c r="B144" s="95"/>
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="57" t="s">
+        <v>547</v>
+      </c>
+      <c r="B145" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A146" s="57" t="s">
+        <v>548</v>
+      </c>
+      <c r="B146" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="57"/>
+      <c r="B147" s="115"/>
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="B141" s="93"/>
-      <c r="C141"/>
-    </row>
-    <row r="142" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A142" s="99" t="s">
+      <c r="B148" s="96"/>
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A149" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="B142" s="98"/>
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="57" t="s">
-        <v>479</v>
-      </c>
-      <c r="B143" s="76" t="s">
-        <v>537</v>
-      </c>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="57" t="s">
+      <c r="B149" s="95"/>
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A150" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="B150" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="A151" s="57" t="s">
+        <v>534</v>
+      </c>
+      <c r="B151" s="80" t="s">
         <v>535</v>
       </c>
-      <c r="B144" s="80" t="s">
-        <v>536</v>
-      </c>
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="70"/>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="97" t="s">
-        <v>482</v>
-      </c>
-      <c r="B146" s="106"/>
-      <c r="C146"/>
-    </row>
-    <row r="147" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="57" t="s">
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="57"/>
+      <c r="B152" s="80"/>
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="57"/>
+      <c r="B153" s="80"/>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="70"/>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="97" t="s">
         <v>481</v>
       </c>
-      <c r="B147" s="76" t="s">
-        <v>480</v>
-      </c>
-      <c r="C147"/>
-    </row>
-    <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A148" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="B148" s="76" t="s">
-        <v>483</v>
-      </c>
-      <c r="C148"/>
-    </row>
-    <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A149" s="57" t="s">
-        <v>485</v>
-      </c>
-      <c r="B149" s="76" t="s">
-        <v>484</v>
-      </c>
-      <c r="C149"/>
-    </row>
-    <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="57" t="s">
-        <v>486</v>
-      </c>
-      <c r="B150" s="76" t="s">
-        <v>480</v>
-      </c>
-      <c r="C150"/>
-    </row>
-    <row r="151" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A151" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="B151" s="76" t="s">
-        <v>489</v>
-      </c>
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A152" s="57" t="s">
-        <v>490</v>
-      </c>
-      <c r="B152" s="76" t="s">
-        <v>491</v>
-      </c>
-      <c r="C152"/>
-    </row>
-    <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="B153" s="88" t="s">
-        <v>501</v>
-      </c>
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="99" t="s">
-        <v>476</v>
-      </c>
-      <c r="B154" s="98"/>
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="57" t="s">
-        <v>492</v>
-      </c>
-      <c r="B155" s="76" t="s">
-        <v>493</v>
-      </c>
+      <c r="B155" s="98"/>
       <c r="C155"/>
     </row>
     <row r="156" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="57" t="s">
+        <v>480</v>
+      </c>
+      <c r="B156" s="76" t="s">
+        <v>479</v>
+      </c>
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A157" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="B157" s="76" t="s">
+        <v>482</v>
+      </c>
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A158" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="B158" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A159" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="B159" s="76" t="s">
+        <v>479</v>
+      </c>
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="57" t="s">
+        <v>487</v>
+      </c>
+      <c r="B160" s="76" t="s">
+        <v>488</v>
+      </c>
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A161" s="57" t="s">
+        <v>489</v>
+      </c>
+      <c r="B161" s="76" t="s">
+        <v>490</v>
+      </c>
+      <c r="C161"/>
+    </row>
+    <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="B162" s="88" t="s">
+        <v>500</v>
+      </c>
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A163" s="94" t="s">
+        <v>476</v>
+      </c>
+      <c r="B163" s="95"/>
+      <c r="C163"/>
+    </row>
+    <row r="164" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="57" t="s">
+        <v>491</v>
+      </c>
+      <c r="B164" s="76" t="s">
+        <v>492</v>
+      </c>
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A165" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="B165" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A166" s="94" t="s">
+        <v>477</v>
+      </c>
+      <c r="B166" s="95"/>
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A167" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="B156" s="76" t="s">
-        <v>494</v>
-      </c>
-      <c r="C156"/>
-    </row>
-    <row r="157" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A157" s="99" t="s">
-        <v>477</v>
-      </c>
-      <c r="B157" s="98"/>
-      <c r="C157"/>
-    </row>
-    <row r="158" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A158" s="57" t="s">
+      <c r="B167" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="B158" s="76" t="s">
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A168" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="C158"/>
-    </row>
-    <row r="159" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A159" s="57" t="s">
+      <c r="B168" s="76" t="s">
         <v>498</v>
       </c>
-      <c r="B159" s="76" t="s">
-        <v>499</v>
-      </c>
-      <c r="C159"/>
-    </row>
-    <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="57"/>
-      <c r="B160" s="76"/>
-      <c r="C160"/>
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="57"/>
+      <c r="B169" s="76"/>
+      <c r="C169"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A124:B124"/>
+  <mergeCells count="36">
+    <mergeCell ref="A144:B144"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A2:B2"/>
@@ -10270,6 +10501,27 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A163:B163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10691,7 +10943,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -10711,7 +10963,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
+      <c r="A2" s="110"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -10779,10 +11031,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="556">
   <si>
     <t>Операция</t>
   </si>
@@ -4401,15 +4401,6 @@
       WHERE SubTable.Rank = 2 </t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT *
- FROM (
-     SELECT EmployeeID, FirstName,LastName, Salary, 
-     DENSE_RANK() OVER (PARTITION BY Salary ORDER BY EmployeeID) AS Rank
-     FROM Employees 
-     WHERE Salary BETWEEN 10000 AND 50000 ) AS SubTable
- WHERE SubTable.Rank = 2 </t>
-  </si>
-  <si>
     <t>Data Aggregation - COUNT, SUM, MAX, MIN, AVG…</t>
   </si>
   <si>
@@ -5376,17 +5367,49 @@
   <si>
     <t>Създаване на таблица от съществуваща чрез SELECT</t>
   </si>
+  <si>
+    <t xml:space="preserve">DENSE_RANK again gives you the ranking within your ordered partition, but the ranks are consecutive. No ranks are skipped if there are ranks with multiple items.
+SELECT *
+ FROM (
+     SELECT EmployeeID, FirstName,LastName, Salary, 
+     DENSE_RANK() OVER (PARTITION BY Salary ORDER BY EmployeeID) AS Rank
+     FROM Employees 
+     WHERE Salary BETWEEN 10000 AND 50000 ) AS SubTable
+ WHERE SubTable.Rank = 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANK gives you the ranking within your ordered partition. Ties are assigned the same rank, with the next ranking(s) skipped. So, if you have 3 items at rank 2, the next rank listed would be ranked 5.
+SELECT *
+ FROM (
+     SELECT EmployeeID, FirstName,LastName, Salary, 
+     RANK() OVER (PARTITION BY Salary ORDER BY EmployeeID) AS Rank
+     FROM Employees 
+     WHERE Salary BETWEEN 10000 AND 50000 ) AS SubTable
+ WHERE SubTable.Rank = 2 </t>
+  </si>
+  <si>
+    <t>SELECT ROW_NUMBER() OVER (Order by Id) AS RowNumber, Field1, Field2, Field3
+FROM User</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6094,42 +6117,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6144,91 +6167,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6243,73 +6266,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6318,113 +6341,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9158,8 +9181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9178,90 +9201,90 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="102"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="108" t="s">
-        <v>508</v>
-      </c>
-      <c r="B3" s="107"/>
+      <c r="A3" s="104" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="103"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>509</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>511</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>513</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>514</v>
-      </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>520</v>
-      </c>
-      <c r="B7" s="105"/>
+      <c r="A7" s="103" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="100"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="89" t="s">
         <v>521</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" s="97" t="s">
         <v>526</v>
-      </c>
-      <c r="B9" s="116" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
+        <v>527</v>
+      </c>
+      <c r="B10" s="89" t="s">
         <v>528</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>529</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="107" t="s">
-        <v>523</v>
-      </c>
-      <c r="B11" s="105"/>
+      <c r="A11" s="103" t="s">
+        <v>522</v>
+      </c>
+      <c r="B11" s="100"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="90" t="s">
         <v>524</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>525</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="103"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -9305,31 +9328,31 @@
     </row>
     <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="B19" s="74" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="103" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="107" t="s">
-        <v>505</v>
-      </c>
-      <c r="B20" s="107"/>
+      <c r="B20" s="103"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>341</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="103" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="107"/>
+      <c r="B22" s="103"/>
     </row>
     <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
@@ -9340,10 +9363,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="107"/>
+      <c r="B24" s="103"/>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
@@ -9370,10 +9393,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="107"/>
+      <c r="B28" s="103"/>
     </row>
     <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
@@ -9400,10 +9423,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="100" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="105"/>
+      <c r="B32" s="100"/>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
@@ -9426,14 +9449,14 @@
         <v>381</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="103" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="103"/>
     </row>
     <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
@@ -9460,17 +9483,17 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="105" t="s">
+      <c r="A40" s="100" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="105"/>
+      <c r="B40" s="100"/>
     </row>
     <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>378</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
@@ -9482,10 +9505,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="107" t="s">
-        <v>515</v>
-      </c>
-      <c r="B43" s="105"/>
+      <c r="A43" s="103" t="s">
+        <v>514</v>
+      </c>
+      <c r="B43" s="100"/>
     </row>
     <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
@@ -9497,34 +9520,34 @@
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
+        <v>515</v>
+      </c>
+      <c r="B45" s="74" t="s">
         <v>516</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="B46" s="74" t="s">
         <v>518</v>
       </c>
-      <c r="B46" s="74" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="47" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="96"/>
+      <c r="B47" s="101"/>
     </row>
     <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="105" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="95"/>
+      <c r="B48" s="99"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="109" t="s">
         <v>322</v>
       </c>
       <c r="B49" s="62" t="s">
@@ -9532,7 +9555,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="103"/>
+      <c r="A50" s="110"/>
       <c r="B50" s="62" t="s">
         <v>314</v>
       </c>
@@ -9541,13 +9564,13 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="104"/>
+      <c r="A51" s="111"/>
       <c r="B51" s="62" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="109" t="s">
         <v>323</v>
       </c>
       <c r="B52" s="62" t="s">
@@ -9555,25 +9578,25 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="103"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="104"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="109" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="62" t="s">
@@ -9581,13 +9604,13 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="104"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="109" t="s">
         <v>325</v>
       </c>
       <c r="B58" s="62" t="s">
@@ -9598,23 +9621,23 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="103"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="62" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="103"/>
+      <c r="A60" s="110"/>
       <c r="B60" s="62" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C60" s="68"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="104"/>
+      <c r="A61" s="111"/>
       <c r="B61" s="62" t="s">
         <v>327</v>
       </c>
@@ -9632,15 +9655,15 @@
         <v>285</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -9652,7 +9675,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="99" t="s">
+      <c r="A66" s="106" t="s">
         <v>290</v>
       </c>
       <c r="B66" s="62" t="s">
@@ -9660,37 +9683,37 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="100"/>
+      <c r="A67" s="107"/>
       <c r="B67" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="100"/>
+      <c r="A68" s="107"/>
       <c r="B68" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="100"/>
+      <c r="A69" s="107"/>
       <c r="B69" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="100"/>
+      <c r="A70" s="107"/>
       <c r="B70" s="62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="101"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="99" t="s">
+      <c r="A72" s="106" t="s">
         <v>291</v>
       </c>
       <c r="B72" s="62" t="s">
@@ -9698,62 +9721,62 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="100"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C73" s="67"/>
     </row>
     <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="100"/>
+      <c r="A74" s="107"/>
       <c r="B74" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="100"/>
+      <c r="A75" s="107"/>
       <c r="B75" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="100"/>
+      <c r="A76" s="107"/>
       <c r="B76" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="100"/>
+      <c r="A77" s="107"/>
       <c r="B77" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="100"/>
+      <c r="A78" s="107"/>
       <c r="B78" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="100"/>
+      <c r="A79" s="107"/>
       <c r="B79" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="100"/>
+      <c r="A80" s="107"/>
       <c r="B80" s="81" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="101"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="81" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="99" t="s">
+      <c r="A82" s="106" t="s">
         <v>292</v>
       </c>
       <c r="B82" s="82" t="s">
@@ -9761,28 +9784,28 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="100"/>
+      <c r="A83" s="107"/>
       <c r="B83" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C83"/>
     </row>
     <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="100"/>
+      <c r="A84" s="107"/>
       <c r="B84" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C84"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="101"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="82" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C85"/>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="99" t="s">
+      <c r="A86" s="106" t="s">
         <v>309</v>
       </c>
       <c r="B86" s="84" t="s">
@@ -9791,7 +9814,7 @@
       <c r="C86"/>
     </row>
     <row r="87" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="101"/>
+      <c r="A87" s="108"/>
       <c r="B87" s="84" t="s">
         <v>311</v>
       </c>
@@ -9829,16 +9852,16 @@
         <v>375</v>
       </c>
       <c r="B91" s="84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="91" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B92" s="81" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C92"/>
     </row>
@@ -9852,17 +9875,17 @@
       <c r="C93"/>
     </row>
     <row r="94" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="96" t="s">
+      <c r="A94" s="101" t="s">
         <v>390</v>
       </c>
-      <c r="B94" s="96"/>
+      <c r="B94" s="101"/>
       <c r="C94"/>
     </row>
     <row r="95" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A95" s="94" t="s">
+      <c r="A95" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="B95" s="95"/>
+      <c r="B95" s="99"/>
       <c r="C95"/>
     </row>
     <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -9893,10 +9916,10 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A99" s="94" t="s">
+      <c r="A99" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="B99" s="95"/>
+      <c r="B99" s="99"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -10036,18 +10059,18 @@
     </row>
     <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="s">
+        <v>539</v>
+      </c>
+      <c r="B115" s="92" t="s">
         <v>540</v>
       </c>
-      <c r="B115" s="92" t="s">
-        <v>541</v>
-      </c>
       <c r="C115"/>
     </row>
     <row r="116" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A116" s="94" t="s">
+      <c r="A116" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="B116" s="95"/>
+      <c r="B116" s="99"/>
       <c r="C116"/>
     </row>
     <row r="117" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -10132,10 +10155,10 @@
       <c r="C125"/>
     </row>
     <row r="126" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A126" s="94" t="s">
-        <v>502</v>
-      </c>
-      <c r="B126" s="95"/>
+      <c r="A126" s="105" t="s">
+        <v>501</v>
+      </c>
+      <c r="B126" s="99"/>
       <c r="C126"/>
     </row>
     <row r="127" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -10143,7 +10166,7 @@
         <v>448</v>
       </c>
       <c r="B127" s="80" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C127"/>
     </row>
@@ -10205,30 +10228,34 @@
       <c r="A134" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="B134" s="79"/>
+      <c r="B134" s="80" t="s">
+        <v>555</v>
+      </c>
       <c r="C134"/>
     </row>
-    <row r="135" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="150" x14ac:dyDescent="0.3">
       <c r="A135" s="78" t="s">
         <v>462</v>
       </c>
-      <c r="B135" s="79"/>
+      <c r="B135" s="80" t="s">
+        <v>554</v>
+      </c>
       <c r="C135"/>
     </row>
-    <row r="136" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="150" x14ac:dyDescent="0.3">
       <c r="A136" s="78" t="s">
         <v>463</v>
       </c>
       <c r="B136" s="80" t="s">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="C136"/>
     </row>
     <row r="137" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="97" t="s">
+      <c r="A137" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="B137" s="95"/>
+      <c r="B137" s="99"/>
       <c r="C137"/>
     </row>
     <row r="138" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -10259,10 +10286,10 @@
       <c r="C140"/>
     </row>
     <row r="141" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="97" t="s">
+      <c r="A141" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="B141" s="95"/>
+      <c r="B141" s="99"/>
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -10275,73 +10302,73 @@
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A143" s="114" t="s">
+      <c r="A143" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="B143" s="94" t="s">
         <v>544</v>
       </c>
-      <c r="B143" s="113" t="s">
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="98" t="s">
         <v>545</v>
       </c>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="97" t="s">
-        <v>546</v>
-      </c>
-      <c r="B144" s="95"/>
+      <c r="B144" s="99"/>
       <c r="C144"/>
     </row>
     <row r="145" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="57" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B145" s="80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="57" t="s">
+        <v>547</v>
+      </c>
+      <c r="B146" s="76" t="s">
         <v>548</v>
-      </c>
-      <c r="B146" s="76" t="s">
-        <v>549</v>
       </c>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="57"/>
-      <c r="B147" s="115"/>
+      <c r="B147" s="96"/>
       <c r="C147"/>
     </row>
     <row r="148" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="96" t="s">
-        <v>475</v>
-      </c>
-      <c r="B148" s="96"/>
+      <c r="A148" s="101" t="s">
+        <v>474</v>
+      </c>
+      <c r="B148" s="101"/>
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A149" s="94" t="s">
-        <v>478</v>
-      </c>
-      <c r="B149" s="95"/>
+      <c r="A149" s="105" t="s">
+        <v>477</v>
+      </c>
+      <c r="B149" s="99"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A150" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B150" s="76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C150"/>
     </row>
     <row r="151" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A151" s="57" t="s">
+        <v>533</v>
+      </c>
+      <c r="B151" s="80" t="s">
         <v>534</v>
-      </c>
-      <c r="B151" s="80" t="s">
-        <v>535</v>
       </c>
       <c r="C151"/>
     </row>
@@ -10360,122 +10387,122 @@
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="97" t="s">
-        <v>481</v>
-      </c>
-      <c r="B155" s="98"/>
+      <c r="A155" s="98" t="s">
+        <v>480</v>
+      </c>
+      <c r="B155" s="112"/>
       <c r="C155"/>
     </row>
     <row r="156" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B156" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C156"/>
     </row>
     <row r="157" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="57" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B157" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C157"/>
     </row>
     <row r="158" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B158" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C158"/>
     </row>
     <row r="159" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="57" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B159" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="B160" s="76" t="s">
         <v>487</v>
-      </c>
-      <c r="B160" s="76" t="s">
-        <v>488</v>
       </c>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A161" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="B161" s="76" t="s">
         <v>489</v>
-      </c>
-      <c r="B161" s="76" t="s">
-        <v>490</v>
       </c>
       <c r="C161"/>
     </row>
     <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="B162" s="88" t="s">
         <v>499</v>
       </c>
-      <c r="B162" s="88" t="s">
-        <v>500</v>
-      </c>
       <c r="C162"/>
     </row>
     <row r="163" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A163" s="94" t="s">
-        <v>476</v>
-      </c>
-      <c r="B163" s="95"/>
+      <c r="A163" s="105" t="s">
+        <v>475</v>
+      </c>
+      <c r="B163" s="99"/>
       <c r="C163"/>
     </row>
     <row r="164" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="B164" s="76" t="s">
         <v>491</v>
-      </c>
-      <c r="B164" s="76" t="s">
-        <v>492</v>
       </c>
       <c r="C164"/>
     </row>
     <row r="165" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A165" s="57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B165" s="76" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C165"/>
     </row>
     <row r="166" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A166" s="94" t="s">
-        <v>477</v>
-      </c>
-      <c r="B166" s="95"/>
+      <c r="A166" s="105" t="s">
+        <v>476</v>
+      </c>
+      <c r="B166" s="99"/>
       <c r="C166"/>
     </row>
     <row r="167" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A167" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" s="76" t="s">
         <v>495</v>
-      </c>
-      <c r="B167" s="76" t="s">
-        <v>496</v>
       </c>
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A168" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B168" s="76" t="s">
         <v>497</v>
-      </c>
-      <c r="B168" s="76" t="s">
-        <v>498</v>
       </c>
       <c r="C168"/>
     </row>
@@ -10486,6 +10513,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
@@ -10502,26 +10549,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A163:B163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10943,7 +10970,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -10963,7 +10990,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
+      <c r="A2" s="114"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -11031,10 +11058,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="112"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="593">
   <si>
     <t>Операция</t>
   </si>
@@ -5008,9 +5008,6 @@
     </r>
   </si>
   <si>
-    <t>DATETIME2 – date range of "0001 / 01 / 01" (From 1753 To 9999)</t>
-  </si>
-  <si>
     <t>DATETIME – date and time with precision of 1/300 sec (From 1973 To 9999)</t>
   </si>
   <si>
@@ -5391,12 +5388,294 @@
     <t>SELECT ROW_NUMBER() OVER (Order by Id) AS RowNumber, Field1, Field2, Field3
 FROM User</t>
   </si>
+  <si>
+    <t>Table Relations</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>E/R Diagrams</t>
+  </si>
+  <si>
+    <t>Steps in Database Design</t>
+  </si>
+  <si>
+    <t>Identify entities
+Identify table columns
+Define a primary key for each table
+Identify and model relationships
+Define other constraints
+Fill tables with test data</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Database Normalization is a technique of organizing the data
+in the database
+Normalization is a systematic approach of decomposing tables
+to eliminate data redundancy(repetition) and undesirable
+characteristics like Insertion, Update and Deletion anomalies
+It is a multi-step process that puts data into tabular form,
+removing duplicated data from the relation tables</t>
+  </si>
+  <si>
+    <t>First Normal Form (1NF)</t>
+  </si>
+  <si>
+    <t>Table should only have single(atomic) valued attributes/columns
+Values stored in a column should be of the same domain
+All the columns in a table should have unique names
+And the order in which data is stored, does not matter</t>
+  </si>
+  <si>
+    <t>Second Normal Form (2NF)</t>
+  </si>
+  <si>
+    <t>The table should be in the First Normal form
+It should not have Partial Dependency</t>
+  </si>
+  <si>
+    <t>The table is in the Second Normal form
+It doesn't have Transitive Dependency</t>
+  </si>
+  <si>
+    <t>Third Normal Form (3NF)</t>
+  </si>
+  <si>
+    <t>Relationships between tables are based on interconnections:
+primary key =&gt; foreign key</t>
+  </si>
+  <si>
+    <t>Relationships between tables</t>
+  </si>
+  <si>
+    <t>One-to-many</t>
+  </si>
+  <si>
+    <t>e.g. country / towns
+One country has many towns</t>
+  </si>
+  <si>
+    <t>Many-to-many</t>
+  </si>
+  <si>
+    <t>e.g. student / course
+One student has many courses
+One course has many students</t>
+  </si>
+  <si>
+    <t>One-to-one</t>
+  </si>
+  <si>
+    <t>e.g. example driver / car
+One driver has only one car
+Rarely used</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE Employees(
+EmployeeID INT PRIMARY KEY,
+EmployeeName VARCHAR(50))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CREATE TABLE Projects(
+ProjectID INT PRIMARY KEY,
+ProjectName VARCHAR(50))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE TABLE EmployeesProjects(
+EmployeeID INT,
+ProjectID INT,
+CONSTRAINT PK_EmployeesProjects
+PRIMARY KEY(EmployeeID, ProjectID),
+CONSTRAINT FK_EmployeesProjects_Employees
+FOREIGN KEY(EmployeeID)
+REFERENCES Employees(EmployeeID),
+CONSTRAINT FK_EmployeesProjects_Projects
+FOREIGN KEY(ProjectID)
+REFERENCES Projects(ProjectID))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE TABLE Mountains(
+MountainID INT PRIMARY KEY,
+MountainName VARCHAR(50))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE TABLE Peaks(
+PeakId INT PRIMARY KEY,
+MountainID INT,
+CONSTRAINT FK_Peaks_Mountains
+FOREIGN KEY (MountainID)
+REFERENCES Mountains(MountainID))</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE TABLE Drivers(
+DriverID INT PRIMARY KEY,
+DriverName VARCHAR(50))
+CREATE TABLE Cars(
+CarID INT PRIMARY KEY,
+DriverID INT UNIQUE,
+CONSTRAINT FK_Cars_Drivers FOREIGN KEY
+(DriverID) REFERENCES Drivers(DriverID))</t>
+  </si>
+  <si>
+    <t>Retrieving Related Data</t>
+  </si>
+  <si>
+    <t>JOIN Statements</t>
+  </si>
+  <si>
+    <t>With a JOIN statement, we can get data from two tables simultaneously
+JOINs require at least two tables and a "join condition"
+SELECT * FROM Towns
+JOIN Countries ON
+Countries.Id = Towns.CountryId</t>
+  </si>
+  <si>
+    <t>SELECT m.MountainRange, p.PeakName, p.Elevation
+FROM Mountains AS m
+JOIN Peaks As p ON p.MountainId = m.Id
+WHERE m.MountainRange = 'Rila'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cascade Operations </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Delete/Update Cascading allows when a change is made to certain
+entity, this change to apply to all related entities.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cascade Delete</t>
+  </si>
+  <si>
+    <t>Use Cascade Update when:
+The primary key is not identity (not auto-increment) and therefore it can be changed
+Best used with unique constraint
+Do not use Cascade Update when:
+The primary is identity (auto-increment)
+Cascading can be avoided using triggers or procedures.</t>
+  </si>
+  <si>
+    <t>Cascade Update</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Drivers(
+DriverID INT PRIMARY KEY,
+DriverName VARCHAR(50))
+CREATE TABLE Cars(
+CarID INT PRIMARY KEY,
+DriverID INT,
+CONSTRAINT FK_Car_Driver FOREIGN KEY(DriverID)
+REFERENCES Drivers(DriverID) ON DELETE CASCADE)</t>
+  </si>
+  <si>
+    <t>Cascade Delete: Example</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Products(
+BarcodeId INT PRIMARY KEY,
+Name VARCHAR(50))
+CREATE TABLE Stock(
+Id INT PRIMARY KEY,
+Barcode INT,
+CONSTRAINT FK_Stock_Products FOREIGN KEY(BarcodeId)
+REFERENCES Products(BarcodeId) ON UPDATE CASCADE)</t>
+  </si>
+  <si>
+    <t>Cascade Update: Example</t>
+  </si>
+  <si>
+    <t>Use Cascade Delete when:
+The related entities are meaningless without the "main" one
+Do not use Cascade Delete when:
+You perform a “logical delete“
+Entities are marked as deleted (but not actually deleted)
+In more complicated relations, cascade delete won't work with circular references</t>
+  </si>
+  <si>
+    <t>DATETIME2 – date range of "from 0001 To 9999)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="46" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5775,6 +6054,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6123,7 +6424,7 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6392,16 +6693,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
@@ -6411,9 +6715,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6448,6 +6749,18 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6542,7 +6855,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6550,17 +6863,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6614,7 +6916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6649,7 +6951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9179,17 +9481,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.7109375" style="64" customWidth="1"/>
     <col min="2" max="2" width="95" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="66" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -9201,16 +9503,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="98" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="103"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="104"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -9237,10 +9539,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>519</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="102"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -9267,10 +9569,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>522</v>
       </c>
-      <c r="B11" s="100"/>
+      <c r="B11" s="102"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -9281,10 +9583,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="104" t="s">
         <v>389</v>
       </c>
-      <c r="B13" s="103"/>
+      <c r="B13" s="104"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -9335,10 +9637,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="104" t="s">
         <v>504</v>
       </c>
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
@@ -9349,10 +9651,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="104" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
     </row>
     <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
@@ -9363,10 +9665,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="103"/>
+      <c r="B24" s="104"/>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
@@ -9393,10 +9695,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="103"/>
+      <c r="B28" s="104"/>
     </row>
     <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
@@ -9423,10 +9725,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="102" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="100"/>
+      <c r="B32" s="102"/>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
@@ -9449,14 +9751,14 @@
         <v>381</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="103" t="s">
+      <c r="A36" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="103"/>
+      <c r="B36" s="104"/>
     </row>
     <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
@@ -9483,17 +9785,17 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="102" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="100"/>
+      <c r="B40" s="102"/>
     </row>
     <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>378</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
@@ -9505,10 +9807,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="104" t="s">
         <v>514</v>
       </c>
-      <c r="B43" s="100"/>
+      <c r="B43" s="102"/>
     </row>
     <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
@@ -9535,16 +9837,16 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="98" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="101"/>
+      <c r="B47" s="98"/>
     </row>
     <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="99"/>
+      <c r="B48" s="100"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="109" t="s">
@@ -9623,7 +9925,7 @@
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="62" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>330</v>
@@ -9632,7 +9934,7 @@
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="62" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="C60" s="68"/>
     </row>
@@ -9660,10 +9962,10 @@
     </row>
     <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -9800,7 +10102,7 @@
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="108"/>
       <c r="B85" s="82" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C85"/>
     </row>
@@ -9852,16 +10154,16 @@
         <v>375</v>
       </c>
       <c r="B91" s="84" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="91" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B92" s="81" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C92"/>
     </row>
@@ -9875,17 +10177,17 @@
       <c r="C93"/>
     </row>
     <row r="94" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="101" t="s">
+      <c r="A94" s="98" t="s">
         <v>390</v>
       </c>
-      <c r="B94" s="101"/>
+      <c r="B94" s="98"/>
       <c r="C94"/>
     </row>
     <row r="95" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A95" s="105" t="s">
+      <c r="A95" s="99" t="s">
         <v>391</v>
       </c>
-      <c r="B95" s="99"/>
+      <c r="B95" s="100"/>
       <c r="C95"/>
     </row>
     <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -9916,10 +10218,10 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A99" s="105" t="s">
+      <c r="A99" s="99" t="s">
         <v>398</v>
       </c>
-      <c r="B99" s="99"/>
+      <c r="B99" s="100"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -10059,18 +10361,18 @@
     </row>
     <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="s">
+        <v>538</v>
+      </c>
+      <c r="B115" s="92" t="s">
         <v>539</v>
       </c>
-      <c r="B115" s="92" t="s">
-        <v>540</v>
-      </c>
       <c r="C115"/>
     </row>
     <row r="116" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A116" s="105" t="s">
+      <c r="A116" s="99" t="s">
         <v>429</v>
       </c>
-      <c r="B116" s="99"/>
+      <c r="B116" s="100"/>
       <c r="C116"/>
     </row>
     <row r="117" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -10155,10 +10457,10 @@
       <c r="C125"/>
     </row>
     <row r="126" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A126" s="105" t="s">
+      <c r="A126" s="99" t="s">
         <v>501</v>
       </c>
-      <c r="B126" s="99"/>
+      <c r="B126" s="100"/>
       <c r="C126"/>
     </row>
     <row r="127" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -10215,11 +10517,11 @@
       </c>
       <c r="C132"/>
     </row>
-    <row r="133" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A133" s="78" t="s">
         <v>459</v>
       </c>
-      <c r="B133" s="80" t="s">
+      <c r="B133" s="120" t="s">
         <v>460</v>
       </c>
       <c r="C133"/>
@@ -10228,34 +10530,34 @@
       <c r="A134" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="B134" s="80" t="s">
-        <v>555</v>
+      <c r="B134" s="120" t="s">
+        <v>554</v>
       </c>
       <c r="C134"/>
     </row>
-    <row r="135" spans="1:3" ht="150" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
       <c r="A135" s="78" t="s">
         <v>462</v>
       </c>
-      <c r="B135" s="80" t="s">
-        <v>554</v>
+      <c r="B135" s="120" t="s">
+        <v>553</v>
       </c>
       <c r="C135"/>
     </row>
-    <row r="136" spans="1:3" ht="150" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
       <c r="A136" s="78" t="s">
         <v>463</v>
       </c>
-      <c r="B136" s="80" t="s">
-        <v>553</v>
+      <c r="B136" s="120" t="s">
+        <v>552</v>
       </c>
       <c r="C136"/>
     </row>
     <row r="137" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="98" t="s">
+      <c r="A137" s="101" t="s">
         <v>464</v>
       </c>
-      <c r="B137" s="99"/>
+      <c r="B137" s="100"/>
       <c r="C137"/>
     </row>
     <row r="138" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -10286,10 +10588,10 @@
       <c r="C140"/>
     </row>
     <row r="141" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="98" t="s">
+      <c r="A141" s="101" t="s">
         <v>472</v>
       </c>
-      <c r="B141" s="99"/>
+      <c r="B141" s="100"/>
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -10303,35 +10605,35 @@
     </row>
     <row r="143" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="95" t="s">
+        <v>542</v>
+      </c>
+      <c r="B143" s="94" t="s">
         <v>543</v>
       </c>
-      <c r="B143" s="94" t="s">
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="101" t="s">
         <v>544</v>
       </c>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="98" t="s">
-        <v>545</v>
-      </c>
-      <c r="B144" s="99"/>
+      <c r="B144" s="100"/>
       <c r="C144"/>
     </row>
     <row r="145" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="57" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B145" s="80" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="57" t="s">
+        <v>546</v>
+      </c>
+      <c r="B146" s="76" t="s">
         <v>547</v>
-      </c>
-      <c r="B146" s="76" t="s">
-        <v>548</v>
       </c>
       <c r="C146"/>
     </row>
@@ -10341,34 +10643,34 @@
       <c r="C147"/>
     </row>
     <row r="148" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="101" t="s">
+      <c r="A148" s="98" t="s">
         <v>474</v>
       </c>
-      <c r="B148" s="101"/>
+      <c r="B148" s="98"/>
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A149" s="105" t="s">
+      <c r="A149" s="99" t="s">
         <v>477</v>
       </c>
-      <c r="B149" s="99"/>
+      <c r="B149" s="100"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A150" s="57" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B150" s="76" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C150"/>
     </row>
     <row r="151" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A151" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="B151" s="80" t="s">
         <v>533</v>
-      </c>
-      <c r="B151" s="80" t="s">
-        <v>534</v>
       </c>
       <c r="C151"/>
     </row>
@@ -10387,7 +10689,7 @@
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="98" t="s">
+      <c r="A155" s="101" t="s">
         <v>480</v>
       </c>
       <c r="B155" s="112"/>
@@ -10457,10 +10759,10 @@
       <c r="C162"/>
     </row>
     <row r="163" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A163" s="105" t="s">
+      <c r="A163" s="99" t="s">
         <v>475</v>
       </c>
-      <c r="B163" s="99"/>
+      <c r="B163" s="100"/>
       <c r="C163"/>
     </row>
     <row r="164" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -10482,10 +10784,10 @@
       <c r="C165"/>
     </row>
     <row r="166" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A166" s="105" t="s">
+      <c r="A166" s="99" t="s">
         <v>476</v>
       </c>
-      <c r="B166" s="99"/>
+      <c r="B166" s="100"/>
       <c r="C166"/>
     </row>
     <row r="167" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -10506,13 +10808,292 @@
       </c>
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="57"/>
-      <c r="B169" s="76"/>
+    <row r="169" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="98" t="s">
+        <v>555</v>
+      </c>
+      <c r="B169" s="98"/>
       <c r="C169"/>
     </row>
+    <row r="170" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A170" s="99" t="s">
+        <v>556</v>
+      </c>
+      <c r="B170" s="100"/>
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A171" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="B171" s="76" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="57"/>
+      <c r="B172" s="76"/>
+    </row>
+    <row r="173" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A173" s="99" t="s">
+        <v>555</v>
+      </c>
+      <c r="B173" s="100"/>
+      <c r="C173"/>
+    </row>
+    <row r="174" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A174" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="B174" s="76" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A175" s="57" t="s">
+        <v>562</v>
+      </c>
+      <c r="B175" s="76" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="B176" s="76" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="B177" s="76" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="B178" s="76" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="57" t="s">
+        <v>570</v>
+      </c>
+      <c r="B179" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="C179" s="118" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="57" t="s">
+        <v>572</v>
+      </c>
+      <c r="B180" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="C180" s="118" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A181" s="57" t="s">
+        <v>574</v>
+      </c>
+      <c r="B181" s="76" t="s">
+        <v>575</v>
+      </c>
+      <c r="C181" s="117" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="57"/>
+      <c r="B182" s="76"/>
+    </row>
+    <row r="183" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A183" s="99" t="s">
+        <v>579</v>
+      </c>
+      <c r="B183" s="100"/>
+      <c r="C183"/>
+    </row>
+    <row r="184" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A184" s="57" t="s">
+        <v>580</v>
+      </c>
+      <c r="B184" s="76" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="57"/>
+      <c r="B185" s="76" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="101" t="s">
+        <v>583</v>
+      </c>
+      <c r="B186" s="100"/>
+    </row>
+    <row r="187" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A187" s="57" t="s">
+        <v>584</v>
+      </c>
+      <c r="B187" s="76" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A188" s="57" t="s">
+        <v>586</v>
+      </c>
+      <c r="B188" s="76" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="57" t="s">
+        <v>590</v>
+      </c>
+      <c r="B189" s="119" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="57" t="s">
+        <v>588</v>
+      </c>
+      <c r="B190" s="119" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A191" s="99" t="s">
+        <v>557</v>
+      </c>
+      <c r="B191" s="100"/>
+      <c r="C191"/>
+    </row>
+    <row r="192" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="57"/>
+      <c r="B192" s="76"/>
+    </row>
+    <row r="193" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="57"/>
+      <c r="B193" s="76"/>
+    </row>
+    <row r="194" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="57"/>
+      <c r="B194" s="76"/>
+    </row>
+    <row r="195" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="57"/>
+      <c r="B195" s="76"/>
+    </row>
+    <row r="196" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="57"/>
+      <c r="B196" s="76"/>
+    </row>
+    <row r="197" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="57"/>
+      <c r="B197" s="76"/>
+    </row>
+    <row r="198" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="57"/>
+      <c r="B198" s="76"/>
+    </row>
+    <row r="199" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="57"/>
+      <c r="B199" s="76"/>
+    </row>
+    <row r="200" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="57"/>
+      <c r="B200" s="76"/>
+    </row>
+    <row r="201" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="57"/>
+      <c r="B201" s="76"/>
+    </row>
+    <row r="202" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="57"/>
+      <c r="B202" s="76"/>
+    </row>
+    <row r="203" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="57"/>
+      <c r="B203" s="76"/>
+    </row>
+    <row r="204" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="57"/>
+      <c r="B204" s="76"/>
+    </row>
+    <row r="205" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="57"/>
+      <c r="B205" s="76"/>
+    </row>
+    <row r="206" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="57"/>
+      <c r="B206" s="76"/>
+    </row>
+    <row r="207" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="57"/>
+      <c r="B207" s="76"/>
+    </row>
+    <row r="208" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="57"/>
+      <c r="B208" s="76"/>
+    </row>
+    <row r="209" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="57"/>
+      <c r="B209" s="76"/>
+    </row>
+    <row r="210" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="57"/>
+      <c r="B210" s="76"/>
+    </row>
+    <row r="211" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="57"/>
+      <c r="B211" s="76"/>
+    </row>
+    <row r="212" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="57"/>
+      <c r="B212" s="76"/>
+    </row>
+    <row r="213" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="57"/>
+      <c r="B213" s="76"/>
+    </row>
+    <row r="214" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="57"/>
+      <c r="B214" s="76"/>
+    </row>
+    <row r="215" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="57"/>
+      <c r="B215" s="76"/>
+    </row>
+    <row r="216" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="57"/>
+      <c r="B216" s="76"/>
+    </row>
+    <row r="217" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="57"/>
+      <c r="B217" s="76"/>
+    </row>
+    <row r="218" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="57"/>
+      <c r="B218" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="42">
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="A148:B148"/>
@@ -10549,6 +11130,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A186:B186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="595">
   <si>
     <t>Операция</t>
   </si>
@@ -2548,9 +2548,6 @@
     <t>BIT (1-bit), INT (32-bit), BIGINT (64-bit)</t>
   </si>
   <si>
-    <t>FLOAT, REAL, DECIMAL(scale, precision)</t>
-  </si>
-  <si>
     <t>MONEY – for money (precise) operations</t>
   </si>
   <si>
@@ -5669,6 +5666,76 @@
   </si>
   <si>
     <t>DATETIME2 – date range of "from 0001 To 9999)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Set NOT NULL constraint on the column:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ALTER TABLE Persons 
+ALTER COLUMN PersonID 
+INT NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add FOREIGN KEY - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE Orders
+ADD FOREIGN KEY (PersonID) REFERENCES Persons(PersonID);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FLOAT, REAL, DECIMAL(scale, precision) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXAMPLE: Salary DECIMAL(15,2)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6693,8 +6760,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6702,20 +6778,14 @@
     <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6735,8 +6805,17 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6749,18 +6828,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9481,10 +9548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9496,128 +9563,128 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1" s="59" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="98" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="103"/>
+      <c r="A2" s="104" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="114"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="105" t="s">
-        <v>507</v>
-      </c>
-      <c r="B3" s="104"/>
+      <c r="A3" s="116" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="115"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>508</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>510</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>512</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>513</v>
-      </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>519</v>
-      </c>
-      <c r="B7" s="102"/>
+      <c r="A7" s="115" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" s="113"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="B8" s="89" t="s">
         <v>520</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" s="97" t="s">
         <v>525</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" s="89" t="s">
         <v>527</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>528</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
-        <v>522</v>
-      </c>
-      <c r="B11" s="102"/>
+      <c r="A11" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="B11" s="113"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
+        <v>522</v>
+      </c>
+      <c r="B12" s="90" t="s">
         <v>523</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>524</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
-        <v>389</v>
-      </c>
-      <c r="B13" s="104"/>
+      <c r="A13" s="115" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="115"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="81" t="s">
         <v>368</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9630,318 +9697,318 @@
     </row>
     <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" s="74" t="s">
         <v>502</v>
       </c>
-      <c r="B19" s="74" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="115" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="104" t="s">
-        <v>504</v>
-      </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="115"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="104" t="s">
-        <v>388</v>
-      </c>
-      <c r="B22" s="104"/>
+      <c r="A22" s="115" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="115"/>
     </row>
     <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="104" t="s">
-        <v>353</v>
-      </c>
-      <c r="B24" s="104"/>
+      <c r="A24" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" s="115"/>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" s="81" t="s">
         <v>347</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="81" t="s">
         <v>349</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" s="81" t="s">
         <v>351</v>
       </c>
-      <c r="B27" s="81" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="115" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="104" t="s">
-        <v>353</v>
-      </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="115"/>
     </row>
     <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="102" t="s">
-        <v>363</v>
-      </c>
-      <c r="B32" s="102"/>
+      <c r="A32" s="113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="113"/>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104" t="s">
-        <v>360</v>
-      </c>
-      <c r="B36" s="104"/>
+      <c r="A36" s="115" t="s">
+        <v>359</v>
+      </c>
+      <c r="B36" s="115"/>
     </row>
     <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B37" s="74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B38" s="74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="B39" s="74" t="s">
         <v>382</v>
       </c>
-      <c r="B39" s="74" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="102" t="s">
-        <v>364</v>
-      </c>
-      <c r="B40" s="102"/>
+      <c r="A40" s="113" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" s="113"/>
     </row>
     <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="B42" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="B42" s="74" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="104" t="s">
-        <v>514</v>
-      </c>
-      <c r="B43" s="102"/>
+      <c r="A43" s="115" t="s">
+        <v>513</v>
+      </c>
+      <c r="B43" s="113"/>
     </row>
     <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" s="74" t="s">
         <v>385</v>
-      </c>
-      <c r="B44" s="74" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
+        <v>514</v>
+      </c>
+      <c r="B45" s="74" t="s">
         <v>515</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="B46" s="74" t="s">
         <v>517</v>
       </c>
-      <c r="B46" s="74" t="s">
-        <v>518</v>
-      </c>
     </row>
     <row r="47" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="98" t="s">
-        <v>374</v>
-      </c>
-      <c r="B47" s="98"/>
+      <c r="A47" s="104" t="s">
+        <v>373</v>
+      </c>
+      <c r="B47" s="104"/>
     </row>
     <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="100"/>
+      <c r="B48" s="103"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="109" t="s">
-        <v>322</v>
+      <c r="A49" s="110" t="s">
+        <v>321</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="62" t="s">
+        <v>594</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="112"/>
+      <c r="B51" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="C50" s="66" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="111"/>
-      <c r="B51" s="62" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="110" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" s="62" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="109" t="s">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="111"/>
+      <c r="B53" s="62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="111"/>
+      <c r="B54" s="62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="112"/>
+      <c r="B55" s="62" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="110" t="s">
         <v>323</v>
       </c>
-      <c r="B52" s="62" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
-      <c r="B53" s="62" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
-      <c r="B54" s="62" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="111"/>
-      <c r="B55" s="62" t="s">
+      <c r="B56" s="62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="109" t="s">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="112"/>
+      <c r="B57" s="62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="B56" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="111"/>
-      <c r="B57" s="62" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="109" t="s">
+      <c r="B58" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="C58" s="66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="111"/>
+      <c r="B59" s="62" t="s">
+        <v>529</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="111"/>
+      <c r="B60" s="62" t="s">
+        <v>591</v>
+      </c>
+      <c r="C60" s="68"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="112"/>
+      <c r="B61" s="62" t="s">
         <v>326</v>
-      </c>
-      <c r="C58" s="66" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
-      <c r="B59" s="62" t="s">
-        <v>530</v>
-      </c>
-      <c r="C59" s="68" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="110"/>
-      <c r="B60" s="62" t="s">
-        <v>592</v>
-      </c>
-      <c r="C60" s="68"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="111"/>
-      <c r="B61" s="62" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -9957,15 +10024,15 @@
         <v>285</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -9977,7 +10044,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="106" t="s">
+      <c r="A66" s="107" t="s">
         <v>290</v>
       </c>
       <c r="B66" s="62" t="s">
@@ -9985,37 +10052,37 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="107"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="107"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="107"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="107"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="62" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
+      <c r="A71" s="109"/>
       <c r="B71" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="106" t="s">
+      <c r="A72" s="107" t="s">
         <v>291</v>
       </c>
       <c r="B72" s="62" t="s">
@@ -10023,312 +10090,306 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="107"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C73" s="67"/>
     </row>
     <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="107"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="107"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="107"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="107"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="107"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="107"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="81" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="107"/>
+    <row r="80" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A80" s="108"/>
       <c r="B80" s="81" t="s">
-        <v>333</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="108"/>
       <c r="B81" s="81" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="108"/>
+      <c r="B82" s="81" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="109"/>
+      <c r="B83" s="81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="82" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="108"/>
+      <c r="B85" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="108"/>
+      <c r="B86" s="83" t="s">
+        <v>308</v>
+      </c>
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="109"/>
+      <c r="B87" s="82" t="s">
+        <v>548</v>
+      </c>
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="B88" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="109"/>
+      <c r="B89" s="84" t="s">
+        <v>311</v>
+      </c>
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" s="84" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="106" t="s">
-        <v>292</v>
-      </c>
-      <c r="B82" s="82" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="107"/>
-      <c r="B83" s="83" t="s">
-        <v>307</v>
-      </c>
-      <c r="C83"/>
-    </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="107"/>
-      <c r="B84" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="C84"/>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
-      <c r="B85" s="82" t="s">
-        <v>549</v>
-      </c>
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="106" t="s">
-        <v>309</v>
-      </c>
-      <c r="B86" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="108"/>
-      <c r="B87" s="84" t="s">
-        <v>311</v>
-      </c>
-      <c r="C87"/>
-    </row>
-    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="B88" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="B89" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="B90" s="85" t="s">
-        <v>329</v>
-      </c>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="71" t="s">
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B92" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="71" t="s">
+        <v>374</v>
+      </c>
+      <c r="B93" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="91" t="s">
+        <v>530</v>
+      </c>
+      <c r="B94" s="81" t="s">
+        <v>533</v>
+      </c>
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="B95" s="81" t="s">
         <v>375</v>
       </c>
-      <c r="B91" s="84" t="s">
-        <v>535</v>
-      </c>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="91" t="s">
-        <v>531</v>
-      </c>
-      <c r="B92" s="81" t="s">
-        <v>534</v>
-      </c>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="73" t="s">
-        <v>377</v>
-      </c>
-      <c r="B93" s="81" t="s">
-        <v>376</v>
-      </c>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="98" t="s">
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="104" t="s">
+        <v>389</v>
+      </c>
+      <c r="B96" s="104"/>
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="102" t="s">
         <v>390</v>
       </c>
-      <c r="B94" s="98"/>
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A95" s="99" t="s">
+      <c r="B97" s="103"/>
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="70" t="s">
         <v>391</v>
       </c>
-      <c r="B95" s="100"/>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="70" t="s">
+      <c r="B98" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="B96" s="60" t="s">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="70" t="s">
+      <c r="B99" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="B97" s="76" t="s">
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="70" t="s">
+      <c r="B100" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="B98" s="76" t="s">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A101" s="102" t="s">
         <v>397</v>
       </c>
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A99" s="99" t="s">
+      <c r="B101" s="103"/>
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A102" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="B102" s="80" t="s">
         <v>398</v>
       </c>
-      <c r="B99" s="100"/>
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="57" t="s">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="57" t="s">
         <v>400</v>
       </c>
-      <c r="B100" s="80" t="s">
-        <v>399</v>
-      </c>
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="57" t="s">
+      <c r="B103" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="B101" s="80" t="s">
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="72" t="s">
         <v>402</v>
       </c>
-      <c r="C101"/>
-    </row>
-    <row r="102" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="72" t="s">
+      <c r="B104" s="80" t="s">
         <v>403</v>
       </c>
-      <c r="B102" s="80" t="s">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="C102"/>
-    </row>
-    <row r="103" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="57" t="s">
+      <c r="B105" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="B103" s="80" t="s">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
+      <c r="B106" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="B104" s="80" t="s">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
+      <c r="B107" s="79" t="s">
         <v>409</v>
       </c>
-      <c r="B105" s="79" t="s">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="57" t="s">
+      <c r="B108" s="79" t="s">
         <v>411</v>
       </c>
-      <c r="B106" s="79" t="s">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
+      <c r="B109" s="86" t="s">
         <v>413</v>
       </c>
-      <c r="B107" s="86" t="s">
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110" s="80" t="s">
         <v>414</v>
-      </c>
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="57" t="s">
-        <v>423</v>
-      </c>
-      <c r="B108" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="C108"/>
-    </row>
-    <row r="109" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="B109" s="79" t="s">
-        <v>416</v>
-      </c>
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="57" t="s">
-        <v>421</v>
-      </c>
-      <c r="B110" s="79" t="s">
-        <v>417</v>
       </c>
       <c r="C110"/>
     </row>
     <row r="111" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A111" s="57" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C111"/>
     </row>
@@ -10337,388 +10398,388 @@
         <v>420</v>
       </c>
       <c r="B112" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="B113" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="B114" s="79" t="s">
+        <v>423</v>
+      </c>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="57" t="s">
+      <c r="B115" s="79" t="s">
         <v>425</v>
       </c>
-      <c r="B113" s="79" t="s">
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="72" t="s">
         <v>426</v>
       </c>
-      <c r="C113"/>
-    </row>
-    <row r="114" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="72" t="s">
+      <c r="B116" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="B114" s="80" t="s">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="93" t="s">
+        <v>537</v>
+      </c>
+      <c r="B117" s="92" t="s">
+        <v>538</v>
+      </c>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A118" s="102" t="s">
         <v>428</v>
       </c>
-      <c r="C114"/>
-    </row>
-    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="93" t="s">
-        <v>538</v>
-      </c>
-      <c r="B115" s="92" t="s">
-        <v>539</v>
-      </c>
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A116" s="99" t="s">
-        <v>429</v>
-      </c>
-      <c r="B116" s="100"/>
-      <c r="C116"/>
-    </row>
-    <row r="117" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="57" t="s">
-        <v>434</v>
-      </c>
-      <c r="B117" s="79" t="s">
-        <v>433</v>
-      </c>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="57" t="s">
-        <v>435</v>
-      </c>
-      <c r="B118" s="79" t="s">
-        <v>432</v>
-      </c>
+      <c r="B118" s="103"/>
       <c r="C118"/>
     </row>
     <row r="119" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A119" s="57" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C119"/>
     </row>
     <row r="120" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A120" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="B120" s="79" t="s">
+        <v>431</v>
+      </c>
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="B121" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="B122" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="B123" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="B120" s="79" t="s">
-        <v>430</v>
-      </c>
-      <c r="C120"/>
-    </row>
-    <row r="121" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="70" t="s">
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="B124" s="79" t="s">
+        <v>438</v>
+      </c>
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="B121" s="79" t="s">
-        <v>438</v>
-      </c>
-      <c r="C121"/>
-    </row>
-    <row r="122" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A122" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="B122" s="79" t="s">
-        <v>439</v>
-      </c>
-      <c r="C122"/>
-    </row>
-    <row r="123" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="70" t="s">
+      <c r="B125" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="B123" s="80" t="s">
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="C123"/>
-    </row>
-    <row r="124" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="57" t="s">
+      <c r="B126" s="79" t="s">
         <v>444</v>
       </c>
-      <c r="B124" s="79" t="s">
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="C124"/>
-    </row>
-    <row r="125" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="57" t="s">
+      <c r="B127" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="B125" s="80" t="s">
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A128" s="102" t="s">
+        <v>500</v>
+      </c>
+      <c r="B128" s="103"/>
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A129" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A126" s="99" t="s">
-        <v>501</v>
-      </c>
-      <c r="B126" s="100"/>
-      <c r="C126"/>
-    </row>
-    <row r="127" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="57" t="s">
+      <c r="B129" s="80" t="s">
+        <v>499</v>
+      </c>
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="B127" s="80" t="s">
-        <v>500</v>
-      </c>
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="57" t="s">
+      <c r="B130" s="80" t="s">
         <v>449</v>
       </c>
-      <c r="B128" s="80" t="s">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="57" t="s">
         <v>450</v>
       </c>
-      <c r="C128"/>
-    </row>
-    <row r="129" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="57" t="s">
+      <c r="B131" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="B129" s="79" t="s">
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="57" t="s">
         <v>452</v>
       </c>
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="57" t="s">
+      <c r="B132" s="79" t="s">
         <v>453</v>
       </c>
-      <c r="B130" s="79" t="s">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="70" t="s">
         <v>454</v>
       </c>
-      <c r="C130"/>
-    </row>
-    <row r="131" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="70" t="s">
+      <c r="B133" s="79" t="s">
         <v>455</v>
       </c>
-      <c r="B131" s="79" t="s">
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A134" s="77" t="s">
+        <v>457</v>
+      </c>
+      <c r="B134" s="80" t="s">
         <v>456</v>
       </c>
-      <c r="C131"/>
-    </row>
-    <row r="132" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="77" t="s">
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" ht="63.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="78" t="s">
         <v>458</v>
       </c>
-      <c r="B132" s="80" t="s">
-        <v>457</v>
-      </c>
-      <c r="C132"/>
-    </row>
-    <row r="133" spans="1:3" ht="63.75" x14ac:dyDescent="0.3">
-      <c r="A133" s="78" t="s">
+      <c r="B135" s="101" t="s">
         <v>459</v>
       </c>
-      <c r="B133" s="120" t="s">
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="78" t="s">
         <v>460</v>
       </c>
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="78" t="s">
+      <c r="B136" s="101" t="s">
+        <v>553</v>
+      </c>
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="B134" s="120" t="s">
-        <v>554</v>
-      </c>
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="78" t="s">
+      <c r="B137" s="101" t="s">
+        <v>552</v>
+      </c>
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="78" t="s">
         <v>462</v>
       </c>
-      <c r="B135" s="120" t="s">
-        <v>553</v>
-      </c>
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="78" t="s">
+      <c r="B138" s="101" t="s">
+        <v>551</v>
+      </c>
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="105" t="s">
         <v>463</v>
       </c>
-      <c r="B136" s="120" t="s">
-        <v>552</v>
-      </c>
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="101" t="s">
+      <c r="B139" s="103"/>
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A140" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="B140" s="80" t="s">
         <v>464</v>
       </c>
-      <c r="B137" s="100"/>
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A138" s="78" t="s">
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="B138" s="80" t="s">
-        <v>465</v>
-      </c>
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="70" t="s">
+      <c r="B141" s="86" t="s">
+        <v>469</v>
+      </c>
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A142" s="78" t="s">
         <v>467</v>
       </c>
-      <c r="B139" s="86" t="s">
+      <c r="B142" s="80" t="s">
+        <v>468</v>
+      </c>
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="105" t="s">
+        <v>471</v>
+      </c>
+      <c r="B143" s="103"/>
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A144" s="70" t="s">
         <v>470</v>
       </c>
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A140" s="78" t="s">
-        <v>468</v>
-      </c>
-      <c r="B140" s="80" t="s">
-        <v>469</v>
-      </c>
-      <c r="C140"/>
-    </row>
-    <row r="141" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="101" t="s">
+      <c r="B144" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="B141" s="100"/>
-      <c r="C141"/>
-    </row>
-    <row r="142" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A142" s="70" t="s">
-        <v>471</v>
-      </c>
-      <c r="B142" s="87" t="s">
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A145" s="95" t="s">
+        <v>541</v>
+      </c>
+      <c r="B145" s="94" t="s">
+        <v>542</v>
+      </c>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="105" t="s">
+        <v>543</v>
+      </c>
+      <c r="B146" s="103"/>
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="57" t="s">
+        <v>544</v>
+      </c>
+      <c r="B147" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="57" t="s">
+        <v>545</v>
+      </c>
+      <c r="B148" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="57"/>
+      <c r="B149" s="96"/>
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="104" t="s">
         <v>473</v>
       </c>
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A143" s="95" t="s">
-        <v>542</v>
-      </c>
-      <c r="B143" s="94" t="s">
-        <v>543</v>
-      </c>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="101" t="s">
-        <v>544</v>
-      </c>
-      <c r="B144" s="100"/>
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A145" s="57" t="s">
-        <v>545</v>
-      </c>
-      <c r="B145" s="80" t="s">
-        <v>548</v>
-      </c>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146" s="57" t="s">
-        <v>546</v>
-      </c>
-      <c r="B146" s="76" t="s">
-        <v>547</v>
-      </c>
-      <c r="C146"/>
-    </row>
-    <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="57"/>
-      <c r="B147" s="96"/>
-      <c r="C147"/>
-    </row>
-    <row r="148" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="98" t="s">
-        <v>474</v>
-      </c>
-      <c r="B148" s="98"/>
-      <c r="C148"/>
-    </row>
-    <row r="149" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A149" s="99" t="s">
+      <c r="B150" s="104"/>
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A151" s="102" t="s">
+        <v>476</v>
+      </c>
+      <c r="B151" s="103"/>
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A152" s="57" t="s">
+        <v>540</v>
+      </c>
+      <c r="B152" s="76" t="s">
+        <v>539</v>
+      </c>
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="A153" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="B153" s="80" t="s">
+        <v>532</v>
+      </c>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="57"/>
+      <c r="B154" s="80"/>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="57"/>
+      <c r="B155" s="80"/>
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="70"/>
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="105" t="s">
+        <v>479</v>
+      </c>
+      <c r="B157" s="106"/>
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A158" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="B158" s="76" t="s">
         <v>477</v>
-      </c>
-      <c r="B149" s="100"/>
-      <c r="C149"/>
-    </row>
-    <row r="150" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A150" s="57" t="s">
-        <v>541</v>
-      </c>
-      <c r="B150" s="76" t="s">
-        <v>540</v>
-      </c>
-      <c r="C150"/>
-    </row>
-    <row r="151" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="57" t="s">
-        <v>532</v>
-      </c>
-      <c r="B151" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="57"/>
-      <c r="B152" s="80"/>
-      <c r="C152"/>
-    </row>
-    <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="57"/>
-      <c r="B153" s="80"/>
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="70"/>
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="101" t="s">
-        <v>480</v>
-      </c>
-      <c r="B155" s="112"/>
-      <c r="C155"/>
-    </row>
-    <row r="156" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" s="57" t="s">
-        <v>479</v>
-      </c>
-      <c r="B156" s="76" t="s">
-        <v>478</v>
-      </c>
-      <c r="C156"/>
-    </row>
-    <row r="157" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A157" s="57" t="s">
-        <v>485</v>
-      </c>
-      <c r="B157" s="76" t="s">
-        <v>481</v>
-      </c>
-      <c r="C157"/>
-    </row>
-    <row r="158" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A158" s="57" t="s">
-        <v>483</v>
-      </c>
-      <c r="B158" s="76" t="s">
-        <v>482</v>
       </c>
       <c r="C158"/>
     </row>
@@ -10727,328 +10788,338 @@
         <v>484</v>
       </c>
       <c r="B159" s="76" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="B160" s="76" t="s">
+        <v>481</v>
+      </c>
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="57" t="s">
+        <v>483</v>
+      </c>
+      <c r="B161" s="76" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161"/>
+    </row>
+    <row r="162" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="B162" s="76" t="s">
         <v>486</v>
       </c>
-      <c r="B160" s="76" t="s">
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A163" s="57" t="s">
         <v>487</v>
       </c>
-      <c r="C160"/>
-    </row>
-    <row r="161" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A161" s="57" t="s">
+      <c r="B163" s="76" t="s">
         <v>488</v>
       </c>
-      <c r="B161" s="76" t="s">
+      <c r="C163"/>
+    </row>
+    <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="B164" s="88" t="s">
+        <v>498</v>
+      </c>
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A165" s="102" t="s">
+        <v>474</v>
+      </c>
+      <c r="B165" s="103"/>
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="57" t="s">
         <v>489</v>
       </c>
-      <c r="C161"/>
-    </row>
-    <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="B162" s="88" t="s">
-        <v>499</v>
-      </c>
-      <c r="C162"/>
-    </row>
-    <row r="163" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A163" s="99" t="s">
+      <c r="B166" s="76" t="s">
+        <v>490</v>
+      </c>
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A167" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B167" s="76" t="s">
+        <v>491</v>
+      </c>
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A168" s="102" t="s">
         <v>475</v>
       </c>
-      <c r="B163" s="100"/>
-      <c r="C163"/>
-    </row>
-    <row r="164" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="57" t="s">
-        <v>490</v>
-      </c>
-      <c r="B164" s="76" t="s">
-        <v>491</v>
-      </c>
-      <c r="C164"/>
-    </row>
-    <row r="165" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A165" s="57" t="s">
+      <c r="B168" s="103"/>
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A169" s="57" t="s">
         <v>493</v>
       </c>
-      <c r="B165" s="76" t="s">
-        <v>492</v>
-      </c>
-      <c r="C165"/>
-    </row>
-    <row r="166" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A166" s="99" t="s">
-        <v>476</v>
-      </c>
-      <c r="B166" s="100"/>
-      <c r="C166"/>
-    </row>
-    <row r="167" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A167" s="57" t="s">
+      <c r="B169" s="76" t="s">
         <v>494</v>
       </c>
-      <c r="B167" s="76" t="s">
+      <c r="C169"/>
+    </row>
+    <row r="170" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A170" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="C167"/>
-    </row>
-    <row r="168" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A168" s="57" t="s">
+      <c r="B170" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="B168" s="76" t="s">
-        <v>497</v>
-      </c>
-      <c r="C168"/>
-    </row>
-    <row r="169" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="98" t="s">
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="104" t="s">
+        <v>554</v>
+      </c>
+      <c r="B171" s="104"/>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A172" s="102" t="s">
         <v>555</v>
       </c>
-      <c r="B169" s="98"/>
-      <c r="C169"/>
-    </row>
-    <row r="170" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A170" s="99" t="s">
+      <c r="B172" s="103"/>
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A173" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="B173" s="76" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="57"/>
+      <c r="B174" s="76"/>
+    </row>
+    <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A175" s="102" t="s">
+        <v>554</v>
+      </c>
+      <c r="B175" s="103"/>
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A176" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="B176" s="76" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A177" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="B177" s="76" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="57" t="s">
+        <v>563</v>
+      </c>
+      <c r="B178" s="76" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="57" t="s">
+        <v>566</v>
+      </c>
+      <c r="B179" s="76" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="B180" s="76" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="B181" s="80" t="s">
+        <v>570</v>
+      </c>
+      <c r="C181" s="99" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="57" t="s">
+        <v>571</v>
+      </c>
+      <c r="B182" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="C182" s="99" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A183" s="57" t="s">
+        <v>573</v>
+      </c>
+      <c r="B183" s="76" t="s">
+        <v>574</v>
+      </c>
+      <c r="C183" s="98" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="57"/>
+      <c r="B184" s="76"/>
+    </row>
+    <row r="185" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A185" s="102" t="s">
+        <v>578</v>
+      </c>
+      <c r="B185" s="103"/>
+      <c r="C185"/>
+    </row>
+    <row r="186" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A186" s="57" t="s">
+        <v>579</v>
+      </c>
+      <c r="B186" s="76" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" s="57"/>
+      <c r="B187" s="76" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="105" t="s">
+        <v>582</v>
+      </c>
+      <c r="B188" s="103"/>
+    </row>
+    <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A189" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="B189" s="76" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A190" s="57" t="s">
+        <v>585</v>
+      </c>
+      <c r="B190" s="76" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="B191" s="100" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="B192" s="100" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A193" s="102" t="s">
         <v>556</v>
       </c>
-      <c r="B170" s="100"/>
-      <c r="C170"/>
-    </row>
-    <row r="171" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A171" s="57" t="s">
-        <v>558</v>
-      </c>
-      <c r="B171" s="76" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="57"/>
-      <c r="B172" s="76"/>
-    </row>
-    <row r="173" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A173" s="99" t="s">
-        <v>555</v>
-      </c>
-      <c r="B173" s="100"/>
-      <c r="C173"/>
-    </row>
-    <row r="174" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A174" s="57" t="s">
-        <v>560</v>
-      </c>
-      <c r="B174" s="76" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A175" s="57" t="s">
-        <v>562</v>
-      </c>
-      <c r="B175" s="76" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="57" t="s">
-        <v>564</v>
-      </c>
-      <c r="B176" s="76" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A177" s="57" t="s">
-        <v>567</v>
-      </c>
-      <c r="B177" s="76" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="57" t="s">
-        <v>569</v>
-      </c>
-      <c r="B178" s="76" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="57" t="s">
-        <v>570</v>
-      </c>
-      <c r="B179" s="80" t="s">
-        <v>571</v>
-      </c>
-      <c r="C179" s="118" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="57" t="s">
-        <v>572</v>
-      </c>
-      <c r="B180" s="80" t="s">
-        <v>573</v>
-      </c>
-      <c r="C180" s="118" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A181" s="57" t="s">
-        <v>574</v>
-      </c>
-      <c r="B181" s="76" t="s">
-        <v>575</v>
-      </c>
-      <c r="C181" s="117" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="57"/>
-      <c r="B182" s="76"/>
-    </row>
-    <row r="183" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A183" s="99" t="s">
-        <v>579</v>
-      </c>
-      <c r="B183" s="100"/>
-      <c r="C183"/>
-    </row>
-    <row r="184" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A184" s="57" t="s">
-        <v>580</v>
-      </c>
-      <c r="B184" s="76" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="57"/>
-      <c r="B185" s="76" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="101" t="s">
-        <v>583</v>
-      </c>
-      <c r="B186" s="100"/>
-    </row>
-    <row r="187" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A187" s="57" t="s">
-        <v>584</v>
-      </c>
-      <c r="B187" s="76" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="B188" s="76" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="57" t="s">
-        <v>590</v>
-      </c>
-      <c r="B189" s="119" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="B190" s="119" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A191" s="99" t="s">
-        <v>557</v>
-      </c>
-      <c r="B191" s="100"/>
-      <c r="C191"/>
-    </row>
-    <row r="192" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="57"/>
-      <c r="B192" s="76"/>
-    </row>
-    <row r="193" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="57"/>
-      <c r="B193" s="76"/>
-    </row>
-    <row r="194" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B193" s="103"/>
+      <c r="C193"/>
+    </row>
+    <row r="194" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A194" s="57"/>
       <c r="B194" s="76"/>
     </row>
-    <row r="195" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A195" s="57"/>
       <c r="B195" s="76"/>
     </row>
-    <row r="196" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A196" s="57"/>
       <c r="B196" s="76"/>
     </row>
-    <row r="197" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A197" s="57"/>
       <c r="B197" s="76"/>
     </row>
-    <row r="198" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A198" s="57"/>
       <c r="B198" s="76"/>
     </row>
-    <row r="199" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A199" s="57"/>
       <c r="B199" s="76"/>
     </row>
-    <row r="200" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A200" s="57"/>
       <c r="B200" s="76"/>
     </row>
-    <row r="201" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A201" s="57"/>
       <c r="B201" s="76"/>
     </row>
-    <row r="202" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A202" s="57"/>
       <c r="B202" s="76"/>
     </row>
-    <row r="203" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="57"/>
       <c r="B203" s="76"/>
     </row>
-    <row r="204" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A204" s="57"/>
       <c r="B204" s="76"/>
     </row>
-    <row r="205" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A205" s="57"/>
       <c r="B205" s="76"/>
     </row>
-    <row r="206" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A206" s="57"/>
       <c r="B206" s="76"/>
     </row>
-    <row r="207" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A207" s="57"/>
       <c r="B207" s="76"/>
     </row>
-    <row r="208" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A208" s="57"/>
       <c r="B208" s="76"/>
     </row>
@@ -11092,29 +11163,23 @@
       <c r="A218" s="57"/>
       <c r="B218" s="76"/>
     </row>
+    <row r="219" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="57"/>
+      <c r="B219" s="76"/>
+    </row>
+    <row r="220" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="57"/>
+      <c r="B220" s="76"/>
+    </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A146:B146"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A2:B2"/>
@@ -11129,13 +11194,27 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A72:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A165:B165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11557,7 +11636,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -11577,7 +11656,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114"/>
+      <c r="A2" s="118"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -11645,10 +11724,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -2653,32 +2653,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add PRIMARY KEY  from more thane one field -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ALTER TABLE Users
-ADD CONSTRAINT PK_User PRIMARY KEY (Id,Username);</t>
-    </r>
-  </si>
-  <si>
     <t>USE Users</t>
   </si>
   <si>
@@ -5735,6 +5709,32 @@
         <scheme val="minor"/>
       </rPr>
       <t>EXAMPLE: Salary DECIMAL(15,2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add PRIMARY KEY  from more thane one field (COMPOSITE KEY) -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ALTER TABLE Users
+ADD CONSTRAINT PK_User PRIMARY KEY (Id,Username);</t>
     </r>
   </si>
 </sst>
@@ -6772,20 +6772,29 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6805,17 +6814,8 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9550,8 +9550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9570,121 +9570,121 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="114"/>
+      <c r="A2" s="102" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="107"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="116" t="s">
-        <v>506</v>
-      </c>
-      <c r="B3" s="115"/>
+      <c r="A3" s="109" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="108"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>507</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>509</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>511</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>512</v>
-      </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
-        <v>518</v>
-      </c>
-      <c r="B7" s="113"/>
+      <c r="A7" s="108" t="s">
+        <v>517</v>
+      </c>
+      <c r="B7" s="106"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" s="89" t="s">
         <v>519</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="97" t="s">
         <v>524</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="89" t="s">
         <v>526</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>527</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="115" t="s">
-        <v>521</v>
-      </c>
-      <c r="B11" s="113"/>
+      <c r="A11" s="108" t="s">
+        <v>520</v>
+      </c>
+      <c r="B11" s="106"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" s="90" t="s">
         <v>522</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>523</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115" t="s">
-        <v>388</v>
-      </c>
-      <c r="B13" s="115"/>
+      <c r="A13" s="108" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="108"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="81" t="s">
         <v>367</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9697,226 +9697,226 @@
     </row>
     <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19" s="74" t="s">
         <v>501</v>
       </c>
-      <c r="B19" s="74" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="108" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115" t="s">
-        <v>503</v>
-      </c>
-      <c r="B20" s="115"/>
+      <c r="B20" s="108"/>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="115" t="s">
-        <v>387</v>
-      </c>
-      <c r="B22" s="115"/>
+      <c r="A22" s="108" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" s="108"/>
     </row>
     <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115" t="s">
-        <v>352</v>
-      </c>
-      <c r="B24" s="115"/>
+      <c r="A24" s="108" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="108"/>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="81" t="s">
         <v>346</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="81" t="s">
         <v>348</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="81" t="s">
         <v>350</v>
       </c>
-      <c r="B27" s="81" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="108" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="115" t="s">
-        <v>352</v>
-      </c>
-      <c r="B28" s="115"/>
+      <c r="B28" s="108"/>
     </row>
     <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="113" t="s">
-        <v>362</v>
-      </c>
-      <c r="B32" s="113"/>
+      <c r="A32" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="106"/>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="115" t="s">
-        <v>359</v>
-      </c>
-      <c r="B36" s="115"/>
+      <c r="A36" s="108" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" s="108"/>
     </row>
     <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" s="74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B38" s="74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B39" s="74" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="113" t="s">
-        <v>363</v>
-      </c>
-      <c r="B40" s="113"/>
+      <c r="A40" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="106"/>
     </row>
     <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="B42" s="74" t="s">
-        <v>379</v>
-      </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="115" t="s">
-        <v>513</v>
-      </c>
-      <c r="B43" s="113"/>
+      <c r="A43" s="108" t="s">
+        <v>512</v>
+      </c>
+      <c r="B43" s="106"/>
     </row>
     <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="B44" s="74" t="s">
         <v>384</v>
-      </c>
-      <c r="B44" s="74" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="B45" s="74" t="s">
         <v>514</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
+        <v>515</v>
+      </c>
+      <c r="B46" s="74" t="s">
         <v>516</v>
       </c>
-      <c r="B46" s="74" t="s">
-        <v>517</v>
-      </c>
     </row>
     <row r="47" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="104" t="s">
-        <v>373</v>
-      </c>
-      <c r="B47" s="104"/>
+      <c r="A47" s="102" t="s">
+        <v>372</v>
+      </c>
+      <c r="B47" s="102"/>
     </row>
     <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="103" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="103"/>
+      <c r="B48" s="104"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="113" t="s">
         <v>321</v>
       </c>
       <c r="B49" s="62" t="s">
@@ -9924,22 +9924,22 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="111"/>
+      <c r="A50" s="114"/>
       <c r="B50" s="62" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C50" s="66" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
+      <c r="A51" s="115"/>
       <c r="B51" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="113" t="s">
         <v>322</v>
       </c>
       <c r="B52" s="62" t="s">
@@ -9947,25 +9947,25 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="111"/>
+      <c r="A53" s="114"/>
       <c r="B53" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
+      <c r="A54" s="114"/>
       <c r="B54" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="112"/>
+      <c r="A55" s="115"/>
       <c r="B55" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="110" t="s">
+      <c r="A56" s="113" t="s">
         <v>323</v>
       </c>
       <c r="B56" s="62" t="s">
@@ -9973,13 +9973,13 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="112"/>
+      <c r="A57" s="115"/>
       <c r="B57" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="110" t="s">
+      <c r="A58" s="113" t="s">
         <v>324</v>
       </c>
       <c r="B58" s="62" t="s">
@@ -9990,23 +9990,23 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="111"/>
+      <c r="A59" s="114"/>
       <c r="B59" s="62" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="111"/>
+      <c r="A60" s="114"/>
       <c r="B60" s="62" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C60" s="68"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="112"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="62" t="s">
         <v>326</v>
       </c>
@@ -10024,15 +10024,15 @@
         <v>285</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -10044,7 +10044,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="107" t="s">
+      <c r="A66" s="110" t="s">
         <v>290</v>
       </c>
       <c r="B66" s="62" t="s">
@@ -10052,37 +10052,37 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
+      <c r="A67" s="111"/>
       <c r="B67" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
+      <c r="A70" s="111"/>
       <c r="B70" s="62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="109"/>
+      <c r="A71" s="112"/>
       <c r="B71" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="107" t="s">
+      <c r="A72" s="110" t="s">
         <v>291</v>
       </c>
       <c r="B72" s="62" t="s">
@@ -10090,74 +10090,74 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C73" s="67"/>
     </row>
     <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="108"/>
+      <c r="A77" s="111"/>
       <c r="B77" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="108"/>
+      <c r="A78" s="111"/>
       <c r="B78" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
+      <c r="A80" s="111"/>
       <c r="B80" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
+      <c r="A81" s="111"/>
       <c r="B81" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="108"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="81" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="109"/>
+      <c r="A83" s="112"/>
       <c r="B83" s="81" t="s">
-        <v>333</v>
+        <v>594</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="107" t="s">
+      <c r="A84" s="110" t="s">
         <v>292</v>
       </c>
       <c r="B84" s="82" t="s">
@@ -10165,28 +10165,28 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C85"/>
     </row>
     <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C86"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="109"/>
+      <c r="A87" s="112"/>
       <c r="B87" s="82" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C87"/>
     </row>
     <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="107" t="s">
+      <c r="A88" s="110" t="s">
         <v>309</v>
       </c>
       <c r="B88" s="84" t="s">
@@ -10195,7 +10195,7 @@
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="109"/>
+      <c r="A89" s="112"/>
       <c r="B89" s="84" t="s">
         <v>311</v>
       </c>
@@ -10203,25 +10203,25 @@
     </row>
     <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" s="83" t="s">
         <v>336</v>
-      </c>
-      <c r="B90" s="83" t="s">
-        <v>337</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B91" s="84" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B92" s="85" t="s">
         <v>328</v>
@@ -10230,489 +10230,489 @@
     </row>
     <row r="93" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A93" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B93" s="84" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C93"/>
     </row>
     <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="91" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B94" s="81" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C94"/>
     </row>
     <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="73" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B95" s="81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C95"/>
     </row>
     <row r="96" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="104" t="s">
+      <c r="A96" s="102" t="s">
+        <v>388</v>
+      </c>
+      <c r="B96" s="102"/>
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="B96" s="104"/>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A97" s="102" t="s">
-        <v>390</v>
-      </c>
-      <c r="B97" s="103"/>
+      <c r="B97" s="104"/>
       <c r="C97"/>
     </row>
     <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="70" t="s">
+        <v>390</v>
+      </c>
+      <c r="B98" s="60" t="s">
         <v>391</v>
-      </c>
-      <c r="B98" s="60" t="s">
-        <v>392</v>
       </c>
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="B99" s="76" t="s">
         <v>393</v>
-      </c>
-      <c r="B99" s="76" t="s">
-        <v>394</v>
       </c>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="B100" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="B100" s="76" t="s">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A101" s="103" t="s">
         <v>396</v>
       </c>
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A101" s="102" t="s">
-        <v>397</v>
-      </c>
-      <c r="B101" s="103"/>
+      <c r="B101" s="104"/>
       <c r="C101"/>
     </row>
     <row r="102" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B102" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C102"/>
     </row>
     <row r="103" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A103" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="B103" s="80" t="s">
         <v>400</v>
-      </c>
-      <c r="B103" s="80" t="s">
-        <v>401</v>
       </c>
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="B104" s="80" t="s">
         <v>402</v>
-      </c>
-      <c r="B104" s="80" t="s">
-        <v>403</v>
       </c>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="B105" s="80" t="s">
         <v>404</v>
-      </c>
-      <c r="B105" s="80" t="s">
-        <v>405</v>
       </c>
       <c r="C105"/>
     </row>
     <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="B106" s="80" t="s">
         <v>406</v>
-      </c>
-      <c r="B106" s="80" t="s">
-        <v>407</v>
       </c>
       <c r="C106"/>
     </row>
     <row r="107" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="B107" s="79" t="s">
         <v>408</v>
-      </c>
-      <c r="B107" s="79" t="s">
-        <v>409</v>
       </c>
       <c r="C107"/>
     </row>
     <row r="108" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A108" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="B108" s="79" t="s">
         <v>410</v>
-      </c>
-      <c r="B108" s="79" t="s">
-        <v>411</v>
       </c>
       <c r="C108"/>
     </row>
     <row r="109" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B109" s="86" t="s">
         <v>412</v>
-      </c>
-      <c r="B109" s="86" t="s">
-        <v>413</v>
       </c>
       <c r="C109"/>
     </row>
     <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B110" s="80" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C110"/>
     </row>
     <row r="111" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A111" s="57" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C111"/>
     </row>
     <row r="112" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A112" s="57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B112" s="79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C112"/>
     </row>
     <row r="113" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A113" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B113" s="79" t="s">
         <v>417</v>
-      </c>
-      <c r="B113" s="79" t="s">
-        <v>418</v>
       </c>
       <c r="C113"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A114" s="57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C114"/>
     </row>
     <row r="115" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A115" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B115" s="79" t="s">
         <v>424</v>
-      </c>
-      <c r="B115" s="79" t="s">
-        <v>425</v>
       </c>
       <c r="C115"/>
     </row>
     <row r="116" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
       <c r="A116" s="72" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116" s="80" t="s">
         <v>426</v>
-      </c>
-      <c r="B116" s="80" t="s">
-        <v>427</v>
       </c>
       <c r="C116"/>
     </row>
     <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="s">
+        <v>536</v>
+      </c>
+      <c r="B117" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="B117" s="92" t="s">
-        <v>538</v>
-      </c>
       <c r="C117"/>
     </row>
     <row r="118" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A118" s="102" t="s">
-        <v>428</v>
-      </c>
-      <c r="B118" s="103"/>
+      <c r="A118" s="103" t="s">
+        <v>427</v>
+      </c>
+      <c r="B118" s="104"/>
       <c r="C118"/>
     </row>
     <row r="119" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A119" s="57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C119"/>
     </row>
     <row r="120" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A120" s="57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A121" s="57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A122" s="57" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C122"/>
     </row>
     <row r="123" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="70" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B123" s="79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C123"/>
     </row>
     <row r="124" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="57" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B124" s="79" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C124"/>
     </row>
     <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="B125" s="80" t="s">
         <v>441</v>
-      </c>
-      <c r="B125" s="80" t="s">
-        <v>442</v>
       </c>
       <c r="C125"/>
     </row>
     <row r="126" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A126" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="B126" s="79" t="s">
         <v>443</v>
-      </c>
-      <c r="B126" s="79" t="s">
-        <v>444</v>
       </c>
       <c r="C126"/>
     </row>
     <row r="127" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A127" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="B127" s="80" t="s">
         <v>445</v>
       </c>
-      <c r="B127" s="80" t="s">
-        <v>446</v>
-      </c>
       <c r="C127"/>
     </row>
     <row r="128" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A128" s="102" t="s">
-        <v>500</v>
-      </c>
-      <c r="B128" s="103"/>
+      <c r="A128" s="103" t="s">
+        <v>499</v>
+      </c>
+      <c r="B128" s="104"/>
       <c r="C128"/>
     </row>
     <row r="129" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" s="57" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B129" s="80" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C129"/>
     </row>
     <row r="130" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="B130" s="80" t="s">
         <v>448</v>
-      </c>
-      <c r="B130" s="80" t="s">
-        <v>449</v>
       </c>
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A131" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="B131" s="79" t="s">
         <v>450</v>
-      </c>
-      <c r="B131" s="79" t="s">
-        <v>451</v>
       </c>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A132" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="B132" s="79" t="s">
         <v>452</v>
-      </c>
-      <c r="B132" s="79" t="s">
-        <v>453</v>
       </c>
       <c r="C132"/>
     </row>
     <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A133" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="B133" s="79" t="s">
         <v>454</v>
-      </c>
-      <c r="B133" s="79" t="s">
-        <v>455</v>
       </c>
       <c r="C133"/>
     </row>
     <row r="134" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
       <c r="A134" s="77" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B134" s="80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C134"/>
     </row>
     <row r="135" spans="1:3" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A135" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="B135" s="101" t="s">
         <v>458</v>
-      </c>
-      <c r="B135" s="101" t="s">
-        <v>459</v>
       </c>
       <c r="C135"/>
     </row>
     <row r="136" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A136" s="78" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B136" s="101" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C136"/>
     </row>
     <row r="137" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
       <c r="A137" s="78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B137" s="101" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C137"/>
     </row>
     <row r="138" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
       <c r="A138" s="78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B138" s="101" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C138"/>
     </row>
     <row r="139" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="105" t="s">
-        <v>463</v>
-      </c>
-      <c r="B139" s="103"/>
+        <v>462</v>
+      </c>
+      <c r="B139" s="104"/>
       <c r="C139"/>
     </row>
     <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A140" s="78" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B140" s="80" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C140"/>
     </row>
     <row r="141" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="70" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B141" s="86" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A142" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="B142" s="80" t="s">
         <v>467</v>
-      </c>
-      <c r="B142" s="80" t="s">
-        <v>468</v>
       </c>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="105" t="s">
-        <v>471</v>
-      </c>
-      <c r="B143" s="103"/>
+        <v>470</v>
+      </c>
+      <c r="B143" s="104"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B144" s="87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C144"/>
     </row>
     <row r="145" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A145" s="95" t="s">
+        <v>540</v>
+      </c>
+      <c r="B145" s="94" t="s">
         <v>541</v>
-      </c>
-      <c r="B145" s="94" t="s">
-        <v>542</v>
       </c>
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="105" t="s">
-        <v>543</v>
-      </c>
-      <c r="B146" s="103"/>
+        <v>542</v>
+      </c>
+      <c r="B146" s="104"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B147" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C147"/>
     </row>
     <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
+        <v>544</v>
+      </c>
+      <c r="B148" s="76" t="s">
         <v>545</v>
-      </c>
-      <c r="B148" s="76" t="s">
-        <v>546</v>
       </c>
       <c r="C148"/>
     </row>
@@ -10722,34 +10722,34 @@
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="104" t="s">
-        <v>473</v>
-      </c>
-      <c r="B150" s="104"/>
+      <c r="A150" s="102" t="s">
+        <v>472</v>
+      </c>
+      <c r="B150" s="102"/>
       <c r="C150"/>
     </row>
     <row r="151" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A151" s="102" t="s">
-        <v>476</v>
-      </c>
-      <c r="B151" s="103"/>
+      <c r="A151" s="103" t="s">
+        <v>475</v>
+      </c>
+      <c r="B151" s="104"/>
       <c r="C151"/>
     </row>
     <row r="152" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A152" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B152" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A153" s="57" t="s">
+        <v>530</v>
+      </c>
+      <c r="B153" s="80" t="s">
         <v>531</v>
-      </c>
-      <c r="B153" s="80" t="s">
-        <v>532</v>
       </c>
       <c r="C153"/>
     </row>
@@ -10769,144 +10769,144 @@
     </row>
     <row r="157" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="105" t="s">
-        <v>479</v>
-      </c>
-      <c r="B157" s="106"/>
+        <v>478</v>
+      </c>
+      <c r="B157" s="116"/>
       <c r="C157"/>
     </row>
     <row r="158" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A158" s="57" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B158" s="76" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C158"/>
     </row>
     <row r="159" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B159" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B160" s="76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="57" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B161" s="76" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C161"/>
     </row>
     <row r="162" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="B162" s="76" t="s">
         <v>485</v>
-      </c>
-      <c r="B162" s="76" t="s">
-        <v>486</v>
       </c>
       <c r="C162"/>
     </row>
     <row r="163" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A163" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="B163" s="76" t="s">
         <v>487</v>
-      </c>
-      <c r="B163" s="76" t="s">
-        <v>488</v>
       </c>
       <c r="C163"/>
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B164" s="88" t="s">
         <v>497</v>
       </c>
-      <c r="B164" s="88" t="s">
-        <v>498</v>
-      </c>
       <c r="C164"/>
     </row>
     <row r="165" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A165" s="102" t="s">
-        <v>474</v>
-      </c>
-      <c r="B165" s="103"/>
+      <c r="A165" s="103" t="s">
+        <v>473</v>
+      </c>
+      <c r="B165" s="104"/>
       <c r="C165"/>
     </row>
     <row r="166" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="B166" s="76" t="s">
         <v>489</v>
-      </c>
-      <c r="B166" s="76" t="s">
-        <v>490</v>
       </c>
       <c r="C166"/>
     </row>
     <row r="167" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B167" s="76" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="102" t="s">
-        <v>475</v>
-      </c>
-      <c r="B168" s="103"/>
+      <c r="A168" s="103" t="s">
+        <v>474</v>
+      </c>
+      <c r="B168" s="104"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A169" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B169" s="76" t="s">
         <v>493</v>
-      </c>
-      <c r="B169" s="76" t="s">
-        <v>494</v>
       </c>
       <c r="C169"/>
     </row>
     <row r="170" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="B170" s="76" t="s">
         <v>495</v>
       </c>
-      <c r="B170" s="76" t="s">
-        <v>496</v>
-      </c>
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="104" t="s">
+      <c r="A171" s="102" t="s">
+        <v>553</v>
+      </c>
+      <c r="B171" s="102"/>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A172" s="103" t="s">
         <v>554</v>
       </c>
-      <c r="B171" s="104"/>
-      <c r="C171"/>
-    </row>
-    <row r="172" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A172" s="102" t="s">
-        <v>555</v>
-      </c>
-      <c r="B172" s="103"/>
+      <c r="B172" s="104"/>
       <c r="C172"/>
     </row>
     <row r="173" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="57" t="s">
+        <v>556</v>
+      </c>
+      <c r="B173" s="76" t="s">
         <v>557</v>
-      </c>
-      <c r="B173" s="76" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -10914,83 +10914,83 @@
       <c r="B174" s="76"/>
     </row>
     <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="102" t="s">
-        <v>554</v>
-      </c>
-      <c r="B175" s="103"/>
+      <c r="A175" s="103" t="s">
+        <v>553</v>
+      </c>
+      <c r="B175" s="104"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A176" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="B176" s="76" t="s">
         <v>559</v>
-      </c>
-      <c r="B176" s="76" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="B177" s="76" t="s">
         <v>561</v>
-      </c>
-      <c r="B177" s="76" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="57" t="s">
+        <v>562</v>
+      </c>
+      <c r="B178" s="76" t="s">
         <v>563</v>
-      </c>
-      <c r="B178" s="76" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B179" s="76" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B180" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A181" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="B181" s="80" t="s">
         <v>569</v>
       </c>
-      <c r="B181" s="80" t="s">
-        <v>570</v>
-      </c>
       <c r="C181" s="99" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
       <c r="A182" s="57" t="s">
+        <v>570</v>
+      </c>
+      <c r="B182" s="80" t="s">
         <v>571</v>
       </c>
-      <c r="B182" s="80" t="s">
-        <v>572</v>
-      </c>
       <c r="C182" s="99" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A183" s="57" t="s">
+        <v>572</v>
+      </c>
+      <c r="B183" s="76" t="s">
         <v>573</v>
       </c>
-      <c r="B183" s="76" t="s">
-        <v>574</v>
-      </c>
       <c r="C183" s="98" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -10998,69 +10998,69 @@
       <c r="B184" s="76"/>
     </row>
     <row r="185" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A185" s="102" t="s">
-        <v>578</v>
-      </c>
-      <c r="B185" s="103"/>
+      <c r="A185" s="103" t="s">
+        <v>577</v>
+      </c>
+      <c r="B185" s="104"/>
       <c r="C185"/>
     </row>
     <row r="186" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A186" s="57" t="s">
+        <v>578</v>
+      </c>
+      <c r="B186" s="76" t="s">
         <v>579</v>
-      </c>
-      <c r="B186" s="76" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="57"/>
       <c r="B187" s="76" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="105" t="s">
-        <v>582</v>
-      </c>
-      <c r="B188" s="103"/>
+        <v>581</v>
+      </c>
+      <c r="B188" s="104"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A189" s="57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B189" s="76" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A190" s="57" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B190" s="76" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A191" s="57" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B191" s="100" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B192" s="100" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A193" s="102" t="s">
-        <v>556</v>
-      </c>
-      <c r="B193" s="103"/>
+      <c r="A193" s="103" t="s">
+        <v>555</v>
+      </c>
+      <c r="B193" s="104"/>
       <c r="C193"/>
     </row>
     <row r="194" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -11173,12 +11173,26 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A72:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
     <mergeCell ref="A146:B146"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
@@ -11195,26 +11209,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A72:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A188:B188"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="602">
   <si>
     <t>Операция</t>
   </si>
@@ -5737,11 +5737,62 @@
 ADD CONSTRAINT PK_User PRIMARY KEY (Id,Username);</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">SELECT name FROM (SELECT name FROM agentinformation) a  </t>
+  </si>
+  <si>
+    <t>SELECT FROM SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SELECT DepositAmount - LEAD(DepositAmount) OVER (ORDER BY ID ) AS Diff
+   FROM   WizzardDeposits</t>
+  </si>
+  <si>
+    <t>SELECT wd.DepositAmount ,
+  (SELECT wd.DepositAmount - w.DepositAmount FROM WizzardDeposits AS w WHERE w.Id = wd.Id+1) AS [Difference] 
+ FROM WizzardDeposits AS wd</t>
+  </si>
+  <si>
+    <t>SEELCT NEXT ROW DATA</t>
+  </si>
+  <si>
+    <t>CREATE TABLE PTable (
+     Key1 varchar(20) not null,
+     Key2 date not null,
+     CONSTRAINT PK_PTable PRIMARY KEY (Key1,Key2)
+)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КОМПОЗИТЕН КЛЮЧ ПРИ СЪЗДАВАНЕ НА ТАБЛИЦАТА</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+COPOSITE KEY ON CREATE</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6491,7 +6542,7 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6748,15 +6799,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6772,29 +6814,20 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6814,8 +6847,17 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6828,6 +6870,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6922,7 +6967,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6930,6 +6975,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6983,7 +7039,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7018,7 +7074,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9548,10 +9604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9570,16 +9626,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="107"/>
+      <c r="B2" s="111"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="113" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="112"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -9606,10 +9662,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="112" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="106"/>
+      <c r="B7" s="110"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -9623,7 +9679,7 @@
       <c r="A9" s="72" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="94" t="s">
         <v>524</v>
       </c>
     </row>
@@ -9636,10 +9692,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="112" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="106"/>
+      <c r="B11" s="110"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -9650,10 +9706,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="112" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="108"/>
+      <c r="B13" s="112"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -9703,1373 +9759,1387 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108" t="s">
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>596</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="112" t="s">
         <v>502</v>
       </c>
-      <c r="B20" s="108"/>
-    </row>
-    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="B21" s="112"/>
+    </row>
+    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B22" s="74" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108" t="s">
+    <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="112" t="s">
         <v>386</v>
       </c>
-      <c r="B22" s="108"/>
-    </row>
-    <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="B23" s="112"/>
+    </row>
+    <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B24" s="74" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108" t="s">
+    <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="112" t="s">
         <v>351</v>
       </c>
-      <c r="B24" s="108"/>
-    </row>
-    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="B25" s="112"/>
+    </row>
+    <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B26" s="81" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+    <row r="27" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B27" s="81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+    <row r="28" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B28" s="81" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108" t="s">
+    <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="112" t="s">
         <v>351</v>
       </c>
-      <c r="B28" s="108"/>
-    </row>
-    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="B29" s="112"/>
+    </row>
+    <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B30" s="74" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B31" s="74" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+    <row r="32" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B32" s="74" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="106" t="s">
+    <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="110" t="s">
         <v>361</v>
       </c>
-      <c r="B32" s="106"/>
-    </row>
-    <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>356</v>
-      </c>
+      <c r="B33" s="110"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B35" s="74" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B36" s="74" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108" t="s">
+    <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="B36" s="108"/>
-    </row>
-    <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
-        <v>370</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>359</v>
-      </c>
+      <c r="B37" s="112"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B39" s="74" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+    <row r="40" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B40" s="74" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="106" t="s">
+    <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="110" t="s">
         <v>362</v>
       </c>
-      <c r="B40" s="106"/>
-    </row>
-    <row r="41" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
+      <c r="B41" s="110"/>
+    </row>
+    <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B42" s="74" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+    <row r="43" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B43" s="74" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="108" t="s">
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="112" t="s">
         <v>512</v>
       </c>
-      <c r="B43" s="106"/>
-    </row>
-    <row r="44" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="B44" s="110"/>
+    </row>
+    <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B45" s="74" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="57" t="s">
         <v>515</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B47" s="74" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="102" t="s">
+    <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="101" t="s">
         <v>372</v>
       </c>
-      <c r="B47" s="102"/>
-    </row>
-    <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="103" t="s">
+      <c r="B48" s="101"/>
+    </row>
+    <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="104"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="113" t="s">
+      <c r="B49" s="100"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="107" t="s">
         <v>321</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B50" s="62" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="114"/>
-      <c r="B50" s="62" t="s">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="108"/>
+      <c r="B51" s="62" t="s">
         <v>593</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C51" s="66" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="115"/>
-      <c r="B51" s="62" t="s">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="109"/>
+      <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="113" t="s">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="107" t="s">
         <v>322</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B53" s="62" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="114"/>
-      <c r="B53" s="62" t="s">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="108"/>
+      <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="114"/>
-      <c r="B54" s="62" t="s">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="108"/>
+      <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="115"/>
-      <c r="B55" s="62" t="s">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="109"/>
+      <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="113" t="s">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B57" s="62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="115"/>
-      <c r="B57" s="62" t="s">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="109"/>
+      <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="113" t="s">
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="107" t="s">
         <v>324</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B59" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C59" s="66" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="114"/>
-      <c r="B59" s="62" t="s">
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="108"/>
+      <c r="B60" s="62" t="s">
         <v>528</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C60" s="68" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="62" t="s">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="108"/>
+      <c r="B61" s="62" t="s">
         <v>590</v>
       </c>
-      <c r="C60" s="68"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="115"/>
-      <c r="B61" s="62" t="s">
+      <c r="C61" s="68"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="109"/>
+      <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B63" s="62" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="57" t="s">
+    <row r="64" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B64" s="62" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+    <row r="65" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="57" t="s">
         <v>549</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B66" s="62" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="57" t="s">
+    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B67" s="62" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="110" t="s">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="104" t="s">
         <v>290</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B68" s="62" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="111"/>
-      <c r="B67" s="62" t="s">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="105"/>
+      <c r="B69" s="62" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="111"/>
-      <c r="B68" s="62" t="s">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="105"/>
+      <c r="B70" s="62" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="111"/>
-      <c r="B69" s="62" t="s">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="105"/>
+      <c r="B71" s="62" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="111"/>
-      <c r="B70" s="62" t="s">
+    <row r="72" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="105"/>
+      <c r="B72" s="62" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="112"/>
-      <c r="B71" s="62" t="s">
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="106"/>
+      <c r="B73" s="62" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="110" t="s">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="104" t="s">
         <v>291</v>
       </c>
-      <c r="B72" s="62" t="s">
+      <c r="B74" s="62" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="111"/>
-      <c r="B73" s="62" t="s">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="105"/>
+      <c r="B75" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="C73" s="67"/>
-    </row>
-    <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
-      <c r="B74" s="62" t="s">
+      <c r="C75" s="67"/>
+    </row>
+    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="105"/>
+      <c r="B76" s="62" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="111"/>
-      <c r="B75" s="62" t="s">
+    <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="105"/>
+      <c r="B77" s="62" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="111"/>
-      <c r="B76" s="81" t="s">
+    <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="105"/>
+      <c r="B78" s="81" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="111"/>
-      <c r="B77" s="81" t="s">
+    <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="105"/>
+      <c r="B79" s="81" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="111"/>
-      <c r="B78" s="81" t="s">
+    <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="105"/>
+      <c r="B80" s="81" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="111"/>
-      <c r="B79" s="81" t="s">
+    <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="105"/>
+      <c r="B81" s="81" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A80" s="111"/>
-      <c r="B80" s="81" t="s">
+    <row r="82" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A82" s="105"/>
+      <c r="B82" s="81" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="111"/>
-      <c r="B81" s="81" t="s">
+    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="105"/>
+      <c r="B83" s="81" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="111"/>
-      <c r="B82" s="81" t="s">
+    <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="105"/>
+      <c r="B84" s="81" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="112"/>
-      <c r="B83" s="81" t="s">
+    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="106"/>
+      <c r="B85" s="81" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="110" t="s">
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="104" t="s">
         <v>292</v>
       </c>
-      <c r="B84" s="82" t="s">
+      <c r="B86" s="82" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="111"/>
-      <c r="B85" s="83" t="s">
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="105"/>
+      <c r="B87" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="111"/>
-      <c r="B86" s="83" t="s">
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="105"/>
+      <c r="B88" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="112"/>
-      <c r="B87" s="82" t="s">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="106"/>
+      <c r="B89" s="82" t="s">
         <v>547</v>
       </c>
-      <c r="C87"/>
-    </row>
-    <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="110" t="s">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="B88" s="84" t="s">
+      <c r="B90" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="112"/>
-      <c r="B89" s="84" t="s">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="106"/>
+      <c r="B91" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="69" t="s">
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="69" t="s">
         <v>335</v>
       </c>
-      <c r="B90" s="83" t="s">
+      <c r="B92" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="65" t="s">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="B91" s="84" t="s">
+      <c r="B93" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="61" t="s">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="B92" s="85" t="s">
+      <c r="B94" s="85" t="s">
         <v>328</v>
       </c>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="71" t="s">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="B93" s="84" t="s">
+      <c r="B95" s="84" t="s">
         <v>533</v>
       </c>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="91" t="s">
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="B94" s="81" t="s">
+      <c r="B96" s="81" t="s">
         <v>532</v>
       </c>
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="73" t="s">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="B95" s="81" t="s">
+      <c r="B97" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="102" t="s">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="101" t="s">
         <v>388</v>
       </c>
-      <c r="B96" s="102"/>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A97" s="103" t="s">
+      <c r="B98" s="101"/>
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A99" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="B97" s="104"/>
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="70" t="s">
+      <c r="B99" s="100"/>
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="70" t="s">
         <v>390</v>
       </c>
-      <c r="B98" s="60" t="s">
+      <c r="B100" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="70" t="s">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="70" t="s">
         <v>392</v>
       </c>
-      <c r="B99" s="76" t="s">
+      <c r="B101" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="70" t="s">
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="B100" s="76" t="s">
+      <c r="B102" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A101" s="103" t="s">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A103" s="99" t="s">
         <v>396</v>
       </c>
-      <c r="B101" s="104"/>
-      <c r="C101"/>
-    </row>
-    <row r="102" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="57" t="s">
+      <c r="B103" s="100"/>
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A104" s="57" t="s">
         <v>398</v>
       </c>
-      <c r="B102" s="80" t="s">
+      <c r="B104" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="C102"/>
-    </row>
-    <row r="103" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="57" t="s">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="B103" s="80" t="s">
+      <c r="B105" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="72" t="s">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A106" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="B104" s="80" t="s">
+      <c r="B106" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B107" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="57" t="s">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="B106" s="80" t="s">
+      <c r="B108" s="80" t="s">
         <v>406</v>
       </c>
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="B107" s="79" t="s">
+      <c r="B109" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="57" t="s">
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="B108" s="79" t="s">
+      <c r="B110" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="C108"/>
-    </row>
-    <row r="109" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A111" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B109" s="86" t="s">
+      <c r="B111" s="86" t="s">
         <v>412</v>
       </c>
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="57" t="s">
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="B110" s="80" t="s">
+      <c r="B112" s="80" t="s">
         <v>413</v>
-      </c>
-      <c r="C110"/>
-    </row>
-    <row r="111" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="B111" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="57" t="s">
-        <v>419</v>
-      </c>
-      <c r="B112" s="79" t="s">
-        <v>415</v>
       </c>
       <c r="C112"/>
     </row>
     <row r="113" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A113" s="57" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B113" s="79" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C113"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A114" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="B114" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="57" t="s">
         <v>418</v>
       </c>
-      <c r="B114" s="79" t="s">
+      <c r="B116" s="79" t="s">
         <v>422</v>
       </c>
-      <c r="C114"/>
-    </row>
-    <row r="115" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="57" t="s">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="B115" s="79" t="s">
+      <c r="B117" s="79" t="s">
         <v>424</v>
       </c>
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="72" t="s">
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="B116" s="80" t="s">
+      <c r="B118" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="C116"/>
-    </row>
-    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="93" t="s">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="93" t="s">
         <v>536</v>
       </c>
-      <c r="B117" s="92" t="s">
+      <c r="B119" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A118" s="103" t="s">
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A120" s="99" t="s">
         <v>427</v>
       </c>
-      <c r="B118" s="104"/>
-      <c r="C118"/>
-    </row>
-    <row r="119" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="57" t="s">
-        <v>432</v>
-      </c>
-      <c r="B119" s="79" t="s">
-        <v>431</v>
-      </c>
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="57" t="s">
-        <v>433</v>
-      </c>
-      <c r="B120" s="79" t="s">
-        <v>430</v>
-      </c>
+      <c r="B120" s="100"/>
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A121" s="57" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A122" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="B122" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="B123" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="B122" s="79" t="s">
+      <c r="B124" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="C122"/>
-    </row>
-    <row r="123" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="70" t="s">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="B123" s="79" t="s">
+      <c r="B125" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="C123"/>
-    </row>
-    <row r="124" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A124" s="57" t="s">
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="B124" s="79" t="s">
+      <c r="B126" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="C124"/>
-    </row>
-    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="70" t="s">
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="70" t="s">
         <v>440</v>
       </c>
-      <c r="B125" s="80" t="s">
+      <c r="B127" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="57" t="s">
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="57" t="s">
         <v>442</v>
       </c>
-      <c r="B126" s="79" t="s">
+      <c r="B128" s="79" t="s">
         <v>443</v>
       </c>
-      <c r="C126"/>
-    </row>
-    <row r="127" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="57" t="s">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="B127" s="80" t="s">
+      <c r="B129" s="80" t="s">
         <v>445</v>
       </c>
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A128" s="103" t="s">
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A130" s="99" t="s">
         <v>499</v>
       </c>
-      <c r="B128" s="104"/>
-      <c r="C128"/>
-    </row>
-    <row r="129" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A129" s="57" t="s">
+      <c r="B130" s="100"/>
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A131" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="B129" s="80" t="s">
+      <c r="B131" s="80" t="s">
         <v>498</v>
       </c>
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="57" t="s">
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="B130" s="80" t="s">
+      <c r="B132" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="C130"/>
-    </row>
-    <row r="131" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="57" t="s">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="B131" s="79" t="s">
+      <c r="B133" s="79" t="s">
         <v>450</v>
       </c>
-      <c r="C131"/>
-    </row>
-    <row r="132" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="57" t="s">
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="B132" s="79" t="s">
+      <c r="B134" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="C132"/>
-    </row>
-    <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="70" t="s">
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B133" s="79" t="s">
+      <c r="B135" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="77" t="s">
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="B134" s="80" t="s">
+      <c r="B136" s="80" t="s">
         <v>455</v>
       </c>
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="1:3" ht="63.75" x14ac:dyDescent="0.3">
-      <c r="A135" s="78" t="s">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" ht="63.75" x14ac:dyDescent="0.3">
+      <c r="A137" s="78" t="s">
         <v>457</v>
       </c>
-      <c r="B135" s="101" t="s">
+      <c r="B137" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="78" t="s">
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A138" s="78" t="s">
         <v>459</v>
       </c>
-      <c r="B136" s="101" t="s">
+      <c r="B138" s="98" t="s">
         <v>552</v>
       </c>
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="78" t="s">
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="78" t="s">
         <v>460</v>
       </c>
-      <c r="B137" s="101" t="s">
+      <c r="B139" s="98" t="s">
         <v>551</v>
       </c>
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="78" t="s">
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="B138" s="101" t="s">
+      <c r="B140" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="105" t="s">
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="102" t="s">
         <v>462</v>
       </c>
-      <c r="B139" s="104"/>
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A140" s="78" t="s">
+      <c r="B141" s="100"/>
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A142" s="78" t="s">
         <v>464</v>
       </c>
-      <c r="B140" s="80" t="s">
+      <c r="B142" s="80" t="s">
         <v>463</v>
       </c>
-      <c r="C140"/>
-    </row>
-    <row r="141" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A141" s="70" t="s">
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="B141" s="86" t="s">
+      <c r="B143" s="86" t="s">
         <v>468</v>
       </c>
-      <c r="C141"/>
-    </row>
-    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A142" s="78" t="s">
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A144" s="78" t="s">
         <v>466</v>
       </c>
-      <c r="B142" s="80" t="s">
+      <c r="B144" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="105" t="s">
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="102" t="s">
         <v>470</v>
       </c>
-      <c r="B143" s="104"/>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A144" s="70" t="s">
+      <c r="B145" s="100"/>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A146" s="70" t="s">
         <v>469</v>
       </c>
-      <c r="B144" s="87" t="s">
+      <c r="B146" s="87" t="s">
         <v>471</v>
       </c>
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A145" s="95" t="s">
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A147" s="57" t="s">
         <v>540</v>
       </c>
-      <c r="B145" s="94" t="s">
+      <c r="B147" s="87" t="s">
         <v>541</v>
       </c>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="105" t="s">
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="102" t="s">
         <v>542</v>
       </c>
-      <c r="B146" s="104"/>
-      <c r="C146"/>
-    </row>
-    <row r="147" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="57" t="s">
+      <c r="B148" s="100"/>
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="B147" s="80" t="s">
+      <c r="B149" s="80" t="s">
         <v>546</v>
       </c>
-      <c r="C147"/>
-    </row>
-    <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A148" s="57" t="s">
+      <c r="C149" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="57" t="s">
         <v>544</v>
       </c>
-      <c r="B148" s="76" t="s">
+      <c r="B150" s="76" t="s">
         <v>545</v>
       </c>
-      <c r="C148"/>
-    </row>
-    <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="57"/>
-      <c r="B149" s="96"/>
-      <c r="C149"/>
-    </row>
-    <row r="150" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="102" t="s">
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="57" t="s">
+        <v>599</v>
+      </c>
+      <c r="B151" s="118" t="s">
+        <v>598</v>
+      </c>
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="101" t="s">
         <v>472</v>
       </c>
-      <c r="B150" s="102"/>
-      <c r="C150"/>
-    </row>
-    <row r="151" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A151" s="103" t="s">
+      <c r="B152" s="101"/>
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A153" s="99" t="s">
         <v>475</v>
       </c>
-      <c r="B151" s="104"/>
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A152" s="57" t="s">
+      <c r="B153" s="100"/>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A154" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="B152" s="76" t="s">
+      <c r="B154" s="76" t="s">
         <v>538</v>
       </c>
-      <c r="C152"/>
-    </row>
-    <row r="153" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
-      <c r="A153" s="57" t="s">
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="A155" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="B153" s="80" t="s">
+      <c r="B155" s="80" t="s">
         <v>531</v>
       </c>
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="57"/>
-      <c r="B154" s="80"/>
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="57"/>
-      <c r="B155" s="80"/>
       <c r="C155"/>
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="70"/>
+      <c r="A156" s="57"/>
+      <c r="B156" s="80"/>
       <c r="C156"/>
     </row>
-    <row r="157" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="105" t="s">
+    <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="57"/>
+      <c r="B157" s="80"/>
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="70"/>
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="102" t="s">
         <v>478</v>
       </c>
-      <c r="B157" s="116"/>
-      <c r="C157"/>
-    </row>
-    <row r="158" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A158" s="57" t="s">
+      <c r="B159" s="103"/>
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A160" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="B158" s="76" t="s">
+      <c r="B160" s="76" t="s">
         <v>476</v>
-      </c>
-      <c r="C158"/>
-    </row>
-    <row r="159" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A159" s="57" t="s">
-        <v>483</v>
-      </c>
-      <c r="B159" s="76" t="s">
-        <v>479</v>
-      </c>
-      <c r="C159"/>
-    </row>
-    <row r="160" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="B160" s="76" t="s">
-        <v>480</v>
       </c>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="57" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B161" s="76" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C161"/>
     </row>
     <row r="162" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="B162" s="76" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" s="76" t="s">
+        <v>476</v>
+      </c>
+      <c r="C163"/>
+    </row>
+    <row r="164" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A164" s="57" t="s">
         <v>484</v>
       </c>
-      <c r="B162" s="76" t="s">
+      <c r="B164" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="C162"/>
-    </row>
-    <row r="163" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A163" s="57" t="s">
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A165" s="57" t="s">
         <v>486</v>
       </c>
-      <c r="B163" s="76" t="s">
+      <c r="B165" s="76" t="s">
         <v>487</v>
       </c>
-      <c r="C163"/>
-    </row>
-    <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="57" t="s">
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="B164" s="88" t="s">
+      <c r="B166" s="88" t="s">
         <v>497</v>
       </c>
-      <c r="C164"/>
-    </row>
-    <row r="165" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A165" s="103" t="s">
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A167" s="99" t="s">
         <v>473</v>
       </c>
-      <c r="B165" s="104"/>
-      <c r="C165"/>
-    </row>
-    <row r="166" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="57" t="s">
+      <c r="B167" s="100"/>
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="B166" s="76" t="s">
+      <c r="B168" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="C166"/>
-    </row>
-    <row r="167" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A167" s="57" t="s">
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A169" s="57" t="s">
         <v>491</v>
       </c>
-      <c r="B167" s="76" t="s">
+      <c r="B169" s="76" t="s">
         <v>490</v>
       </c>
-      <c r="C167"/>
-    </row>
-    <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="103" t="s">
+      <c r="C169"/>
+    </row>
+    <row r="170" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A170" s="99" t="s">
         <v>474</v>
       </c>
-      <c r="B168" s="104"/>
-      <c r="C168"/>
-    </row>
-    <row r="169" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A169" s="57" t="s">
+      <c r="B170" s="100"/>
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A171" s="57" t="s">
         <v>492</v>
       </c>
-      <c r="B169" s="76" t="s">
+      <c r="B171" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="C169"/>
-    </row>
-    <row r="170" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A170" s="57" t="s">
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A172" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="B170" s="76" t="s">
+      <c r="B172" s="76" t="s">
         <v>495</v>
       </c>
-      <c r="C170"/>
-    </row>
-    <row r="171" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="102" t="s">
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="101" t="s">
         <v>553</v>
       </c>
-      <c r="B171" s="102"/>
-      <c r="C171"/>
-    </row>
-    <row r="172" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A172" s="103" t="s">
+      <c r="B173" s="101"/>
+      <c r="C173"/>
+    </row>
+    <row r="174" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A174" s="99" t="s">
         <v>554</v>
       </c>
-      <c r="B172" s="104"/>
-      <c r="C172"/>
-    </row>
-    <row r="173" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A173" s="57" t="s">
+      <c r="B174" s="100"/>
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A175" s="57" t="s">
         <v>556</v>
       </c>
-      <c r="B173" s="76" t="s">
+      <c r="B175" s="76" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="57"/>
-      <c r="B174" s="76"/>
-    </row>
-    <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="103" t="s">
+    <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="57"/>
+      <c r="B176" s="76"/>
+    </row>
+    <row r="177" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A177" s="99" t="s">
         <v>553</v>
       </c>
-      <c r="B175" s="104"/>
-      <c r="C175"/>
-    </row>
-    <row r="176" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A176" s="57" t="s">
+      <c r="B177" s="100"/>
+      <c r="C177"/>
+    </row>
+    <row r="178" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A178" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="B176" s="76" t="s">
+      <c r="B178" s="76" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A177" s="57" t="s">
+    <row r="179" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A179" s="57" t="s">
         <v>560</v>
       </c>
-      <c r="B177" s="76" t="s">
+      <c r="B179" s="76" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="57" t="s">
+    <row r="180" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="57" t="s">
         <v>562</v>
       </c>
-      <c r="B178" s="76" t="s">
+      <c r="B180" s="76" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="57" t="s">
+    <row r="181" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="57" t="s">
         <v>565</v>
       </c>
-      <c r="B179" s="76" t="s">
+      <c r="B181" s="76" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="57" t="s">
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="57" t="s">
         <v>567</v>
       </c>
-      <c r="B180" s="76" t="s">
+      <c r="B182" s="76" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="57" t="s">
+    <row r="183" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="57" t="s">
         <v>568</v>
       </c>
-      <c r="B181" s="80" t="s">
+      <c r="B183" s="80" t="s">
         <v>569</v>
       </c>
-      <c r="C181" s="99" t="s">
+      <c r="C183" s="96" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="57" t="s">
+    <row r="184" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="57" t="s">
         <v>570</v>
       </c>
-      <c r="B182" s="80" t="s">
+      <c r="B184" s="80" t="s">
         <v>571</v>
       </c>
-      <c r="C182" s="99" t="s">
+      <c r="C184" s="96" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A183" s="57" t="s">
+    <row r="185" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A185" s="57" t="s">
         <v>572</v>
       </c>
-      <c r="B183" s="76" t="s">
+      <c r="B185" s="76" t="s">
         <v>573</v>
       </c>
-      <c r="C183" s="98" t="s">
+      <c r="C185" s="95" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="57"/>
-      <c r="B184" s="76"/>
-    </row>
-    <row r="185" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A185" s="103" t="s">
+    <row r="186" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="57"/>
+      <c r="B186" s="76"/>
+    </row>
+    <row r="187" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A187" s="99" t="s">
         <v>577</v>
       </c>
-      <c r="B185" s="104"/>
-      <c r="C185"/>
-    </row>
-    <row r="186" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A186" s="57" t="s">
+      <c r="B187" s="100"/>
+      <c r="C187"/>
+    </row>
+    <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A188" s="57" t="s">
         <v>578</v>
       </c>
-      <c r="B186" s="76" t="s">
+      <c r="B188" s="76" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A187" s="57"/>
-      <c r="B187" s="76" t="s">
+    <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A189" s="57"/>
+      <c r="B189" s="76" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="105" t="s">
+    <row r="190" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="102" t="s">
         <v>581</v>
       </c>
-      <c r="B188" s="104"/>
-    </row>
-    <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A189" s="57" t="s">
+      <c r="B190" s="100"/>
+    </row>
+    <row r="191" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A191" s="57" t="s">
         <v>582</v>
       </c>
-      <c r="B189" s="76" t="s">
+      <c r="B191" s="76" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A190" s="57" t="s">
+    <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A192" s="57" t="s">
         <v>584</v>
       </c>
-      <c r="B190" s="76" t="s">
+      <c r="B192" s="76" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="57" t="s">
+    <row r="193" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="B191" s="100" t="s">
+      <c r="B193" s="97" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="57" t="s">
+    <row r="194" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="57" t="s">
         <v>586</v>
       </c>
-      <c r="B192" s="100" t="s">
+      <c r="B194" s="97" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A193" s="103" t="s">
+    <row r="195" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A195" s="99" t="s">
         <v>555</v>
       </c>
-      <c r="B193" s="104"/>
-      <c r="C193"/>
-    </row>
-    <row r="194" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="57"/>
-      <c r="B194" s="76"/>
-    </row>
-    <row r="195" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="57"/>
-      <c r="B195" s="76"/>
+      <c r="B195" s="100"/>
+      <c r="C195"/>
     </row>
     <row r="196" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A196" s="57"/>
@@ -11171,50 +11241,58 @@
       <c r="A220" s="57"/>
       <c r="B220" s="76"/>
     </row>
+    <row r="221" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="57"/>
+      <c r="B221" s="76"/>
+    </row>
+    <row r="222" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="57"/>
+      <c r="B222" s="76"/>
+    </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A72:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A167:B167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11636,7 +11714,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -11656,7 +11734,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118"/>
+      <c r="A2" s="115"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -11724,10 +11802,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="120"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="631">
   <si>
     <t>Операция</t>
   </si>
@@ -5366,9 +5366,6 @@
     <t>Database Design</t>
   </si>
   <si>
-    <t>E/R Diagrams</t>
-  </si>
-  <si>
     <t>Steps in Database Design</t>
   </si>
   <si>
@@ -5787,6 +5784,221 @@
       <t xml:space="preserve">
 COPOSITE KEY ON CREATE</t>
     </r>
+  </si>
+  <si>
+    <t>Joins, Subqueries, CTEs and Indices</t>
+  </si>
+  <si>
+    <t>Indices</t>
+  </si>
+  <si>
+    <t>JOINS
+Gathering Data From Multiple Tables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inner joins
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Join of two tables returning only rows matching the join condition)</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT * FROM Employees AS e
+INNER JOIN Departments AS d
+ON e.DepartmentID = d.DepartmentID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Left (or right) outer join
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Returns the results of the inner join as well as unmatched rows
+from the left (or right) table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Full outer join
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Returns the results of an inner join along with all unmatched rows)</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT * FROM Employees AS e
+LEFT OUTER JOIN Departments AS d
+ON e.DepartmentID = d.DepartmentID
+SELECT * FROM Employees AS e
+RIGHT OUTER JOIN Departments AS d
+ON e.DepartmentID = d.DepartmentID</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Employees AS e
+FULL JOIN Departments AS d
+ON e.DepartmentID = d.DepartmentID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SELECT LastName, Name AS
+DepartmentName
+FROM Employees, Departments
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A Cartesian product is formed when:
+A join condition is omitted
+A join condition is invalid
+All rows in the first table are joined to all rows in the second table
+To avoid a Cartesian product, always include a valid join condition</t>
+    </r>
+  </si>
+  <si>
+    <t>Cartesian Product</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Employees AS e
+CROSS JOIN Departments AS d</t>
+  </si>
+  <si>
+    <t>Cross Join</t>
+  </si>
+  <si>
+    <t>Subqueries
+Query Manipulation on Multiple Levels</t>
+  </si>
+  <si>
+    <t>Subqueries use a query’s result as data for another query</t>
+  </si>
+  <si>
+    <t>SELECT FROM Employees AS e
+WHERE e.DepartmentID IN
+(SELECT d.DepartmentID
+FROM Deparments AS d
+WHERE d.Name = 'Finance')</t>
+  </si>
+  <si>
+    <t>Common Table Expressions (CTE)
+Reusable Subqueries</t>
+  </si>
+  <si>
+    <t>Common Table Expressions (CTE) can be considered as
+"named subqueries".
+They could be used to improve code readability and code
+reuse.
+Usually they are positioned in the beginning of the query.</t>
+  </si>
+  <si>
+    <t>WITH Employees_CTE
+(FirstName, LastName, DepartmentName)
+AS
+(SELECT e.FirstName, e.LastName, d.Name
+FROM Employees AS e
+LEFT JOIN Departments AS d ON
+d.DepartmentID = e.DepartmentID)
+SELECT FirstName, LastName, DepartmentName
+FROM Employees_CTE</t>
+  </si>
+  <si>
+    <t>Indexes
+Clustered and Non-Clustered Indexes</t>
+  </si>
+  <si>
+    <t>Temporary Tables</t>
+  </si>
+  <si>
+    <t>Temporary tables are stored in tempdb.
+Automatically deleted when they are no longer used.</t>
+  </si>
+  <si>
+    <t>CREATE TABLE #TempTable
+(
+-- Add columns here.
+)
+SELECT * FROM #TempTable</t>
+  </si>
+  <si>
+    <t>CREATE TABLE #Employees
+(Id INT PRIMARY KEY,
+FirstName VARCHAR(50) NOT NULL,
+LastName VARCHAR(50),
+Address VARCHAR(50))
+SELECT * FROM #Employees</t>
+  </si>
+  <si>
+    <t>Temporary Table Syntax</t>
+  </si>
+  <si>
+    <t>Clustered Indexes</t>
+  </si>
+  <si>
+    <t>Non-Clustered Indexes</t>
+  </si>
+  <si>
+    <t>Useful for fast retrieving of a single record or a range of records
+Maintained in a separate structure in the DB
+Tend to be much narrower than the base table
+Can locate the exact record(s) with less I/O
+Has at least one more intermediate level than the clustered index
+Much less valuable if a table doesn’t have a clustered index
+A non-clustered index has pointers to the actual data rows (pointers to the clustered index if there is one).</t>
+  </si>
+  <si>
+    <t>Clustered index is actually the data itself
+Very useful for fast execution of WHERE, ORDER BY and GROUP BY clauses.
+Maximum 1 clustered index per table
+If a table has no clustered index, its data rows are stored in an unordered structure (heap).</t>
+  </si>
+  <si>
+    <t>Indices speed up the searching of values in a certain column or group of columns
+Usually implemented as B-trees
+Indices can be built-in the table (clustered) or stored externally (non-clustered)
+Adding and deleting records in indexed tables is slower!
+Indices should be used for big tables only (e.g. 50 000 rows).</t>
   </si>
 </sst>
 </file>
@@ -6542,7 +6754,7 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6814,20 +7026,32 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6847,17 +7071,8 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6871,8 +7086,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9604,15 +9825,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.7109375" style="64" customWidth="1"/>
+    <col min="1" max="1" width="66.42578125" style="64" customWidth="1"/>
     <col min="2" max="2" width="95" style="58" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" style="66" customWidth="1"/>
   </cols>
@@ -9626,16 +9847,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="111"/>
+      <c r="B2" s="105"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="107" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="106"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -9662,10 +9883,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="106" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="110"/>
+      <c r="B7" s="104"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -9692,10 +9913,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="106" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="104"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -9706,10 +9927,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="106" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="106"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -9761,17 +9982,17 @@
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="112"/>
+      <c r="B21" s="106"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -9782,10 +10003,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="106" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="112"/>
+      <c r="B23" s="106"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -9796,10 +10017,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="106" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="112"/>
+      <c r="B25" s="106"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -9826,10 +10047,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="106" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="112"/>
+      <c r="B29" s="106"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -9856,10 +10077,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="104" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="110"/>
+      <c r="B33" s="104"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -9886,10 +10107,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="112"/>
+      <c r="B37" s="106"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -9916,10 +10137,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="104" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="110"/>
+      <c r="B41" s="104"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
@@ -9938,10 +10159,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="106" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="110"/>
+      <c r="B44" s="104"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -9968,19 +10189,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="100" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="101"/>
+      <c r="B48" s="100"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="100"/>
+      <c r="B49" s="102"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="111" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -9988,22 +10209,22 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
+      <c r="A51" s="112"/>
       <c r="B51" s="62" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C51" s="66" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="111" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -10011,25 +10232,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
+      <c r="A54" s="112"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
+      <c r="A55" s="112"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="109"/>
+      <c r="A56" s="113"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="107" t="s">
+      <c r="A57" s="111" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -10037,13 +10258,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
+      <c r="A58" s="113"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="107" t="s">
+      <c r="A59" s="111" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -10054,7 +10275,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+      <c r="A60" s="112"/>
       <c r="B60" s="62" t="s">
         <v>528</v>
       </c>
@@ -10063,14 +10284,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+      <c r="A61" s="112"/>
       <c r="B61" s="62" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
+      <c r="A62" s="113"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
@@ -10093,10 +10314,10 @@
     </row>
     <row r="65" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -10116,7 +10337,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="104" t="s">
+      <c r="A68" s="108" t="s">
         <v>290</v>
       </c>
       <c r="B68" s="62" t="s">
@@ -10124,37 +10345,37 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="105"/>
+      <c r="A69" s="109"/>
       <c r="B69" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="105"/>
+      <c r="A70" s="109"/>
       <c r="B70" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="105"/>
+      <c r="A71" s="109"/>
       <c r="B71" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="105"/>
+      <c r="A72" s="109"/>
       <c r="B72" s="62" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="104" t="s">
+      <c r="A74" s="108" t="s">
         <v>291</v>
       </c>
       <c r="B74" s="62" t="s">
@@ -10162,74 +10383,74 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="105"/>
+      <c r="A75" s="109"/>
       <c r="B75" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C75" s="67"/>
     </row>
     <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="105"/>
+      <c r="A76" s="109"/>
       <c r="B76" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="105"/>
+      <c r="A77" s="109"/>
       <c r="B77" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="105"/>
+      <c r="A78" s="109"/>
       <c r="B78" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="105"/>
+      <c r="A79" s="109"/>
       <c r="B79" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="105"/>
+      <c r="A80" s="109"/>
       <c r="B80" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="105"/>
+      <c r="A81" s="109"/>
       <c r="B81" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A82" s="105"/>
+      <c r="A82" s="109"/>
       <c r="B82" s="81" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="105"/>
+      <c r="A83" s="109"/>
       <c r="B83" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="105"/>
+      <c r="A84" s="109"/>
       <c r="B84" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="81" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="104" t="s">
+      <c r="A86" s="108" t="s">
         <v>292</v>
       </c>
       <c r="B86" s="82" t="s">
@@ -10237,28 +10458,28 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="105"/>
+      <c r="A87" s="109"/>
       <c r="B87" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C87"/>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="105"/>
+      <c r="A88" s="109"/>
       <c r="B88" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="106"/>
+      <c r="A89" s="110"/>
       <c r="B89" s="82" t="s">
         <v>547</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="104" t="s">
+      <c r="A90" s="108" t="s">
         <v>309</v>
       </c>
       <c r="B90" s="84" t="s">
@@ -10267,7 +10488,7 @@
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
+      <c r="A91" s="110"/>
       <c r="B91" s="84" t="s">
         <v>311</v>
       </c>
@@ -10328,17 +10549,17 @@
       <c r="C97"/>
     </row>
     <row r="98" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="101" t="s">
+      <c r="A98" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="B98" s="101"/>
+      <c r="B98" s="100"/>
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A99" s="99" t="s">
+      <c r="A99" s="101" t="s">
         <v>389</v>
       </c>
-      <c r="B99" s="100"/>
+      <c r="B99" s="102"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -10369,10 +10590,10 @@
       <c r="C102"/>
     </row>
     <row r="103" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A103" s="99" t="s">
+      <c r="A103" s="101" t="s">
         <v>396</v>
       </c>
-      <c r="B103" s="100"/>
+      <c r="B103" s="102"/>
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -10520,10 +10741,10 @@
       <c r="C119"/>
     </row>
     <row r="120" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A120" s="99" t="s">
+      <c r="A120" s="101" t="s">
         <v>427</v>
       </c>
-      <c r="B120" s="100"/>
+      <c r="B120" s="102"/>
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -10608,10 +10829,10 @@
       <c r="C129"/>
     </row>
     <row r="130" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A130" s="99" t="s">
+      <c r="A130" s="101" t="s">
         <v>499</v>
       </c>
-      <c r="B130" s="100"/>
+      <c r="B130" s="102"/>
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -10705,10 +10926,10 @@
       <c r="C140"/>
     </row>
     <row r="141" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="102" t="s">
+      <c r="A141" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="B141" s="100"/>
+      <c r="B141" s="102"/>
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -10739,10 +10960,10 @@
       <c r="C144"/>
     </row>
     <row r="145" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="102" t="s">
+      <c r="A145" s="103" t="s">
         <v>470</v>
       </c>
-      <c r="B145" s="100"/>
+      <c r="B145" s="102"/>
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -10764,10 +10985,10 @@
       <c r="C147"/>
     </row>
     <row r="148" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="102" t="s">
+      <c r="A148" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="B148" s="100"/>
+      <c r="B148" s="102"/>
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -10778,7 +10999,7 @@
         <v>546</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -10792,25 +11013,25 @@
     </row>
     <row r="151" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="57" t="s">
-        <v>599</v>
-      </c>
-      <c r="B151" s="118" t="s">
         <v>598</v>
       </c>
+      <c r="B151" s="99" t="s">
+        <v>597</v>
+      </c>
       <c r="C151"/>
     </row>
     <row r="152" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="101" t="s">
+      <c r="A152" s="100" t="s">
         <v>472</v>
       </c>
-      <c r="B152" s="101"/>
+      <c r="B152" s="100"/>
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A153" s="99" t="s">
+      <c r="A153" s="101" t="s">
         <v>475</v>
       </c>
-      <c r="B153" s="100"/>
+      <c r="B153" s="102"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -10846,10 +11067,10 @@
       <c r="C158"/>
     </row>
     <row r="159" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="102" t="s">
+      <c r="A159" s="103" t="s">
         <v>478</v>
       </c>
-      <c r="B159" s="103"/>
+      <c r="B159" s="114"/>
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -10916,10 +11137,10 @@
       <c r="C166"/>
     </row>
     <row r="167" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A167" s="99" t="s">
+      <c r="A167" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="B167" s="100"/>
+      <c r="B167" s="102"/>
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -10941,10 +11162,10 @@
       <c r="C169"/>
     </row>
     <row r="170" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A170" s="99" t="s">
+      <c r="A170" s="101" t="s">
         <v>474</v>
       </c>
-      <c r="B170" s="100"/>
+      <c r="B170" s="102"/>
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -10966,25 +11187,25 @@
       <c r="C172"/>
     </row>
     <row r="173" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="101" t="s">
+      <c r="A173" s="100" t="s">
         <v>553</v>
       </c>
-      <c r="B173" s="101"/>
+      <c r="B173" s="100"/>
       <c r="C173"/>
     </row>
     <row r="174" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A174" s="99" t="s">
+      <c r="A174" s="101" t="s">
         <v>554</v>
       </c>
-      <c r="B174" s="100"/>
+      <c r="B174" s="102"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A175" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="B175" s="76" t="s">
         <v>556</v>
-      </c>
-      <c r="B175" s="76" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -10992,83 +11213,83 @@
       <c r="B176" s="76"/>
     </row>
     <row r="177" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A177" s="99" t="s">
+      <c r="A177" s="101" t="s">
         <v>553</v>
       </c>
-      <c r="B177" s="100"/>
+      <c r="B177" s="102"/>
       <c r="C177"/>
     </row>
     <row r="178" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A178" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="B178" s="76" t="s">
         <v>558</v>
-      </c>
-      <c r="B178" s="76" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A179" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="B179" s="76" t="s">
         <v>560</v>
-      </c>
-      <c r="B179" s="76" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="B180" s="76" t="s">
         <v>562</v>
-      </c>
-      <c r="B180" s="76" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="57" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B181" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="57" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B182" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A183" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="B183" s="80" t="s">
         <v>568</v>
       </c>
-      <c r="B183" s="80" t="s">
-        <v>569</v>
-      </c>
       <c r="C183" s="96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
       <c r="A184" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="B184" s="80" t="s">
         <v>570</v>
       </c>
-      <c r="B184" s="80" t="s">
-        <v>571</v>
-      </c>
       <c r="C184" s="96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A185" s="57" t="s">
+        <v>571</v>
+      </c>
+      <c r="B185" s="76" t="s">
         <v>572</v>
       </c>
-      <c r="B185" s="76" t="s">
-        <v>573</v>
-      </c>
       <c r="C185" s="95" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -11076,106 +11297,134 @@
       <c r="B186" s="76"/>
     </row>
     <row r="187" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A187" s="99" t="s">
-        <v>577</v>
-      </c>
-      <c r="B187" s="100"/>
+      <c r="A187" s="101" t="s">
+        <v>576</v>
+      </c>
+      <c r="B187" s="102"/>
       <c r="C187"/>
     </row>
     <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="B188" s="76" t="s">
         <v>578</v>
-      </c>
-      <c r="B188" s="76" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="57"/>
       <c r="B189" s="76" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="103" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="102" t="s">
-        <v>581</v>
-      </c>
-      <c r="B190" s="100"/>
+      <c r="B190" s="102"/>
     </row>
     <row r="191" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A191" s="57" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B191" s="76" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B192" s="76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A193" s="57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B193" s="97" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A194" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B194" s="97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A195" s="99" t="s">
-        <v>555</v>
+      <c r="A195" s="100" t="s">
+        <v>601</v>
       </c>
       <c r="B195" s="100"/>
       <c r="C195"/>
     </row>
-    <row r="196" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="57"/>
-      <c r="B196" s="76"/>
-    </row>
-    <row r="197" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="57"/>
-      <c r="B197" s="76"/>
-    </row>
-    <row r="198" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="57"/>
-      <c r="B198" s="76"/>
-    </row>
-    <row r="199" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="57"/>
-      <c r="B199" s="76"/>
-    </row>
-    <row r="200" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="57"/>
-      <c r="B200" s="76"/>
-    </row>
-    <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="57"/>
-      <c r="B201" s="76"/>
+    <row r="196" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="103" t="s">
+        <v>603</v>
+      </c>
+      <c r="B196" s="102"/>
+    </row>
+    <row r="197" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A197" s="57" t="s">
+        <v>604</v>
+      </c>
+      <c r="B197" s="120" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A198" s="57" t="s">
+        <v>606</v>
+      </c>
+      <c r="B198" s="120" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A199" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B199" s="120" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A200" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="B200" s="121" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="B201" s="120" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="202" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A202" s="57"/>
-      <c r="B202" s="76"/>
-    </row>
-    <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="57"/>
-      <c r="B203" s="76"/>
-    </row>
-    <row r="204" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="57"/>
-      <c r="B204" s="76"/>
+      <c r="B202" s="119"/>
+    </row>
+    <row r="203" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="103" t="s">
+        <v>614</v>
+      </c>
+      <c r="B203" s="102"/>
+    </row>
+    <row r="204" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A204" s="57" t="s">
+        <v>615</v>
+      </c>
+      <c r="B204" s="76" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="205" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A205" s="57"/>
@@ -11205,41 +11454,71 @@
       <c r="A211" s="57"/>
       <c r="B211" s="76"/>
     </row>
-    <row r="212" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="57"/>
-      <c r="B212" s="76"/>
-    </row>
-    <row r="213" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="57"/>
-      <c r="B213" s="76"/>
-    </row>
-    <row r="214" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="57"/>
-      <c r="B214" s="76"/>
-    </row>
-    <row r="215" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="57"/>
-      <c r="B215" s="76"/>
-    </row>
-    <row r="216" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="57"/>
-      <c r="B216" s="76"/>
-    </row>
-    <row r="217" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="57"/>
-      <c r="B217" s="76"/>
-    </row>
-    <row r="218" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="57"/>
-      <c r="B218" s="76"/>
-    </row>
-    <row r="219" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="57"/>
-      <c r="B219" s="76"/>
-    </row>
-    <row r="220" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="57"/>
-      <c r="B220" s="76"/>
+    <row r="212" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="103" t="s">
+        <v>617</v>
+      </c>
+      <c r="B212" s="102"/>
+    </row>
+    <row r="213" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A213" s="72" t="s">
+        <v>618</v>
+      </c>
+      <c r="B213" s="76" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A214" s="103" t="s">
+        <v>621</v>
+      </c>
+      <c r="B214" s="102"/>
+    </row>
+    <row r="215" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A215" s="57" t="s">
+        <v>622</v>
+      </c>
+      <c r="B215" s="76" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A216" s="57" t="s">
+        <v>625</v>
+      </c>
+      <c r="B216" s="76" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="103" t="s">
+        <v>620</v>
+      </c>
+      <c r="B217" s="102"/>
+    </row>
+    <row r="218" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A218" s="57" t="s">
+        <v>602</v>
+      </c>
+      <c r="B218" s="80" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A219" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="B219" s="76" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A220" s="57" t="s">
+        <v>627</v>
+      </c>
+      <c r="B220" s="76" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="221" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A221" s="57"/>
@@ -11249,14 +11528,337 @@
       <c r="A222" s="57"/>
       <c r="B222" s="76"/>
     </row>
+    <row r="223" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="57"/>
+      <c r="B223" s="76"/>
+    </row>
+    <row r="224" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="57"/>
+      <c r="B224" s="76"/>
+    </row>
+    <row r="225" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="57"/>
+      <c r="B225" s="76"/>
+    </row>
+    <row r="226" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="57"/>
+      <c r="B226" s="76"/>
+    </row>
+    <row r="227" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="57"/>
+      <c r="B227" s="76"/>
+    </row>
+    <row r="228" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="57"/>
+      <c r="B228" s="76"/>
+    </row>
+    <row r="229" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="57"/>
+      <c r="B229" s="76"/>
+    </row>
+    <row r="230" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="57"/>
+      <c r="B230" s="76"/>
+    </row>
+    <row r="231" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="57"/>
+      <c r="B231" s="76"/>
+    </row>
+    <row r="232" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="57"/>
+      <c r="B232" s="76"/>
+    </row>
+    <row r="233" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="57"/>
+      <c r="B233" s="76"/>
+    </row>
+    <row r="234" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="57"/>
+      <c r="B234" s="76"/>
+    </row>
+    <row r="235" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="57"/>
+      <c r="B235" s="76"/>
+    </row>
+    <row r="236" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="57"/>
+      <c r="B236" s="76"/>
+    </row>
+    <row r="237" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="57"/>
+      <c r="B237" s="76"/>
+    </row>
+    <row r="238" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="57"/>
+      <c r="B238" s="76"/>
+    </row>
+    <row r="239" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="57"/>
+      <c r="B239" s="76"/>
+    </row>
+    <row r="240" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="57"/>
+      <c r="B240" s="76"/>
+    </row>
+    <row r="241" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="57"/>
+      <c r="B241" s="76"/>
+    </row>
+    <row r="242" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="57"/>
+      <c r="B242" s="76"/>
+    </row>
+    <row r="243" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="57"/>
+      <c r="B243" s="76"/>
+    </row>
+    <row r="244" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="57"/>
+      <c r="B244" s="76"/>
+    </row>
+    <row r="245" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="57"/>
+      <c r="B245" s="76"/>
+    </row>
+    <row r="246" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="57"/>
+      <c r="B246" s="76"/>
+    </row>
+    <row r="247" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="57"/>
+      <c r="B247" s="76"/>
+    </row>
+    <row r="248" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="57"/>
+      <c r="B248" s="76"/>
+    </row>
+    <row r="249" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="57"/>
+      <c r="B249" s="76"/>
+    </row>
+    <row r="250" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="57"/>
+      <c r="B250" s="76"/>
+    </row>
+    <row r="251" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="57"/>
+      <c r="B251" s="76"/>
+    </row>
+    <row r="252" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="57"/>
+      <c r="B252" s="76"/>
+    </row>
+    <row r="253" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="57"/>
+      <c r="B253" s="76"/>
+    </row>
+    <row r="254" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="57"/>
+      <c r="B254" s="76"/>
+    </row>
+    <row r="255" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="57"/>
+      <c r="B255" s="76"/>
+    </row>
+    <row r="256" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="57"/>
+      <c r="B256" s="76"/>
+    </row>
+    <row r="257" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="57"/>
+      <c r="B257" s="76"/>
+    </row>
+    <row r="258" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="57"/>
+      <c r="B258" s="76"/>
+    </row>
+    <row r="259" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="57"/>
+      <c r="B259" s="76"/>
+    </row>
+    <row r="260" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="57"/>
+      <c r="B260" s="76"/>
+    </row>
+    <row r="261" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="57"/>
+      <c r="B261" s="76"/>
+    </row>
+    <row r="262" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="57"/>
+      <c r="B262" s="76"/>
+    </row>
+    <row r="263" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="57"/>
+      <c r="B263" s="76"/>
+    </row>
+    <row r="264" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="57"/>
+      <c r="B264" s="76"/>
+    </row>
+    <row r="265" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="57"/>
+      <c r="B265" s="76"/>
+    </row>
+    <row r="266" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="57"/>
+      <c r="B266" s="76"/>
+    </row>
+    <row r="267" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="57"/>
+      <c r="B267" s="76"/>
+    </row>
+    <row r="268" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="57"/>
+      <c r="B268" s="76"/>
+    </row>
+    <row r="269" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="57"/>
+      <c r="B269" s="76"/>
+    </row>
+    <row r="270" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="57"/>
+      <c r="B270" s="76"/>
+    </row>
+    <row r="271" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="57"/>
+      <c r="B271" s="76"/>
+    </row>
+    <row r="272" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="57"/>
+      <c r="B272" s="76"/>
+    </row>
+    <row r="273" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="57"/>
+      <c r="B273" s="76"/>
+    </row>
+    <row r="274" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="57"/>
+      <c r="B274" s="76"/>
+    </row>
+    <row r="275" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="57"/>
+      <c r="B275" s="76"/>
+    </row>
+    <row r="276" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="57"/>
+      <c r="B276" s="76"/>
+    </row>
+    <row r="277" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="57"/>
+      <c r="B277" s="76"/>
+    </row>
+    <row r="278" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="57"/>
+      <c r="B278" s="76"/>
+    </row>
+    <row r="279" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="57"/>
+      <c r="B279" s="76"/>
+    </row>
+    <row r="280" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="57"/>
+      <c r="B280" s="76"/>
+    </row>
+    <row r="281" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="57"/>
+      <c r="B281" s="76"/>
+    </row>
+    <row r="282" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="57"/>
+      <c r="B282" s="76"/>
+    </row>
+    <row r="283" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="57"/>
+      <c r="B283" s="76"/>
+    </row>
+    <row r="284" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="57"/>
+      <c r="B284" s="76"/>
+    </row>
+    <row r="285" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="57"/>
+      <c r="B285" s="76"/>
+    </row>
+    <row r="286" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="57"/>
+      <c r="B286" s="76"/>
+    </row>
+    <row r="287" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="57"/>
+      <c r="B287" s="76"/>
+    </row>
+    <row r="288" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="57"/>
+      <c r="B288" s="76"/>
+    </row>
+    <row r="289" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="57"/>
+      <c r="B289" s="76"/>
+    </row>
+    <row r="290" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="57"/>
+      <c r="B290" s="76"/>
+    </row>
+    <row r="291" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="57"/>
+      <c r="B291" s="76"/>
+    </row>
+    <row r="292" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="57"/>
+      <c r="B292" s="76"/>
+    </row>
+    <row r="293" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="57"/>
+      <c r="B293" s="76"/>
+    </row>
+    <row r="294" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="57"/>
+      <c r="B294" s="76"/>
+    </row>
+    <row r="295" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="57"/>
+      <c r="B295" s="76"/>
+    </row>
+    <row r="296" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="57"/>
+      <c r="B296" s="76"/>
+    </row>
+    <row r="297" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="57"/>
+      <c r="B297" s="76"/>
+    </row>
+    <row r="298" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="57"/>
+      <c r="B298" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A190:B190"/>
+  <mergeCells count="47">
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="A148:B148"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
@@ -11273,26 +11875,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A190:B190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11714,7 +12302,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -11734,7 +12322,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115"/>
+      <c r="A2" s="116"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -11802,10 +12390,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="117"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="635">
   <si>
     <t>Операция</t>
   </si>
@@ -5915,13 +5915,6 @@
     <t>Subqueries use a query’s result as data for another query</t>
   </si>
   <si>
-    <t>SELECT FROM Employees AS e
-WHERE e.DepartmentID IN
-(SELECT d.DepartmentID
-FROM Deparments AS d
-WHERE d.Name = 'Finance')</t>
-  </si>
-  <si>
     <t>Common Table Expressions (CTE)
 Reusable Subqueries</t>
   </si>
@@ -6000,12 +5993,33 @@
 Adding and deleting records in indexed tables is slower!
 Indices should be used for big tables only (e.g. 50 000 rows).</t>
   </si>
+  <si>
+    <t>Indices Syntax</t>
+  </si>
+  <si>
+    <t>CREATE NONCLUSTERED INDEX
+IX_Employees_FirstName_LastName
+ON Employees(FirstName, LastName)</t>
+  </si>
+  <si>
+    <t>CONVERT(smalldatetime, '13.08.2002', 103)</t>
+  </si>
+  <si>
+    <t>Convert Data - Конвертиране на дата</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Employees AS e
+WHERE e.DepartmentID IN
+(SELECT d.DepartmentID
+FROM Departments AS d
+WHERE d.Name = 'Finance')</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6406,8 +6420,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6432,6 +6454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -6754,7 +6782,7 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7094,6 +7122,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9825,10 +9856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10297,764 +10328,767 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="122" t="s">
+        <v>633</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B64" s="62" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+    <row r="65" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B65" s="62" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="57" t="s">
+    <row r="66" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="57" t="s">
         <v>600</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B66" s="62" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="57" t="s">
+    <row r="67" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="57" t="s">
         <v>549</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B67" s="62" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="57" t="s">
+    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B68" s="62" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="108" t="s">
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="108" t="s">
         <v>290</v>
       </c>
-      <c r="B68" s="62" t="s">
+      <c r="B69" s="62" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
-      <c r="B69" s="62" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="109"/>
       <c r="B70" s="62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="109"/>
       <c r="B71" s="62" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="109"/>
       <c r="B72" s="62" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="109"/>
+      <c r="B73" s="62" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
-      <c r="B73" s="62" t="s">
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="110"/>
+      <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="108" t="s">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B75" s="62" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="109"/>
-      <c r="B75" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="C75" s="67"/>
-    </row>
-    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="109"/>
       <c r="B76" s="62" t="s">
-        <v>298</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="109"/>
       <c r="B77" s="62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="109"/>
+      <c r="B78" s="62" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
-      <c r="B78" s="81" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="109"/>
       <c r="B79" s="81" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="109"/>
       <c r="B80" s="81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A81" s="109"/>
       <c r="B81" s="81" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A82" s="109"/>
       <c r="B82" s="81" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A83" s="109"/>
       <c r="B83" s="81" t="s">
-        <v>332</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="109"/>
       <c r="B84" s="81" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="109"/>
+      <c r="B85" s="81" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
-      <c r="B85" s="81" t="s">
+    <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="110"/>
+      <c r="B86" s="81" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="108" t="s">
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="108" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="82" t="s">
+      <c r="B87" s="82" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="109"/>
-      <c r="B87" s="83" t="s">
-        <v>307</v>
-      </c>
-      <c r="C87"/>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="109"/>
       <c r="B88" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="109"/>
+      <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="110"/>
-      <c r="B89" s="82" t="s">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="110"/>
+      <c r="B90" s="82" t="s">
         <v>547</v>
       </c>
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="108" t="s">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="108" t="s">
         <v>309</v>
       </c>
-      <c r="B90" s="84" t="s">
+      <c r="B91" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="110"/>
-      <c r="B91" s="84" t="s">
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="110"/>
+      <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="69" t="s">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="69" t="s">
         <v>335</v>
       </c>
-      <c r="B92" s="83" t="s">
+      <c r="B93" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="65" t="s">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="B93" s="84" t="s">
+      <c r="B94" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="61" t="s">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="B94" s="85" t="s">
+      <c r="B95" s="85" t="s">
         <v>328</v>
       </c>
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="71" t="s">
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="B95" s="84" t="s">
+      <c r="B96" s="84" t="s">
         <v>533</v>
       </c>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="91" t="s">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="B96" s="81" t="s">
+      <c r="B97" s="81" t="s">
         <v>532</v>
       </c>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="73" t="s">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="B97" s="81" t="s">
+      <c r="B98" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="100" t="s">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="B98" s="100"/>
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A99" s="101" t="s">
+      <c r="B99" s="100"/>
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A100" s="101" t="s">
         <v>389</v>
       </c>
-      <c r="B99" s="102"/>
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="70" t="s">
+      <c r="B100" s="102"/>
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="70" t="s">
         <v>390</v>
       </c>
-      <c r="B100" s="60" t="s">
+      <c r="B101" s="60" t="s">
         <v>391</v>
-      </c>
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="70" t="s">
-        <v>392</v>
-      </c>
-      <c r="B101" s="76" t="s">
-        <v>393</v>
       </c>
       <c r="C101"/>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="B102" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="B102" s="76" t="s">
+      <c r="B103" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="C102"/>
-    </row>
-    <row r="103" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A103" s="101" t="s">
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A104" s="101" t="s">
         <v>396</v>
       </c>
-      <c r="B103" s="102"/>
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
+      <c r="B104" s="102"/>
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
         <v>398</v>
       </c>
-      <c r="B104" s="80" t="s">
+      <c r="B105" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B106" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A106" s="72" t="s">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="B106" s="80" t="s">
+      <c r="B107" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="B107" s="80" t="s">
+      <c r="B108" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="57" t="s">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="B108" s="80" t="s">
+      <c r="B109" s="80" t="s">
         <v>406</v>
-      </c>
-      <c r="C108"/>
-    </row>
-    <row r="109" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="B109" s="79" t="s">
-        <v>408</v>
       </c>
       <c r="C109"/>
     </row>
     <row r="110" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="B110" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="B110" s="79" t="s">
+      <c r="B111" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="C110"/>
-    </row>
-    <row r="111" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A111" s="57" t="s">
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A112" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B111" s="86" t="s">
+      <c r="B112" s="86" t="s">
         <v>412</v>
       </c>
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="57" t="s">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="B112" s="80" t="s">
+      <c r="B113" s="80" t="s">
         <v>413</v>
-      </c>
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="B113" s="79" t="s">
-        <v>414</v>
       </c>
       <c r="C113"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A114" s="57" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C114"/>
     </row>
     <row r="115" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A115" s="57" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C115"/>
     </row>
     <row r="116" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A116" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B116" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="57" t="s">
         <v>418</v>
       </c>
-      <c r="B116" s="79" t="s">
+      <c r="B117" s="79" t="s">
         <v>422</v>
       </c>
-      <c r="C116"/>
-    </row>
-    <row r="117" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="57" t="s">
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A118" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="B117" s="79" t="s">
+      <c r="B118" s="79" t="s">
         <v>424</v>
       </c>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="72" t="s">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="B118" s="80" t="s">
+      <c r="B119" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="C118"/>
-    </row>
-    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="93" t="s">
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="93" t="s">
         <v>536</v>
       </c>
-      <c r="B119" s="92" t="s">
+      <c r="B120" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A120" s="101" t="s">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A121" s="101" t="s">
         <v>427</v>
       </c>
-      <c r="B120" s="102"/>
-      <c r="C120"/>
-    </row>
-    <row r="121" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="57" t="s">
-        <v>432</v>
-      </c>
-      <c r="B121" s="79" t="s">
-        <v>431</v>
-      </c>
+      <c r="B121" s="102"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A122" s="57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C122"/>
     </row>
     <row r="123" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A123" s="57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B123" s="79" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C123"/>
     </row>
     <row r="124" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A124" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="B124" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="79" t="s">
+      <c r="B125" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="C124"/>
-    </row>
-    <row r="125" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="70" t="s">
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="B125" s="79" t="s">
+      <c r="B126" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A126" s="57" t="s">
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A127" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="B126" s="79" t="s">
+      <c r="B127" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="C126"/>
-    </row>
-    <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="70" t="s">
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="70" t="s">
         <v>440</v>
       </c>
-      <c r="B127" s="80" t="s">
+      <c r="B128" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="57" t="s">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="57" t="s">
         <v>442</v>
       </c>
-      <c r="B128" s="79" t="s">
+      <c r="B129" s="79" t="s">
         <v>443</v>
       </c>
-      <c r="C128"/>
-    </row>
-    <row r="129" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="57" t="s">
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="B129" s="80" t="s">
+      <c r="B130" s="80" t="s">
         <v>445</v>
       </c>
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A130" s="101" t="s">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A131" s="101" t="s">
         <v>499</v>
       </c>
-      <c r="B130" s="102"/>
-      <c r="C130"/>
-    </row>
-    <row r="131" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A131" s="57" t="s">
+      <c r="B131" s="102"/>
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A132" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="B131" s="80" t="s">
+      <c r="B132" s="80" t="s">
         <v>498</v>
       </c>
-      <c r="C131"/>
-    </row>
-    <row r="132" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="57" t="s">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="B132" s="80" t="s">
+      <c r="B133" s="80" t="s">
         <v>448</v>
-      </c>
-      <c r="C132"/>
-    </row>
-    <row r="133" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="B133" s="79" t="s">
-        <v>450</v>
       </c>
       <c r="C133"/>
     </row>
     <row r="134" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A134" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="B134" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="B134" s="79" t="s">
+      <c r="B135" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="70" t="s">
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B135" s="79" t="s">
+      <c r="B136" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="77" t="s">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A137" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="B136" s="80" t="s">
+      <c r="B137" s="80" t="s">
         <v>455</v>
       </c>
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="1:3" ht="63.75" x14ac:dyDescent="0.3">
-      <c r="A137" s="78" t="s">
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3" ht="63.75" x14ac:dyDescent="0.3">
+      <c r="A138" s="78" t="s">
         <v>457</v>
       </c>
-      <c r="B137" s="98" t="s">
+      <c r="B138" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="78" t="s">
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A139" s="78" t="s">
         <v>459</v>
       </c>
-      <c r="B138" s="98" t="s">
+      <c r="B139" s="98" t="s">
         <v>552</v>
-      </c>
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="78" t="s">
-        <v>460</v>
-      </c>
-      <c r="B139" s="98" t="s">
-        <v>551</v>
       </c>
       <c r="C139"/>
     </row>
     <row r="140" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
       <c r="A140" s="78" t="s">
+        <v>460</v>
+      </c>
+      <c r="B140" s="98" t="s">
+        <v>551</v>
+      </c>
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" ht="127.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="B140" s="98" t="s">
+      <c r="B141" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="C140"/>
-    </row>
-    <row r="141" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="103" t="s">
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="B141" s="102"/>
-      <c r="C141"/>
-    </row>
-    <row r="142" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A142" s="78" t="s">
+      <c r="B142" s="102"/>
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A143" s="78" t="s">
         <v>464</v>
       </c>
-      <c r="B142" s="80" t="s">
+      <c r="B143" s="80" t="s">
         <v>463</v>
       </c>
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A143" s="70" t="s">
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="B143" s="86" t="s">
+      <c r="B144" s="86" t="s">
         <v>468</v>
       </c>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A144" s="78" t="s">
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A145" s="78" t="s">
         <v>466</v>
       </c>
-      <c r="B144" s="80" t="s">
+      <c r="B145" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="103" t="s">
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="103" t="s">
         <v>470</v>
       </c>
-      <c r="B145" s="102"/>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A146" s="70" t="s">
+      <c r="B146" s="102"/>
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A147" s="70" t="s">
         <v>469</v>
       </c>
-      <c r="B146" s="87" t="s">
+      <c r="B147" s="87" t="s">
         <v>471</v>
       </c>
-      <c r="C146"/>
-    </row>
-    <row r="147" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A147" s="57" t="s">
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A148" s="57" t="s">
         <v>540</v>
       </c>
-      <c r="B147" s="87" t="s">
+      <c r="B148" s="87" t="s">
         <v>541</v>
       </c>
-      <c r="C147"/>
-    </row>
-    <row r="148" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="103" t="s">
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="B148" s="102"/>
-      <c r="C148"/>
-    </row>
-    <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A149" s="57" t="s">
-        <v>543</v>
-      </c>
-      <c r="B149" s="80" t="s">
-        <v>546</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>596</v>
-      </c>
+      <c r="B149" s="102"/>
+      <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="57" t="s">
-        <v>544</v>
-      </c>
-      <c r="B150" s="76" t="s">
-        <v>545</v>
-      </c>
-      <c r="C150"/>
+        <v>543</v>
+      </c>
+      <c r="B150" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="151" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="57" t="s">
+        <v>544</v>
+      </c>
+      <c r="B151" s="76" t="s">
+        <v>545</v>
+      </c>
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A152" s="57" t="s">
         <v>598</v>
       </c>
-      <c r="B151" s="99" t="s">
+      <c r="B152" s="99" t="s">
         <v>597</v>
       </c>
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="100" t="s">
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="100" t="s">
         <v>472</v>
       </c>
-      <c r="B152" s="100"/>
-      <c r="C152"/>
-    </row>
-    <row r="153" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A153" s="101" t="s">
+      <c r="B153" s="100"/>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A154" s="101" t="s">
         <v>475</v>
       </c>
-      <c r="B153" s="102"/>
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A154" s="57" t="s">
+      <c r="B154" s="102"/>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A155" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="B154" s="76" t="s">
+      <c r="B155" s="76" t="s">
         <v>538</v>
       </c>
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
-      <c r="A155" s="57" t="s">
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="A156" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="B155" s="80" t="s">
+      <c r="B156" s="80" t="s">
         <v>531</v>
       </c>
-      <c r="C155"/>
-    </row>
-    <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="57"/>
-      <c r="B156" s="80"/>
       <c r="C156"/>
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -11063,372 +11097,373 @@
       <c r="C157"/>
     </row>
     <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="70"/>
+      <c r="A158" s="57"/>
+      <c r="B158" s="80"/>
       <c r="C158"/>
     </row>
-    <row r="159" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="103" t="s">
+    <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="70"/>
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="103" t="s">
         <v>478</v>
       </c>
-      <c r="B159" s="114"/>
-      <c r="C159"/>
-    </row>
-    <row r="160" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="57" t="s">
+      <c r="B160" s="114"/>
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A161" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="B160" s="76" t="s">
+      <c r="B161" s="76" t="s">
         <v>476</v>
-      </c>
-      <c r="C160"/>
-    </row>
-    <row r="161" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A161" s="57" t="s">
-        <v>483</v>
-      </c>
-      <c r="B161" s="76" t="s">
-        <v>479</v>
       </c>
       <c r="C161"/>
     </row>
     <row r="162" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="57" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B162" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C162"/>
     </row>
     <row r="163" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B163" s="76" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C163"/>
     </row>
     <row r="164" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="B164" s="76" t="s">
+        <v>476</v>
+      </c>
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="57" t="s">
         <v>484</v>
       </c>
-      <c r="B164" s="76" t="s">
+      <c r="B165" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="C164"/>
-    </row>
-    <row r="165" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A165" s="57" t="s">
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A166" s="57" t="s">
         <v>486</v>
       </c>
-      <c r="B165" s="76" t="s">
+      <c r="B166" s="76" t="s">
         <v>487</v>
       </c>
-      <c r="C165"/>
-    </row>
-    <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="57" t="s">
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="B166" s="88" t="s">
+      <c r="B167" s="88" t="s">
         <v>497</v>
       </c>
-      <c r="C166"/>
-    </row>
-    <row r="167" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A167" s="101" t="s">
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A168" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="B167" s="102"/>
-      <c r="C167"/>
-    </row>
-    <row r="168" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="57" t="s">
+      <c r="B168" s="102"/>
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="B168" s="76" t="s">
+      <c r="B169" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="C168"/>
-    </row>
-    <row r="169" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A169" s="57" t="s">
+      <c r="C169"/>
+    </row>
+    <row r="170" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A170" s="57" t="s">
         <v>491</v>
       </c>
-      <c r="B169" s="76" t="s">
+      <c r="B170" s="76" t="s">
         <v>490</v>
       </c>
-      <c r="C169"/>
-    </row>
-    <row r="170" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A170" s="101" t="s">
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A171" s="101" t="s">
         <v>474</v>
       </c>
-      <c r="B170" s="102"/>
-      <c r="C170"/>
-    </row>
-    <row r="171" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A171" s="57" t="s">
+      <c r="B171" s="102"/>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A172" s="57" t="s">
         <v>492</v>
       </c>
-      <c r="B171" s="76" t="s">
+      <c r="B172" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="C171"/>
-    </row>
-    <row r="172" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A172" s="57" t="s">
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A173" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="B172" s="76" t="s">
+      <c r="B173" s="76" t="s">
         <v>495</v>
       </c>
-      <c r="C172"/>
-    </row>
-    <row r="173" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="100" t="s">
+      <c r="C173"/>
+    </row>
+    <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="100" t="s">
         <v>553</v>
       </c>
-      <c r="B173" s="100"/>
-      <c r="C173"/>
-    </row>
-    <row r="174" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A174" s="101" t="s">
+      <c r="B174" s="100"/>
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A175" s="101" t="s">
         <v>554</v>
       </c>
-      <c r="B174" s="102"/>
-      <c r="C174"/>
-    </row>
-    <row r="175" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A175" s="57" t="s">
+      <c r="B175" s="102"/>
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A176" s="57" t="s">
         <v>555</v>
       </c>
-      <c r="B175" s="76" t="s">
+      <c r="B176" s="76" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="57"/>
-      <c r="B176" s="76"/>
-    </row>
-    <row r="177" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A177" s="101" t="s">
+    <row r="177" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="57"/>
+      <c r="B177" s="76"/>
+    </row>
+    <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A178" s="101" t="s">
         <v>553</v>
       </c>
-      <c r="B177" s="102"/>
-      <c r="C177"/>
-    </row>
-    <row r="178" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A178" s="57" t="s">
+      <c r="B178" s="102"/>
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A179" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="B178" s="76" t="s">
+      <c r="B179" s="76" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A179" s="57" t="s">
+    <row r="180" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A180" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="B179" s="76" t="s">
+      <c r="B180" s="76" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A180" s="57" t="s">
-        <v>561</v>
-      </c>
-      <c r="B180" s="76" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="B181" s="76" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="57" t="s">
         <v>564</v>
       </c>
-      <c r="B181" s="76" t="s">
+      <c r="B182" s="76" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="57" t="s">
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="57" t="s">
         <v>566</v>
       </c>
-      <c r="B182" s="76" t="s">
+      <c r="B183" s="76" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="57" t="s">
+    <row r="184" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="57" t="s">
         <v>567</v>
       </c>
-      <c r="B183" s="80" t="s">
+      <c r="B184" s="80" t="s">
         <v>568</v>
       </c>
-      <c r="C183" s="96" t="s">
+      <c r="C184" s="96" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="57" t="s">
+    <row r="185" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="57" t="s">
         <v>569</v>
       </c>
-      <c r="B184" s="80" t="s">
+      <c r="B185" s="80" t="s">
         <v>570</v>
       </c>
-      <c r="C184" s="96" t="s">
+      <c r="C185" s="96" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A185" s="57" t="s">
+    <row r="186" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A186" s="57" t="s">
         <v>571</v>
       </c>
-      <c r="B185" s="76" t="s">
+      <c r="B186" s="76" t="s">
         <v>572</v>
       </c>
-      <c r="C185" s="95" t="s">
+      <c r="C186" s="95" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="57"/>
-      <c r="B186" s="76"/>
-    </row>
-    <row r="187" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A187" s="101" t="s">
+    <row r="187" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="57"/>
+      <c r="B187" s="76"/>
+    </row>
+    <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A188" s="101" t="s">
         <v>576</v>
       </c>
-      <c r="B187" s="102"/>
-      <c r="C187"/>
-    </row>
-    <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="57" t="s">
+      <c r="B188" s="102"/>
+      <c r="C188"/>
+    </row>
+    <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A189" s="57" t="s">
         <v>577</v>
       </c>
-      <c r="B188" s="76" t="s">
+      <c r="B189" s="76" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A189" s="57"/>
-      <c r="B189" s="76" t="s">
+    <row r="190" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A190" s="57"/>
+      <c r="B190" s="76" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="103" t="s">
+    <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="103" t="s">
         <v>580</v>
       </c>
-      <c r="B190" s="102"/>
-    </row>
-    <row r="191" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A191" s="57" t="s">
-        <v>581</v>
-      </c>
-      <c r="B191" s="76" t="s">
-        <v>588</v>
-      </c>
+      <c r="B191" s="102"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
+        <v>581</v>
+      </c>
+      <c r="B192" s="76" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A193" s="57" t="s">
         <v>583</v>
       </c>
-      <c r="B192" s="76" t="s">
+      <c r="B193" s="76" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="57" t="s">
-        <v>587</v>
-      </c>
-      <c r="B193" s="97" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A194" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="B194" s="97" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="57" t="s">
         <v>585</v>
       </c>
-      <c r="B194" s="97" t="s">
+      <c r="B195" s="97" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A195" s="100" t="s">
+    <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A196" s="100" t="s">
         <v>601</v>
       </c>
-      <c r="B195" s="100"/>
-      <c r="C195"/>
-    </row>
-    <row r="196" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="103" t="s">
+      <c r="B196" s="100"/>
+      <c r="C196"/>
+    </row>
+    <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="103" t="s">
         <v>603</v>
       </c>
-      <c r="B196" s="102"/>
-    </row>
-    <row r="197" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="57" t="s">
+      <c r="B197" s="102"/>
+    </row>
+    <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="57" t="s">
         <v>604</v>
       </c>
-      <c r="B197" s="120" t="s">
+      <c r="B198" s="120" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A198" s="57" t="s">
+    <row r="199" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A199" s="57" t="s">
         <v>606</v>
       </c>
-      <c r="B198" s="120" t="s">
+      <c r="B199" s="120" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A199" s="57" t="s">
+    <row r="200" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A200" s="57" t="s">
         <v>607</v>
       </c>
-      <c r="B199" s="120" t="s">
+      <c r="B200" s="120" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A200" s="57" t="s">
+    <row r="201" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A201" s="57" t="s">
         <v>611</v>
       </c>
-      <c r="B200" s="121" t="s">
+      <c r="B201" s="121" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="57" t="s">
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="B201" s="120" t="s">
+      <c r="B202" s="120" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="57"/>
-      <c r="B202" s="119"/>
-    </row>
-    <row r="203" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="103" t="s">
+    <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="57"/>
+      <c r="B203" s="119"/>
+    </row>
+    <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="103" t="s">
         <v>614</v>
       </c>
-      <c r="B203" s="102"/>
-    </row>
-    <row r="204" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A204" s="57" t="s">
+      <c r="B204" s="102"/>
+    </row>
+    <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A205" s="57" t="s">
         <v>615</v>
       </c>
-      <c r="B204" s="76" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="57"/>
-      <c r="B205" s="76"/>
+      <c r="B205" s="76" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A206" s="57"/>
@@ -11454,79 +11489,83 @@
       <c r="A211" s="57"/>
       <c r="B211" s="76"/>
     </row>
-    <row r="212" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="103" t="s">
+    <row r="212" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="57"/>
+      <c r="B212" s="76"/>
+    </row>
+    <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="103" t="s">
+        <v>616</v>
+      </c>
+      <c r="B213" s="102"/>
+    </row>
+    <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A214" s="72" t="s">
         <v>617</v>
       </c>
-      <c r="B212" s="102"/>
-    </row>
-    <row r="213" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A213" s="72" t="s">
+      <c r="B214" s="76" t="s">
         <v>618</v>
       </c>
-      <c r="B213" s="76" t="s">
+    </row>
+    <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A215" s="103" t="s">
+        <v>620</v>
+      </c>
+      <c r="B215" s="102"/>
+    </row>
+    <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216" s="57" t="s">
+        <v>621</v>
+      </c>
+      <c r="B216" s="76" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A217" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="B217" s="76" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="103" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A214" s="103" t="s">
-        <v>621</v>
-      </c>
-      <c r="B214" s="102"/>
-    </row>
-    <row r="215" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A215" s="57" t="s">
-        <v>622</v>
-      </c>
-      <c r="B215" s="76" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A216" s="57" t="s">
+      <c r="B218" s="102"/>
+    </row>
+    <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A219" s="57" t="s">
+        <v>602</v>
+      </c>
+      <c r="B219" s="80" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A220" s="57" t="s">
         <v>625</v>
-      </c>
-      <c r="B216" s="76" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="103" t="s">
-        <v>620</v>
-      </c>
-      <c r="B217" s="102"/>
-    </row>
-    <row r="218" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A218" s="57" t="s">
-        <v>602</v>
-      </c>
-      <c r="B218" s="80" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A219" s="57" t="s">
-        <v>626</v>
-      </c>
-      <c r="B219" s="76" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A220" s="57" t="s">
-        <v>627</v>
       </c>
       <c r="B220" s="76" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="57"/>
-      <c r="B221" s="76"/>
-    </row>
-    <row r="222" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="57"/>
-      <c r="B222" s="76"/>
+    <row r="221" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A221" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="B221" s="76" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="57" t="s">
+        <v>630</v>
+      </c>
+      <c r="B222" s="76" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="223" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A223" s="57"/>
@@ -11832,34 +11871,38 @@
       <c r="A298" s="57"/>
       <c r="B298" s="76"/>
     </row>
+    <row r="299" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="57"/>
+      <c r="B299" s="76"/>
+    </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A154:B154"/>
     <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A142:B142"/>
     <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A131:B131"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A91:A92"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A2:B2"/>
@@ -11874,13 +11917,13 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A146:B146"/>
     <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A191:B191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -6019,12 +6019,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6776,42 +6784,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6826,91 +6834,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6925,73 +6933,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7000,119 +7008,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7120,10 +7071,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9859,7 +9867,7 @@
   <dimension ref="A1:C299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9878,16 +9886,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="105"/>
+      <c r="B2" s="116"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="118" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="106"/>
+      <c r="B3" s="117"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -9914,10 +9922,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="117" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="115"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -9944,10 +9952,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="117" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="115"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -9958,10 +9966,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="117" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="106"/>
+      <c r="B13" s="117"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -10020,10 +10028,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="117" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="106"/>
+      <c r="B21" s="117"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -10034,10 +10042,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="106"/>
+      <c r="B23" s="117"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -10048,10 +10056,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="106"/>
+      <c r="B25" s="117"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -10069,7 +10077,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>349</v>
       </c>
@@ -10078,10 +10086,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="106"/>
+      <c r="B29" s="117"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -10108,10 +10116,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="115"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -10138,10 +10146,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="117" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="106"/>
+      <c r="B37" s="117"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10168,10 +10176,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="115" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="104"/>
+      <c r="B41" s="115"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
@@ -10190,10 +10198,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="117" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="104"/>
+      <c r="B44" s="115"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -10220,19 +10228,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="107" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="100"/>
+      <c r="B48" s="107"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="102"/>
+      <c r="B49" s="105"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="112" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -10240,7 +10248,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="62" t="s">
         <v>592</v>
       </c>
@@ -10249,13 +10257,13 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="113"/>
+      <c r="A52" s="114"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="111" t="s">
+      <c r="A53" s="112" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -10263,25 +10271,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="112"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="113"/>
+      <c r="A56" s="114"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="111" t="s">
+      <c r="A57" s="112" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -10289,13 +10297,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="113"/>
+      <c r="A58" s="114"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="112" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -10306,7 +10314,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="112"/>
+      <c r="A60" s="113"/>
       <c r="B60" s="62" t="s">
         <v>528</v>
       </c>
@@ -10315,20 +10323,20 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="112"/>
+      <c r="A61" s="113"/>
       <c r="B61" s="62" t="s">
         <v>589</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="113"/>
+      <c r="A62" s="114"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="122" t="s">
+      <c r="A63" s="103" t="s">
         <v>633</v>
       </c>
       <c r="B63" s="62" t="s">
@@ -10376,7 +10384,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="109" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -10384,37 +10392,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
+      <c r="A70" s="110"/>
       <c r="B70" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="109"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="109"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="62" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="109" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="62" t="s">
@@ -10422,74 +10430,74 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="109"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
+      <c r="A77" s="110"/>
       <c r="B77" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="109"/>
+      <c r="A80" s="110"/>
       <c r="B80" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="109"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="109"/>
+      <c r="A82" s="110"/>
       <c r="B82" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="109"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="81" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="109"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="109"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="81" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="110"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="81" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="108" t="s">
+      <c r="A87" s="109" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="82" t="s">
@@ -10497,28 +10505,28 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="109"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="109"/>
+      <c r="A89" s="110"/>
       <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="110"/>
+      <c r="A90" s="111"/>
       <c r="B90" s="82" t="s">
         <v>547</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="109" t="s">
         <v>309</v>
       </c>
       <c r="B91" s="84" t="s">
@@ -10527,7 +10535,7 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="110"/>
+      <c r="A92" s="111"/>
       <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
@@ -10551,7 +10559,7 @@
       </c>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>385</v>
       </c>
@@ -10588,17 +10596,17 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="100" t="s">
+      <c r="A99" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="B99" s="100"/>
+      <c r="B99" s="107"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A100" s="101" t="s">
+      <c r="A100" s="106" t="s">
         <v>389</v>
       </c>
-      <c r="B100" s="102"/>
+      <c r="B100" s="105"/>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -10629,10 +10637,10 @@
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="101" t="s">
+      <c r="A104" s="106" t="s">
         <v>396</v>
       </c>
-      <c r="B104" s="102"/>
+      <c r="B104" s="105"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -10780,10 +10788,10 @@
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="101" t="s">
+      <c r="A121" s="106" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="102"/>
+      <c r="B121" s="105"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -10868,10 +10876,10 @@
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A131" s="101" t="s">
+      <c r="A131" s="106" t="s">
         <v>499</v>
       </c>
-      <c r="B131" s="102"/>
+      <c r="B131" s="105"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -10919,7 +10927,7 @@
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" ht="119.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="103.5" x14ac:dyDescent="0.25">
       <c r="A137" s="77" t="s">
         <v>456</v>
       </c>
@@ -10965,10 +10973,10 @@
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="103" t="s">
+      <c r="A142" s="104" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="102"/>
+      <c r="B142" s="105"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -10999,10 +11007,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="103" t="s">
+      <c r="A146" s="104" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="102"/>
+      <c r="B146" s="105"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11024,10 +11032,10 @@
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="103" t="s">
+      <c r="A149" s="104" t="s">
         <v>542</v>
       </c>
-      <c r="B149" s="102"/>
+      <c r="B149" s="105"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -11060,17 +11068,17 @@
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="100" t="s">
+      <c r="A153" s="107" t="s">
         <v>472</v>
       </c>
-      <c r="B153" s="100"/>
+      <c r="B153" s="107"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="101" t="s">
+      <c r="A154" s="106" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="102"/>
+      <c r="B154" s="105"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11106,10 +11114,10 @@
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="103" t="s">
+      <c r="A160" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="114"/>
+      <c r="B160" s="108"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -11176,10 +11184,10 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="101" t="s">
+      <c r="A168" s="106" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="102"/>
+      <c r="B168" s="105"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -11201,10 +11209,10 @@
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="101" t="s">
+      <c r="A171" s="106" t="s">
         <v>474</v>
       </c>
-      <c r="B171" s="102"/>
+      <c r="B171" s="105"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -11226,17 +11234,17 @@
       <c r="C173"/>
     </row>
     <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="100" t="s">
+      <c r="A174" s="107" t="s">
         <v>553</v>
       </c>
-      <c r="B174" s="100"/>
+      <c r="B174" s="107"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="101" t="s">
+      <c r="A175" s="106" t="s">
         <v>554</v>
       </c>
-      <c r="B175" s="102"/>
+      <c r="B175" s="105"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11252,10 +11260,10 @@
       <c r="B177" s="76"/>
     </row>
     <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="101" t="s">
+      <c r="A178" s="106" t="s">
         <v>553</v>
       </c>
-      <c r="B178" s="102"/>
+      <c r="B178" s="105"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11336,10 +11344,10 @@
       <c r="B187" s="76"/>
     </row>
     <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="101" t="s">
+      <c r="A188" s="106" t="s">
         <v>576</v>
       </c>
-      <c r="B188" s="102"/>
+      <c r="B188" s="105"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11357,10 +11365,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="103" t="s">
+      <c r="A191" s="104" t="s">
         <v>580</v>
       </c>
-      <c r="B191" s="102"/>
+      <c r="B191" s="105"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
@@ -11395,23 +11403,23 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A196" s="100" t="s">
+      <c r="A196" s="107" t="s">
         <v>601</v>
       </c>
-      <c r="B196" s="100"/>
+      <c r="B196" s="107"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="103" t="s">
+      <c r="A197" s="104" t="s">
         <v>603</v>
       </c>
-      <c r="B197" s="102"/>
+      <c r="B197" s="105"/>
     </row>
     <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
         <v>604</v>
       </c>
-      <c r="B198" s="120" t="s">
+      <c r="B198" s="101" t="s">
         <v>605</v>
       </c>
     </row>
@@ -11419,7 +11427,7 @@
       <c r="A199" s="57" t="s">
         <v>606</v>
       </c>
-      <c r="B199" s="120" t="s">
+      <c r="B199" s="101" t="s">
         <v>608</v>
       </c>
     </row>
@@ -11427,7 +11435,7 @@
       <c r="A200" s="57" t="s">
         <v>607</v>
       </c>
-      <c r="B200" s="120" t="s">
+      <c r="B200" s="101" t="s">
         <v>609</v>
       </c>
     </row>
@@ -11435,7 +11443,7 @@
       <c r="A201" s="57" t="s">
         <v>611</v>
       </c>
-      <c r="B201" s="121" t="s">
+      <c r="B201" s="102" t="s">
         <v>610</v>
       </c>
     </row>
@@ -11443,19 +11451,19 @@
       <c r="A202" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="B202" s="120" t="s">
+      <c r="B202" s="101" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="57"/>
-      <c r="B203" s="119"/>
+      <c r="B203" s="100"/>
     </row>
     <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="103" t="s">
+      <c r="A204" s="104" t="s">
         <v>614</v>
       </c>
-      <c r="B204" s="102"/>
+      <c r="B204" s="105"/>
     </row>
     <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
@@ -11494,10 +11502,10 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="103" t="s">
+      <c r="A213" s="104" t="s">
         <v>616</v>
       </c>
-      <c r="B213" s="102"/>
+      <c r="B213" s="105"/>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
@@ -11508,10 +11516,10 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="103" t="s">
+      <c r="A215" s="104" t="s">
         <v>620</v>
       </c>
-      <c r="B215" s="102"/>
+      <c r="B215" s="105"/>
     </row>
     <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
@@ -11530,10 +11538,10 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="103" t="s">
+      <c r="A218" s="104" t="s">
         <v>619</v>
       </c>
-      <c r="B218" s="102"/>
+      <c r="B218" s="105"/>
     </row>
     <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="57" t="s">
@@ -11877,31 +11885,12 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A191:B191"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
@@ -11918,12 +11907,31 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A215:B215"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12345,7 +12353,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="119" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -12365,7 +12373,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="116"/>
+      <c r="A2" s="120"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -12433,10 +12441,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="118"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="701">
   <si>
     <t>Операция</t>
   </si>
@@ -6014,12 +6014,445 @@
 FROM Departments AS d
 WHERE d.Name = 'Finance')</t>
   </si>
+  <si>
+    <t>Functions and Stored Procedures</t>
+  </si>
+  <si>
+    <t>User-Defined Functions
+Definition, Usage, Syntax</t>
+  </si>
+  <si>
+    <r>
+      <t>Functions -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>At its core, a function receives an input and produces an output</t>
+    </r>
+  </si>
+  <si>
+    <t>Functions: Limitations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User-defined functions cannot be used to perform actions that modify the database state
+User-defined functions cannot return multiple result sets Use a stored procedure if you need to return multiple result sets
+Error handling is restricted in a user-defined function
+UDF does not support </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRY...CATCH, @ERROR or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RAISERROR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User-defined functions cannot call a stored procedure, but can call an extended stored procedure
+User-defined functions cannot make use of dynamic SQL or temp tables. Table variables are allowed
+User-defined functions can be nested up to 32 levels
+The nesting level is incremented when the called function starts execution, and decremented when
+the called function finishes execution
+Exceeding the maximum levels of nesting causes the whole calling function chain to fail</t>
+    </r>
+  </si>
+  <si>
+    <t>Types of User-Defined Functions</t>
+  </si>
+  <si>
+    <t>Similar to the built-in functions
+Returns a single value</t>
+  </si>
+  <si>
+    <t>Table-valued functions</t>
+  </si>
+  <si>
+    <t>Similar to a view with parameters
+Returns a table as a result of a single SELECT statement
+inline table-valued function (TVF)
+multi-statement table-valued function (MSTVF)</t>
+  </si>
+  <si>
+    <t>Create Functions (scalar)</t>
+  </si>
+  <si>
+    <t>CREATE FUNCTION udf_ProjectDurationWeeks (@StartDate DATETIME, @EndDate DATETIME)
+RETURNS INT
+AS
+BEGIN
+DECLARE @projectWeeks INT;
+IF(@EndDate IS NULL)
+BEGIN
+SET @EndDate = GETDATE()
+END
+SET @projectWeeks = DATEDIFF(WEEK, @StartDate, @EndDate)
+RETURN @projectWeeks;
+END</t>
+  </si>
+  <si>
+    <t>Create Functions (TVF)</t>
+  </si>
+  <si>
+    <t>CREATE FUNCTION udf_AverageSalaryByDepartment()
+RETURNS TABLE AS
+RETURN
+(SELECT d.[Name] AS Department, AVG(e.Salary) AS AverageSalary
+FROM Departments AS d
+JOIN Employees AS e ON d.DepartmentID = e.DepartmentID
+GROUP BY d.DepartmentID, d.[Name])</t>
+  </si>
+  <si>
+    <t>Create Functions (MSTVF)</t>
+  </si>
+  <si>
+    <t>CREATE FUNCTION udf_EmployeeListByDepartment(@depName nvarchar(20))
+RETURNS @result TABLE(
+      FirstName nvarchar(50) NOT NULL,
+      LastName nvarchar(50) NOT NULL,
+      JobTitle nvarchar(20) NOT NULL) AS
+BEGIN
+      WITH Employees_CTE (FirstName, LastName, DepartmentName)
+      AS(
+            SELECT e.FirstName, e.LastName, d.[Name]
+            FROM Employees AS e
+            LEFT JOIN Departments AS d ON d.DepartmentID = e.DepartmentID)
+            INSERT INTO @result SELECT FirstName, LastName, DepartmentName
+            FROM Employees_CTE WHERE DepartmentName = @depName
+      RETURN
+END</t>
+  </si>
+  <si>
+    <t>Execute Functions</t>
+  </si>
+  <si>
+    <t>Functions are called using schemaName.functionName</t>
+  </si>
+  <si>
+    <t>SELECT [ProjectID], [StartDate], [EndDate],
+dbo.udf_ProjectDurationWeeks([StartDate],[EndDate])
+AS ProjectWeeks
+FROM [SoftUni].[dbo].[Projects]</t>
+  </si>
+  <si>
+    <t>CLR Functions</t>
+  </si>
+  <si>
+    <t>Creating a CLR function in SQL Server involves the following steps:</t>
+  </si>
+  <si>
+    <t>Starting with SQL Server 2016 you can create a database
+object inside an instance of SQL Server that is rogrammed in an assembly created in the Microsoft .NET Framework
+common language runtime (CLR)</t>
+  </si>
+  <si>
+    <t>Define the function as a static method of a class in a language supported by the .NET Framework
+Register the assembly in SQL Server by using the CREATE ASSEMBLY statement
+Create the function that references the registered assembly by using the CREATE FUNCTION statement</t>
+  </si>
+  <si>
+    <t>Stored Procedures</t>
+  </si>
+  <si>
+    <t>Stored procedures are named sequences of T-SQL statements.</t>
+  </si>
+  <si>
+    <t>Encapsulate repetitive program logic
+Can accept input parameters
+Can return output results</t>
+  </si>
+  <si>
+    <t>Benefits of stored procedures</t>
+  </si>
+  <si>
+    <t>Share application logic
+Improved performance
+Reduced network traffic</t>
+  </si>
+  <si>
+    <t>User-defined</t>
+  </si>
+  <si>
+    <t>can be created in a user-defined database or in all system databases except the Resource database
+can be developed in either Transact-SQL or as a reference to a Microsoft .NET Framework common runtime language (CLR) method</t>
+  </si>
+  <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>a form of user-defined procedures stored in tempdb</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stored in the internal, hidden Resource database and logically appear in the sys schema
+the msdb database also contains system stored procedures in the dbo schema
+system procedures start with the prefix </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_</t>
+    </r>
+  </si>
+  <si>
+    <t>Extended User-Defined</t>
+  </si>
+  <si>
+    <t>enable creating external routines in a programming language such as C
+Extended stored procedures will be removed in a future version of SQL Server. Create CLR procedures instead</t>
+  </si>
+  <si>
+    <t>Creating Stored Procedures</t>
+  </si>
+  <si>
+    <t>USE SoftUni
+GO
+CREATE PROC dbo.usp_SelectEmployeesBySeniority
+AS
+SELECT *
+FROM Employees
+WHERE DATEDIFF(Year, HireDate, GETDATE()) &gt; 18
+GO</t>
+  </si>
+  <si>
+    <t>Executing a stored procedure by EXEC</t>
+  </si>
+  <si>
+    <t>EXEC usp_SelectEmployeesBySeniority</t>
+  </si>
+  <si>
+    <t>Executing a stored procedure within an INSERT statement</t>
+  </si>
+  <si>
+    <t>INSERT INTO Customers
+EXEC usp_SelectEmployeesBySeniority</t>
+  </si>
+  <si>
+    <t>Use the ALTER PROCEDURE statement</t>
+  </si>
+  <si>
+    <t>USE SoftUni
+GO
+ALTER PROC usp_SelectEmployeesBySeniority
+AS
+SELECT FirstName, LastName, HireDate,
+DATEDIFF(Year, HireDate, GETDATE()) as Years
+FROM Employees
+WHERE DATEDIFF(Year, HireDate, GETDATE()) &gt; 5
+ORDER BY HireDate
+GO</t>
+  </si>
+  <si>
+    <t>Dropping Stored Procedures</t>
+  </si>
+  <si>
+    <t>DROP PROC usp_SelectEmployeesBySeniority</t>
+  </si>
+  <si>
+    <t>Check if any objects depend on the stored procedure
+by executing the system stored procedure sp_depends</t>
+  </si>
+  <si>
+    <t>EXEC sp_depends 'usp_SelectEmployeesBySeniority'</t>
+  </si>
+  <si>
+    <t>Defining Parameterized Procedures</t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE usp_ProcedureName
+(@parameter1Name parameterType,
+@parameter2Name parameterType,…) AS</t>
+  </si>
+  <si>
+    <t>Parameterized Stored Procedures – Example</t>
+  </si>
+  <si>
+    <t>CREATE PROC usp_SelectEmployeesBySeniority(@minYearsAtWork int = 5)
+AS
+SELECT FirstName, LastName, HireDate,
+DATEDIFF(Year, HireDate, GETDATE()) as Years
+FROM Employees
+WHERE DATEDIFF(Year, HireDate, GETDATE()) &gt; @minYearsAtWork
+ORDER BY HireDate
+GO
+EXEC usp_SelectEmployeesBySeniority 10</t>
+  </si>
+  <si>
+    <t>Passing values by parameter name</t>
+  </si>
+  <si>
+    <t>EXEC usp_AddCustomer
+@customerID = 'ALFKI',
+@companyName = 'Alfreds Futterkiste',
+@address = 'Obere Str. 57',
+@city = 'Berlin',
+@phone = '030-0074321'</t>
+  </si>
+  <si>
+    <t>Passing values by position</t>
+  </si>
+  <si>
+    <t>EXEC usp_AddCustomer 'ALFKI2', 'Alfreds
+Futterkiste', 'Obere Str. 57', 'Berlin',
+'030-0074321'</t>
+  </si>
+  <si>
+    <t>Returning Values Using OUTPUT Parameters</t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE dbo.usp_AddNumbers
+@firstNumber SMALLINT,
+@secondNumber SMALLINT,
+@result INT OUTPUT
+AS
+SET @result = @firstNumber + @secondNumber
+GO
+DECLARE @answer smallint
+EXECUTE usp_AddNumbers 5, 6, @answer OUTPUT
+SELECT 'The result is: ', @answer
+-- The result is: 11</t>
+  </si>
+  <si>
+    <t>Returning Multiple Results</t>
+  </si>
+  <si>
+    <t>CREATE OR ALTER PROC usp_MultipleResults
+AS
+SELECT FirstName, LastName FROM Employees
+SELECT FirstName, LastName, d.[Name] AS Department
+FROM Employees AS e
+JOIN Departments AS d ON e.DepartmentID = d.DepartmentID;
+GO
+EXEC usp_MultipleResults</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <t>@@ERROR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Returns 0 if the previous Transact-SQL statement encountered no errors
+Returns an error number if the previous statement encountered an error
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@@ERROR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is cleared and reset on each statement executed, check it immediately following the statement being verified, or save it to a local variable that can be checked later</t>
+    </r>
+  </si>
+  <si>
+    <t>TRY...CATCH</t>
+  </si>
+  <si>
+    <t>A group of Transact-SQL statements can be enclosed in a TRY block. If an error occurs in the TRY block, control is passed to another group of statements that is enclosed in a CATCH block</t>
+  </si>
+  <si>
+    <t>BEGIN TRY
+-- Generate a divide-by-zero error.
+SELECT 1/0
+END TRY
+BEGIN CATCH
+SELECT
+ERROR_NUMBER() AS ErrorNumber
+,ERROR_SEVERITY() AS ErrorSeverity
+,ERROR_STATE() AS ErrorState
+,ERROR_PROCEDURE() AS ErrorProcedure
+,ERROR_LINE() AS ErrorLine
+,ERROR_MESSAGE() AS ErrorMessage;
+END CATCH
+GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Handling - EXAMPLE </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="51" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6431,6 +6864,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -7077,20 +7518,29 @@
     <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7110,17 +7560,8 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7227,7 +7668,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7235,17 +7676,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7299,7 +7729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7334,7 +7764,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9864,10 +10294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9886,16 +10316,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="110"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -9922,10 +10352,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="110" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="108"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -9952,10 +10382,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="110" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="115"/>
+      <c r="B11" s="108"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -9966,10 +10396,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="110"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -10028,10 +10458,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="110" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="110"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -10042,10 +10472,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="117"/>
+      <c r="B23" s="110"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -10056,10 +10486,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="117"/>
+      <c r="B25" s="110"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -10086,10 +10516,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="117"/>
+      <c r="B29" s="110"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -10116,10 +10546,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115" t="s">
+      <c r="A33" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="115"/>
+      <c r="B33" s="108"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -10146,10 +10576,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="110" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="117"/>
+      <c r="B37" s="110"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10176,10 +10606,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="115"/>
+      <c r="B41" s="108"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
@@ -10198,10 +10628,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="110" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="115"/>
+      <c r="B44" s="108"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -10228,19 +10658,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="107"/>
+      <c r="B48" s="104"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="105" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="105"/>
+      <c r="B49" s="106"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="115" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -10248,7 +10678,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="113"/>
+      <c r="A51" s="116"/>
       <c r="B51" s="62" t="s">
         <v>592</v>
       </c>
@@ -10257,13 +10687,13 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
+      <c r="A52" s="117"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="115" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -10271,25 +10701,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
+      <c r="A54" s="116"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="113"/>
+      <c r="A55" s="116"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="115" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -10297,13 +10727,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
+      <c r="A58" s="117"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="115" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -10314,7 +10744,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="113"/>
+      <c r="A60" s="116"/>
       <c r="B60" s="62" t="s">
         <v>528</v>
       </c>
@@ -10323,14 +10753,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="113"/>
+      <c r="A61" s="116"/>
       <c r="B61" s="62" t="s">
         <v>589</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
+      <c r="A62" s="117"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
@@ -10384,7 +10814,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="112" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -10392,37 +10822,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
+      <c r="A70" s="113"/>
       <c r="B70" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
+      <c r="A71" s="113"/>
       <c r="B71" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="110"/>
+      <c r="A72" s="113"/>
       <c r="B72" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
+      <c r="A73" s="113"/>
       <c r="B73" s="62" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
+      <c r="A74" s="114"/>
       <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="109" t="s">
+      <c r="A75" s="112" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="62" t="s">
@@ -10430,74 +10860,74 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
+      <c r="A76" s="113"/>
       <c r="B76" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="110"/>
+      <c r="A77" s="113"/>
       <c r="B77" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
+      <c r="A78" s="113"/>
       <c r="B78" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
+      <c r="A79" s="113"/>
       <c r="B79" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
+      <c r="A80" s="113"/>
       <c r="B80" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
+      <c r="A81" s="113"/>
       <c r="B81" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="110"/>
+      <c r="A82" s="113"/>
       <c r="B82" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="110"/>
+      <c r="A83" s="113"/>
       <c r="B83" s="81" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
+      <c r="A84" s="113"/>
       <c r="B84" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
+      <c r="A85" s="113"/>
       <c r="B85" s="81" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="111"/>
+      <c r="A86" s="114"/>
       <c r="B86" s="81" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="109" t="s">
+      <c r="A87" s="112" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="82" t="s">
@@ -10505,28 +10935,28 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="110"/>
+      <c r="A88" s="113"/>
       <c r="B88" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="110"/>
+      <c r="A89" s="113"/>
       <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="111"/>
+      <c r="A90" s="114"/>
       <c r="B90" s="82" t="s">
         <v>547</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="112" t="s">
         <v>309</v>
       </c>
       <c r="B91" s="84" t="s">
@@ -10535,7 +10965,7 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="111"/>
+      <c r="A92" s="114"/>
       <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
@@ -10596,17 +11026,17 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="107" t="s">
+      <c r="A99" s="104" t="s">
         <v>388</v>
       </c>
-      <c r="B99" s="107"/>
+      <c r="B99" s="104"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A100" s="106" t="s">
+      <c r="A100" s="105" t="s">
         <v>389</v>
       </c>
-      <c r="B100" s="105"/>
+      <c r="B100" s="106"/>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -10637,10 +11067,10 @@
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="106" t="s">
+      <c r="A104" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="B104" s="105"/>
+      <c r="B104" s="106"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -10788,10 +11218,10 @@
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="106" t="s">
+      <c r="A121" s="105" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="105"/>
+      <c r="B121" s="106"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -10876,10 +11306,10 @@
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A131" s="106" t="s">
+      <c r="A131" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="B131" s="105"/>
+      <c r="B131" s="106"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -10973,10 +11403,10 @@
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="104" t="s">
+      <c r="A142" s="107" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="105"/>
+      <c r="B142" s="106"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -11007,10 +11437,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="104" t="s">
+      <c r="A146" s="107" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="105"/>
+      <c r="B146" s="106"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11032,10 +11462,10 @@
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="104" t="s">
+      <c r="A149" s="107" t="s">
         <v>542</v>
       </c>
-      <c r="B149" s="105"/>
+      <c r="B149" s="106"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -11068,17 +11498,17 @@
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="107" t="s">
+      <c r="A153" s="104" t="s">
         <v>472</v>
       </c>
-      <c r="B153" s="107"/>
+      <c r="B153" s="104"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="106" t="s">
+      <c r="A154" s="105" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="105"/>
+      <c r="B154" s="106"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11114,10 +11544,10 @@
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="104" t="s">
+      <c r="A160" s="107" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="108"/>
+      <c r="B160" s="118"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -11184,10 +11614,10 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="106" t="s">
+      <c r="A168" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="105"/>
+      <c r="B168" s="106"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -11209,10 +11639,10 @@
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="106" t="s">
+      <c r="A171" s="105" t="s">
         <v>474</v>
       </c>
-      <c r="B171" s="105"/>
+      <c r="B171" s="106"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -11234,17 +11664,17 @@
       <c r="C173"/>
     </row>
     <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="107" t="s">
+      <c r="A174" s="104" t="s">
         <v>553</v>
       </c>
-      <c r="B174" s="107"/>
+      <c r="B174" s="104"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="106" t="s">
+      <c r="A175" s="105" t="s">
         <v>554</v>
       </c>
-      <c r="B175" s="105"/>
+      <c r="B175" s="106"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11260,10 +11690,10 @@
       <c r="B177" s="76"/>
     </row>
     <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="106" t="s">
+      <c r="A178" s="105" t="s">
         <v>553</v>
       </c>
-      <c r="B178" s="105"/>
+      <c r="B178" s="106"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11344,10 +11774,10 @@
       <c r="B187" s="76"/>
     </row>
     <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="106" t="s">
+      <c r="A188" s="105" t="s">
         <v>576</v>
       </c>
-      <c r="B188" s="105"/>
+      <c r="B188" s="106"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11365,10 +11795,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="104" t="s">
+      <c r="A191" s="107" t="s">
         <v>580</v>
       </c>
-      <c r="B191" s="105"/>
+      <c r="B191" s="106"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
@@ -11403,17 +11833,17 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A196" s="107" t="s">
+      <c r="A196" s="104" t="s">
         <v>601</v>
       </c>
-      <c r="B196" s="107"/>
+      <c r="B196" s="104"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="104" t="s">
+      <c r="A197" s="107" t="s">
         <v>603</v>
       </c>
-      <c r="B197" s="105"/>
+      <c r="B197" s="106"/>
     </row>
     <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
@@ -11460,10 +11890,10 @@
       <c r="B203" s="100"/>
     </row>
     <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="104" t="s">
+      <c r="A204" s="107" t="s">
         <v>614</v>
       </c>
-      <c r="B204" s="105"/>
+      <c r="B204" s="106"/>
     </row>
     <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
@@ -11502,10 +11932,10 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="104" t="s">
+      <c r="A213" s="107" t="s">
         <v>616</v>
       </c>
-      <c r="B213" s="105"/>
+      <c r="B213" s="106"/>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
@@ -11516,10 +11946,10 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="104" t="s">
+      <c r="A215" s="107" t="s">
         <v>620</v>
       </c>
-      <c r="B215" s="105"/>
+      <c r="B215" s="106"/>
     </row>
     <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
@@ -11538,10 +11968,10 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="104" t="s">
+      <c r="A218" s="107" t="s">
         <v>619</v>
       </c>
-      <c r="B218" s="105"/>
+      <c r="B218" s="106"/>
     </row>
     <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="57" t="s">
@@ -11575,157 +12005,291 @@
         <v>631</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="57"/>
-      <c r="B223" s="76"/>
-    </row>
-    <row r="224" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="57"/>
-      <c r="B224" s="76"/>
-    </row>
-    <row r="225" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="57"/>
-      <c r="B225" s="76"/>
-    </row>
-    <row r="226" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="57"/>
-      <c r="B226" s="76"/>
-    </row>
-    <row r="227" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="57"/>
-      <c r="B227" s="76"/>
-    </row>
-    <row r="228" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="57"/>
-      <c r="B228" s="76"/>
-    </row>
-    <row r="229" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="57"/>
-      <c r="B229" s="76"/>
-    </row>
-    <row r="230" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="57"/>
-      <c r="B230" s="76"/>
-    </row>
-    <row r="231" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="57"/>
-      <c r="B231" s="76"/>
-    </row>
-    <row r="232" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="57"/>
-      <c r="B232" s="76"/>
-    </row>
-    <row r="233" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="57"/>
-      <c r="B233" s="76"/>
-    </row>
-    <row r="234" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="57"/>
-      <c r="B234" s="76"/>
-    </row>
-    <row r="235" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="57"/>
-      <c r="B235" s="76"/>
-    </row>
-    <row r="236" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="57"/>
+    <row r="223" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A223" s="104" t="s">
+        <v>635</v>
+      </c>
+      <c r="B223" s="104"/>
+    </row>
+    <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A224" s="107" t="s">
+        <v>637</v>
+      </c>
+      <c r="B224" s="106"/>
+    </row>
+    <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="107" t="s">
+        <v>636</v>
+      </c>
+      <c r="B225" s="106"/>
+    </row>
+    <row r="226" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A226" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="B226" s="76" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A227" s="107" t="s">
+        <v>640</v>
+      </c>
+      <c r="B227" s="106"/>
+    </row>
+    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="B228" s="76" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A229" s="57" t="s">
+        <v>642</v>
+      </c>
+      <c r="B229" s="76" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A230" s="57" t="s">
+        <v>644</v>
+      </c>
+      <c r="B230" s="76" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A231" s="57" t="s">
+        <v>646</v>
+      </c>
+      <c r="B231" s="76" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A232" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="B232" s="76" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A233" s="107" t="s">
+        <v>650</v>
+      </c>
+      <c r="B233" s="106"/>
+    </row>
+    <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A234" s="57" t="s">
+        <v>651</v>
+      </c>
+      <c r="B234" s="76" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A235" s="107" t="s">
+        <v>653</v>
+      </c>
+      <c r="B235" s="106"/>
+    </row>
+    <row r="236" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="57" t="s">
+        <v>655</v>
+      </c>
       <c r="B236" s="76"/>
     </row>
-    <row r="237" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="57"/>
-      <c r="B237" s="76"/>
-    </row>
-    <row r="238" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="57"/>
-      <c r="B238" s="76"/>
-    </row>
-    <row r="239" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="57"/>
-      <c r="B239" s="76"/>
-    </row>
-    <row r="240" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="57"/>
-      <c r="B240" s="76"/>
-    </row>
-    <row r="241" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="57"/>
-      <c r="B241" s="76"/>
+    <row r="237" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A237" s="57" t="s">
+        <v>654</v>
+      </c>
+      <c r="B237" s="76" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A238" s="107" t="s">
+        <v>657</v>
+      </c>
+      <c r="B238" s="106"/>
+    </row>
+    <row r="239" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A239" s="57" t="s">
+        <v>658</v>
+      </c>
+      <c r="B239" s="76" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A240" s="57" t="s">
+        <v>660</v>
+      </c>
+      <c r="B240" s="76" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A241" s="57" t="s">
+        <v>662</v>
+      </c>
+      <c r="B241" s="76" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="242" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="57"/>
-      <c r="B242" s="76"/>
-    </row>
-    <row r="243" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="57"/>
-      <c r="B243" s="76"/>
-    </row>
-    <row r="244" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="57"/>
-      <c r="B244" s="76"/>
-    </row>
-    <row r="245" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="57"/>
-      <c r="B245" s="76"/>
+      <c r="A242" s="57" t="s">
+        <v>664</v>
+      </c>
+      <c r="B242" s="76" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A243" s="57" t="s">
+        <v>666</v>
+      </c>
+      <c r="B243" s="76" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A244" s="57" t="s">
+        <v>668</v>
+      </c>
+      <c r="B244" s="76" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A245" s="57" t="s">
+        <v>670</v>
+      </c>
+      <c r="B245" s="76" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="246" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="57"/>
-      <c r="B246" s="76"/>
-    </row>
-    <row r="247" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="57"/>
-      <c r="B247" s="76"/>
-    </row>
-    <row r="248" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="57"/>
-      <c r="B248" s="76"/>
+      <c r="A246" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="B246" s="76" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A247" s="57" t="s">
+        <v>674</v>
+      </c>
+      <c r="B247" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A248" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="B248" s="76" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="249" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="57"/>
-      <c r="B249" s="76"/>
-    </row>
-    <row r="250" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="57"/>
-      <c r="B250" s="76"/>
-    </row>
-    <row r="251" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="57"/>
-      <c r="B251" s="76"/>
-    </row>
-    <row r="252" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="57"/>
-      <c r="B252" s="76"/>
-    </row>
-    <row r="253" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="57"/>
-      <c r="B253" s="76"/>
-    </row>
-    <row r="254" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="57"/>
-      <c r="B254" s="76"/>
-    </row>
-    <row r="255" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="57"/>
-      <c r="B255" s="76"/>
-    </row>
-    <row r="256" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="57"/>
-      <c r="B256" s="76"/>
-    </row>
-    <row r="257" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="57"/>
-      <c r="B257" s="76"/>
-    </row>
-    <row r="258" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="57"/>
-      <c r="B258" s="76"/>
-    </row>
-    <row r="259" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="57"/>
-      <c r="B259" s="76"/>
-    </row>
-    <row r="260" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="57"/>
-      <c r="B260" s="76"/>
+      <c r="A249" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="B249" s="76" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A250" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="B250" s="76" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="B251" s="76" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A252" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="B252" s="76" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A253" s="57" t="s">
+        <v>686</v>
+      </c>
+      <c r="B253" s="76" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254" s="57" t="s">
+        <v>688</v>
+      </c>
+      <c r="B254" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A255" s="57" t="s">
+        <v>690</v>
+      </c>
+      <c r="B255" s="76" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A256" s="57" t="s">
+        <v>692</v>
+      </c>
+      <c r="B256" s="76" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A257" s="107" t="s">
+        <v>694</v>
+      </c>
+      <c r="B257" s="106"/>
+    </row>
+    <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A258" s="57" t="s">
+        <v>695</v>
+      </c>
+      <c r="B258" s="76" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="57" t="s">
+        <v>697</v>
+      </c>
+      <c r="B259" s="76" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A260" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="B260" s="76" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="261" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A261" s="57"/>
@@ -11875,22 +12439,41 @@
       <c r="A297" s="57"/>
       <c r="B297" s="76"/>
     </row>
-    <row r="298" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A298" s="57"/>
-      <c r="B298" s="76"/>
-    </row>
-    <row r="299" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A299" s="57"/>
-      <c r="B299" s="76"/>
-    </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A191:B191"/>
+  <mergeCells count="55">
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
@@ -11907,31 +12490,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A191:B191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6451,7 +6451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7518,6 +7518,12 @@
     <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7525,22 +7531,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7560,8 +7551,17 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7668,7 +7668,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7676,6 +7676,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7729,7 +7740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7764,7 +7775,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10297,7 +10308,7 @@
   <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10316,16 +10327,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="109"/>
+      <c r="B2" s="116"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="118" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="117"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -10352,10 +10363,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="117" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="108"/>
+      <c r="B7" s="115"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -10382,10 +10393,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="117" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="115"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -10396,10 +10407,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="117" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="110"/>
+      <c r="B13" s="117"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -10458,10 +10469,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="117" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="110"/>
+      <c r="B21" s="117"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -10472,10 +10483,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="110"/>
+      <c r="B23" s="117"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -10486,10 +10497,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="110"/>
+      <c r="B25" s="117"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -10516,10 +10527,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="110"/>
+      <c r="B29" s="117"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -10546,10 +10557,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="108"/>
+      <c r="B33" s="115"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -10576,10 +10587,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="117" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="110"/>
+      <c r="B37" s="117"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10606,10 +10617,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="115" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="108"/>
+      <c r="B41" s="115"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
@@ -10628,10 +10639,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="117" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="108"/>
+      <c r="B44" s="115"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -10658,19 +10669,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="106" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="104"/>
+      <c r="B48" s="106"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="106"/>
+      <c r="B49" s="105"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="115" t="s">
+      <c r="A50" s="112" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -10678,7 +10689,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="116"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="62" t="s">
         <v>592</v>
       </c>
@@ -10687,13 +10698,13 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
+      <c r="A52" s="114"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="115" t="s">
+      <c r="A53" s="112" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -10701,25 +10712,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="116"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
+      <c r="A56" s="114"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="112" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -10727,13 +10738,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="117"/>
+      <c r="A58" s="114"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="112" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -10744,7 +10755,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="116"/>
+      <c r="A60" s="113"/>
       <c r="B60" s="62" t="s">
         <v>528</v>
       </c>
@@ -10753,14 +10764,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="116"/>
+      <c r="A61" s="113"/>
       <c r="B61" s="62" t="s">
         <v>589</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="117"/>
+      <c r="A62" s="114"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
@@ -10814,7 +10825,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="109" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -10822,37 +10833,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="113"/>
+      <c r="A70" s="110"/>
       <c r="B70" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="113"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="113"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="113"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="62" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="114"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="109" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="62" t="s">
@@ -10860,74 +10871,74 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="113"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="113"/>
+      <c r="A77" s="110"/>
       <c r="B77" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="113"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="113"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="113"/>
+      <c r="A80" s="110"/>
       <c r="B80" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="113"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="113"/>
+      <c r="A82" s="110"/>
       <c r="B82" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="113"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="81" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="113"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="113"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="81" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="114"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="81" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="112" t="s">
+      <c r="A87" s="109" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="82" t="s">
@@ -10935,28 +10946,28 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="113"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="113"/>
+      <c r="A89" s="110"/>
       <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="114"/>
+      <c r="A90" s="111"/>
       <c r="B90" s="82" t="s">
         <v>547</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="112" t="s">
+      <c r="A91" s="109" t="s">
         <v>309</v>
       </c>
       <c r="B91" s="84" t="s">
@@ -10965,7 +10976,7 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="114"/>
+      <c r="A92" s="111"/>
       <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
@@ -11026,17 +11037,17 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="104" t="s">
+      <c r="A99" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="B99" s="104"/>
+      <c r="B99" s="106"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="B100" s="106"/>
+      <c r="B100" s="105"/>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -11067,10 +11078,10 @@
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="B104" s="106"/>
+      <c r="B104" s="105"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11218,10 +11229,10 @@
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="105" t="s">
+      <c r="A121" s="107" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="106"/>
+      <c r="B121" s="105"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -11306,10 +11317,10 @@
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A131" s="105" t="s">
+      <c r="A131" s="107" t="s">
         <v>499</v>
       </c>
-      <c r="B131" s="106"/>
+      <c r="B131" s="105"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11403,10 +11414,10 @@
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="107" t="s">
+      <c r="A142" s="104" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="106"/>
+      <c r="B142" s="105"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -11437,10 +11448,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="107" t="s">
+      <c r="A146" s="104" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="106"/>
+      <c r="B146" s="105"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11462,10 +11473,10 @@
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="107" t="s">
+      <c r="A149" s="104" t="s">
         <v>542</v>
       </c>
-      <c r="B149" s="106"/>
+      <c r="B149" s="105"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -11498,17 +11509,17 @@
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="104" t="s">
+      <c r="A153" s="106" t="s">
         <v>472</v>
       </c>
-      <c r="B153" s="104"/>
+      <c r="B153" s="106"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="105" t="s">
+      <c r="A154" s="107" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="106"/>
+      <c r="B154" s="105"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11544,10 +11555,10 @@
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="107" t="s">
+      <c r="A160" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="118"/>
+      <c r="B160" s="108"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -11614,10 +11625,10 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="105" t="s">
+      <c r="A168" s="107" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="106"/>
+      <c r="B168" s="105"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -11639,10 +11650,10 @@
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="105" t="s">
+      <c r="A171" s="107" t="s">
         <v>474</v>
       </c>
-      <c r="B171" s="106"/>
+      <c r="B171" s="105"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -11664,17 +11675,17 @@
       <c r="C173"/>
     </row>
     <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="104" t="s">
+      <c r="A174" s="106" t="s">
         <v>553</v>
       </c>
-      <c r="B174" s="104"/>
+      <c r="B174" s="106"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="105" t="s">
+      <c r="A175" s="107" t="s">
         <v>554</v>
       </c>
-      <c r="B175" s="106"/>
+      <c r="B175" s="105"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11690,10 +11701,10 @@
       <c r="B177" s="76"/>
     </row>
     <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="105" t="s">
+      <c r="A178" s="107" t="s">
         <v>553</v>
       </c>
-      <c r="B178" s="106"/>
+      <c r="B178" s="105"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11774,10 +11785,10 @@
       <c r="B187" s="76"/>
     </row>
     <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="105" t="s">
+      <c r="A188" s="107" t="s">
         <v>576</v>
       </c>
-      <c r="B188" s="106"/>
+      <c r="B188" s="105"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11795,10 +11806,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="107" t="s">
+      <c r="A191" s="104" t="s">
         <v>580</v>
       </c>
-      <c r="B191" s="106"/>
+      <c r="B191" s="105"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
@@ -11833,17 +11844,17 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A196" s="104" t="s">
+      <c r="A196" s="106" t="s">
         <v>601</v>
       </c>
-      <c r="B196" s="104"/>
+      <c r="B196" s="106"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="107" t="s">
+      <c r="A197" s="104" t="s">
         <v>603</v>
       </c>
-      <c r="B197" s="106"/>
+      <c r="B197" s="105"/>
     </row>
     <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
@@ -11890,10 +11901,10 @@
       <c r="B203" s="100"/>
     </row>
     <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="107" t="s">
+      <c r="A204" s="104" t="s">
         <v>614</v>
       </c>
-      <c r="B204" s="106"/>
+      <c r="B204" s="105"/>
     </row>
     <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
@@ -11932,10 +11943,10 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="107" t="s">
+      <c r="A213" s="104" t="s">
         <v>616</v>
       </c>
-      <c r="B213" s="106"/>
+      <c r="B213" s="105"/>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
@@ -11946,10 +11957,10 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="107" t="s">
+      <c r="A215" s="104" t="s">
         <v>620</v>
       </c>
-      <c r="B215" s="106"/>
+      <c r="B215" s="105"/>
     </row>
     <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
@@ -11968,10 +11979,10 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="107" t="s">
+      <c r="A218" s="104" t="s">
         <v>619</v>
       </c>
-      <c r="B218" s="106"/>
+      <c r="B218" s="105"/>
     </row>
     <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="57" t="s">
@@ -12006,22 +12017,22 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A223" s="104" t="s">
+      <c r="A223" s="106" t="s">
         <v>635</v>
       </c>
-      <c r="B223" s="104"/>
+      <c r="B223" s="106"/>
     </row>
     <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A224" s="107" t="s">
+      <c r="A224" s="104" t="s">
         <v>637</v>
       </c>
-      <c r="B224" s="106"/>
+      <c r="B224" s="105"/>
     </row>
     <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="107" t="s">
+      <c r="A225" s="104" t="s">
         <v>636</v>
       </c>
-      <c r="B225" s="106"/>
+      <c r="B225" s="105"/>
     </row>
     <row r="226" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A226" s="57" t="s">
@@ -12032,10 +12043,10 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A227" s="107" t="s">
+      <c r="A227" s="104" t="s">
         <v>640</v>
       </c>
-      <c r="B227" s="106"/>
+      <c r="B227" s="105"/>
     </row>
     <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="57" t="s">
@@ -12078,10 +12089,10 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A233" s="107" t="s">
+      <c r="A233" s="104" t="s">
         <v>650</v>
       </c>
-      <c r="B233" s="106"/>
+      <c r="B233" s="105"/>
     </row>
     <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="57" t="s">
@@ -12092,10 +12103,10 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A235" s="107" t="s">
+      <c r="A235" s="104" t="s">
         <v>653</v>
       </c>
-      <c r="B235" s="106"/>
+      <c r="B235" s="105"/>
     </row>
     <row r="236" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A236" s="57" t="s">
@@ -12112,10 +12123,10 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A238" s="107" t="s">
+      <c r="A238" s="104" t="s">
         <v>657</v>
       </c>
-      <c r="B238" s="106"/>
+      <c r="B238" s="105"/>
     </row>
     <row r="239" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="57" t="s">
@@ -12262,10 +12273,10 @@
       </c>
     </row>
     <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A257" s="107" t="s">
+      <c r="A257" s="104" t="s">
         <v>694</v>
       </c>
-      <c r="B257" s="106"/>
+      <c r="B257" s="105"/>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="57" t="s">
@@ -12441,39 +12452,12 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A191:B191"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
@@ -12490,12 +12474,39 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A233:B233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -7518,12 +7518,6 @@
     <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7531,7 +7525,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7551,17 +7560,8 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10327,16 +10327,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="110"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -10363,10 +10363,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="110" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="108"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -10393,10 +10393,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="110" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="115"/>
+      <c r="B11" s="108"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -10407,10 +10407,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="110"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -10469,10 +10469,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="110" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="110"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -10483,10 +10483,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="117"/>
+      <c r="B23" s="110"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -10497,10 +10497,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="117"/>
+      <c r="B25" s="110"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -10527,10 +10527,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="117"/>
+      <c r="B29" s="110"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -10557,10 +10557,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115" t="s">
+      <c r="A33" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="115"/>
+      <c r="B33" s="108"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -10587,10 +10587,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="110" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="117"/>
+      <c r="B37" s="110"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10617,10 +10617,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="115"/>
+      <c r="B41" s="108"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
@@ -10639,10 +10639,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="110" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="115"/>
+      <c r="B44" s="108"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -10669,19 +10669,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="106"/>
+      <c r="B48" s="104"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="105" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="105"/>
+      <c r="B49" s="106"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="115" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -10689,7 +10689,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="113"/>
+      <c r="A51" s="116"/>
       <c r="B51" s="62" t="s">
         <v>592</v>
       </c>
@@ -10698,13 +10698,13 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
+      <c r="A52" s="117"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="115" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -10712,25 +10712,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
+      <c r="A54" s="116"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="113"/>
+      <c r="A55" s="116"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="115" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -10738,13 +10738,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
+      <c r="A58" s="117"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="115" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -10755,7 +10755,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="113"/>
+      <c r="A60" s="116"/>
       <c r="B60" s="62" t="s">
         <v>528</v>
       </c>
@@ -10764,14 +10764,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="113"/>
+      <c r="A61" s="116"/>
       <c r="B61" s="62" t="s">
         <v>589</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
+      <c r="A62" s="117"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
@@ -10825,7 +10825,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="112" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -10833,37 +10833,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
+      <c r="A70" s="113"/>
       <c r="B70" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
+      <c r="A71" s="113"/>
       <c r="B71" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="110"/>
+      <c r="A72" s="113"/>
       <c r="B72" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
+      <c r="A73" s="113"/>
       <c r="B73" s="62" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
+      <c r="A74" s="114"/>
       <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="109" t="s">
+      <c r="A75" s="112" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="62" t="s">
@@ -10871,74 +10871,74 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
+      <c r="A76" s="113"/>
       <c r="B76" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="110"/>
+      <c r="A77" s="113"/>
       <c r="B77" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
+      <c r="A78" s="113"/>
       <c r="B78" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
+      <c r="A79" s="113"/>
       <c r="B79" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
+      <c r="A80" s="113"/>
       <c r="B80" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
+      <c r="A81" s="113"/>
       <c r="B81" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="110"/>
+      <c r="A82" s="113"/>
       <c r="B82" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="110"/>
+      <c r="A83" s="113"/>
       <c r="B83" s="81" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
+      <c r="A84" s="113"/>
       <c r="B84" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
+      <c r="A85" s="113"/>
       <c r="B85" s="81" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="111"/>
+      <c r="A86" s="114"/>
       <c r="B86" s="81" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="109" t="s">
+      <c r="A87" s="112" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="82" t="s">
@@ -10946,28 +10946,28 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="110"/>
+      <c r="A88" s="113"/>
       <c r="B88" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="110"/>
+      <c r="A89" s="113"/>
       <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="111"/>
+      <c r="A90" s="114"/>
       <c r="B90" s="82" t="s">
         <v>547</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="112" t="s">
         <v>309</v>
       </c>
       <c r="B91" s="84" t="s">
@@ -10976,7 +10976,7 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="111"/>
+      <c r="A92" s="114"/>
       <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
@@ -11037,17 +11037,17 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="106" t="s">
+      <c r="A99" s="104" t="s">
         <v>388</v>
       </c>
-      <c r="B99" s="106"/>
+      <c r="B99" s="104"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A100" s="107" t="s">
+      <c r="A100" s="105" t="s">
         <v>389</v>
       </c>
-      <c r="B100" s="105"/>
+      <c r="B100" s="106"/>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -11078,10 +11078,10 @@
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="107" t="s">
+      <c r="A104" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="B104" s="105"/>
+      <c r="B104" s="106"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11229,10 +11229,10 @@
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="107" t="s">
+      <c r="A121" s="105" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="105"/>
+      <c r="B121" s="106"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -11317,10 +11317,10 @@
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A131" s="107" t="s">
+      <c r="A131" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="B131" s="105"/>
+      <c r="B131" s="106"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11414,10 +11414,10 @@
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="104" t="s">
+      <c r="A142" s="107" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="105"/>
+      <c r="B142" s="106"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -11448,10 +11448,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="104" t="s">
+      <c r="A146" s="107" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="105"/>
+      <c r="B146" s="106"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11473,10 +11473,10 @@
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="104" t="s">
+      <c r="A149" s="107" t="s">
         <v>542</v>
       </c>
-      <c r="B149" s="105"/>
+      <c r="B149" s="106"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -11509,17 +11509,17 @@
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="106" t="s">
+      <c r="A153" s="104" t="s">
         <v>472</v>
       </c>
-      <c r="B153" s="106"/>
+      <c r="B153" s="104"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="107" t="s">
+      <c r="A154" s="105" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="105"/>
+      <c r="B154" s="106"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11555,10 +11555,10 @@
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="104" t="s">
+      <c r="A160" s="107" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="108"/>
+      <c r="B160" s="118"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -11625,10 +11625,10 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="107" t="s">
+      <c r="A168" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="105"/>
+      <c r="B168" s="106"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -11650,10 +11650,10 @@
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="107" t="s">
+      <c r="A171" s="105" t="s">
         <v>474</v>
       </c>
-      <c r="B171" s="105"/>
+      <c r="B171" s="106"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -11675,17 +11675,17 @@
       <c r="C173"/>
     </row>
     <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="106" t="s">
+      <c r="A174" s="104" t="s">
         <v>553</v>
       </c>
-      <c r="B174" s="106"/>
+      <c r="B174" s="104"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="107" t="s">
+      <c r="A175" s="105" t="s">
         <v>554</v>
       </c>
-      <c r="B175" s="105"/>
+      <c r="B175" s="106"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11701,10 +11701,10 @@
       <c r="B177" s="76"/>
     </row>
     <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="107" t="s">
+      <c r="A178" s="105" t="s">
         <v>553</v>
       </c>
-      <c r="B178" s="105"/>
+      <c r="B178" s="106"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11785,10 +11785,10 @@
       <c r="B187" s="76"/>
     </row>
     <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="107" t="s">
+      <c r="A188" s="105" t="s">
         <v>576</v>
       </c>
-      <c r="B188" s="105"/>
+      <c r="B188" s="106"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11806,10 +11806,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="104" t="s">
+      <c r="A191" s="107" t="s">
         <v>580</v>
       </c>
-      <c r="B191" s="105"/>
+      <c r="B191" s="106"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
@@ -11844,17 +11844,17 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A196" s="106" t="s">
+      <c r="A196" s="104" t="s">
         <v>601</v>
       </c>
-      <c r="B196" s="106"/>
+      <c r="B196" s="104"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="104" t="s">
+      <c r="A197" s="107" t="s">
         <v>603</v>
       </c>
-      <c r="B197" s="105"/>
+      <c r="B197" s="106"/>
     </row>
     <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
@@ -11901,10 +11901,10 @@
       <c r="B203" s="100"/>
     </row>
     <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="104" t="s">
+      <c r="A204" s="107" t="s">
         <v>614</v>
       </c>
-      <c r="B204" s="105"/>
+      <c r="B204" s="106"/>
     </row>
     <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
@@ -11943,10 +11943,10 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="104" t="s">
+      <c r="A213" s="107" t="s">
         <v>616</v>
       </c>
-      <c r="B213" s="105"/>
+      <c r="B213" s="106"/>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
@@ -11957,10 +11957,10 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="104" t="s">
+      <c r="A215" s="107" t="s">
         <v>620</v>
       </c>
-      <c r="B215" s="105"/>
+      <c r="B215" s="106"/>
     </row>
     <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
@@ -11979,10 +11979,10 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="104" t="s">
+      <c r="A218" s="107" t="s">
         <v>619</v>
       </c>
-      <c r="B218" s="105"/>
+      <c r="B218" s="106"/>
     </row>
     <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="57" t="s">
@@ -12017,22 +12017,22 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A223" s="106" t="s">
+      <c r="A223" s="104" t="s">
         <v>635</v>
       </c>
-      <c r="B223" s="106"/>
+      <c r="B223" s="104"/>
     </row>
     <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A224" s="104" t="s">
+      <c r="A224" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="B224" s="105"/>
+      <c r="B224" s="106"/>
     </row>
     <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="104" t="s">
+      <c r="A225" s="107" t="s">
         <v>636</v>
       </c>
-      <c r="B225" s="105"/>
+      <c r="B225" s="106"/>
     </row>
     <row r="226" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A226" s="57" t="s">
@@ -12043,10 +12043,10 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A227" s="104" t="s">
+      <c r="A227" s="107" t="s">
         <v>640</v>
       </c>
-      <c r="B227" s="105"/>
+      <c r="B227" s="106"/>
     </row>
     <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="57" t="s">
@@ -12089,10 +12089,10 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A233" s="104" t="s">
+      <c r="A233" s="107" t="s">
         <v>650</v>
       </c>
-      <c r="B233" s="105"/>
+      <c r="B233" s="106"/>
     </row>
     <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="57" t="s">
@@ -12103,10 +12103,10 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A235" s="104" t="s">
+      <c r="A235" s="107" t="s">
         <v>653</v>
       </c>
-      <c r="B235" s="105"/>
+      <c r="B235" s="106"/>
     </row>
     <row r="236" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A236" s="57" t="s">
@@ -12123,10 +12123,10 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A238" s="104" t="s">
+      <c r="A238" s="107" t="s">
         <v>657</v>
       </c>
-      <c r="B238" s="105"/>
+      <c r="B238" s="106"/>
     </row>
     <row r="239" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="57" t="s">
@@ -12273,10 +12273,10 @@
       </c>
     </row>
     <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A257" s="104" t="s">
+      <c r="A257" s="107" t="s">
         <v>694</v>
       </c>
-      <c r="B257" s="105"/>
+      <c r="B257" s="106"/>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="57" t="s">
@@ -12452,12 +12452,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
@@ -12474,39 +12501,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A191:B191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -7518,6 +7518,12 @@
     <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7525,22 +7531,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7560,8 +7551,17 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10308,7 +10308,7 @@
   <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+      <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10327,16 +10327,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="109"/>
+      <c r="B2" s="116"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="118" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="117"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -10363,10 +10363,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="117" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="108"/>
+      <c r="B7" s="115"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -10393,10 +10393,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="117" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="115"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -10407,10 +10407,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="117" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="110"/>
+      <c r="B13" s="117"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -10469,10 +10469,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="117" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="110"/>
+      <c r="B21" s="117"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -10483,10 +10483,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="110"/>
+      <c r="B23" s="117"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -10497,10 +10497,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="110"/>
+      <c r="B25" s="117"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -10527,10 +10527,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="110"/>
+      <c r="B29" s="117"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -10557,10 +10557,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="108"/>
+      <c r="B33" s="115"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -10587,10 +10587,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="117" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="110"/>
+      <c r="B37" s="117"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10617,10 +10617,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="115" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="108"/>
+      <c r="B41" s="115"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
@@ -10639,10 +10639,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="117" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="108"/>
+      <c r="B44" s="115"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -10669,19 +10669,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="106" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="104"/>
+      <c r="B48" s="106"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="106"/>
+      <c r="B49" s="105"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="115" t="s">
+      <c r="A50" s="112" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -10689,7 +10689,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="116"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="62" t="s">
         <v>592</v>
       </c>
@@ -10698,13 +10698,13 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
+      <c r="A52" s="114"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="115" t="s">
+      <c r="A53" s="112" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -10712,25 +10712,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="116"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
+      <c r="A56" s="114"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="112" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -10738,13 +10738,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="117"/>
+      <c r="A58" s="114"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="112" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -10755,7 +10755,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="116"/>
+      <c r="A60" s="113"/>
       <c r="B60" s="62" t="s">
         <v>528</v>
       </c>
@@ -10764,14 +10764,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="116"/>
+      <c r="A61" s="113"/>
       <c r="B61" s="62" t="s">
         <v>589</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="117"/>
+      <c r="A62" s="114"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
@@ -10825,7 +10825,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="109" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -10833,37 +10833,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="113"/>
+      <c r="A70" s="110"/>
       <c r="B70" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="113"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="113"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="113"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="62" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="114"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="109" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="62" t="s">
@@ -10871,74 +10871,74 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="113"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="113"/>
+      <c r="A77" s="110"/>
       <c r="B77" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="113"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="113"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="113"/>
+      <c r="A80" s="110"/>
       <c r="B80" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="113"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="113"/>
+      <c r="A82" s="110"/>
       <c r="B82" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="113"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="81" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="113"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="113"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="81" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="114"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="81" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="112" t="s">
+      <c r="A87" s="109" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="82" t="s">
@@ -10946,28 +10946,28 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="113"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="113"/>
+      <c r="A89" s="110"/>
       <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="114"/>
+      <c r="A90" s="111"/>
       <c r="B90" s="82" t="s">
         <v>547</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="112" t="s">
+      <c r="A91" s="109" t="s">
         <v>309</v>
       </c>
       <c r="B91" s="84" t="s">
@@ -10976,7 +10976,7 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="114"/>
+      <c r="A92" s="111"/>
       <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
@@ -11037,17 +11037,17 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="104" t="s">
+      <c r="A99" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="B99" s="104"/>
+      <c r="B99" s="106"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="B100" s="106"/>
+      <c r="B100" s="105"/>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -11078,10 +11078,10 @@
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="B104" s="106"/>
+      <c r="B104" s="105"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11229,10 +11229,10 @@
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="105" t="s">
+      <c r="A121" s="107" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="106"/>
+      <c r="B121" s="105"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -11317,10 +11317,10 @@
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A131" s="105" t="s">
+      <c r="A131" s="107" t="s">
         <v>499</v>
       </c>
-      <c r="B131" s="106"/>
+      <c r="B131" s="105"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11414,10 +11414,10 @@
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="107" t="s">
+      <c r="A142" s="104" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="106"/>
+      <c r="B142" s="105"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -11448,10 +11448,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="107" t="s">
+      <c r="A146" s="104" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="106"/>
+      <c r="B146" s="105"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11473,10 +11473,10 @@
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="107" t="s">
+      <c r="A149" s="104" t="s">
         <v>542</v>
       </c>
-      <c r="B149" s="106"/>
+      <c r="B149" s="105"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -11509,17 +11509,17 @@
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="104" t="s">
+      <c r="A153" s="106" t="s">
         <v>472</v>
       </c>
-      <c r="B153" s="104"/>
+      <c r="B153" s="106"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="105" t="s">
+      <c r="A154" s="107" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="106"/>
+      <c r="B154" s="105"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11555,10 +11555,10 @@
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="107" t="s">
+      <c r="A160" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="118"/>
+      <c r="B160" s="108"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -11625,10 +11625,10 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="105" t="s">
+      <c r="A168" s="107" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="106"/>
+      <c r="B168" s="105"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -11650,10 +11650,10 @@
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="105" t="s">
+      <c r="A171" s="107" t="s">
         <v>474</v>
       </c>
-      <c r="B171" s="106"/>
+      <c r="B171" s="105"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -11675,17 +11675,17 @@
       <c r="C173"/>
     </row>
     <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="104" t="s">
+      <c r="A174" s="106" t="s">
         <v>553</v>
       </c>
-      <c r="B174" s="104"/>
+      <c r="B174" s="106"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="105" t="s">
+      <c r="A175" s="107" t="s">
         <v>554</v>
       </c>
-      <c r="B175" s="106"/>
+      <c r="B175" s="105"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11701,10 +11701,10 @@
       <c r="B177" s="76"/>
     </row>
     <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="105" t="s">
+      <c r="A178" s="107" t="s">
         <v>553</v>
       </c>
-      <c r="B178" s="106"/>
+      <c r="B178" s="105"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11785,10 +11785,10 @@
       <c r="B187" s="76"/>
     </row>
     <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="105" t="s">
+      <c r="A188" s="107" t="s">
         <v>576</v>
       </c>
-      <c r="B188" s="106"/>
+      <c r="B188" s="105"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11806,10 +11806,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="107" t="s">
+      <c r="A191" s="104" t="s">
         <v>580</v>
       </c>
-      <c r="B191" s="106"/>
+      <c r="B191" s="105"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
@@ -11844,17 +11844,17 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A196" s="104" t="s">
+      <c r="A196" s="106" t="s">
         <v>601</v>
       </c>
-      <c r="B196" s="104"/>
+      <c r="B196" s="106"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="107" t="s">
+      <c r="A197" s="104" t="s">
         <v>603</v>
       </c>
-      <c r="B197" s="106"/>
+      <c r="B197" s="105"/>
     </row>
     <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
@@ -11901,10 +11901,10 @@
       <c r="B203" s="100"/>
     </row>
     <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="107" t="s">
+      <c r="A204" s="104" t="s">
         <v>614</v>
       </c>
-      <c r="B204" s="106"/>
+      <c r="B204" s="105"/>
     </row>
     <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
@@ -11943,10 +11943,10 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="107" t="s">
+      <c r="A213" s="104" t="s">
         <v>616</v>
       </c>
-      <c r="B213" s="106"/>
+      <c r="B213" s="105"/>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
@@ -11957,10 +11957,10 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="107" t="s">
+      <c r="A215" s="104" t="s">
         <v>620</v>
       </c>
-      <c r="B215" s="106"/>
+      <c r="B215" s="105"/>
     </row>
     <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
@@ -11979,10 +11979,10 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="107" t="s">
+      <c r="A218" s="104" t="s">
         <v>619</v>
       </c>
-      <c r="B218" s="106"/>
+      <c r="B218" s="105"/>
     </row>
     <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="57" t="s">
@@ -12017,22 +12017,22 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A223" s="104" t="s">
+      <c r="A223" s="106" t="s">
         <v>635</v>
       </c>
-      <c r="B223" s="104"/>
+      <c r="B223" s="106"/>
     </row>
     <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A224" s="107" t="s">
+      <c r="A224" s="104" t="s">
         <v>637</v>
       </c>
-      <c r="B224" s="106"/>
+      <c r="B224" s="105"/>
     </row>
     <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="107" t="s">
+      <c r="A225" s="104" t="s">
         <v>636</v>
       </c>
-      <c r="B225" s="106"/>
+      <c r="B225" s="105"/>
     </row>
     <row r="226" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A226" s="57" t="s">
@@ -12043,10 +12043,10 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A227" s="107" t="s">
+      <c r="A227" s="104" t="s">
         <v>640</v>
       </c>
-      <c r="B227" s="106"/>
+      <c r="B227" s="105"/>
     </row>
     <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="57" t="s">
@@ -12089,10 +12089,10 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A233" s="107" t="s">
+      <c r="A233" s="104" t="s">
         <v>650</v>
       </c>
-      <c r="B233" s="106"/>
+      <c r="B233" s="105"/>
     </row>
     <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="57" t="s">
@@ -12103,10 +12103,10 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A235" s="107" t="s">
+      <c r="A235" s="104" t="s">
         <v>653</v>
       </c>
-      <c r="B235" s="106"/>
+      <c r="B235" s="105"/>
     </row>
     <row r="236" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A236" s="57" t="s">
@@ -12123,10 +12123,10 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A238" s="107" t="s">
+      <c r="A238" s="104" t="s">
         <v>657</v>
       </c>
-      <c r="B238" s="106"/>
+      <c r="B238" s="105"/>
     </row>
     <row r="239" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="57" t="s">
@@ -12273,10 +12273,10 @@
       </c>
     </row>
     <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A257" s="107" t="s">
+      <c r="A257" s="104" t="s">
         <v>694</v>
       </c>
-      <c r="B257" s="106"/>
+      <c r="B257" s="105"/>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="57" t="s">
@@ -12452,39 +12452,12 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A191:B191"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
@@ -12501,12 +12474,39 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A233:B233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="704">
   <si>
     <t>Операция</t>
   </si>
@@ -4793,65 +4793,6 @@
 int, called @ClientID and return a DECIMAL. It could look like this:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CREATE FUNCTION f_CalculateTotalBalance (@ClientID INT)
-RETURNS DECIMAL(15, 2)
-BEGIN
-     DECLARE @result AS DECIMAL(15, 2) = (
-     SELECT SUM(Balance)
-     FROM Accounts WHERE ClientId = @ClientID
-     )
-     RETURN @result
-END</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Now try and select the function, giving it an existing client ID as the parameter, example for client ID -&gt; 4: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SELECT dbo.f_CalculateTotalBalance(4) AS Balance </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Notice the dbo. before the function name – this is the name of the schema which we must type when callingfunctions.</t>
-    </r>
-  </si>
-  <si>
     <t>Create Procedures</t>
   </si>
   <si>
@@ -6447,25 +6388,113 @@
   <si>
     <t xml:space="preserve">Error Handling - EXAMPLE </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE FUNCTION f_CalculateTotalBalance (@ClientID INT)
+RETURNS DECIMAL(15, 2)
+BEGIN
+     DECLARE @result AS DECIMAL(15, 2) = (
+     SELECT SUM(Balance)
+     FROM Accounts WHERE ClientId = @ClientID
+     )
+     RETURN @result
+END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Now try and select the function, giving it an existing client ID as the parameter, example for client ID -&gt; 4: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SELECT dbo.f_CalculateTotalBalance(4) AS Balance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Notice the dbo. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before the function name – this is the name of the schema which we must type when callingfunctions.</t>
+    </r>
+  </si>
+  <si>
+    <t>LOOPS</t>
+  </si>
+  <si>
+    <t>WHILE LOOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE @Count INT =  0
+WHILE(@Count &lt; 5)
+BEGIN
+ SET @Count += 1
+ SELECT @Count
+END </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="52" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7225,42 +7254,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7275,91 +7304,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7374,73 +7403,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7449,43 +7478,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7494,13 +7520,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7515,65 +7541,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7668,7 +7697,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7676,17 +7705,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7740,7 +7758,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7775,7 +7793,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10307,8 +10325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C248" sqref="C248"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10327,16 +10345,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="115"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="117" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="116"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -10363,54 +10381,54 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="116" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="114"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="B8" s="89" t="s">
-        <v>519</v>
+      <c r="B8" s="122" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="93" t="s">
         <v>523</v>
-      </c>
-      <c r="B9" s="94" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
+        <v>524</v>
+      </c>
+      <c r="B10" s="122" t="s">
         <v>525</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>526</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="117" t="s">
-        <v>520</v>
-      </c>
-      <c r="B11" s="115"/>
+      <c r="A11" s="116" t="s">
+        <v>519</v>
+      </c>
+      <c r="B11" s="114"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="B12" s="89" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>522</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="116" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="116"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -10462,17 +10480,17 @@
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="116" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="116"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -10483,10 +10501,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="116" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="117"/>
+      <c r="B23" s="116"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -10497,10 +10515,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="116" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="117"/>
+      <c r="B25" s="116"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -10527,10 +10545,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="116" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="117"/>
+      <c r="B29" s="116"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -10557,10 +10575,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115" t="s">
+      <c r="A33" s="114" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="115"/>
+      <c r="B33" s="114"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -10583,14 +10601,14 @@
         <v>379</v>
       </c>
       <c r="B36" s="74" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="117"/>
+      <c r="B37" s="116"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10617,17 +10635,17 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="114" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="115"/>
+      <c r="B41" s="114"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>376</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
@@ -10639,10 +10657,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="116" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="115"/>
+      <c r="B44" s="114"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -10669,19 +10687,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="106"/>
+      <c r="B48" s="105"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="105"/>
+      <c r="B49" s="104"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="111" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -10689,22 +10707,22 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="113"/>
+      <c r="A51" s="112"/>
       <c r="B51" s="62" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C51" s="66" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="111" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -10712,25 +10730,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
+      <c r="A54" s="112"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="113"/>
+      <c r="A55" s="112"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
+      <c r="A56" s="113"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="111" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -10738,13 +10756,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
+      <c r="A58" s="113"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="111" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -10755,33 +10773,33 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="113"/>
+      <c r="A60" s="112"/>
       <c r="B60" s="62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C60" s="68" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="113"/>
+      <c r="A61" s="112"/>
       <c r="B61" s="62" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
+      <c r="A62" s="113"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="103" t="s">
-        <v>633</v>
+      <c r="A63" s="102" t="s">
+        <v>632</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -10802,18 +10820,18 @@
     </row>
     <row r="66" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -10825,7 +10843,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="108" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -10833,37 +10851,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
+      <c r="A70" s="109"/>
       <c r="B70" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
+      <c r="A71" s="109"/>
       <c r="B71" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="110"/>
+      <c r="A72" s="109"/>
       <c r="B72" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
+      <c r="A73" s="109"/>
       <c r="B73" s="62" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
+      <c r="A74" s="110"/>
       <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="109" t="s">
+      <c r="A75" s="108" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="62" t="s">
@@ -10871,74 +10889,74 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
+      <c r="A76" s="109"/>
       <c r="B76" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="110"/>
+      <c r="A77" s="109"/>
       <c r="B77" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
+      <c r="A78" s="109"/>
       <c r="B78" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
+      <c r="A79" s="109"/>
       <c r="B79" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
+      <c r="A80" s="109"/>
       <c r="B80" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
+      <c r="A81" s="109"/>
       <c r="B81" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="110"/>
+      <c r="A82" s="109"/>
       <c r="B82" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="110"/>
+      <c r="A83" s="109"/>
       <c r="B83" s="81" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
+      <c r="A84" s="109"/>
       <c r="B84" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
+      <c r="A85" s="109"/>
       <c r="B85" s="81" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="111"/>
+      <c r="A86" s="110"/>
       <c r="B86" s="81" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="109" t="s">
+      <c r="A87" s="108" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="82" t="s">
@@ -10946,28 +10964,28 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="110"/>
+      <c r="A88" s="109"/>
       <c r="B88" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="110"/>
+      <c r="A89" s="109"/>
       <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="111"/>
+      <c r="A90" s="110"/>
       <c r="B90" s="82" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="108" t="s">
         <v>309</v>
       </c>
       <c r="B91" s="84" t="s">
@@ -10976,7 +10994,7 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="111"/>
+      <c r="A92" s="110"/>
       <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
@@ -11014,16 +11032,16 @@
         <v>373</v>
       </c>
       <c r="B96" s="84" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C96"/>
     </row>
     <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="91" t="s">
-        <v>529</v>
+      <c r="A97" s="90" t="s">
+        <v>528</v>
       </c>
       <c r="B97" s="81" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C97"/>
     </row>
@@ -11037,17 +11055,17 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="106" t="s">
+      <c r="A99" s="105" t="s">
         <v>388</v>
       </c>
-      <c r="B99" s="106"/>
+      <c r="B99" s="105"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A100" s="107" t="s">
+      <c r="A100" s="106" t="s">
         <v>389</v>
       </c>
-      <c r="B100" s="105"/>
+      <c r="B100" s="104"/>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -11078,10 +11096,10 @@
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="107" t="s">
+      <c r="A104" s="106" t="s">
         <v>396</v>
       </c>
-      <c r="B104" s="105"/>
+      <c r="B104" s="104"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11220,19 +11238,19 @@
       <c r="C119"/>
     </row>
     <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="93" t="s">
+      <c r="A120" s="92" t="s">
+        <v>535</v>
+      </c>
+      <c r="B120" s="91" t="s">
         <v>536</v>
       </c>
-      <c r="B120" s="92" t="s">
-        <v>537</v>
-      </c>
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="107" t="s">
+      <c r="A121" s="106" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="105"/>
+      <c r="B121" s="104"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -11317,10 +11335,10 @@
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A131" s="107" t="s">
+      <c r="A131" s="106" t="s">
         <v>499</v>
       </c>
-      <c r="B131" s="105"/>
+      <c r="B131" s="104"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11381,7 +11399,7 @@
       <c r="A138" s="78" t="s">
         <v>457</v>
       </c>
-      <c r="B138" s="98" t="s">
+      <c r="B138" s="97" t="s">
         <v>458</v>
       </c>
       <c r="C138"/>
@@ -11390,8 +11408,8 @@
       <c r="A139" s="78" t="s">
         <v>459</v>
       </c>
-      <c r="B139" s="98" t="s">
-        <v>552</v>
+      <c r="B139" s="97" t="s">
+        <v>551</v>
       </c>
       <c r="C139"/>
     </row>
@@ -11399,8 +11417,8 @@
       <c r="A140" s="78" t="s">
         <v>460</v>
       </c>
-      <c r="B140" s="98" t="s">
-        <v>551</v>
+      <c r="B140" s="97" t="s">
+        <v>550</v>
       </c>
       <c r="C140"/>
     </row>
@@ -11408,16 +11426,16 @@
       <c r="A141" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="B141" s="98" t="s">
-        <v>550</v>
+      <c r="B141" s="97" t="s">
+        <v>549</v>
       </c>
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="104" t="s">
+      <c r="A142" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="105"/>
+      <c r="B142" s="104"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -11448,10 +11466,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="104" t="s">
+      <c r="A146" s="103" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="105"/>
+      <c r="B146" s="104"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11465,78 +11483,78 @@
     </row>
     <row r="148" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="B148" s="87" t="s">
         <v>540</v>
       </c>
-      <c r="B148" s="87" t="s">
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="103" t="s">
         <v>541</v>
       </c>
-      <c r="C148"/>
-    </row>
-    <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="104" t="s">
-        <v>542</v>
-      </c>
-      <c r="B149" s="105"/>
+      <c r="B149" s="104"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B150" s="80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="B151" s="76" t="s">
         <v>544</v>
-      </c>
-      <c r="B151" s="76" t="s">
-        <v>545</v>
       </c>
       <c r="C151"/>
     </row>
     <row r="152" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="57" t="s">
-        <v>598</v>
-      </c>
-      <c r="B152" s="99" t="s">
         <v>597</v>
       </c>
+      <c r="B152" s="98" t="s">
+        <v>596</v>
+      </c>
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="106" t="s">
+      <c r="A153" s="105" t="s">
         <v>472</v>
       </c>
-      <c r="B153" s="106"/>
+      <c r="B153" s="105"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="107" t="s">
+      <c r="A154" s="106" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="105"/>
+      <c r="B154" s="104"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A155" s="57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B155" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C155"/>
     </row>
     <row r="156" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A156" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="B156" s="80" t="s">
         <v>530</v>
-      </c>
-      <c r="B156" s="80" t="s">
-        <v>531</v>
       </c>
       <c r="C156"/>
     </row>
@@ -11555,10 +11573,10 @@
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="104" t="s">
+      <c r="A160" s="103" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="108"/>
+      <c r="B160" s="107"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -11625,10 +11643,10 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="107" t="s">
+      <c r="A168" s="106" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="105"/>
+      <c r="B168" s="104"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -11650,10 +11668,10 @@
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="107" t="s">
+      <c r="A171" s="106" t="s">
         <v>474</v>
       </c>
-      <c r="B171" s="105"/>
+      <c r="B171" s="104"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -11675,25 +11693,25 @@
       <c r="C173"/>
     </row>
     <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="106" t="s">
+      <c r="A174" s="105" t="s">
+        <v>552</v>
+      </c>
+      <c r="B174" s="105"/>
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A175" s="106" t="s">
         <v>553</v>
       </c>
-      <c r="B174" s="106"/>
-      <c r="C174"/>
-    </row>
-    <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="107" t="s">
-        <v>554</v>
-      </c>
-      <c r="B175" s="105"/>
+      <c r="B175" s="104"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="57" t="s">
+        <v>554</v>
+      </c>
+      <c r="B176" s="76" t="s">
         <v>555</v>
-      </c>
-      <c r="B176" s="76" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -11701,83 +11719,83 @@
       <c r="B177" s="76"/>
     </row>
     <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="107" t="s">
-        <v>553</v>
-      </c>
-      <c r="B178" s="105"/>
+      <c r="A178" s="106" t="s">
+        <v>552</v>
+      </c>
+      <c r="B178" s="104"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A179" s="57" t="s">
+        <v>556</v>
+      </c>
+      <c r="B179" s="76" t="s">
         <v>557</v>
-      </c>
-      <c r="B179" s="76" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A180" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="B180" s="76" t="s">
         <v>559</v>
-      </c>
-      <c r="B180" s="76" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="B181" s="76" t="s">
         <v>561</v>
-      </c>
-      <c r="B181" s="76" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="57" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B182" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B183" s="76" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A184" s="57" t="s">
+        <v>566</v>
+      </c>
+      <c r="B184" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="B184" s="80" t="s">
-        <v>568</v>
-      </c>
-      <c r="C184" s="96" t="s">
-        <v>574</v>
+      <c r="C184" s="95" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
       <c r="A185" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="B185" s="80" t="s">
         <v>569</v>
       </c>
-      <c r="B185" s="80" t="s">
-        <v>570</v>
-      </c>
-      <c r="C185" s="96" t="s">
-        <v>573</v>
+      <c r="C185" s="95" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A186" s="57" t="s">
+        <v>570</v>
+      </c>
+      <c r="B186" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="B186" s="76" t="s">
-        <v>572</v>
-      </c>
-      <c r="C186" s="95" t="s">
-        <v>575</v>
+      <c r="C186" s="94" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -11785,133 +11803,133 @@
       <c r="B187" s="76"/>
     </row>
     <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="107" t="s">
-        <v>576</v>
-      </c>
-      <c r="B188" s="105"/>
+      <c r="A188" s="106" t="s">
+        <v>575</v>
+      </c>
+      <c r="B188" s="104"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A189" s="57" t="s">
+        <v>576</v>
+      </c>
+      <c r="B189" s="76" t="s">
         <v>577</v>
-      </c>
-      <c r="B189" s="76" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="57"/>
       <c r="B190" s="76" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="103" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="104" t="s">
-        <v>580</v>
-      </c>
-      <c r="B191" s="105"/>
+      <c r="B191" s="104"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B192" s="76" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A193" s="57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B193" s="76" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A194" s="57" t="s">
-        <v>587</v>
-      </c>
-      <c r="B194" s="97" t="s">
         <v>586</v>
+      </c>
+      <c r="B194" s="96" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A195" s="57" t="s">
-        <v>585</v>
-      </c>
-      <c r="B195" s="97" t="s">
         <v>584</v>
       </c>
+      <c r="B195" s="96" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A196" s="106" t="s">
-        <v>601</v>
-      </c>
-      <c r="B196" s="106"/>
+      <c r="A196" s="105" t="s">
+        <v>600</v>
+      </c>
+      <c r="B196" s="105"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="104" t="s">
-        <v>603</v>
-      </c>
-      <c r="B197" s="105"/>
+      <c r="A197" s="103" t="s">
+        <v>602</v>
+      </c>
+      <c r="B197" s="104"/>
     </row>
     <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
+        <v>603</v>
+      </c>
+      <c r="B198" s="100" t="s">
         <v>604</v>
-      </c>
-      <c r="B198" s="101" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A199" s="57" t="s">
-        <v>606</v>
-      </c>
-      <c r="B199" s="101" t="s">
-        <v>608</v>
+        <v>605</v>
+      </c>
+      <c r="B199" s="100" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A200" s="57" t="s">
-        <v>607</v>
-      </c>
-      <c r="B200" s="101" t="s">
-        <v>609</v>
+        <v>606</v>
+      </c>
+      <c r="B200" s="100" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A201" s="57" t="s">
-        <v>611</v>
-      </c>
-      <c r="B201" s="102" t="s">
         <v>610</v>
+      </c>
+      <c r="B201" s="101" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="B202" s="101" t="s">
         <v>612</v>
+      </c>
+      <c r="B202" s="100" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="57"/>
-      <c r="B203" s="100"/>
+      <c r="B203" s="99"/>
     </row>
     <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="104" t="s">
-        <v>614</v>
-      </c>
-      <c r="B204" s="105"/>
+      <c r="A204" s="103" t="s">
+        <v>613</v>
+      </c>
+      <c r="B204" s="104"/>
     </row>
     <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B205" s="76" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -11943,372 +11961,378 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="104" t="s">
-        <v>616</v>
-      </c>
-      <c r="B213" s="105"/>
+      <c r="A213" s="103" t="s">
+        <v>615</v>
+      </c>
+      <c r="B213" s="104"/>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
+        <v>616</v>
+      </c>
+      <c r="B214" s="76" t="s">
         <v>617</v>
       </c>
-      <c r="B214" s="76" t="s">
-        <v>618</v>
-      </c>
     </row>
     <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="104" t="s">
-        <v>620</v>
-      </c>
-      <c r="B215" s="105"/>
+      <c r="A215" s="103" t="s">
+        <v>619</v>
+      </c>
+      <c r="B215" s="104"/>
     </row>
     <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="B216" s="76" t="s">
         <v>621</v>
-      </c>
-      <c r="B216" s="76" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A217" s="57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B217" s="76" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="104" t="s">
-        <v>619</v>
-      </c>
-      <c r="B218" s="105"/>
+      <c r="A218" s="103" t="s">
+        <v>618</v>
+      </c>
+      <c r="B218" s="104"/>
     </row>
     <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B219" s="80" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A220" s="57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B220" s="76" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A221" s="57" t="s">
+        <v>625</v>
+      </c>
+      <c r="B221" s="76" t="s">
         <v>626</v>
-      </c>
-      <c r="B221" s="76" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="B222" s="76" t="s">
         <v>630</v>
       </c>
-      <c r="B222" s="76" t="s">
-        <v>631</v>
-      </c>
     </row>
     <row r="223" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A223" s="106" t="s">
+      <c r="A223" s="105" t="s">
+        <v>634</v>
+      </c>
+      <c r="B223" s="105"/>
+    </row>
+    <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A224" s="103" t="s">
+        <v>636</v>
+      </c>
+      <c r="B224" s="104"/>
+    </row>
+    <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="103" t="s">
         <v>635</v>
       </c>
-      <c r="B223" s="106"/>
-    </row>
-    <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A224" s="104" t="s">
-        <v>637</v>
-      </c>
-      <c r="B224" s="105"/>
-    </row>
-    <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="104" t="s">
-        <v>636</v>
-      </c>
-      <c r="B225" s="105"/>
+      <c r="B225" s="104"/>
     </row>
     <row r="226" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A226" s="57" t="s">
+        <v>637</v>
+      </c>
+      <c r="B226" s="76" t="s">
         <v>638</v>
       </c>
-      <c r="B226" s="76" t="s">
+    </row>
+    <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A227" s="103" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A227" s="104" t="s">
-        <v>640</v>
-      </c>
-      <c r="B227" s="105"/>
+      <c r="B227" s="104"/>
     </row>
     <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="57" t="s">
         <v>394</v>
       </c>
       <c r="B228" s="76" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A229" s="57" t="s">
+        <v>641</v>
+      </c>
+      <c r="B229" s="76" t="s">
         <v>642</v>
-      </c>
-      <c r="B229" s="76" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A230" s="57" t="s">
+        <v>643</v>
+      </c>
+      <c r="B230" s="76" t="s">
         <v>644</v>
-      </c>
-      <c r="B230" s="76" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="57" t="s">
+        <v>645</v>
+      </c>
+      <c r="B231" s="76" t="s">
         <v>646</v>
-      </c>
-      <c r="B231" s="76" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A232" s="57" t="s">
+        <v>647</v>
+      </c>
+      <c r="B232" s="76" t="s">
         <v>648</v>
       </c>
-      <c r="B232" s="76" t="s">
+    </row>
+    <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A233" s="103" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A233" s="104" t="s">
-        <v>650</v>
-      </c>
-      <c r="B233" s="105"/>
+      <c r="B233" s="104"/>
     </row>
     <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="57" t="s">
+        <v>650</v>
+      </c>
+      <c r="B234" s="76" t="s">
         <v>651</v>
       </c>
-      <c r="B234" s="76" t="s">
+    </row>
+    <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A235" s="103" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A235" s="104" t="s">
-        <v>653</v>
-      </c>
-      <c r="B235" s="105"/>
+      <c r="B235" s="104"/>
     </row>
     <row r="236" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A236" s="57" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B236" s="76"/>
     </row>
     <row r="237" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A237" s="57" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B237" s="76" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A238" s="103" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A238" s="104" t="s">
-        <v>657</v>
-      </c>
-      <c r="B238" s="105"/>
+      <c r="B238" s="104"/>
     </row>
     <row r="239" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="57" t="s">
+        <v>657</v>
+      </c>
+      <c r="B239" s="76" t="s">
         <v>658</v>
-      </c>
-      <c r="B239" s="76" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="57" t="s">
+        <v>659</v>
+      </c>
+      <c r="B240" s="76" t="s">
         <v>660</v>
-      </c>
-      <c r="B240" s="76" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="57" t="s">
+        <v>661</v>
+      </c>
+      <c r="B241" s="76" t="s">
         <v>662</v>
-      </c>
-      <c r="B241" s="76" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A242" s="57" t="s">
+        <v>663</v>
+      </c>
+      <c r="B242" s="76" t="s">
         <v>664</v>
-      </c>
-      <c r="B242" s="76" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A243" s="57" t="s">
+        <v>665</v>
+      </c>
+      <c r="B243" s="76" t="s">
         <v>666</v>
-      </c>
-      <c r="B243" s="76" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="57" t="s">
+        <v>667</v>
+      </c>
+      <c r="B244" s="76" t="s">
         <v>668</v>
-      </c>
-      <c r="B244" s="76" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A245" s="57" t="s">
+        <v>669</v>
+      </c>
+      <c r="B245" s="76" t="s">
         <v>670</v>
-      </c>
-      <c r="B245" s="76" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A246" s="57" t="s">
+        <v>671</v>
+      </c>
+      <c r="B246" s="76" t="s">
         <v>672</v>
-      </c>
-      <c r="B246" s="76" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A247" s="57" t="s">
+        <v>673</v>
+      </c>
+      <c r="B247" s="76" t="s">
         <v>674</v>
-      </c>
-      <c r="B247" s="76" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A248" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="B248" s="76" t="s">
         <v>676</v>
-      </c>
-      <c r="B248" s="76" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A249" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="B249" s="76" t="s">
         <v>678</v>
-      </c>
-      <c r="B249" s="76" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A250" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="B250" s="76" t="s">
         <v>680</v>
-      </c>
-      <c r="B250" s="76" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="57" t="s">
+        <v>681</v>
+      </c>
+      <c r="B251" s="76" t="s">
         <v>682</v>
-      </c>
-      <c r="B251" s="76" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A252" s="57" t="s">
+        <v>683</v>
+      </c>
+      <c r="B252" s="76" t="s">
         <v>684</v>
-      </c>
-      <c r="B252" s="76" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="57" t="s">
+        <v>685</v>
+      </c>
+      <c r="B253" s="76" t="s">
         <v>686</v>
-      </c>
-      <c r="B253" s="76" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="57" t="s">
+        <v>687</v>
+      </c>
+      <c r="B254" s="76" t="s">
         <v>688</v>
-      </c>
-      <c r="B254" s="76" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A255" s="57" t="s">
+        <v>689</v>
+      </c>
+      <c r="B255" s="76" t="s">
         <v>690</v>
-      </c>
-      <c r="B255" s="76" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A256" s="57" t="s">
+        <v>691</v>
+      </c>
+      <c r="B256" s="76" t="s">
         <v>692</v>
       </c>
-      <c r="B256" s="76" t="s">
+    </row>
+    <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A257" s="103" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A257" s="104" t="s">
-        <v>694</v>
-      </c>
-      <c r="B257" s="105"/>
+      <c r="B257" s="104"/>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="57" t="s">
+        <v>694</v>
+      </c>
+      <c r="B258" s="76" t="s">
         <v>695</v>
-      </c>
-      <c r="B258" s="76" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="B259" s="76" t="s">
         <v>697</v>
-      </c>
-      <c r="B259" s="76" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A260" s="57" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B260" s="76" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="57"/>
-      <c r="B261" s="76"/>
-    </row>
-    <row r="262" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="57"/>
-      <c r="B262" s="76"/>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A261" s="103" t="s">
+        <v>701</v>
+      </c>
+      <c r="B261" s="104"/>
+    </row>
+    <row r="262" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A262" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="B262" s="76" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="263" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A263" s="57"/>
@@ -12451,7 +12475,8 @@
       <c r="B297" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
+    <mergeCell ref="A261:B261"/>
     <mergeCell ref="A174:B174"/>
     <mergeCell ref="A175:B175"/>
     <mergeCell ref="A178:B178"/>
@@ -12928,7 +12953,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="118" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -12948,7 +12973,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120"/>
+      <c r="A2" s="119"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -13016,10 +13041,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="742">
   <si>
     <t>Операция</t>
   </si>
@@ -6484,17 +6484,840 @@
  SELECT @Count
 END </t>
   </si>
+  <si>
+    <t>Triggers and Transactions</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <t>A Transaction is a sequence of actions (database operations) executed as a whole:
+Either all of them complete successfully or none of them do
+Examples:
+A bank transfer from one account into another (withdrawal + deposit)
+If either the withdrawal or the deposit fails the whole operation is cancelled</t>
+  </si>
+  <si>
+    <t>Transactions Behavior</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transactions guarantee the consistency and the integrity of the database:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt; All changes in a transaction are temporary
+&gt; Changes are persisted when a COMMIT is executed
+&gt; At any time, all changes can be canceled by ROLLBACK
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All changes are persisted at once</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt; As long as COMMIT is called</t>
+    </r>
+  </si>
+  <si>
+    <t>Transactions: What Can Go Wrong?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Some actions fail to complete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt; The application software or database server crashes
+&gt; The user cancels the action while it’s in progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interference from another transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt; What happens if several transfers run for the same account at the same time?</t>
+    </r>
+  </si>
+  <si>
+    <t>Transactions Syntax</t>
+  </si>
+  <si>
+    <t>CREATE PROC usp_Withdraw @withdrawAmount DECIMAL(18,2), @accountId INT
+AS
+BEGIN TRANSACTION
+UPDATE Accounts SET Balance = Balance - @withdrawAmount
+WHERE Id = @accountId
+IF @@ROWCOUNT &lt;&gt; 1 -- Didn’t affect exactly one row
+BEGIN
+ROLLBACK
+RAISERROR('Invalid account!', 16, 1)
+RETURN
+END
+COMMIT</t>
+  </si>
+  <si>
+    <t>ACID Model : Atomicity, Consistency, Isolation, Durability</t>
+  </si>
+  <si>
+    <t>Atomicity means that:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transactions execute as a whole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DBMS/DataBase Management System/ guarantees that either all of the operations are performed or none of them
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transferring funds between bank accounts
+Either withdraw + deposit both succeed, or none of them do
+In case of failure, the database stays unchanged</t>
+    </r>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consistency means that:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The database has a legal state in both the transaction’s beginning and its end
+Only valid data will be written to the DB
+Transaction cannot break the rules of the database - Primary keys, foreign keys, check constraints…
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consistency example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Transaction cannot end with a duplicate primary key in a table</t>
+    </r>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isolation means that:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Multiple transactions running at the same time do not impact each other’s execution
+Transactions don’t see other transactions’ uncommitted changes
+Isolation level defines how deep transactions isolate from one another
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isolation example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If two or more people try to buy the last copy of a product, only one of them will succeed</t>
+    </r>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durability means that:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If a transaction is committed it becomes persistent - Cannot be lost or undone
+Ensured by the use of database transaction logs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durability example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+After funds are transferred and committed, the power supply at the DB server is lost
+Transaction stays persistent (no data is lost)</t>
+    </r>
+  </si>
+  <si>
+    <t>What Are Triggers?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Triggers are very much like stored procedures -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Called in case of a specific event
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">We do not call triggers explicitly 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; Triggers are attached to a table
+&gt; Triggers are fired when a certain SQL statement is executed against the contents of the table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Syntax:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AFTER INSERT/UPDATE/DELETE
+INSTEAD OF INSERT/UPDATE/DELETE</t>
+    </r>
+  </si>
+  <si>
+    <t>After Trigger</t>
+  </si>
+  <si>
+    <t>AFTER Trigger is executed right after an event is fired</t>
+  </si>
+  <si>
+    <t>Instead of Trigger</t>
+  </si>
+  <si>
+    <t>INSTEAD OF Trigger completely replaces an event action from happening
+&gt; You can apply totally different logic</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are three different events that can be applied within a trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert, Update, Delete</t>
+    </r>
+  </si>
+  <si>
+    <t>After Triggers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Defined by the keyword FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CREATE TRIGGER tr_TownsUpdate ON Towns FOR UPDATE
+AS
+IF (EXISTS(
+     SELECT * FROM inserted
+     WHERE Name IS NULL OR LEN(Name) = 0))
+BEGIN
+     RAISERROR('Town name cannot be empty.', 16, 1)
+     ROLLBACK
+     RETURN
+END
+UPDATE Towns SET Name='' WHERE TownId=1</t>
+    </r>
+  </si>
+  <si>
+    <t>Instead Of Triggers</t>
+  </si>
+  <si>
+    <t>Defined by using INSTEAD OF :
+CREATE TABLE Accounts(
+Username varchar(10) NOT NULL PRIMARY KEY,
+[Password] varchar(20) NOT NULL,
+Active char(1) NOT NULL DEFAULT 'Y’)
+CREATE TRIGGER tr_AccountsDelete ON Accounts
+INSTEAD OF DELETE
+AS
+UPDATE a SET Active = 'N'
+FROM Accounts AS a JOIN DELETED d
+ON d.Username = a.Username
+WHERE a.Active = 'Y'</t>
+  </si>
+  <si>
+    <t>Database Security
+Fixed Server Roles, Fixed Database Roles</t>
+  </si>
+  <si>
+    <t>Database Security: SQL Server</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SQL Server has two layers of database security:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed Server Roles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+sysadmin, bulkadmin, dbcreator, securityadmin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed Database Roles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+db_owner, db_securityadmin, db_accessadmin
+db_backupoperator, db_ddladmin
+db_datareader/db_datawriter</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom Roles</t>
+  </si>
+  <si>
+    <t>SQL Server lets us create custom roles - Collection of privileges (permissions)
+Fine control over permissions - Can use one role for multiple users (groups)
+Makes auditing operations easier</t>
+  </si>
+  <si>
+    <t>Custom Role Permissions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONTROL SERVER/DATABASE - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Gives all permissions on the server/database
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TAKE OWNERSHIP - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Enables the grantee to take ownership of a securable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIEW CHANGE TRACKING -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Manage change tracking on schemas and tables
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VIEW DEFINITION - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Enables the grantee to access metadata
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXECUTE -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> To run procedures, scalar and aggregate functions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ALTER - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lets a role create, alter, and drop objects from the schema
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">REFERENCES - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lets the role create FOREIGN KEY constraints
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SELECT/DELETE/INSERT/UPDATE : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Grant access to CRUD Operations
+Can be granted on database, schema and object level
+Individual tables, views and columns can be targeted</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="51" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7254,42 +8077,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7304,91 +8127,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7403,73 +8226,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7478,55 +8301,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7538,71 +8361,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7697,7 +8523,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7705,6 +8531,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7758,7 +8595,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7793,7 +8630,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10323,10 +11160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10345,16 +11182,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="115"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="110"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -10381,16 +11218,16 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="110" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="114"/>
+      <c r="B7" s="108"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="103" t="s">
         <v>700</v>
       </c>
     </row>
@@ -10406,15 +11243,15 @@
       <c r="A10" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="103" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="110" t="s">
         <v>519</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="108"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -10425,10 +11262,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="116"/>
+      <c r="B13" s="110"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -10487,10 +11324,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="110" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="116"/>
+      <c r="B21" s="110"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -10501,10 +11338,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="116"/>
+      <c r="B23" s="110"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -10515,10 +11352,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="116"/>
+      <c r="B25" s="110"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -10545,10 +11382,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="116"/>
+      <c r="B29" s="110"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -10575,10 +11412,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="114"/>
+      <c r="B33" s="108"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -10605,10 +11442,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="116" t="s">
+      <c r="A37" s="110" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="116"/>
+      <c r="B37" s="110"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10635,10 +11472,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114" t="s">
+      <c r="A41" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="114"/>
+      <c r="B41" s="108"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
@@ -10657,10 +11494,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="116" t="s">
+      <c r="A44" s="110" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="114"/>
+      <c r="B44" s="108"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -10687,19 +11524,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="106" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="105"/>
+      <c r="B48" s="106"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="104"/>
+      <c r="B49" s="105"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="115" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -10707,7 +11544,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
+      <c r="A51" s="116"/>
       <c r="B51" s="62" t="s">
         <v>591</v>
       </c>
@@ -10716,13 +11553,13 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="113"/>
+      <c r="A52" s="117"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="111" t="s">
+      <c r="A53" s="115" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -10730,25 +11567,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
+      <c r="A54" s="116"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="112"/>
+      <c r="A55" s="116"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="113"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="111" t="s">
+      <c r="A57" s="115" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -10756,13 +11593,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="113"/>
+      <c r="A58" s="117"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="115" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -10773,7 +11610,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="112"/>
+      <c r="A60" s="116"/>
       <c r="B60" s="62" t="s">
         <v>527</v>
       </c>
@@ -10782,14 +11619,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="112"/>
+      <c r="A61" s="116"/>
       <c r="B61" s="62" t="s">
         <v>588</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="113"/>
+      <c r="A62" s="117"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
@@ -10843,7 +11680,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="112" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -10851,37 +11688,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
+      <c r="A70" s="113"/>
       <c r="B70" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="109"/>
+      <c r="A71" s="113"/>
       <c r="B71" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="109"/>
+      <c r="A72" s="113"/>
       <c r="B72" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
+      <c r="A73" s="113"/>
       <c r="B73" s="62" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
+      <c r="A74" s="114"/>
       <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="112" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="62" t="s">
@@ -10889,74 +11726,74 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="109"/>
+      <c r="A76" s="113"/>
       <c r="B76" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
+      <c r="A77" s="113"/>
       <c r="B77" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
+      <c r="A78" s="113"/>
       <c r="B78" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
+      <c r="A79" s="113"/>
       <c r="B79" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="109"/>
+      <c r="A80" s="113"/>
       <c r="B80" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="109"/>
+      <c r="A81" s="113"/>
       <c r="B81" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="109"/>
+      <c r="A82" s="113"/>
       <c r="B82" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="109"/>
+      <c r="A83" s="113"/>
       <c r="B83" s="81" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="109"/>
+      <c r="A84" s="113"/>
       <c r="B84" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="109"/>
+      <c r="A85" s="113"/>
       <c r="B85" s="81" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="110"/>
+      <c r="A86" s="114"/>
       <c r="B86" s="81" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="108" t="s">
+      <c r="A87" s="112" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="82" t="s">
@@ -10964,28 +11801,28 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="109"/>
+      <c r="A88" s="113"/>
       <c r="B88" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="109"/>
+      <c r="A89" s="113"/>
       <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="110"/>
+      <c r="A90" s="114"/>
       <c r="B90" s="82" t="s">
         <v>546</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="112" t="s">
         <v>309</v>
       </c>
       <c r="B91" s="84" t="s">
@@ -10994,7 +11831,7 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="110"/>
+      <c r="A92" s="114"/>
       <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
@@ -11055,17 +11892,17 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="105" t="s">
+      <c r="A99" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="B99" s="105"/>
+      <c r="B99" s="106"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A100" s="106" t="s">
+      <c r="A100" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="B100" s="104"/>
+      <c r="B100" s="105"/>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -11096,10 +11933,10 @@
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="106" t="s">
+      <c r="A104" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="B104" s="104"/>
+      <c r="B104" s="105"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11247,10 +12084,10 @@
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="106" t="s">
+      <c r="A121" s="107" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="104"/>
+      <c r="B121" s="105"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -11335,10 +12172,10 @@
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A131" s="106" t="s">
+      <c r="A131" s="107" t="s">
         <v>499</v>
       </c>
-      <c r="B131" s="104"/>
+      <c r="B131" s="105"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11432,10 +12269,10 @@
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="103" t="s">
+      <c r="A142" s="104" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="104"/>
+      <c r="B142" s="105"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -11466,10 +12303,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="103" t="s">
+      <c r="A146" s="104" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="104"/>
+      <c r="B146" s="105"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11491,10 +12328,10 @@
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="103" t="s">
+      <c r="A149" s="104" t="s">
         <v>541</v>
       </c>
-      <c r="B149" s="104"/>
+      <c r="B149" s="105"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -11527,17 +12364,17 @@
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="105" t="s">
+      <c r="A153" s="106" t="s">
         <v>472</v>
       </c>
-      <c r="B153" s="105"/>
+      <c r="B153" s="106"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="106" t="s">
+      <c r="A154" s="107" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="104"/>
+      <c r="B154" s="105"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -11573,10 +12410,10 @@
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="103" t="s">
+      <c r="A160" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="107"/>
+      <c r="B160" s="118"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -11643,10 +12480,10 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="106" t="s">
+      <c r="A168" s="107" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="104"/>
+      <c r="B168" s="105"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -11668,10 +12505,10 @@
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="106" t="s">
+      <c r="A171" s="107" t="s">
         <v>474</v>
       </c>
-      <c r="B171" s="104"/>
+      <c r="B171" s="105"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -11693,17 +12530,17 @@
       <c r="C173"/>
     </row>
     <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="105" t="s">
+      <c r="A174" s="106" t="s">
         <v>552</v>
       </c>
-      <c r="B174" s="105"/>
+      <c r="B174" s="106"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="106" t="s">
+      <c r="A175" s="107" t="s">
         <v>553</v>
       </c>
-      <c r="B175" s="104"/>
+      <c r="B175" s="105"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11719,10 +12556,10 @@
       <c r="B177" s="76"/>
     </row>
     <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="106" t="s">
+      <c r="A178" s="107" t="s">
         <v>552</v>
       </c>
-      <c r="B178" s="104"/>
+      <c r="B178" s="105"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -11803,10 +12640,10 @@
       <c r="B187" s="76"/>
     </row>
     <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="106" t="s">
+      <c r="A188" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="B188" s="104"/>
+      <c r="B188" s="105"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -11824,10 +12661,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="103" t="s">
+      <c r="A191" s="104" t="s">
         <v>579</v>
       </c>
-      <c r="B191" s="104"/>
+      <c r="B191" s="105"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
@@ -11862,17 +12699,17 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A196" s="105" t="s">
+      <c r="A196" s="106" t="s">
         <v>600</v>
       </c>
-      <c r="B196" s="105"/>
+      <c r="B196" s="106"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="103" t="s">
+      <c r="A197" s="104" t="s">
         <v>602</v>
       </c>
-      <c r="B197" s="104"/>
+      <c r="B197" s="105"/>
     </row>
     <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
@@ -11919,10 +12756,10 @@
       <c r="B203" s="99"/>
     </row>
     <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="103" t="s">
+      <c r="A204" s="104" t="s">
         <v>613</v>
       </c>
-      <c r="B204" s="104"/>
+      <c r="B204" s="105"/>
     </row>
     <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
@@ -11961,10 +12798,10 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="103" t="s">
+      <c r="A213" s="104" t="s">
         <v>615</v>
       </c>
-      <c r="B213" s="104"/>
+      <c r="B213" s="105"/>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
@@ -11975,10 +12812,10 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="103" t="s">
+      <c r="A215" s="104" t="s">
         <v>619</v>
       </c>
-      <c r="B215" s="104"/>
+      <c r="B215" s="105"/>
     </row>
     <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
@@ -11997,10 +12834,10 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="103" t="s">
+      <c r="A218" s="104" t="s">
         <v>618</v>
       </c>
-      <c r="B218" s="104"/>
+      <c r="B218" s="105"/>
     </row>
     <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="57" t="s">
@@ -12035,22 +12872,22 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A223" s="105" t="s">
+      <c r="A223" s="106" t="s">
         <v>634</v>
       </c>
-      <c r="B223" s="105"/>
+      <c r="B223" s="106"/>
     </row>
     <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A224" s="103" t="s">
+      <c r="A224" s="104" t="s">
         <v>636</v>
       </c>
-      <c r="B224" s="104"/>
+      <c r="B224" s="105"/>
     </row>
     <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="103" t="s">
+      <c r="A225" s="104" t="s">
         <v>635</v>
       </c>
-      <c r="B225" s="104"/>
+      <c r="B225" s="105"/>
     </row>
     <row r="226" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A226" s="57" t="s">
@@ -12061,10 +12898,10 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A227" s="103" t="s">
+      <c r="A227" s="104" t="s">
         <v>639</v>
       </c>
-      <c r="B227" s="104"/>
+      <c r="B227" s="105"/>
     </row>
     <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="57" t="s">
@@ -12107,10 +12944,10 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A233" s="103" t="s">
+      <c r="A233" s="104" t="s">
         <v>649</v>
       </c>
-      <c r="B233" s="104"/>
+      <c r="B233" s="105"/>
     </row>
     <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="57" t="s">
@@ -12121,10 +12958,10 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A235" s="103" t="s">
+      <c r="A235" s="104" t="s">
         <v>652</v>
       </c>
-      <c r="B235" s="104"/>
+      <c r="B235" s="105"/>
     </row>
     <row r="236" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A236" s="57" t="s">
@@ -12141,10 +12978,10 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A238" s="103" t="s">
+      <c r="A238" s="104" t="s">
         <v>656</v>
       </c>
-      <c r="B238" s="104"/>
+      <c r="B238" s="105"/>
     </row>
     <row r="239" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="57" t="s">
@@ -12291,10 +13128,10 @@
       </c>
     </row>
     <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A257" s="103" t="s">
+      <c r="A257" s="104" t="s">
         <v>693</v>
       </c>
-      <c r="B257" s="104"/>
+      <c r="B257" s="105"/>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="57" t="s">
@@ -12321,10 +13158,10 @@
       </c>
     </row>
     <row r="261" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A261" s="103" t="s">
+      <c r="A261" s="104" t="s">
         <v>701</v>
       </c>
-      <c r="B261" s="104"/>
+      <c r="B261" s="105"/>
     </row>
     <row r="262" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A262" s="57" t="s">
@@ -12334,93 +13171,171 @@
         <v>703</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="57"/>
-      <c r="B263" s="76"/>
-    </row>
-    <row r="264" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="57"/>
-      <c r="B264" s="76"/>
-    </row>
-    <row r="265" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="57"/>
-      <c r="B265" s="76"/>
-    </row>
-    <row r="266" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="57"/>
-      <c r="B266" s="76"/>
-    </row>
-    <row r="267" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="57"/>
-      <c r="B267" s="76"/>
-    </row>
-    <row r="268" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="57"/>
-      <c r="B268" s="76"/>
-    </row>
-    <row r="269" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="57"/>
-      <c r="B269" s="76"/>
-    </row>
-    <row r="270" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="57"/>
-      <c r="B270" s="76"/>
-    </row>
-    <row r="271" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="57"/>
-      <c r="B271" s="76"/>
-    </row>
-    <row r="272" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="57"/>
-      <c r="B272" s="76"/>
-    </row>
-    <row r="273" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="57"/>
-      <c r="B273" s="76"/>
-    </row>
-    <row r="274" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A274" s="57"/>
-      <c r="B274" s="76"/>
-    </row>
-    <row r="275" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A275" s="57"/>
-      <c r="B275" s="76"/>
+    <row r="263" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A263" s="106" t="s">
+        <v>704</v>
+      </c>
+      <c r="B263" s="106"/>
+    </row>
+    <row r="264" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A264" s="104" t="s">
+        <v>705</v>
+      </c>
+      <c r="B264" s="105"/>
+    </row>
+    <row r="265" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A265" s="57" t="s">
+        <v>705</v>
+      </c>
+      <c r="B265" s="76" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A266" s="57" t="s">
+        <v>708</v>
+      </c>
+      <c r="B266" s="123" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A267" s="57" t="s">
+        <v>710</v>
+      </c>
+      <c r="B267" s="123" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A268" s="57" t="s">
+        <v>712</v>
+      </c>
+      <c r="B268" s="76" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A269" s="104" t="s">
+        <v>714</v>
+      </c>
+      <c r="B269" s="105"/>
+    </row>
+    <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A270" s="57" t="s">
+        <v>715</v>
+      </c>
+      <c r="B270" s="123" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A271" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="B271" s="123" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A272" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="B272" s="123" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A273" s="57" t="s">
+        <v>721</v>
+      </c>
+      <c r="B273" s="123" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A274" s="104" t="s">
+        <v>706</v>
+      </c>
+      <c r="B274" s="105"/>
+    </row>
+    <row r="275" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A275" s="57" t="s">
+        <v>723</v>
+      </c>
+      <c r="B275" s="123" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="276" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="57"/>
-      <c r="B276" s="76"/>
-    </row>
-    <row r="277" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="57"/>
-      <c r="B277" s="76"/>
+      <c r="A276" s="57" t="s">
+        <v>725</v>
+      </c>
+      <c r="B276" s="76" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="57" t="s">
+        <v>727</v>
+      </c>
+      <c r="B277" s="76" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="278" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="57"/>
-      <c r="B278" s="76"/>
-    </row>
-    <row r="279" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="57"/>
-      <c r="B279" s="76"/>
-    </row>
-    <row r="280" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="57"/>
-      <c r="B280" s="76"/>
-    </row>
-    <row r="281" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="57"/>
-      <c r="B281" s="76"/>
-    </row>
-    <row r="282" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="57"/>
-      <c r="B282" s="76"/>
-    </row>
-    <row r="283" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A283" s="57"/>
-      <c r="B283" s="76"/>
-    </row>
-    <row r="284" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="57"/>
-      <c r="B284" s="76"/>
+      <c r="A278" s="57" t="s">
+        <v>729</v>
+      </c>
+      <c r="B278" s="76" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A279" s="57" t="s">
+        <v>731</v>
+      </c>
+      <c r="B279" s="123" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A280" s="57" t="s">
+        <v>733</v>
+      </c>
+      <c r="B280" s="76" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="104" t="s">
+        <v>735</v>
+      </c>
+      <c r="B281" s="105"/>
+    </row>
+    <row r="282" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A282" s="57" t="s">
+        <v>736</v>
+      </c>
+      <c r="B282" s="123" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A283" s="57" t="s">
+        <v>738</v>
+      </c>
+      <c r="B283" s="76" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A284" s="57" t="s">
+        <v>740</v>
+      </c>
+      <c r="B284" s="123" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="285" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A285" s="57"/>
@@ -12450,39 +13365,37 @@
       <c r="A291" s="57"/>
       <c r="B291" s="76"/>
     </row>
-    <row r="292" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A292" s="57"/>
-      <c r="B292" s="76"/>
-    </row>
-    <row r="293" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A293" s="57"/>
-      <c r="B293" s="76"/>
-    </row>
-    <row r="294" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A294" s="57"/>
-      <c r="B294" s="76"/>
-    </row>
-    <row r="295" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A295" s="57"/>
-      <c r="B295" s="76"/>
-    </row>
-    <row r="296" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="57"/>
-      <c r="B296" s="76"/>
-    </row>
-    <row r="297" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="57"/>
-      <c r="B297" s="76"/>
-    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A191:B191"/>
+  <mergeCells count="61">
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
@@ -12499,26 +13412,13 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A191:B191"/>
     <mergeCell ref="A197:B197"/>
     <mergeCell ref="A204:B204"/>
     <mergeCell ref="A213:B213"/>
@@ -12528,10 +13428,6 @@
     <mergeCell ref="A238:B238"/>
     <mergeCell ref="A257:B257"/>
     <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A233:B233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12953,7 +13849,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -12973,7 +13869,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
+      <c r="A2" s="120"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -13041,10 +13937,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="121"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="743">
   <si>
     <t>Операция</t>
   </si>
@@ -7299,17 +7299,34 @@
 Individual tables, views and columns can be targeted</t>
     </r>
   </si>
+  <si>
+    <t>CREATE TRIGGER tr_InsertAccountInfo ON Accounts FOR UPDATE
+AS
+DECLARE @NewSum MONEY = (SELECT Balance FROM inserted)
+DECLARE @OldSum MONEY = (SELECT Balance FROM deleted)
+DECLARE @AccountId INT = (SELECT Id FROM inserted)
+INSERT INTO Logs (AccountId, NewSum, OldSum)
+VALUES(@AccountId,@NewSum, @OldSum)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8077,42 +8094,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8127,91 +8144,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8226,73 +8243,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8301,55 +8318,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8361,74 +8378,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -11162,8 +11185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B284" sqref="B284"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11182,16 +11205,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="109"/>
+      <c r="B2" s="117"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="119" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="118"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -11218,10 +11241,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="118" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="108"/>
+      <c r="B7" s="116"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
@@ -11248,10 +11271,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="118" t="s">
         <v>519</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="116"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -11262,10 +11285,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="110"/>
+      <c r="B13" s="118"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -11324,10 +11347,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="118" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="110"/>
+      <c r="B21" s="118"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -11338,10 +11361,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="118" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="110"/>
+      <c r="B23" s="118"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -11352,10 +11375,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="118" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="110"/>
+      <c r="B25" s="118"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -11382,10 +11405,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="118" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="110"/>
+      <c r="B29" s="118"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -11412,10 +11435,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="108"/>
+      <c r="B33" s="116"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -11442,10 +11465,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="118" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="110"/>
+      <c r="B37" s="118"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -11472,10 +11495,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="108"/>
+      <c r="B41" s="116"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
@@ -11494,10 +11517,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="118" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="108"/>
+      <c r="B44" s="116"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -11524,19 +11547,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="107" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="106"/>
+      <c r="B48" s="107"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="108" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="105"/>
+      <c r="B49" s="106"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="115" t="s">
+      <c r="A50" s="113" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -11544,7 +11567,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="116"/>
+      <c r="A51" s="114"/>
       <c r="B51" s="62" t="s">
         <v>591</v>
       </c>
@@ -11553,13 +11576,13 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
+      <c r="A52" s="115"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="115" t="s">
+      <c r="A53" s="113" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -11567,25 +11590,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
+      <c r="A54" s="114"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="116"/>
+      <c r="A55" s="114"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
+      <c r="A56" s="115"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="113" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -11593,13 +11616,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="117"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="113" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -11610,7 +11633,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="116"/>
+      <c r="A60" s="114"/>
       <c r="B60" s="62" t="s">
         <v>527</v>
       </c>
@@ -11619,14 +11642,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="116"/>
+      <c r="A61" s="114"/>
       <c r="B61" s="62" t="s">
         <v>588</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="117"/>
+      <c r="A62" s="115"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
@@ -11680,7 +11703,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="110" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -11688,37 +11711,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="113"/>
+      <c r="A70" s="111"/>
       <c r="B70" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="113"/>
+      <c r="A71" s="111"/>
       <c r="B71" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="113"/>
+      <c r="A72" s="111"/>
       <c r="B72" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="113"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="62" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="114"/>
+      <c r="A74" s="112"/>
       <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="110" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="62" t="s">
@@ -11726,74 +11749,74 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="113"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="113"/>
+      <c r="A77" s="111"/>
       <c r="B77" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="113"/>
+      <c r="A78" s="111"/>
       <c r="B78" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="113"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="113"/>
+      <c r="A80" s="111"/>
       <c r="B80" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="113"/>
+      <c r="A81" s="111"/>
       <c r="B81" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="113"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="113"/>
+      <c r="A83" s="111"/>
       <c r="B83" s="81" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="113"/>
+      <c r="A84" s="111"/>
       <c r="B84" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="113"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="81" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="114"/>
+      <c r="A86" s="112"/>
       <c r="B86" s="81" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="112" t="s">
+      <c r="A87" s="110" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="82" t="s">
@@ -11801,28 +11824,28 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="113"/>
+      <c r="A88" s="111"/>
       <c r="B88" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="113"/>
+      <c r="A89" s="111"/>
       <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="114"/>
+      <c r="A90" s="112"/>
       <c r="B90" s="82" t="s">
         <v>546</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="112" t="s">
+      <c r="A91" s="110" t="s">
         <v>309</v>
       </c>
       <c r="B91" s="84" t="s">
@@ -11831,7 +11854,7 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="114"/>
+      <c r="A92" s="112"/>
       <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
@@ -11892,17 +11915,17 @@
       <c r="C98"/>
     </row>
     <row r="99" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="106" t="s">
+      <c r="A99" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="B99" s="106"/>
+      <c r="B99" s="107"/>
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A100" s="107" t="s">
+      <c r="A100" s="108" t="s">
         <v>389</v>
       </c>
-      <c r="B100" s="105"/>
+      <c r="B100" s="106"/>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -11933,10 +11956,10 @@
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="107" t="s">
+      <c r="A104" s="108" t="s">
         <v>396</v>
       </c>
-      <c r="B104" s="105"/>
+      <c r="B104" s="106"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -12084,10 +12107,10 @@
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="107" t="s">
+      <c r="A121" s="108" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="105"/>
+      <c r="B121" s="106"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -12172,10 +12195,10 @@
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A131" s="107" t="s">
+      <c r="A131" s="108" t="s">
         <v>499</v>
       </c>
-      <c r="B131" s="105"/>
+      <c r="B131" s="106"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -12269,10 +12292,10 @@
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="104" t="s">
+      <c r="A142" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="105"/>
+      <c r="B142" s="106"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -12303,10 +12326,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="104" t="s">
+      <c r="A146" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="105"/>
+      <c r="B146" s="106"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -12328,10 +12351,10 @@
       <c r="C148"/>
     </row>
     <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="104" t="s">
+      <c r="A149" s="105" t="s">
         <v>541</v>
       </c>
-      <c r="B149" s="105"/>
+      <c r="B149" s="106"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -12364,17 +12387,17 @@
       <c r="C152"/>
     </row>
     <row r="153" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="106" t="s">
+      <c r="A153" s="107" t="s">
         <v>472</v>
       </c>
-      <c r="B153" s="106"/>
+      <c r="B153" s="107"/>
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="107" t="s">
+      <c r="A154" s="108" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="105"/>
+      <c r="B154" s="106"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -12410,10 +12433,10 @@
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="104" t="s">
+      <c r="A160" s="105" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="118"/>
+      <c r="B160" s="109"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -12480,10 +12503,10 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="107" t="s">
+      <c r="A168" s="108" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="105"/>
+      <c r="B168" s="106"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -12505,10 +12528,10 @@
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="107" t="s">
+      <c r="A171" s="108" t="s">
         <v>474</v>
       </c>
-      <c r="B171" s="105"/>
+      <c r="B171" s="106"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -12530,17 +12553,17 @@
       <c r="C173"/>
     </row>
     <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="106" t="s">
+      <c r="A174" s="107" t="s">
         <v>552</v>
       </c>
-      <c r="B174" s="106"/>
+      <c r="B174" s="107"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="107" t="s">
+      <c r="A175" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="B175" s="105"/>
+      <c r="B175" s="106"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -12556,10 +12579,10 @@
       <c r="B177" s="76"/>
     </row>
     <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="107" t="s">
+      <c r="A178" s="108" t="s">
         <v>552</v>
       </c>
-      <c r="B178" s="105"/>
+      <c r="B178" s="106"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -12640,10 +12663,10 @@
       <c r="B187" s="76"/>
     </row>
     <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="107" t="s">
+      <c r="A188" s="108" t="s">
         <v>575</v>
       </c>
-      <c r="B188" s="105"/>
+      <c r="B188" s="106"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -12661,10 +12684,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="104" t="s">
+      <c r="A191" s="105" t="s">
         <v>579</v>
       </c>
-      <c r="B191" s="105"/>
+      <c r="B191" s="106"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
@@ -12699,17 +12722,17 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A196" s="106" t="s">
+      <c r="A196" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="B196" s="106"/>
+      <c r="B196" s="107"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="104" t="s">
+      <c r="A197" s="105" t="s">
         <v>602</v>
       </c>
-      <c r="B197" s="105"/>
+      <c r="B197" s="106"/>
     </row>
     <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
@@ -12756,10 +12779,10 @@
       <c r="B203" s="99"/>
     </row>
     <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="104" t="s">
+      <c r="A204" s="105" t="s">
         <v>613</v>
       </c>
-      <c r="B204" s="105"/>
+      <c r="B204" s="106"/>
     </row>
     <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
@@ -12798,10 +12821,10 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="104" t="s">
+      <c r="A213" s="105" t="s">
         <v>615</v>
       </c>
-      <c r="B213" s="105"/>
+      <c r="B213" s="106"/>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
@@ -12812,10 +12835,10 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="104" t="s">
+      <c r="A215" s="105" t="s">
         <v>619</v>
       </c>
-      <c r="B215" s="105"/>
+      <c r="B215" s="106"/>
     </row>
     <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
@@ -12834,10 +12857,10 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="104" t="s">
+      <c r="A218" s="105" t="s">
         <v>618</v>
       </c>
-      <c r="B218" s="105"/>
+      <c r="B218" s="106"/>
     </row>
     <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="57" t="s">
@@ -12872,22 +12895,22 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A223" s="106" t="s">
+      <c r="A223" s="107" t="s">
         <v>634</v>
       </c>
-      <c r="B223" s="106"/>
+      <c r="B223" s="107"/>
     </row>
     <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A224" s="104" t="s">
+      <c r="A224" s="105" t="s">
         <v>636</v>
       </c>
-      <c r="B224" s="105"/>
+      <c r="B224" s="106"/>
     </row>
     <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="104" t="s">
+      <c r="A225" s="105" t="s">
         <v>635</v>
       </c>
-      <c r="B225" s="105"/>
+      <c r="B225" s="106"/>
     </row>
     <row r="226" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A226" s="57" t="s">
@@ -12898,10 +12921,10 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A227" s="104" t="s">
+      <c r="A227" s="105" t="s">
         <v>639</v>
       </c>
-      <c r="B227" s="105"/>
+      <c r="B227" s="106"/>
     </row>
     <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="57" t="s">
@@ -12944,10 +12967,10 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A233" s="104" t="s">
+      <c r="A233" s="105" t="s">
         <v>649</v>
       </c>
-      <c r="B233" s="105"/>
+      <c r="B233" s="106"/>
     </row>
     <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="57" t="s">
@@ -12958,10 +12981,10 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A235" s="104" t="s">
+      <c r="A235" s="105" t="s">
         <v>652</v>
       </c>
-      <c r="B235" s="105"/>
+      <c r="B235" s="106"/>
     </row>
     <row r="236" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A236" s="57" t="s">
@@ -12978,10 +13001,10 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A238" s="104" t="s">
+      <c r="A238" s="105" t="s">
         <v>656</v>
       </c>
-      <c r="B238" s="105"/>
+      <c r="B238" s="106"/>
     </row>
     <row r="239" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="57" t="s">
@@ -13128,10 +13151,10 @@
       </c>
     </row>
     <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A257" s="104" t="s">
+      <c r="A257" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="B257" s="105"/>
+      <c r="B257" s="106"/>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="57" t="s">
@@ -13158,10 +13181,10 @@
       </c>
     </row>
     <row r="261" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A261" s="104" t="s">
+      <c r="A261" s="105" t="s">
         <v>701</v>
       </c>
-      <c r="B261" s="105"/>
+      <c r="B261" s="106"/>
     </row>
     <row r="262" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A262" s="57" t="s">
@@ -13172,16 +13195,16 @@
       </c>
     </row>
     <row r="263" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A263" s="106" t="s">
+      <c r="A263" s="107" t="s">
         <v>704</v>
       </c>
-      <c r="B263" s="106"/>
+      <c r="B263" s="107"/>
     </row>
     <row r="264" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A264" s="104" t="s">
+      <c r="A264" s="105" t="s">
         <v>705</v>
       </c>
-      <c r="B264" s="105"/>
+      <c r="B264" s="106"/>
     </row>
     <row r="265" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A265" s="57" t="s">
@@ -13195,7 +13218,7 @@
       <c r="A266" s="57" t="s">
         <v>708</v>
       </c>
-      <c r="B266" s="123" t="s">
+      <c r="B266" s="104" t="s">
         <v>709</v>
       </c>
     </row>
@@ -13203,7 +13226,7 @@
       <c r="A267" s="57" t="s">
         <v>710</v>
       </c>
-      <c r="B267" s="123" t="s">
+      <c r="B267" s="104" t="s">
         <v>711</v>
       </c>
     </row>
@@ -13216,16 +13239,16 @@
       </c>
     </row>
     <row r="269" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A269" s="104" t="s">
+      <c r="A269" s="105" t="s">
         <v>714</v>
       </c>
-      <c r="B269" s="105"/>
+      <c r="B269" s="106"/>
     </row>
     <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="57" t="s">
         <v>715</v>
       </c>
-      <c r="B270" s="123" t="s">
+      <c r="B270" s="104" t="s">
         <v>716</v>
       </c>
     </row>
@@ -13233,7 +13256,7 @@
       <c r="A271" s="57" t="s">
         <v>717</v>
       </c>
-      <c r="B271" s="123" t="s">
+      <c r="B271" s="104" t="s">
         <v>718</v>
       </c>
     </row>
@@ -13241,33 +13264,33 @@
       <c r="A272" s="57" t="s">
         <v>719</v>
       </c>
-      <c r="B272" s="123" t="s">
+      <c r="B272" s="104" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A273" s="57" t="s">
         <v>721</v>
       </c>
-      <c r="B273" s="123" t="s">
+      <c r="B273" s="104" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A274" s="104" t="s">
+    <row r="274" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A274" s="105" t="s">
         <v>706</v>
       </c>
-      <c r="B274" s="105"/>
-    </row>
-    <row r="275" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="B274" s="106"/>
+    </row>
+    <row r="275" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A275" s="57" t="s">
         <v>723</v>
       </c>
-      <c r="B275" s="123" t="s">
+      <c r="B275" s="124" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A276" s="57" t="s">
         <v>725</v>
       </c>
@@ -13275,7 +13298,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="57" t="s">
         <v>727</v>
       </c>
@@ -13283,7 +13306,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A278" s="57" t="s">
         <v>729</v>
       </c>
@@ -13291,15 +13314,18 @@
         <v>730</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A279" s="57" t="s">
         <v>731</v>
       </c>
-      <c r="B279" s="123" t="s">
+      <c r="B279" s="124" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="C279" s="125" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A280" s="57" t="s">
         <v>733</v>
       </c>
@@ -13307,21 +13333,21 @@
         <v>734</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="104" t="s">
+    <row r="281" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="105" t="s">
         <v>735</v>
       </c>
-      <c r="B281" s="105"/>
-    </row>
-    <row r="282" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="B281" s="106"/>
+    </row>
+    <row r="282" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A282" s="57" t="s">
         <v>736</v>
       </c>
-      <c r="B282" s="123" t="s">
+      <c r="B282" s="104" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" s="57" t="s">
         <v>738</v>
       </c>
@@ -13329,27 +13355,27 @@
         <v>739</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A284" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="B284" s="123" t="s">
+      <c r="B284" s="104" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A285" s="57"/>
       <c r="B285" s="76"/>
     </row>
-    <row r="286" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A286" s="57"/>
       <c r="B286" s="76"/>
     </row>
-    <row r="287" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A287" s="57"/>
       <c r="B287" s="76"/>
     </row>
-    <row r="288" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A288" s="57"/>
       <c r="B288" s="76"/>
     </row>
@@ -13367,35 +13393,18 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A191:B191"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
@@ -13412,22 +13421,39 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A263:B263"/>
     <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A215:B215"/>
     <mergeCell ref="A235:B235"/>
     <mergeCell ref="A238:B238"/>
     <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A223:B223"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13849,7 +13875,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -13869,7 +13895,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120"/>
+      <c r="A2" s="121"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -13937,10 +13963,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4947,9 +4947,6 @@
 FROM Employees</t>
   </si>
   <si>
-    <t>All T-SQL prior GO will execute "at once"</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">INSERT INTO mytable DEFAULT VALUES
 GO 10
@@ -7308,17 +7305,28 @@
 INSERT INTO Logs (AccountId, NewSum, OldSum)
 VALUES(@AccountId,@NewSum, @OldSum)</t>
   </si>
+  <si>
+    <t>All T-SQL prior GO will execute "at once" - Изпълнява кода преди GO и тогава продължи надолу по кода</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="53" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8094,42 +8102,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8144,91 +8152,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8243,73 +8251,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8318,55 +8326,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8378,80 +8386,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="22" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8546,7 +8554,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -8554,17 +8562,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -8618,7 +8615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8653,7 +8650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11185,8 +11182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11208,13 +11205,13 @@
       <c r="A2" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="117"/>
+      <c r="B2" s="112"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="114" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="118"/>
+      <c r="B3" s="113"/>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -11241,17 +11238,17 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="113" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="116"/>
+      <c r="B7" s="111"/>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
         <v>518</v>
       </c>
       <c r="B8" s="103" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -11271,10 +11268,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="113" t="s">
         <v>519</v>
       </c>
-      <c r="B11" s="116"/>
+      <c r="B11" s="111"/>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
@@ -11285,10 +11282,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="113"/>
     </row>
     <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
@@ -11340,17 +11337,17 @@
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="113" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="118"/>
+      <c r="B21" s="113"/>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -11361,10 +11358,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="118"/>
+      <c r="B23" s="113"/>
     </row>
     <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -11375,10 +11372,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="118"/>
+      <c r="B25" s="113"/>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -11405,10 +11402,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="118" t="s">
+      <c r="A29" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="118"/>
+      <c r="B29" s="113"/>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
@@ -11435,10 +11432,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="111" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="116"/>
+      <c r="B33" s="111"/>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
@@ -11461,14 +11458,14 @@
         <v>379</v>
       </c>
       <c r="B36" s="74" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="118"/>
+      <c r="B37" s="113"/>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -11495,17 +11492,17 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="116" t="s">
+      <c r="A41" s="111" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="116"/>
+      <c r="B41" s="111"/>
     </row>
     <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>376</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
@@ -11517,10 +11514,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="113" t="s">
         <v>512</v>
       </c>
-      <c r="B44" s="116"/>
+      <c r="B44" s="111"/>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -11553,13 +11550,13 @@
       <c r="B48" s="107"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="110" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="106"/>
+      <c r="B49" s="109"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="118" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -11567,22 +11564,22 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="114"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="62" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C51" s="66" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="115"/>
+      <c r="A52" s="120"/>
       <c r="B52" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="113" t="s">
+      <c r="A53" s="118" t="s">
         <v>322</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -11590,25 +11587,25 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="114"/>
+      <c r="A54" s="119"/>
       <c r="B54" s="62" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
+      <c r="A55" s="119"/>
       <c r="B55" s="62" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="115"/>
+      <c r="A56" s="120"/>
       <c r="B56" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="118" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -11616,13 +11613,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="115"/>
+      <c r="A58" s="120"/>
       <c r="B58" s="62" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="113" t="s">
+      <c r="A59" s="118" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -11633,7 +11630,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="62" t="s">
         <v>527</v>
       </c>
@@ -11642,24 +11639,24 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="114"/>
+      <c r="A61" s="119"/>
       <c r="B61" s="62" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C61" s="68"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="115"/>
+      <c r="A62" s="120"/>
       <c r="B62" s="62" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="102" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -11680,18 +11677,18 @@
     </row>
     <row r="66" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -11703,7 +11700,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="115" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -11711,37 +11708,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="111"/>
+      <c r="A70" s="116"/>
       <c r="B70" s="62" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="111"/>
+      <c r="A71" s="116"/>
       <c r="B71" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="111"/>
+      <c r="A72" s="116"/>
       <c r="B72" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="111"/>
+      <c r="A73" s="116"/>
       <c r="B73" s="62" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="112"/>
+      <c r="A74" s="117"/>
       <c r="B74" s="62" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="110" t="s">
+      <c r="A75" s="115" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="62" t="s">
@@ -11749,74 +11746,74 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="111"/>
+      <c r="A76" s="116"/>
       <c r="B76" s="62" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="111"/>
+      <c r="A77" s="116"/>
       <c r="B77" s="62" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="111"/>
+      <c r="A78" s="116"/>
       <c r="B78" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="111"/>
+      <c r="A79" s="116"/>
       <c r="B79" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="111"/>
+      <c r="A80" s="116"/>
       <c r="B80" s="81" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="111"/>
+      <c r="A81" s="116"/>
       <c r="B81" s="81" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="111"/>
+      <c r="A82" s="116"/>
       <c r="B82" s="81" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="111"/>
+      <c r="A83" s="116"/>
       <c r="B83" s="81" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="111"/>
+      <c r="A84" s="116"/>
       <c r="B84" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="111"/>
+      <c r="A85" s="116"/>
       <c r="B85" s="81" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="112"/>
+      <c r="A86" s="117"/>
       <c r="B86" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="110" t="s">
+      <c r="A87" s="115" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="82" t="s">
@@ -11824,28 +11821,28 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="111"/>
+      <c r="A88" s="116"/>
       <c r="B88" s="83" t="s">
         <v>307</v>
       </c>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="111"/>
+      <c r="A89" s="116"/>
       <c r="B89" s="83" t="s">
         <v>308</v>
       </c>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="112"/>
+      <c r="A90" s="117"/>
       <c r="B90" s="82" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="110" t="s">
+      <c r="A91" s="115" t="s">
         <v>309</v>
       </c>
       <c r="B91" s="84" t="s">
@@ -11854,7 +11851,7 @@
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="112"/>
+      <c r="A92" s="117"/>
       <c r="B92" s="84" t="s">
         <v>311</v>
       </c>
@@ -11892,16 +11889,16 @@
         <v>373</v>
       </c>
       <c r="B96" s="84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="90" t="s">
         <v>528</v>
       </c>
       <c r="B97" s="81" t="s">
-        <v>531</v>
+        <v>742</v>
       </c>
       <c r="C97"/>
     </row>
@@ -11922,10 +11919,10 @@
       <c r="C99"/>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A100" s="108" t="s">
+      <c r="A100" s="110" t="s">
         <v>389</v>
       </c>
-      <c r="B100" s="106"/>
+      <c r="B100" s="109"/>
       <c r="C100"/>
     </row>
     <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -11956,10 +11953,10 @@
       <c r="C103"/>
     </row>
     <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="108" t="s">
+      <c r="A104" s="110" t="s">
         <v>396</v>
       </c>
-      <c r="B104" s="106"/>
+      <c r="B104" s="109"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -12099,18 +12096,18 @@
     </row>
     <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="92" t="s">
+        <v>534</v>
+      </c>
+      <c r="B120" s="91" t="s">
         <v>535</v>
       </c>
-      <c r="B120" s="91" t="s">
-        <v>536</v>
-      </c>
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="108" t="s">
+      <c r="A121" s="110" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="106"/>
+      <c r="B121" s="109"/>
       <c r="C121"/>
     </row>
     <row r="122" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -12195,10 +12192,10 @@
       <c r="C130"/>
     </row>
     <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="110" t="s">
         <v>499</v>
       </c>
-      <c r="B131" s="106"/>
+      <c r="B131" s="109"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -12269,7 +12266,7 @@
         <v>459</v>
       </c>
       <c r="B139" s="97" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C139"/>
     </row>
@@ -12278,7 +12275,7 @@
         <v>460</v>
       </c>
       <c r="B140" s="97" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C140"/>
     </row>
@@ -12287,15 +12284,15 @@
         <v>461</v>
       </c>
       <c r="B141" s="97" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C141"/>
     </row>
     <row r="142" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="105" t="s">
+      <c r="A142" s="108" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="106"/>
+      <c r="B142" s="109"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -12326,10 +12323,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="105" t="s">
+      <c r="A146" s="108" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="106"/>
+      <c r="B146" s="109"/>
       <c r="C146"/>
     </row>
     <row r="147" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -12343,46 +12340,46 @@
     </row>
     <row r="148" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="B148" s="87" t="s">
         <v>539</v>
       </c>
-      <c r="B148" s="87" t="s">
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="108" t="s">
         <v>540</v>
       </c>
-      <c r="C148"/>
-    </row>
-    <row r="149" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="105" t="s">
-        <v>541</v>
-      </c>
-      <c r="B149" s="106"/>
+      <c r="B149" s="109"/>
       <c r="C149"/>
     </row>
     <row r="150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="57" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B150" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="57" t="s">
+        <v>542</v>
+      </c>
+      <c r="B151" s="76" t="s">
         <v>543</v>
-      </c>
-      <c r="B151" s="76" t="s">
-        <v>544</v>
       </c>
       <c r="C151"/>
     </row>
     <row r="152" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="57" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B152" s="98" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C152"/>
     </row>
@@ -12394,18 +12391,18 @@
       <c r="C153"/>
     </row>
     <row r="154" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="108" t="s">
+      <c r="A154" s="110" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="106"/>
+      <c r="B154" s="109"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A155" s="57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B155" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C155"/>
     </row>
@@ -12433,10 +12430,10 @@
       <c r="C159"/>
     </row>
     <row r="160" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="105" t="s">
+      <c r="A160" s="108" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="109"/>
+      <c r="B160" s="121"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -12503,10 +12500,10 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="108" t="s">
+      <c r="A168" s="110" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="106"/>
+      <c r="B168" s="109"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -12528,10 +12525,10 @@
       <c r="C170"/>
     </row>
     <row r="171" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="108" t="s">
+      <c r="A171" s="110" t="s">
         <v>474</v>
       </c>
-      <c r="B171" s="106"/>
+      <c r="B171" s="109"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -12554,24 +12551,24 @@
     </row>
     <row r="174" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="107" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B174" s="107"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A175" s="108" t="s">
-        <v>553</v>
-      </c>
-      <c r="B175" s="106"/>
+      <c r="A175" s="110" t="s">
+        <v>552</v>
+      </c>
+      <c r="B175" s="109"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="57" t="s">
+        <v>553</v>
+      </c>
+      <c r="B176" s="76" t="s">
         <v>554</v>
-      </c>
-      <c r="B176" s="76" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -12579,83 +12576,83 @@
       <c r="B177" s="76"/>
     </row>
     <row r="178" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="108" t="s">
-        <v>552</v>
-      </c>
-      <c r="B178" s="106"/>
+      <c r="A178" s="110" t="s">
+        <v>551</v>
+      </c>
+      <c r="B178" s="109"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A179" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="B179" s="76" t="s">
         <v>556</v>
-      </c>
-      <c r="B179" s="76" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A180" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="B180" s="76" t="s">
         <v>558</v>
-      </c>
-      <c r="B180" s="76" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="B181" s="76" t="s">
         <v>560</v>
-      </c>
-      <c r="B181" s="76" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B182" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="57" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B183" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A184" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="B184" s="80" t="s">
         <v>566</v>
       </c>
-      <c r="B184" s="80" t="s">
-        <v>567</v>
-      </c>
       <c r="C184" s="95" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="205.5" x14ac:dyDescent="0.25">
       <c r="A185" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="B185" s="80" t="s">
         <v>568</v>
       </c>
-      <c r="B185" s="80" t="s">
-        <v>569</v>
-      </c>
       <c r="C185" s="95" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A186" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="B186" s="76" t="s">
         <v>570</v>
       </c>
-      <c r="B186" s="76" t="s">
-        <v>571</v>
-      </c>
       <c r="C186" s="94" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -12663,115 +12660,115 @@
       <c r="B187" s="76"/>
     </row>
     <row r="188" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="108" t="s">
-        <v>575</v>
-      </c>
-      <c r="B188" s="106"/>
+      <c r="A188" s="110" t="s">
+        <v>574</v>
+      </c>
+      <c r="B188" s="109"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A189" s="57" t="s">
+        <v>575</v>
+      </c>
+      <c r="B189" s="76" t="s">
         <v>576</v>
-      </c>
-      <c r="B189" s="76" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="57"/>
       <c r="B190" s="76" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="108" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="105" t="s">
-        <v>579</v>
-      </c>
-      <c r="B191" s="106"/>
+      <c r="B191" s="109"/>
     </row>
     <row r="192" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B192" s="76" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A193" s="57" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B193" s="76" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A194" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B194" s="96" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A195" s="57" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B195" s="96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A196" s="107" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B196" s="107"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="105" t="s">
-        <v>602</v>
-      </c>
-      <c r="B197" s="106"/>
+      <c r="A197" s="108" t="s">
+        <v>601</v>
+      </c>
+      <c r="B197" s="109"/>
     </row>
     <row r="198" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
+        <v>602</v>
+      </c>
+      <c r="B198" s="100" t="s">
         <v>603</v>
-      </c>
-      <c r="B198" s="100" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A199" s="57" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B199" s="100" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A200" s="57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B200" s="100" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A201" s="57" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B201" s="101" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="57" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B202" s="100" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -12779,17 +12776,17 @@
       <c r="B203" s="99"/>
     </row>
     <row r="204" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="105" t="s">
-        <v>613</v>
-      </c>
-      <c r="B204" s="106"/>
+      <c r="A204" s="108" t="s">
+        <v>612</v>
+      </c>
+      <c r="B204" s="109"/>
     </row>
     <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B205" s="76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -12821,546 +12818,546 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="105" t="s">
-        <v>615</v>
-      </c>
-      <c r="B213" s="106"/>
+      <c r="A213" s="108" t="s">
+        <v>614</v>
+      </c>
+      <c r="B213" s="109"/>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
+        <v>615</v>
+      </c>
+      <c r="B214" s="76" t="s">
         <v>616</v>
       </c>
-      <c r="B214" s="76" t="s">
-        <v>617</v>
-      </c>
     </row>
     <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="105" t="s">
-        <v>619</v>
-      </c>
-      <c r="B215" s="106"/>
+      <c r="A215" s="108" t="s">
+        <v>618</v>
+      </c>
+      <c r="B215" s="109"/>
     </row>
     <row r="216" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
+        <v>619</v>
+      </c>
+      <c r="B216" s="76" t="s">
         <v>620</v>
-      </c>
-      <c r="B216" s="76" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A217" s="57" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B217" s="76" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="105" t="s">
-        <v>618</v>
-      </c>
-      <c r="B218" s="106"/>
+      <c r="A218" s="108" t="s">
+        <v>617</v>
+      </c>
+      <c r="B218" s="109"/>
     </row>
     <row r="219" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B219" s="80" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A220" s="57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B220" s="76" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A221" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="B221" s="76" t="s">
         <v>625</v>
-      </c>
-      <c r="B221" s="76" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="57" t="s">
+        <v>628</v>
+      </c>
+      <c r="B222" s="76" t="s">
         <v>629</v>
-      </c>
-      <c r="B222" s="76" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A223" s="107" t="s">
+        <v>633</v>
+      </c>
+      <c r="B223" s="107"/>
+    </row>
+    <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A224" s="108" t="s">
+        <v>635</v>
+      </c>
+      <c r="B224" s="109"/>
+    </row>
+    <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="108" t="s">
         <v>634</v>
       </c>
-      <c r="B223" s="107"/>
-    </row>
-    <row r="224" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A224" s="105" t="s">
-        <v>636</v>
-      </c>
-      <c r="B224" s="106"/>
-    </row>
-    <row r="225" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="105" t="s">
-        <v>635</v>
-      </c>
-      <c r="B225" s="106"/>
+      <c r="B225" s="109"/>
     </row>
     <row r="226" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A226" s="57" t="s">
+        <v>636</v>
+      </c>
+      <c r="B226" s="76" t="s">
         <v>637</v>
       </c>
-      <c r="B226" s="76" t="s">
+    </row>
+    <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A227" s="108" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A227" s="105" t="s">
-        <v>639</v>
-      </c>
-      <c r="B227" s="106"/>
+      <c r="B227" s="109"/>
     </row>
     <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="57" t="s">
         <v>394</v>
       </c>
       <c r="B228" s="76" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A229" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="B229" s="76" t="s">
         <v>641</v>
-      </c>
-      <c r="B229" s="76" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A230" s="57" t="s">
+        <v>642</v>
+      </c>
+      <c r="B230" s="76" t="s">
         <v>643</v>
-      </c>
-      <c r="B230" s="76" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="57" t="s">
+        <v>644</v>
+      </c>
+      <c r="B231" s="76" t="s">
         <v>645</v>
-      </c>
-      <c r="B231" s="76" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A232" s="57" t="s">
+        <v>646</v>
+      </c>
+      <c r="B232" s="76" t="s">
         <v>647</v>
       </c>
-      <c r="B232" s="76" t="s">
+    </row>
+    <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A233" s="108" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A233" s="105" t="s">
-        <v>649</v>
-      </c>
-      <c r="B233" s="106"/>
+      <c r="B233" s="109"/>
     </row>
     <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="57" t="s">
+        <v>649</v>
+      </c>
+      <c r="B234" s="76" t="s">
         <v>650</v>
       </c>
-      <c r="B234" s="76" t="s">
+    </row>
+    <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A235" s="108" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A235" s="105" t="s">
-        <v>652</v>
-      </c>
-      <c r="B235" s="106"/>
+      <c r="B235" s="109"/>
     </row>
     <row r="236" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A236" s="57" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B236" s="76"/>
     </row>
     <row r="237" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A237" s="57" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B237" s="76" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A238" s="108" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A238" s="105" t="s">
-        <v>656</v>
-      </c>
-      <c r="B238" s="106"/>
+      <c r="B238" s="109"/>
     </row>
     <row r="239" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="57" t="s">
+        <v>656</v>
+      </c>
+      <c r="B239" s="76" t="s">
         <v>657</v>
-      </c>
-      <c r="B239" s="76" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="57" t="s">
+        <v>658</v>
+      </c>
+      <c r="B240" s="76" t="s">
         <v>659</v>
-      </c>
-      <c r="B240" s="76" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="57" t="s">
+        <v>660</v>
+      </c>
+      <c r="B241" s="76" t="s">
         <v>661</v>
-      </c>
-      <c r="B241" s="76" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A242" s="57" t="s">
+        <v>662</v>
+      </c>
+      <c r="B242" s="76" t="s">
         <v>663</v>
-      </c>
-      <c r="B242" s="76" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A243" s="57" t="s">
+        <v>664</v>
+      </c>
+      <c r="B243" s="76" t="s">
         <v>665</v>
-      </c>
-      <c r="B243" s="76" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="57" t="s">
+        <v>666</v>
+      </c>
+      <c r="B244" s="76" t="s">
         <v>667</v>
-      </c>
-      <c r="B244" s="76" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A245" s="57" t="s">
+        <v>668</v>
+      </c>
+      <c r="B245" s="76" t="s">
         <v>669</v>
-      </c>
-      <c r="B245" s="76" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A246" s="57" t="s">
+        <v>670</v>
+      </c>
+      <c r="B246" s="76" t="s">
         <v>671</v>
-      </c>
-      <c r="B246" s="76" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A247" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="B247" s="76" t="s">
         <v>673</v>
-      </c>
-      <c r="B247" s="76" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A248" s="57" t="s">
+        <v>674</v>
+      </c>
+      <c r="B248" s="76" t="s">
         <v>675</v>
-      </c>
-      <c r="B248" s="76" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A249" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="B249" s="76" t="s">
         <v>677</v>
-      </c>
-      <c r="B249" s="76" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A250" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="B250" s="76" t="s">
         <v>679</v>
-      </c>
-      <c r="B250" s="76" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="B251" s="76" t="s">
         <v>681</v>
-      </c>
-      <c r="B251" s="76" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A252" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="B252" s="76" t="s">
         <v>683</v>
-      </c>
-      <c r="B252" s="76" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="B253" s="76" t="s">
         <v>685</v>
-      </c>
-      <c r="B253" s="76" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="57" t="s">
+        <v>686</v>
+      </c>
+      <c r="B254" s="76" t="s">
         <v>687</v>
-      </c>
-      <c r="B254" s="76" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A255" s="57" t="s">
+        <v>688</v>
+      </c>
+      <c r="B255" s="76" t="s">
         <v>689</v>
-      </c>
-      <c r="B255" s="76" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A256" s="57" t="s">
+        <v>690</v>
+      </c>
+      <c r="B256" s="76" t="s">
         <v>691</v>
       </c>
-      <c r="B256" s="76" t="s">
+    </row>
+    <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A257" s="108" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A257" s="105" t="s">
-        <v>693</v>
-      </c>
-      <c r="B257" s="106"/>
+      <c r="B257" s="109"/>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="57" t="s">
+        <v>693</v>
+      </c>
+      <c r="B258" s="76" t="s">
         <v>694</v>
-      </c>
-      <c r="B258" s="76" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="57" t="s">
+        <v>695</v>
+      </c>
+      <c r="B259" s="76" t="s">
         <v>696</v>
-      </c>
-      <c r="B259" s="76" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A260" s="57" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B260" s="76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A261" s="105" t="s">
-        <v>701</v>
-      </c>
-      <c r="B261" s="106"/>
+      <c r="A261" s="108" t="s">
+        <v>700</v>
+      </c>
+      <c r="B261" s="109"/>
     </row>
     <row r="262" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A262" s="57" t="s">
+        <v>701</v>
+      </c>
+      <c r="B262" s="76" t="s">
         <v>702</v>
-      </c>
-      <c r="B262" s="76" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A263" s="107" t="s">
+        <v>703</v>
+      </c>
+      <c r="B263" s="107"/>
+    </row>
+    <row r="264" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A264" s="108" t="s">
         <v>704</v>
       </c>
-      <c r="B263" s="107"/>
-    </row>
-    <row r="264" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A264" s="105" t="s">
-        <v>705</v>
-      </c>
-      <c r="B264" s="106"/>
+      <c r="B264" s="109"/>
     </row>
     <row r="265" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A265" s="57" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B265" s="76" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A266" s="57" t="s">
+        <v>707</v>
+      </c>
+      <c r="B266" s="104" t="s">
         <v>708</v>
-      </c>
-      <c r="B266" s="104" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A267" s="57" t="s">
+        <v>709</v>
+      </c>
+      <c r="B267" s="104" t="s">
         <v>710</v>
-      </c>
-      <c r="B267" s="104" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A268" s="57" t="s">
+        <v>711</v>
+      </c>
+      <c r="B268" s="76" t="s">
         <v>712</v>
       </c>
-      <c r="B268" s="76" t="s">
+    </row>
+    <row r="269" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A269" s="108" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A269" s="105" t="s">
-        <v>714</v>
-      </c>
-      <c r="B269" s="106"/>
+      <c r="B269" s="109"/>
     </row>
     <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="57" t="s">
+        <v>714</v>
+      </c>
+      <c r="B270" s="104" t="s">
         <v>715</v>
-      </c>
-      <c r="B270" s="104" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A271" s="57" t="s">
+        <v>716</v>
+      </c>
+      <c r="B271" s="104" t="s">
         <v>717</v>
-      </c>
-      <c r="B271" s="104" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A272" s="57" t="s">
+        <v>718</v>
+      </c>
+      <c r="B272" s="104" t="s">
         <v>719</v>
-      </c>
-      <c r="B272" s="104" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A273" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="B273" s="104" t="s">
         <v>721</v>
       </c>
-      <c r="B273" s="104" t="s">
-        <v>722</v>
-      </c>
     </row>
     <row r="274" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A274" s="105" t="s">
-        <v>706</v>
-      </c>
-      <c r="B274" s="106"/>
+      <c r="A274" s="108" t="s">
+        <v>705</v>
+      </c>
+      <c r="B274" s="109"/>
     </row>
     <row r="275" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A275" s="57" t="s">
+        <v>722</v>
+      </c>
+      <c r="B275" s="105" t="s">
         <v>723</v>
-      </c>
-      <c r="B275" s="124" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A276" s="57" t="s">
+        <v>724</v>
+      </c>
+      <c r="B276" s="76" t="s">
         <v>725</v>
-      </c>
-      <c r="B276" s="76" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="B277" s="76" t="s">
         <v>727</v>
-      </c>
-      <c r="B277" s="76" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A278" s="57" t="s">
+        <v>728</v>
+      </c>
+      <c r="B278" s="76" t="s">
         <v>729</v>
-      </c>
-      <c r="B278" s="76" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A279" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="B279" s="105" t="s">
         <v>731</v>
       </c>
-      <c r="B279" s="124" t="s">
-        <v>732</v>
-      </c>
-      <c r="C279" s="125" t="s">
-        <v>742</v>
+      <c r="C279" s="106" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A280" s="57" t="s">
+        <v>732</v>
+      </c>
+      <c r="B280" s="76" t="s">
         <v>733</v>
       </c>
-      <c r="B280" s="76" t="s">
+    </row>
+    <row r="281" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="108" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="105" t="s">
-        <v>735</v>
-      </c>
-      <c r="B281" s="106"/>
+      <c r="B281" s="109"/>
     </row>
     <row r="282" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A282" s="57" t="s">
+        <v>735</v>
+      </c>
+      <c r="B282" s="104" t="s">
         <v>736</v>
-      </c>
-      <c r="B282" s="104" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" s="57" t="s">
+        <v>737</v>
+      </c>
+      <c r="B283" s="76" t="s">
         <v>738</v>
-      </c>
-      <c r="B283" s="76" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A284" s="57" t="s">
+        <v>739</v>
+      </c>
+      <c r="B284" s="104" t="s">
         <v>740</v>
-      </c>
-      <c r="B284" s="104" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -13393,18 +13390,39 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
@@ -13421,39 +13439,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A215:B215"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13875,7 +13872,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -13895,7 +13892,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
+      <c r="A2" s="123"/>
       <c r="B2" s="23" t="s">
         <v>172</v>
       </c>
@@ -13963,10 +13960,10 @@
     </row>
     <row r="6" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="123"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>

--- a/C#-Hints.xlsx
+++ b/C#-Hints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13740" activeTab="1"/>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7312,7 +7312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8404,29 +8404,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="22" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8446,8 +8437,17 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="22" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="22" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8554,7 +8554,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -8562,6 +8562,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <